--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Desktop\swgoh\shard-payout-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6A28CC3D-185F-4A1C-945B-0A7A45CDD8DE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{46B6645A-7506-4B9A-9B6E-00ADAB4929E5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>Ginting</t>
+  </si>
+  <si>
+    <t>puppy juicer</t>
   </si>
 </sst>
 </file>
@@ -699,15 +702,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -717,6 +711,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1062,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,20 +1153,20 @@
         <v>0</v>
       </c>
       <c r="T1" s="5">
-        <f>H44</f>
+        <f>H45</f>
         <v>0</v>
       </c>
       <c r="U1" s="5">
-        <f>H48</f>
+        <f>H49</f>
         <v>0</v>
       </c>
       <c r="V1" s="5">
-        <f>H52</f>
+        <f>H53</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -1231,7 +1234,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
@@ -1297,7 +1300,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="17" t="s">
         <v>78</v>
       </c>
@@ -1363,7 +1366,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="17" t="s">
         <v>56</v>
       </c>
@@ -1429,7 +1432,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="18" t="s">
         <v>29</v>
       </c>
@@ -1495,7 +1498,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="18" t="s">
         <v>71</v>
       </c>
@@ -1561,7 +1564,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="40" t="s">
         <v>62</v>
       </c>
@@ -1627,7 +1630,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="17" t="s">
         <v>86</v>
       </c>
@@ -1642,7 +1645,7 @@
       <c r="I9" s="8">
         <v>0.5</v>
       </c>
-      <c r="J9" s="53"/>
+      <c r="J9" s="50"/>
       <c r="K9" s="14">
         <f>$I9+Sheet2!B$1/24</f>
         <v>0.91666666666666674</v>
@@ -1693,22 +1696,22 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51">
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48">
         <v>0.5</v>
       </c>
-      <c r="J10" s="52"/>
+      <c r="J10" s="49"/>
       <c r="K10" s="14">
         <f>$I10+Sheet2!B$1/24</f>
         <v>0.91666666666666674</v>
@@ -1759,7 +1762,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="51" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="32" t="s">
@@ -1827,7 +1830,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="17" t="s">
         <v>31</v>
       </c>
@@ -1893,7 +1896,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="17" t="s">
         <v>33</v>
       </c>
@@ -1959,7 +1962,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="17" t="s">
         <v>32</v>
       </c>
@@ -2025,7 +2028,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="17" t="s">
         <v>36</v>
       </c>
@@ -2091,7 +2094,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="17" t="s">
         <v>35</v>
       </c>
@@ -2158,7 +2161,7 @@
       <c r="X16" s="4"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="17" t="s">
         <v>34</v>
       </c>
@@ -2224,7 +2227,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="41" t="s">
         <v>79</v>
       </c>
@@ -2290,7 +2293,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="17" t="s">
         <v>42</v>
       </c>
@@ -2356,7 +2359,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="17" t="s">
         <v>38</v>
       </c>
@@ -2422,7 +2425,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="17" t="s">
         <v>57</v>
       </c>
@@ -2488,7 +2491,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="17" t="s">
         <v>37</v>
       </c>
@@ -2554,7 +2557,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="17" t="s">
         <v>40</v>
       </c>
@@ -2620,7 +2623,7 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="17" t="s">
         <v>58</v>
       </c>
@@ -2686,7 +2689,7 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="17" t="s">
         <v>83</v>
       </c>
@@ -2752,7 +2755,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="42" t="s">
         <v>39</v>
       </c>
@@ -2818,7 +2821,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="18" t="s">
         <v>63</v>
       </c>
@@ -2884,7 +2887,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="40" t="s">
         <v>65</v>
       </c>
@@ -2950,7 +2953,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="40" t="s">
         <v>82</v>
       </c>
@@ -3016,7 +3019,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="40" t="s">
         <v>64</v>
       </c>
@@ -3082,7 +3085,7 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="40" t="s">
         <v>81</v>
       </c>
@@ -3148,7 +3151,7 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="40" t="s">
         <v>66</v>
       </c>
@@ -3214,7 +3217,7 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="47"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="27" t="s">
         <v>41</v>
       </c>
@@ -3280,7 +3283,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="52" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="23" t="s">
@@ -3348,7 +3351,7 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="17" t="s">
         <v>44</v>
       </c>
@@ -3414,7 +3417,7 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="17" t="s">
         <v>74</v>
       </c>
@@ -3480,7 +3483,7 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="17" t="s">
         <v>85</v>
       </c>
@@ -3546,7 +3549,7 @@
       </c>
     </row>
     <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="17" t="s">
         <v>55</v>
       </c>
@@ -3612,7 +3615,7 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="41" t="s">
         <v>68</v>
       </c>
@@ -3678,7 +3681,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="41" t="s">
         <v>70</v>
       </c>
@@ -3744,7 +3747,7 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="41" t="s">
         <v>73</v>
       </c>
@@ -3810,9 +3813,9 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="41" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -3876,75 +3879,75 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="17" t="s">
-        <v>45</v>
+      <c r="A43" s="52"/>
+      <c r="B43" s="41" t="s">
+        <v>69</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="26">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J43" s="10"/>
       <c r="K43" s="14">
         <f>$I43+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L43" s="14">
         <f>$I43+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M43" s="14">
         <f>$I43+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N43" s="14">
         <f>$I43+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O43" s="14">
         <f>$I43+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P43" s="14">
         <f>$I43+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q43" s="14">
         <f>$I43+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R43" s="14">
         <f>$I43+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S43" s="14">
         <f>$I43+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T43" s="14">
         <f>$I43+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U43" s="14">
         <f>$I43+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V43" s="16">
         <f>$I43+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -3954,7 +3957,7 @@
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="8">
+      <c r="I44" s="26">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J44" s="10"/>
@@ -4008,9 +4011,9 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -4074,15 +4077,15 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="46"/>
-      <c r="B46" s="41" t="s">
-        <v>75</v>
+      <c r="A46" s="52"/>
+      <c r="B46" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -4140,75 +4143,75 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
-      <c r="B47" s="17" t="s">
-        <v>48</v>
+      <c r="A47" s="52"/>
+      <c r="B47" s="41" t="s">
+        <v>75</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="G47" s="7"/>
-      <c r="H47" s="6"/>
+      <c r="H47" s="7"/>
       <c r="I47" s="8">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="14">
         <f>$I47+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L47" s="14">
         <f>$I47+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M47" s="14">
         <f>$I47+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N47" s="14">
         <f>$I47+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O47" s="14">
         <f>$I47+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P47" s="14">
         <f>$I47+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q47" s="14">
         <f>$I47+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="R47" s="14">
         <f>$I47+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S47" s="14">
         <f>$I47+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T47" s="14">
         <f>$I47+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U47" s="14">
         <f>$I47+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V47" s="16">
         <f>$I47+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -4217,7 +4220,7 @@
         <v>19</v>
       </c>
       <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="H48" s="6"/>
       <c r="I48" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -4272,15 +4275,15 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
-      <c r="B49" s="41" t="s">
-        <v>77</v>
+      <c r="A49" s="52"/>
+      <c r="B49" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -4338,88 +4341,88 @@
       </c>
     </row>
     <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
-      <c r="B50" s="17" t="s">
-        <v>49</v>
+      <c r="A50" s="52"/>
+      <c r="B50" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="8">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J50" s="10"/>
       <c r="K50" s="14">
         <f>$I50+Sheet2!B$1/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="L50" s="14">
         <f>$I50+Sheet2!B$2/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="M50" s="14">
         <f>$I50+Sheet2!B$3/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="N50" s="14">
         <f>$I50+Sheet2!B$4/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="O50" s="14">
         <f>$I50+Sheet2!B$5/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="P50" s="14">
         <f>$I50+Sheet2!B$6/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="Q50" s="14">
         <f>$I50+Sheet2!B$7/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R50" s="14">
         <f>$I50+Sheet2!B$8/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="S50" s="14">
         <f>$I50+Sheet2!B$9/24</f>
-        <v>-4.1666666666666657E-2</v>
+        <v>-8.3333333333333329E-2</v>
       </c>
       <c r="T50" s="14">
         <f>$I50+Sheet2!B$10/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="U50" s="14">
         <f>$I50+Sheet2!B$11/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="V50" s="16">
         <f>$I50+Sheet2!B$12/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333337</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
-      <c r="B51" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
       <c r="I51" s="8">
         <v>0.125</v>
       </c>
-      <c r="J51" s="22"/>
+      <c r="J51" s="10"/>
       <c r="K51" s="14">
         <f>$I51+Sheet2!B$1/24</f>
         <v>0.54166666666666674</v>
@@ -4470,19 +4473,19 @@
       </c>
     </row>
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
-      <c r="B52" s="40" t="s">
-        <v>67</v>
+      <c r="A52" s="52"/>
+      <c r="B52" s="44" t="s">
+        <v>50</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
       <c r="F52" s="6" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G52" s="20"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="21">
+      <c r="H52" s="20"/>
+      <c r="I52" s="8">
         <v>0.125</v>
       </c>
       <c r="J52" s="22"/>
@@ -4532,6 +4535,72 @@
       </c>
       <c r="V52" s="16">
         <f>$I52+Sheet2!B$12/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="52"/>
+      <c r="B53" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="20"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="21">
+        <v>0.125</v>
+      </c>
+      <c r="J53" s="22"/>
+      <c r="K53" s="14">
+        <f>$I53+Sheet2!B$1/24</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="L53" s="14">
+        <f>$I53+Sheet2!B$2/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="M53" s="14">
+        <f>$I53+Sheet2!B$3/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="N53" s="14">
+        <f>$I53+Sheet2!B$4/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="O53" s="14">
+        <f>$I53+Sheet2!B$5/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="P53" s="14">
+        <f>$I53+Sheet2!B$6/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q53" s="14">
+        <f>$I53+Sheet2!B$7/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="R53" s="14">
+        <f>$I53+Sheet2!B$8/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S53" s="14">
+        <f>$I53+Sheet2!B$9/24</f>
+        <v>-4.1666666666666657E-2</v>
+      </c>
+      <c r="T53" s="14">
+        <f>$I53+Sheet2!B$10/24</f>
+        <v>-8.3333333333333343E-2</v>
+      </c>
+      <c r="U53" s="14">
+        <f>$I53+Sheet2!B$11/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="V53" s="16">
+        <f>$I53+Sheet2!B$12/24</f>
         <v>-0.16666666666666669</v>
       </c>
     </row>
@@ -4540,30 +4609,30 @@
     <sortCondition ref="B27"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
     <mergeCell ref="A11:A33"/>
-    <mergeCell ref="A34:A52"/>
+    <mergeCell ref="A34:A53"/>
     <mergeCell ref="A2:A10"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L2 K3:V52">
+  <conditionalFormatting sqref="K2:L2 K3:V53">
     <cfRule type="expression" dxfId="2" priority="17">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:V52">
+  <conditionalFormatting sqref="K2:V53">
     <cfRule type="expression" dxfId="1" priority="19">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:V52">
+  <conditionalFormatting sqref="B2:V53">
     <cfRule type="expression" dxfId="0" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Desktop\swgoh\shard-payout-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{46B6645A-7506-4B9A-9B6E-00ADAB4929E5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9B7634D0-4032-4D71-AC92-BDDDD0E8BF8D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -249,9 +249,6 @@
     <t>DavraMcRay</t>
   </si>
   <si>
-    <t>Pistolpete</t>
-  </si>
-  <si>
     <t>:flag_white:</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
   </si>
   <si>
     <t>puppy juicer</t>
+  </si>
+  <si>
+    <t>dingo slayer</t>
   </si>
 </sst>
 </file>
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,13 +1302,13 @@
     <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
       <c r="B4" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -1500,13 +1500,13 @@
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52"/>
       <c r="B7" s="18" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="20"/>
@@ -1632,13 +1632,13 @@
     <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52"/>
       <c r="B9" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -2229,7 +2229,7 @@
     <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="52"/>
       <c r="B18" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -2565,7 +2565,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -2691,7 +2691,7 @@
     <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
       <c r="B25" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -2763,7 +2763,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2829,7 +2829,7 @@
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
@@ -2955,7 +2955,7 @@
     <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="52"/>
       <c r="B29" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -3087,7 +3087,7 @@
     <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
       <c r="B31" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -3419,7 +3419,7 @@
     <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="52"/>
       <c r="B36" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -3485,7 +3485,7 @@
     <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="52"/>
       <c r="B37" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -3749,7 +3749,7 @@
     <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="52"/>
       <c r="B41" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -3815,7 +3815,7 @@
     <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="52"/>
       <c r="B42" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -4145,7 +4145,7 @@
     <row r="47" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="52"/>
       <c r="B47" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -4343,7 +4343,7 @@
     <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="52"/>
       <c r="B50" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -4481,7 +4481,7 @@
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
       <c r="F52" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
@@ -4609,11 +4609,11 @@
     <sortCondition ref="B27"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
+      <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
-      <selection sqref="A1:XFD1048576"/>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Desktop\swgoh\shard-payout-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9B7634D0-4032-4D71-AC92-BDDDD0E8BF8D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{41ED1B79-66D6-4107-A779-310D73A09674}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>dingo slayer</t>
+  </si>
+  <si>
+    <t>HBP</t>
   </si>
 </sst>
 </file>
@@ -1065,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X53"/>
+  <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="V1" s="5">
-        <f>H53</f>
+        <f>H54</f>
         <v>0</v>
       </c>
     </row>
@@ -4541,7 +4544,7 @@
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="52"/>
       <c r="B53" s="40" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
@@ -4550,11 +4553,11 @@
         <v>60</v>
       </c>
       <c r="G53" s="20"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="21">
+      <c r="H53" s="20"/>
+      <c r="I53" s="8">
         <v>0.125</v>
       </c>
-      <c r="J53" s="22"/>
+      <c r="J53" s="10"/>
       <c r="K53" s="14">
         <f>$I53+Sheet2!B$1/24</f>
         <v>0.54166666666666674</v>
@@ -4601,6 +4604,72 @@
       </c>
       <c r="V53" s="16">
         <f>$I53+Sheet2!B$12/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="52"/>
+      <c r="B54" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" s="20"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="21">
+        <v>0.125</v>
+      </c>
+      <c r="J54" s="22"/>
+      <c r="K54" s="14">
+        <f>$I54+Sheet2!B$1/24</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="L54" s="14">
+        <f>$I54+Sheet2!B$2/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="M54" s="14">
+        <f>$I54+Sheet2!B$3/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="N54" s="14">
+        <f>$I54+Sheet2!B$4/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="O54" s="14">
+        <f>$I54+Sheet2!B$5/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="P54" s="14">
+        <f>$I54+Sheet2!B$6/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q54" s="14">
+        <f>$I54+Sheet2!B$7/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="R54" s="14">
+        <f>$I54+Sheet2!B$8/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S54" s="14">
+        <f>$I54+Sheet2!B$9/24</f>
+        <v>-4.1666666666666657E-2</v>
+      </c>
+      <c r="T54" s="14">
+        <f>$I54+Sheet2!B$10/24</f>
+        <v>-8.3333333333333343E-2</v>
+      </c>
+      <c r="U54" s="14">
+        <f>$I54+Sheet2!B$11/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="V54" s="16">
+        <f>$I54+Sheet2!B$12/24</f>
         <v>-0.16666666666666669</v>
       </c>
     </row>
@@ -4609,30 +4678,30 @@
     <sortCondition ref="B27"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
     <mergeCell ref="A11:A33"/>
-    <mergeCell ref="A34:A53"/>
+    <mergeCell ref="A34:A54"/>
     <mergeCell ref="A2:A10"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L2 K3:V53">
+  <conditionalFormatting sqref="K2:L2 K3:V54">
     <cfRule type="expression" dxfId="2" priority="17">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:V53">
+  <conditionalFormatting sqref="K2:V54">
     <cfRule type="expression" dxfId="1" priority="19">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:V53">
+  <conditionalFormatting sqref="B2:V54">
     <cfRule type="expression" dxfId="0" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Desktop\swgoh\shard-payout-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{41ED1B79-66D6-4107-A779-310D73A09674}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A175EDD4-DE9A-4BD8-8ECD-27FD669C4CF3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -297,10 +297,13 @@
     <t>puppy juicer</t>
   </si>
   <si>
-    <t>dingo slayer</t>
-  </si>
-  <si>
     <t>HBP</t>
+  </si>
+  <si>
+    <t>pistolpete</t>
+  </si>
+  <si>
+    <t>:flag_kr:</t>
   </si>
 </sst>
 </file>
@@ -1070,24 +1073,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="22" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="22" width="5.5703125" style="3" hidden="1" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -1311,7 +1314,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -1503,7 +1506,7 @@
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52"/>
       <c r="B7" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -4544,7 +4547,7 @@
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="52"/>
       <c r="B53" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Desktop\swgoh\shard-payout-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A175EDD4-DE9A-4BD8-8ECD-27FD669C4CF3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{458B5040-01E3-450B-9F07-281506B4CCEA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Apocalyptic</t>
   </si>
   <si>
-    <t>Pitxu</t>
-  </si>
-  <si>
     <t>Geohound</t>
   </si>
   <si>
@@ -304,6 +301,12 @@
   </si>
   <si>
     <t>:flag_kr:</t>
+  </si>
+  <si>
+    <t>Choler</t>
+  </si>
+  <si>
+    <t>Tektonik</t>
   </si>
 </sst>
 </file>
@@ -313,7 +316,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,14 +378,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -644,7 +639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -705,9 +700,8 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -715,7 +709,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1071,26 +1065,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X54"/>
+  <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="3" customWidth="1"/>
     <col min="9" max="9" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="22" width="5.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="3" customWidth="1"/>
+    <col min="12" max="22" width="5.5703125" style="3" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -1151,38 +1145,38 @@
         <v>0</v>
       </c>
       <c r="R1" s="5">
-        <f>H33</f>
-        <v>0</v>
-      </c>
-      <c r="S1" s="5">
         <f>H34</f>
         <v>0</v>
       </c>
+      <c r="S1" s="5">
+        <f>H35</f>
+        <v>0</v>
+      </c>
       <c r="T1" s="5">
-        <f>H45</f>
+        <f>H46</f>
         <v>0</v>
       </c>
       <c r="U1" s="5">
-        <f>H49</f>
+        <f>H50</f>
         <v>0</v>
       </c>
       <c r="V1" s="5">
-        <f>H54</f>
+        <f>H55</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="12"/>
@@ -1240,7 +1234,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
@@ -1306,15 +1300,15 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -1372,15 +1366,15 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
@@ -1438,7 +1432,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="18" t="s">
         <v>29</v>
       </c>
@@ -1446,7 +1440,7 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="20"/>
@@ -1504,15 +1498,15 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="20"/>
@@ -1570,15 +1564,15 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="20"/>
@@ -1636,22 +1630,22 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="8">
         <v>0.5</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="49"/>
       <c r="K9" s="14">
         <f>$I9+Sheet2!B$1/24</f>
         <v>0.91666666666666674</v>
@@ -1702,22 +1696,22 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48">
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="47">
         <v>0.5</v>
       </c>
-      <c r="J10" s="49"/>
+      <c r="J10" s="48"/>
       <c r="K10" s="14">
         <f>$I10+Sheet2!B$1/24</f>
         <v>0.91666666666666674</v>
@@ -1768,7 +1762,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="50" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="32" t="s">
@@ -1836,7 +1830,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="17" t="s">
         <v>31</v>
       </c>
@@ -1902,7 +1896,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="17" t="s">
         <v>33</v>
       </c>
@@ -1968,7 +1962,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="17" t="s">
         <v>32</v>
       </c>
@@ -2034,7 +2028,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="17" t="s">
         <v>36</v>
       </c>
@@ -2100,7 +2094,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="17" t="s">
         <v>35</v>
       </c>
@@ -2167,7 +2161,7 @@
       <c r="X16" s="4"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="17" t="s">
         <v>34</v>
       </c>
@@ -2233,15 +2227,15 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -2299,9 +2293,9 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -2365,7 +2359,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="17" t="s">
         <v>38</v>
       </c>
@@ -2373,7 +2367,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -2431,9 +2425,9 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -2497,7 +2491,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="17" t="s">
         <v>37</v>
       </c>
@@ -2563,15 +2557,15 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -2629,9 +2623,9 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -2695,9 +2689,9 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -2761,15 +2755,15 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="42" t="s">
-        <v>39</v>
+      <c r="A26" s="51"/>
+      <c r="B26" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2827,15 +2821,15 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="18" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
@@ -2893,15 +2887,15 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
@@ -2959,15 +2953,15 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
@@ -3025,15 +3019,15 @@
       </c>
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
@@ -3091,15 +3085,15 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
@@ -3157,15 +3151,15 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="40" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -3222,157 +3216,157 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53"/>
-      <c r="B33" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="30">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="J33" s="38"/>
+    <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="51"/>
+      <c r="B33" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="J33" s="22"/>
       <c r="K33" s="14">
         <f>$I33+Sheet2!B$1/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L33" s="14">
         <f>$I33+Sheet2!B$2/24</f>
-        <v>1.1666666666666665</v>
+        <v>1.125</v>
       </c>
       <c r="M33" s="14">
         <f>$I33+Sheet2!B$3/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N33" s="14">
         <f>$I33+Sheet2!B$4/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="O33" s="14">
         <f>$I33+Sheet2!B$5/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="P33" s="14">
         <f>$I33+Sheet2!B$6/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="Q33" s="14">
         <f>$I33+Sheet2!B$7/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R33" s="14">
         <f>$I33+Sheet2!B$8/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S33" s="14">
         <f>$I33+Sheet2!B$9/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T33" s="14">
         <f>$I33+Sheet2!B$10/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U33" s="14">
         <f>$I33+Sheet2!B$11/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="V33" s="16">
         <f>$I33+Sheet2!B$12/24</f>
-        <v>0.49999999999999994</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="26">
-        <v>0</v>
-      </c>
-      <c r="J34" s="31"/>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="52"/>
+      <c r="B34" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="30">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J34" s="38"/>
       <c r="K34" s="14">
         <f>$I34+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="L34" s="14">
         <f>$I34+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="M34" s="14">
         <f>$I34+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.125</v>
       </c>
       <c r="N34" s="14">
         <f>$I34+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O34" s="14">
         <f>$I34+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="P34" s="14">
         <f>$I34+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="Q34" s="14">
         <f>$I34+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.875</v>
       </c>
       <c r="R34" s="14">
         <f>$I34+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="S34" s="14">
         <f>$I34+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="T34" s="14">
         <f>$I34+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="U34" s="14">
         <f>$I34+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="V34" s="16">
         <f>$I34+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
-      <c r="B35" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6" t="s">
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="26">
         <v>0</v>
       </c>
-      <c r="J35" s="10"/>
+      <c r="J35" s="31"/>
       <c r="K35" s="14">
         <f>$I35+Sheet2!B$1/24</f>
         <v>0.41666666666666669</v>
@@ -3423,9 +3417,9 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="17" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -3489,9 +3483,9 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="17" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -3555,9 +3549,9 @@
       </c>
     </row>
     <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="17" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -3621,15 +3615,15 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="B39" s="41" t="s">
-        <v>68</v>
+      <c r="A39" s="51"/>
+      <c r="B39" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -3687,15 +3681,15 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -3753,15 +3747,15 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -3819,15 +3813,15 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="41" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -3885,15 +3879,15 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="41" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -3951,75 +3945,75 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
-      <c r="B44" s="17" t="s">
-        <v>45</v>
+      <c r="A44" s="51"/>
+      <c r="B44" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="26">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J44" s="10"/>
       <c r="K44" s="14">
         <f>$I44+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L44" s="14">
         <f>$I44+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M44" s="14">
         <f>$I44+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N44" s="14">
         <f>$I44+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O44" s="14">
         <f>$I44+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P44" s="14">
         <f>$I44+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q44" s="14">
         <f>$I44+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R44" s="14">
         <f>$I44+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S44" s="14">
         <f>$I44+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T44" s="14">
         <f>$I44+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U44" s="14">
         <f>$I44+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V44" s="16">
         <f>$I44+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -4029,7 +4023,7 @@
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="8">
+      <c r="I45" s="26">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J45" s="10"/>
@@ -4083,9 +4077,9 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="17" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -4149,15 +4143,15 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
-      <c r="B47" s="41" t="s">
-        <v>74</v>
+      <c r="A47" s="51"/>
+      <c r="B47" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -4215,73 +4209,73 @@
       </c>
     </row>
     <row r="48" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
-      <c r="B48" s="17" t="s">
-        <v>48</v>
+      <c r="A48" s="51"/>
+      <c r="B48" s="41" t="s">
+        <v>73</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G48" s="7"/>
-      <c r="H48" s="6"/>
+      <c r="H48" s="7"/>
       <c r="I48" s="8">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="14">
         <f>$I48+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L48" s="14">
         <f>$I48+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M48" s="14">
         <f>$I48+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N48" s="14">
         <f>$I48+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O48" s="14">
         <f>$I48+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P48" s="14">
         <f>$I48+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q48" s="14">
         <f>$I48+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="R48" s="14">
         <f>$I48+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S48" s="14">
         <f>$I48+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T48" s="14">
         <f>$I48+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U48" s="14">
         <f>$I48+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V48" s="16">
         <f>$I48+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="17" t="s">
         <v>47</v>
       </c>
@@ -4292,7 +4286,7 @@
         <v>19</v>
       </c>
       <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
+      <c r="H49" s="6"/>
       <c r="I49" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -4347,15 +4341,15 @@
       </c>
     </row>
     <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
-      <c r="B50" s="41" t="s">
-        <v>76</v>
+      <c r="A50" s="51"/>
+      <c r="B50" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -4413,88 +4407,88 @@
       </c>
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
-      <c r="B51" s="17" t="s">
-        <v>49</v>
+      <c r="A51" s="51"/>
+      <c r="B51" s="41" t="s">
+        <v>75</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="8">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J51" s="10"/>
       <c r="K51" s="14">
         <f>$I51+Sheet2!B$1/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="L51" s="14">
         <f>$I51+Sheet2!B$2/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="M51" s="14">
         <f>$I51+Sheet2!B$3/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="N51" s="14">
         <f>$I51+Sheet2!B$4/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="O51" s="14">
         <f>$I51+Sheet2!B$5/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="P51" s="14">
         <f>$I51+Sheet2!B$6/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="Q51" s="14">
         <f>$I51+Sheet2!B$7/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R51" s="14">
         <f>$I51+Sheet2!B$8/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="S51" s="14">
         <f>$I51+Sheet2!B$9/24</f>
-        <v>-4.1666666666666657E-2</v>
+        <v>-8.3333333333333329E-2</v>
       </c>
       <c r="T51" s="14">
         <f>$I51+Sheet2!B$10/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="U51" s="14">
         <f>$I51+Sheet2!B$11/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="V51" s="16">
         <f>$I51+Sheet2!B$12/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333337</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
-      <c r="B52" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
       <c r="F52" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
       <c r="I52" s="8">
         <v>0.125</v>
       </c>
-      <c r="J52" s="22"/>
+      <c r="J52" s="10"/>
       <c r="K52" s="14">
         <f>$I52+Sheet2!B$1/24</f>
         <v>0.54166666666666674</v>
@@ -4545,22 +4539,22 @@
       </c>
     </row>
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
-      <c r="B53" s="40" t="s">
-        <v>87</v>
+      <c r="A53" s="51"/>
+      <c r="B53" s="43" t="s">
+        <v>49</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
       <c r="I53" s="8">
         <v>0.125</v>
       </c>
-      <c r="J53" s="10"/>
+      <c r="J53" s="22"/>
       <c r="K53" s="14">
         <f>$I53+Sheet2!B$1/24</f>
         <v>0.54166666666666674</v>
@@ -4611,22 +4605,22 @@
       </c>
     </row>
     <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="52"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="40" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G54" s="20"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="21">
+      <c r="H54" s="20"/>
+      <c r="I54" s="8">
         <v>0.125</v>
       </c>
-      <c r="J54" s="22"/>
+      <c r="J54" s="10"/>
       <c r="K54" s="14">
         <f>$I54+Sheet2!B$1/24</f>
         <v>0.54166666666666674</v>
@@ -4676,35 +4670,101 @@
         <v>-0.16666666666666669</v>
       </c>
     </row>
+    <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="51"/>
+      <c r="B55" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" s="20"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="21">
+        <v>0.125</v>
+      </c>
+      <c r="J55" s="22"/>
+      <c r="K55" s="14">
+        <f>$I55+Sheet2!B$1/24</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="L55" s="14">
+        <f>$I55+Sheet2!B$2/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="M55" s="14">
+        <f>$I55+Sheet2!B$3/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="N55" s="14">
+        <f>$I55+Sheet2!B$4/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="O55" s="14">
+        <f>$I55+Sheet2!B$5/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="P55" s="14">
+        <f>$I55+Sheet2!B$6/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q55" s="14">
+        <f>$I55+Sheet2!B$7/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="R55" s="14">
+        <f>$I55+Sheet2!B$8/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S55" s="14">
+        <f>$I55+Sheet2!B$9/24</f>
+        <v>-4.1666666666666657E-2</v>
+      </c>
+      <c r="T55" s="14">
+        <f>$I55+Sheet2!B$10/24</f>
+        <v>-8.3333333333333343E-2</v>
+      </c>
+      <c r="U55" s="14">
+        <f>$I55+Sheet2!B$11/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="V55" s="16">
+        <f>$I55+Sheet2!B$12/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B27:V32">
+  <sortState ref="B27:V33">
     <sortCondition ref="B27"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
-    <mergeCell ref="A11:A33"/>
-    <mergeCell ref="A34:A54"/>
+    <mergeCell ref="A11:A34"/>
+    <mergeCell ref="A35:A55"/>
     <mergeCell ref="A2:A10"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L2 K3:V54">
+  <conditionalFormatting sqref="K2:L2 K3:V55">
     <cfRule type="expression" dxfId="2" priority="17">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:V54">
+  <conditionalFormatting sqref="K2:V55">
     <cfRule type="expression" dxfId="1" priority="19">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:V54">
+  <conditionalFormatting sqref="B2:V55">
     <cfRule type="expression" dxfId="0" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Desktop\swgoh\shard-payout-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{458B5040-01E3-450B-9F07-281506B4CCEA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{09986425-B5FA-4FE4-A45D-82E49B85BC84}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>Tektonik</t>
+  </si>
+  <si>
+    <t>Mirrielle</t>
   </si>
 </sst>
 </file>
@@ -1065,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X55"/>
+  <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,11 +1160,11 @@
         <v>0</v>
       </c>
       <c r="U1" s="5">
-        <f>H50</f>
+        <f>H51</f>
         <v>0</v>
       </c>
       <c r="V1" s="5">
-        <f>H55</f>
+        <f>H56</f>
         <v>0</v>
       </c>
     </row>
@@ -4277,7 +4280,7 @@
     <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="51"/>
       <c r="B49" s="17" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -4286,9 +4289,9 @@
         <v>19</v>
       </c>
       <c r="G49" s="7"/>
-      <c r="H49" s="6"/>
+      <c r="H49" s="7"/>
       <c r="I49" s="8">
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="J49" s="10"/>
       <c r="K49" s="14">
@@ -4317,19 +4320,19 @@
       </c>
       <c r="Q49" s="14">
         <f>$I49+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="R49" s="14">
         <f>$I49+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>0.12499999999999997</v>
       </c>
       <c r="S49" s="14">
         <f>$I49+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-8.3333333333333356E-2</v>
       </c>
       <c r="T49" s="14">
         <f>$I49+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.12500000000000006</v>
       </c>
       <c r="U49" s="14">
         <f>$I49+Sheet2!B$11/24</f>
@@ -4343,7 +4346,7 @@
     <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="51"/>
       <c r="B50" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -4352,7 +4355,7 @@
         <v>19</v>
       </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
+      <c r="H50" s="6"/>
       <c r="I50" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -4408,14 +4411,14 @@
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="51"/>
-      <c r="B51" s="41" t="s">
-        <v>75</v>
+      <c r="B51" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -4474,87 +4477,87 @@
     </row>
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="51"/>
-      <c r="B52" s="17" t="s">
-        <v>48</v>
+      <c r="B52" s="41" t="s">
+        <v>75</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="8">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J52" s="10"/>
       <c r="K52" s="14">
         <f>$I52+Sheet2!B$1/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="L52" s="14">
         <f>$I52+Sheet2!B$2/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="M52" s="14">
         <f>$I52+Sheet2!B$3/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="N52" s="14">
         <f>$I52+Sheet2!B$4/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="O52" s="14">
         <f>$I52+Sheet2!B$5/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="P52" s="14">
         <f>$I52+Sheet2!B$6/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="Q52" s="14">
         <f>$I52+Sheet2!B$7/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R52" s="14">
         <f>$I52+Sheet2!B$8/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="S52" s="14">
         <f>$I52+Sheet2!B$9/24</f>
-        <v>-4.1666666666666657E-2</v>
+        <v>-8.3333333333333329E-2</v>
       </c>
       <c r="T52" s="14">
         <f>$I52+Sheet2!B$10/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="U52" s="14">
         <f>$I52+Sheet2!B$11/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="V52" s="16">
         <f>$I52+Sheet2!B$12/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333337</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="51"/>
-      <c r="B53" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
+      <c r="B53" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
       <c r="F53" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
       <c r="I53" s="8">
         <v>0.125</v>
       </c>
-      <c r="J53" s="22"/>
+      <c r="J53" s="10"/>
       <c r="K53" s="14">
         <f>$I53+Sheet2!B$1/24</f>
         <v>0.54166666666666674</v>
@@ -4606,21 +4609,21 @@
     </row>
     <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="51"/>
-      <c r="B54" s="40" t="s">
-        <v>86</v>
+      <c r="B54" s="43" t="s">
+        <v>49</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="6" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
       <c r="I54" s="8">
         <v>0.125</v>
       </c>
-      <c r="J54" s="10"/>
+      <c r="J54" s="22"/>
       <c r="K54" s="14">
         <f>$I54+Sheet2!B$1/24</f>
         <v>0.54166666666666674</v>
@@ -4673,7 +4676,7 @@
     <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="51"/>
       <c r="B55" s="40" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
@@ -4682,11 +4685,11 @@
         <v>59</v>
       </c>
       <c r="G55" s="20"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="21">
+      <c r="H55" s="20"/>
+      <c r="I55" s="8">
         <v>0.125</v>
       </c>
-      <c r="J55" s="22"/>
+      <c r="J55" s="10"/>
       <c r="K55" s="14">
         <f>$I55+Sheet2!B$1/24</f>
         <v>0.54166666666666674</v>
@@ -4733,6 +4736,72 @@
       </c>
       <c r="V55" s="16">
         <f>$I55+Sheet2!B$12/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="51"/>
+      <c r="B56" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="20"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="21">
+        <v>0.125</v>
+      </c>
+      <c r="J56" s="22"/>
+      <c r="K56" s="14">
+        <f>$I56+Sheet2!B$1/24</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="L56" s="14">
+        <f>$I56+Sheet2!B$2/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="M56" s="14">
+        <f>$I56+Sheet2!B$3/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="N56" s="14">
+        <f>$I56+Sheet2!B$4/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="O56" s="14">
+        <f>$I56+Sheet2!B$5/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="P56" s="14">
+        <f>$I56+Sheet2!B$6/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q56" s="14">
+        <f>$I56+Sheet2!B$7/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="R56" s="14">
+        <f>$I56+Sheet2!B$8/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S56" s="14">
+        <f>$I56+Sheet2!B$9/24</f>
+        <v>-4.1666666666666657E-2</v>
+      </c>
+      <c r="T56" s="14">
+        <f>$I56+Sheet2!B$10/24</f>
+        <v>-8.3333333333333343E-2</v>
+      </c>
+      <c r="U56" s="14">
+        <f>$I56+Sheet2!B$11/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="V56" s="16">
+        <f>$I56+Sheet2!B$12/24</f>
         <v>-0.16666666666666669</v>
       </c>
     </row>
@@ -4741,30 +4810,30 @@
     <sortCondition ref="B27"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
     <mergeCell ref="A11:A34"/>
-    <mergeCell ref="A35:A55"/>
+    <mergeCell ref="A35:A56"/>
     <mergeCell ref="A2:A10"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L2 K3:V55">
+  <conditionalFormatting sqref="K2:L2 K3:V56">
     <cfRule type="expression" dxfId="2" priority="17">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:V55">
+  <conditionalFormatting sqref="K2:V56">
     <cfRule type="expression" dxfId="1" priority="19">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:V55">
+  <conditionalFormatting sqref="B2:V56">
     <cfRule type="expression" dxfId="0" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Desktop\swgoh\shard-payout-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Desktop\swgoh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{09986425-B5FA-4FE4-A45D-82E49B85BC84}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5BCA7009-D48C-4ED0-972D-98818BACDD2E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -310,6 +310,48 @@
   </si>
   <si>
     <t>Mirrielle</t>
+  </si>
+  <si>
+    <t>UTC+1</t>
+  </si>
+  <si>
+    <t>UTC+0</t>
+  </si>
+  <si>
+    <t>UTC+2</t>
+  </si>
+  <si>
+    <t>UTC+3</t>
+  </si>
+  <si>
+    <t>UTC+4</t>
+  </si>
+  <si>
+    <t>UTC+8</t>
+  </si>
+  <si>
+    <t>UTC+10</t>
+  </si>
+  <si>
+    <t>UTC+9</t>
+  </si>
+  <si>
+    <t>UTC+7</t>
+  </si>
+  <si>
+    <t>UTC-5</t>
+  </si>
+  <si>
+    <t>UTC-6</t>
+  </si>
+  <si>
+    <t>UTC-7</t>
+  </si>
+  <si>
+    <t>UTC-8</t>
+  </si>
+  <si>
+    <t>UTC-10</t>
   </si>
 </sst>
 </file>
@@ -435,7 +477,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -578,15 +620,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="double">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -637,12 +670,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -688,13 +752,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -705,17 +763,17 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -724,6 +782,16 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1068,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X56"/>
+  <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,7 +1159,7 @@
     <col min="23" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1124,62 +1192,60 @@
         <v>23</v>
       </c>
       <c r="L1" s="5">
-        <f>H3</f>
+        <f>H5</f>
         <v>0</v>
       </c>
       <c r="M1" s="5">
-        <f>H10</f>
-        <v>0</v>
-      </c>
-      <c r="N1" s="5">
-        <f>H11</f>
-        <v>0</v>
-      </c>
-      <c r="O1" s="5">
-        <f>H13</f>
-        <v>0</v>
-      </c>
-      <c r="P1" s="5">
         <f>H14</f>
         <v>0</v>
       </c>
+      <c r="N1" s="5">
+        <f>H16</f>
+        <v>0</v>
+      </c>
+      <c r="O1" s="5">
+        <f>H19</f>
+        <v>0</v>
+      </c>
+      <c r="P1" s="5">
+        <f>H20</f>
+        <v>0</v>
+      </c>
       <c r="Q1" s="5">
-        <f>H15</f>
+        <f>H22</f>
         <v>0</v>
       </c>
       <c r="R1" s="5">
-        <f>H34</f>
+        <f>H43</f>
         <v>0</v>
       </c>
       <c r="S1" s="5">
-        <f>H35</f>
+        <f>H45</f>
         <v>0</v>
       </c>
       <c r="T1" s="5">
-        <f>H46</f>
+        <f>H57</f>
         <v>0</v>
       </c>
       <c r="U1" s="5">
-        <f>H51</f>
+        <f>H63</f>
         <v>0</v>
       </c>
-      <c r="V1" s="5">
-        <f>H56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="V1" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>28</v>
-      </c>
+      <c r="B2" s="38"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="12"/>
@@ -1236,85 +1302,83 @@
         <v>8.3333333333333315E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J3" s="9"/>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="J3" s="15"/>
       <c r="K3" s="14">
         <f>$I3+Sheet2!B$1/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="L3" s="14">
         <f>$I3+Sheet2!B$2/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.75</v>
       </c>
       <c r="M3" s="14">
         <f>$I3+Sheet2!B$3/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="N3" s="14">
         <f>$I3+Sheet2!B$4/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="O3" s="14">
         <f>$I3+Sheet2!B$5/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="P3" s="14">
         <f>$I3+Sheet2!B$6/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="Q3" s="14">
         <f>$I3+Sheet2!B$7/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="R3" s="14">
         <f>$I3+Sheet2!B$8/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="S3" s="14">
         <f>$I3+Sheet2!B$9/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="T3" s="14">
         <f>$I3+Sheet2!B$10/24</f>
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="U3" s="14">
         <f>$I3+Sheet2!B$11/24</f>
-        <v>0.16666666666666669</v>
+        <v>0.125</v>
       </c>
       <c r="V3" s="16">
         <f>$I3+Sheet2!B$12/24</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="8">
         <v>0.41666666666666669</v>
       </c>
@@ -1368,155 +1432,153 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47"/>
       <c r="B5" s="17" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="8">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="14">
         <f>$I5+Sheet2!B$1/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L5" s="14">
         <f>$I5+Sheet2!B$2/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="M5" s="14">
         <f>$I5+Sheet2!B$3/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="N5" s="14">
         <f>$I5+Sheet2!B$4/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="O5" s="14">
         <f>$I5+Sheet2!B$5/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="P5" s="14">
         <f>$I5+Sheet2!B$6/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="Q5" s="14">
         <f>$I5+Sheet2!B$7/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="R5" s="14">
         <f>$I5+Sheet2!B$8/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="S5" s="14">
         <f>$I5+Sheet2!B$9/24</f>
-        <v>0.29166666666666663</v>
+        <v>0.25</v>
       </c>
       <c r="T5" s="14">
         <f>$I5+Sheet2!B$10/24</f>
-        <v>0.24999999999999997</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="U5" s="14">
         <f>$I5+Sheet2!B$11/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="V5" s="16">
         <f>$I5+Sheet2!B$12/24</f>
-        <v>0.16666666666666663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="J6" s="39"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J6" s="9"/>
       <c r="K6" s="14">
         <f>$I6+Sheet2!B$1/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L6" s="14">
         <f>$I6+Sheet2!B$2/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="M6" s="14">
         <f>$I6+Sheet2!B$3/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="N6" s="14">
         <f>$I6+Sheet2!B$4/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="O6" s="14">
         <f>$I6+Sheet2!B$5/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="P6" s="14">
         <f>$I6+Sheet2!B$6/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="Q6" s="14">
         <f>$I6+Sheet2!B$7/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="R6" s="14">
         <f>$I6+Sheet2!B$8/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="S6" s="14">
         <f>$I6+Sheet2!B$9/24</f>
-        <v>0.29166666666666663</v>
+        <v>0.25</v>
       </c>
       <c r="T6" s="14">
         <f>$I6+Sheet2!B$10/24</f>
-        <v>0.24999999999999997</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="U6" s="14">
         <f>$I6+Sheet2!B$11/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="V6" s="16">
         <f>$I6+Sheet2!B$12/24</f>
-        <v>0.16666666666666663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J7" s="39"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="14">
         <f>$I7+Sheet2!B$1/24</f>
         <v>0.875</v>
@@ -1566,23 +1628,23 @@
         <v>0.16666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21">
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="14">
         <f>$I8+Sheet2!B$1/24</f>
         <v>0.875</v>
@@ -1632,1141 +1694,1131 @@
         <v>0.16666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="49"/>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J9" s="35"/>
       <c r="K9" s="14">
         <f>$I9+Sheet2!B$1/24</f>
-        <v>0.91666666666666674</v>
+        <v>0.875</v>
       </c>
       <c r="L9" s="14">
         <f>$I9+Sheet2!B$2/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="M9" s="14">
         <f>$I9+Sheet2!B$3/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="N9" s="14">
         <f>$I9+Sheet2!B$4/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="O9" s="14">
         <f>$I9+Sheet2!B$5/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="P9" s="14">
         <f>$I9+Sheet2!B$6/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="Q9" s="14">
         <f>$I9+Sheet2!B$7/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R9" s="14">
         <f>$I9+Sheet2!B$8/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="S9" s="14">
         <f>$I9+Sheet2!B$9/24</f>
-        <v>0.33333333333333337</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="T9" s="14">
         <f>$I9+Sheet2!B$10/24</f>
-        <v>0.29166666666666663</v>
+        <v>0.24999999999999997</v>
       </c>
       <c r="U9" s="14">
         <f>$I9+Sheet2!B$11/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="V9" s="16">
         <f>$I9+Sheet2!B$12/24</f>
-        <v>0.20833333333333331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="48"/>
+        <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="B10" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J10" s="35"/>
       <c r="K10" s="14">
         <f>$I10+Sheet2!B$1/24</f>
-        <v>0.91666666666666674</v>
+        <v>0.875</v>
       </c>
       <c r="L10" s="14">
         <f>$I10+Sheet2!B$2/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="M10" s="14">
         <f>$I10+Sheet2!B$3/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="N10" s="14">
         <f>$I10+Sheet2!B$4/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="O10" s="14">
         <f>$I10+Sheet2!B$5/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="P10" s="14">
         <f>$I10+Sheet2!B$6/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="Q10" s="14">
         <f>$I10+Sheet2!B$7/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R10" s="14">
         <f>$I10+Sheet2!B$8/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="S10" s="14">
         <f>$I10+Sheet2!B$9/24</f>
-        <v>0.33333333333333337</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="T10" s="14">
         <f>$I10+Sheet2!B$10/24</f>
-        <v>0.29166666666666663</v>
+        <v>0.24999999999999997</v>
       </c>
       <c r="U10" s="14">
         <f>$I10+Sheet2!B$11/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="V10" s="16">
         <f>$I10+Sheet2!B$12/24</f>
-        <v>0.20833333333333331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36">
-        <v>0.625</v>
-      </c>
-      <c r="J11" s="37"/>
+        <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
+      <c r="B11" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J11" s="35"/>
       <c r="K11" s="14">
         <f>$I11+Sheet2!B$1/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="L11" s="14">
         <f>$I11+Sheet2!B$2/24</f>
-        <v>1</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="M11" s="14">
         <f>$I11+Sheet2!B$3/24</f>
-        <v>0.95833333333333326</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="N11" s="14">
         <f>$I11+Sheet2!B$4/24</f>
-        <v>0.75</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="O11" s="14">
         <f>$I11+Sheet2!B$5/24</f>
-        <v>0.75</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="P11" s="14">
         <f>$I11+Sheet2!B$6/24</f>
-        <v>0.75</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="Q11" s="14">
         <f>$I11+Sheet2!B$7/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R11" s="14">
         <f>$I11+Sheet2!B$8/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="S11" s="14">
         <f>$I11+Sheet2!B$9/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="T11" s="14">
         <f>$I11+Sheet2!B$10/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.24999999999999997</v>
       </c>
       <c r="U11" s="14">
         <f>$I11+Sheet2!B$11/24</f>
-        <v>0.375</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="V11" s="16">
         <f>$I11+Sheet2!B$12/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+        <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="8">
-        <v>0.625</v>
-      </c>
-      <c r="J12" s="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="45"/>
       <c r="K12" s="14">
         <f>$I12+Sheet2!B$1/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.91666666666666674</v>
       </c>
       <c r="L12" s="14">
         <f>$I12+Sheet2!B$2/24</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="M12" s="14">
         <f>$I12+Sheet2!B$3/24</f>
-        <v>0.95833333333333326</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="N12" s="14">
         <f>$I12+Sheet2!B$4/24</f>
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="O12" s="14">
         <f>$I12+Sheet2!B$5/24</f>
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="P12" s="14">
         <f>$I12+Sheet2!B$6/24</f>
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="Q12" s="14">
         <f>$I12+Sheet2!B$7/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="R12" s="14">
         <f>$I12+Sheet2!B$8/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="S12" s="14">
         <f>$I12+Sheet2!B$9/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="T12" s="14">
         <f>$I12+Sheet2!B$10/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="U12" s="14">
         <f>$I12+Sheet2!B$11/24</f>
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="V12" s="16">
         <f>$I12+Sheet2!B$12/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+        <v>0.20833333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
       <c r="B13" s="17" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J13" s="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="45"/>
       <c r="K13" s="14">
         <f>$I13+Sheet2!B$1/24</f>
-        <v>1.0833333333333333</v>
+        <v>0.91666666666666674</v>
       </c>
       <c r="L13" s="14">
         <f>$I13+Sheet2!B$2/24</f>
-        <v>1.0416666666666665</v>
+        <v>0.875</v>
       </c>
       <c r="M13" s="14">
         <f>$I13+Sheet2!B$3/24</f>
-        <v>1</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="N13" s="14">
         <f>$I13+Sheet2!B$4/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="O13" s="14">
         <f>$I13+Sheet2!B$5/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="P13" s="14">
         <f>$I13+Sheet2!B$6/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="Q13" s="14">
         <f>$I13+Sheet2!B$7/24</f>
-        <v>0.75</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="R13" s="14">
         <f>$I13+Sheet2!B$8/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="S13" s="14">
         <f>$I13+Sheet2!B$9/24</f>
-        <v>0.5</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="T13" s="14">
         <f>$I13+Sheet2!B$10/24</f>
-        <v>0.45833333333333326</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="U13" s="14">
         <f>$I13+Sheet2!B$11/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.25</v>
       </c>
       <c r="V13" s="16">
         <f>$I13+Sheet2!B$12/24</f>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J14" s="9"/>
+        <v>0.20833333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="48"/>
+      <c r="B14" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="44"/>
       <c r="K14" s="14">
         <f>$I14+Sheet2!B$1/24</f>
-        <v>1.0833333333333333</v>
+        <v>0.91666666666666674</v>
       </c>
       <c r="L14" s="14">
         <f>$I14+Sheet2!B$2/24</f>
-        <v>1.0416666666666665</v>
+        <v>0.875</v>
       </c>
       <c r="M14" s="14">
         <f>$I14+Sheet2!B$3/24</f>
-        <v>1</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="N14" s="14">
         <f>$I14+Sheet2!B$4/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="O14" s="14">
         <f>$I14+Sheet2!B$5/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="P14" s="14">
         <f>$I14+Sheet2!B$6/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="Q14" s="14">
         <f>$I14+Sheet2!B$7/24</f>
-        <v>0.75</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="R14" s="14">
         <f>$I14+Sheet2!B$8/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="S14" s="14">
         <f>$I14+Sheet2!B$9/24</f>
-        <v>0.5</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="T14" s="14">
         <f>$I14+Sheet2!B$10/24</f>
-        <v>0.45833333333333326</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="U14" s="14">
         <f>$I14+Sheet2!B$11/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.25</v>
       </c>
       <c r="V14" s="16">
         <f>$I14+Sheet2!B$12/24</f>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="J15" s="10"/>
+        <v>0.20833333333333331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="26">
+        <v>0.625</v>
+      </c>
+      <c r="J15" s="51"/>
       <c r="K15" s="14">
         <f>$I15+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="L15" s="14">
         <f>$I15+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1</v>
       </c>
       <c r="M15" s="14">
         <f>$I15+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.95833333333333326</v>
       </c>
       <c r="N15" s="14">
         <f>$I15+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="O15" s="14">
         <f>$I15+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="P15" s="14">
         <f>$I15+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="Q15" s="14">
         <f>$I15+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="R15" s="14">
         <f>$I15+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S15" s="14">
         <f>$I15+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="T15" s="14">
         <f>$I15+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="U15" s="14">
         <f>$I15+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="V15" s="16">
         <f>$I15+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="J16" s="10"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26">
+        <v>0.625</v>
+      </c>
+      <c r="J16" s="51"/>
       <c r="K16" s="14">
         <f>$I16+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="L16" s="14">
         <f>$I16+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1</v>
       </c>
       <c r="M16" s="14">
         <f>$I16+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.95833333333333326</v>
       </c>
       <c r="N16" s="14">
         <f>$I16+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="O16" s="14">
         <f>$I16+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="P16" s="14">
         <f>$I16+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="Q16" s="14">
         <f>$I16+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="R16" s="14">
         <f>$I16+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S16" s="14">
         <f>$I16+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="T16" s="14">
         <f>$I16+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="U16" s="14">
         <f>$I16+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="V16" s="16">
         <f>$I16+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="X16" s="4"/>
-    </row>
-    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
       <c r="B17" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="8">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="J17" s="10"/>
+        <v>0.625</v>
+      </c>
+      <c r="J17" s="9"/>
       <c r="K17" s="14">
         <f>$I17+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="L17" s="14">
         <f>$I17+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1</v>
       </c>
       <c r="M17" s="14">
         <f>$I17+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.95833333333333326</v>
       </c>
       <c r="N17" s="14">
         <f>$I17+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="O17" s="14">
         <f>$I17+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="P17" s="14">
         <f>$I17+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="Q17" s="14">
         <f>$I17+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="R17" s="14">
         <f>$I17+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S17" s="14">
         <f>$I17+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="T17" s="14">
         <f>$I17+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="U17" s="14">
         <f>$I17+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="V17" s="16">
         <f>$I17+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="41" t="s">
-        <v>77</v>
-      </c>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="8">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="14">
         <f>$I18+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="L18" s="14">
         <f>$I18+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="M18" s="14">
         <f>$I18+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>1</v>
       </c>
       <c r="N18" s="14">
         <f>$I18+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="O18" s="14">
         <f>$I18+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P18" s="14">
         <f>$I18+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q18" s="14">
         <f>$I18+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.75</v>
       </c>
       <c r="R18" s="14">
         <f>$I18+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="S18" s="14">
         <f>$I18+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="T18" s="14">
         <f>$I18+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="U18" s="14">
         <f>$I18+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="V18" s="16">
         <f>$I18+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
       <c r="B19" s="17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="8">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="14">
         <f>$I19+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="L19" s="14">
         <f>$I19+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="M19" s="14">
         <f>$I19+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="N19" s="14">
         <f>$I19+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="O19" s="14">
         <f>$I19+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P19" s="14">
         <f>$I19+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q19" s="14">
         <f>$I19+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="R19" s="14">
         <f>$I19+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="S19" s="14">
         <f>$I19+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="T19" s="14">
         <f>$I19+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="U19" s="14">
         <f>$I19+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="V19" s="16">
         <f>$I19+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
       <c r="B20" s="17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="J20" s="11"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J20" s="9"/>
       <c r="K20" s="14">
         <f>$I20+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="L20" s="14">
         <f>$I20+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="M20" s="14">
         <f>$I20+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="N20" s="14">
         <f>$I20+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="O20" s="14">
         <f>$I20+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P20" s="14">
         <f>$I20+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q20" s="14">
         <f>$I20+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="R20" s="14">
         <f>$I20+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="S20" s="14">
         <f>$I20+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="T20" s="14">
         <f>$I20+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="U20" s="14">
         <f>$I20+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="V20" s="16">
         <f>$I20+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="17" t="s">
-        <v>56</v>
-      </c>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="J21" s="11"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J21" s="10"/>
       <c r="K21" s="14">
         <f>$I21+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L21" s="14">
         <f>$I21+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M21" s="14">
         <f>$I21+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N21" s="14">
         <f>$I21+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O21" s="14">
         <f>$I21+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P21" s="14">
         <f>$I21+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q21" s="14">
         <f>$I21+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R21" s="14">
         <f>$I21+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S21" s="14">
         <f>$I21+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T21" s="14">
         <f>$I21+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U21" s="14">
         <f>$I21+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V21" s="16">
         <f>$I21+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
       <c r="B22" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="J22" s="11"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J22" s="10"/>
       <c r="K22" s="14">
         <f>$I22+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L22" s="14">
         <f>$I22+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M22" s="14">
         <f>$I22+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N22" s="14">
         <f>$I22+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O22" s="14">
         <f>$I22+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P22" s="14">
         <f>$I22+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q22" s="14">
         <f>$I22+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R22" s="14">
         <f>$I22+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S22" s="14">
         <f>$I22+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T22" s="14">
         <f>$I22+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U22" s="14">
         <f>$I22+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V22" s="16">
         <f>$I22+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
       <c r="B23" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="8">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="14">
         <f>$I23+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L23" s="14">
         <f>$I23+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M23" s="14">
         <f>$I23+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N23" s="14">
         <f>$I23+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O23" s="14">
         <f>$I23+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P23" s="14">
         <f>$I23+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q23" s="14">
         <f>$I23+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R23" s="14">
         <f>$I23+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S23" s="14">
         <f>$I23+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T23" s="14">
         <f>$I23+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U23" s="14">
         <f>$I23+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V23" s="16">
         <f>$I23+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="X23" s="4"/>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
       <c r="B24" s="17" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="J24" s="11"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J24" s="10"/>
       <c r="K24" s="14">
         <f>$I24+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L24" s="14">
         <f>$I24+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M24" s="14">
         <f>$I24+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N24" s="14">
         <f>$I24+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O24" s="14">
         <f>$I24+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P24" s="14">
         <f>$I24+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q24" s="14">
         <f>$I24+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R24" s="14">
         <f>$I24+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S24" s="14">
         <f>$I24+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T24" s="14">
         <f>$I24+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U24" s="14">
         <f>$I24+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V24" s="16">
         <f>$I24+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="17" t="s">
-        <v>81</v>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="47"/>
+      <c r="B25" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="J25" s="11"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J25" s="10"/>
       <c r="K25" s="14">
         <f>$I25+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L25" s="14">
         <f>$I25+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M25" s="14">
         <f>$I25+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N25" s="14">
         <f>$I25+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O25" s="14">
         <f>$I25+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P25" s="14">
         <f>$I25+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q25" s="14">
         <f>$I25+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R25" s="14">
         <f>$I25+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S25" s="14">
         <f>$I25+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T25" s="14">
         <f>$I25+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U25" s="14">
         <f>$I25+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V25" s="16">
         <f>$I25+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="17" t="s">
-        <v>62</v>
-      </c>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="47"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2823,23 +2875,23 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="47"/>
+      <c r="B27" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
       <c r="I27" s="8">
         <v>0.75</v>
       </c>
-      <c r="J27" s="22"/>
+      <c r="J27" s="10"/>
       <c r="K27" s="14">
         <f>$I27+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -2889,23 +2941,23 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="47"/>
+      <c r="B28" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="8">
         <v>0.75</v>
       </c>
-      <c r="J28" s="22"/>
+      <c r="J28" s="11"/>
       <c r="K28" s="14">
         <f>$I28+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -2955,23 +3007,23 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="47"/>
+      <c r="B29" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="8">
         <v>0.75</v>
       </c>
-      <c r="J29" s="22"/>
+      <c r="J29" s="11"/>
       <c r="K29" s="14">
         <f>$I29+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3021,23 +3073,23 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+    <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="47"/>
+      <c r="B30" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="8">
         <v>0.75</v>
       </c>
-      <c r="J30" s="22"/>
+      <c r="J30" s="11"/>
       <c r="K30" s="14">
         <f>$I30+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3087,23 +3139,23 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="47"/>
+      <c r="B31" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
       <c r="I31" s="8">
         <v>0.75</v>
       </c>
-      <c r="J31" s="22"/>
+      <c r="J31" s="10"/>
       <c r="K31" s="14">
         <f>$I31+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3153,23 +3205,23 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
+    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="47"/>
+      <c r="B32" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="8">
         <v>0.75</v>
       </c>
-      <c r="J32" s="22"/>
+      <c r="J32" s="11"/>
       <c r="K32" s="14">
         <f>$I32+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3220,22 +3272,22 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="8">
         <v>0.75</v>
       </c>
-      <c r="J33" s="22"/>
+      <c r="J33" s="11"/>
       <c r="K33" s="14">
         <f>$I33+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3285,685 +3337,679 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="52"/>
-      <c r="B34" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="J34" s="38"/>
+    <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="47"/>
+      <c r="B34" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="J34" s="10"/>
       <c r="K34" s="14">
         <f>$I34+Sheet2!B$1/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L34" s="14">
         <f>$I34+Sheet2!B$2/24</f>
-        <v>1.1666666666666665</v>
+        <v>1.125</v>
       </c>
       <c r="M34" s="14">
         <f>$I34+Sheet2!B$3/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N34" s="14">
         <f>$I34+Sheet2!B$4/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="O34" s="14">
         <f>$I34+Sheet2!B$5/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="P34" s="14">
         <f>$I34+Sheet2!B$6/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="Q34" s="14">
         <f>$I34+Sheet2!B$7/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R34" s="14">
         <f>$I34+Sheet2!B$8/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S34" s="14">
         <f>$I34+Sheet2!B$9/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T34" s="14">
         <f>$I34+Sheet2!B$10/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U34" s="14">
         <f>$I34+Sheet2!B$11/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="V34" s="16">
         <f>$I34+Sheet2!B$12/24</f>
-        <v>0.49999999999999994</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26">
-        <v>0</v>
-      </c>
-      <c r="J35" s="31"/>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="47"/>
+      <c r="B35" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="J35" s="22"/>
       <c r="K35" s="14">
         <f>$I35+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L35" s="14">
         <f>$I35+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.125</v>
       </c>
       <c r="M35" s="14">
         <f>$I35+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N35" s="14">
         <f>$I35+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="O35" s="14">
         <f>$I35+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="P35" s="14">
         <f>$I35+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="Q35" s="14">
         <f>$I35+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R35" s="14">
         <f>$I35+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S35" s="14">
         <f>$I35+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T35" s="14">
         <f>$I35+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U35" s="14">
         <f>$I35+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="V35" s="16">
         <f>$I35+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="26">
-        <v>0</v>
-      </c>
-      <c r="J36" s="10"/>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="47"/>
+      <c r="B36" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="J36" s="22"/>
       <c r="K36" s="14">
         <f>$I36+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L36" s="14">
         <f>$I36+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.125</v>
       </c>
       <c r="M36" s="14">
         <f>$I36+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N36" s="14">
         <f>$I36+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="O36" s="14">
         <f>$I36+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="P36" s="14">
         <f>$I36+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="Q36" s="14">
         <f>$I36+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R36" s="14">
         <f>$I36+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S36" s="14">
         <f>$I36+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T36" s="14">
         <f>$I36+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U36" s="14">
         <f>$I36+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="V36" s="16">
         <f>$I36+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="26">
-        <v>0</v>
-      </c>
-      <c r="J37" s="10"/>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="47"/>
+      <c r="B37" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="J37" s="22"/>
       <c r="K37" s="14">
         <f>$I37+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L37" s="14">
         <f>$I37+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.125</v>
       </c>
       <c r="M37" s="14">
         <f>$I37+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N37" s="14">
         <f>$I37+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="O37" s="14">
         <f>$I37+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="P37" s="14">
         <f>$I37+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="Q37" s="14">
         <f>$I37+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R37" s="14">
         <f>$I37+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S37" s="14">
         <f>$I37+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T37" s="14">
         <f>$I37+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U37" s="14">
         <f>$I37+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="V37" s="16">
         <f>$I37+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="26">
-        <v>0</v>
-      </c>
-      <c r="J38" s="10"/>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="47"/>
+      <c r="B38" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="J38" s="22"/>
       <c r="K38" s="14">
         <f>$I38+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L38" s="14">
         <f>$I38+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.125</v>
       </c>
       <c r="M38" s="14">
         <f>$I38+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N38" s="14">
         <f>$I38+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="O38" s="14">
         <f>$I38+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="P38" s="14">
         <f>$I38+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="Q38" s="14">
         <f>$I38+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R38" s="14">
         <f>$I38+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S38" s="14">
         <f>$I38+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T38" s="14">
         <f>$I38+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U38" s="14">
         <f>$I38+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="V38" s="16">
         <f>$I38+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="26">
-        <v>0</v>
-      </c>
-      <c r="J39" s="10"/>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="47"/>
+      <c r="B39" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="J39" s="22"/>
       <c r="K39" s="14">
         <f>$I39+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L39" s="14">
         <f>$I39+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.125</v>
       </c>
       <c r="M39" s="14">
         <f>$I39+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N39" s="14">
         <f>$I39+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="O39" s="14">
         <f>$I39+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="P39" s="14">
         <f>$I39+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="Q39" s="14">
         <f>$I39+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R39" s="14">
         <f>$I39+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S39" s="14">
         <f>$I39+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T39" s="14">
         <f>$I39+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U39" s="14">
         <f>$I39+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="V39" s="16">
         <f>$I39+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6" t="s">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="47"/>
+      <c r="B40" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="26">
-        <v>0</v>
-      </c>
-      <c r="J40" s="10"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="J40" s="22"/>
       <c r="K40" s="14">
         <f>$I40+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L40" s="14">
         <f>$I40+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.125</v>
       </c>
       <c r="M40" s="14">
         <f>$I40+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N40" s="14">
         <f>$I40+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="O40" s="14">
         <f>$I40+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="P40" s="14">
         <f>$I40+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="Q40" s="14">
         <f>$I40+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R40" s="14">
         <f>$I40+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S40" s="14">
         <f>$I40+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T40" s="14">
         <f>$I40+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U40" s="14">
         <f>$I40+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="V40" s="16">
         <f>$I40+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6" t="s">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="47"/>
+      <c r="B41" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="26">
-        <v>0</v>
-      </c>
-      <c r="J41" s="10"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="J41" s="22"/>
       <c r="K41" s="14">
         <f>$I41+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L41" s="14">
         <f>$I41+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.125</v>
       </c>
       <c r="M41" s="14">
         <f>$I41+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N41" s="14">
         <f>$I41+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="O41" s="14">
         <f>$I41+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="P41" s="14">
         <f>$I41+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="Q41" s="14">
         <f>$I41+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R41" s="14">
         <f>$I41+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S41" s="14">
         <f>$I41+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T41" s="14">
         <f>$I41+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U41" s="14">
         <f>$I41+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="V41" s="16">
         <f>$I41+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="47"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
       <c r="F42" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="26">
-        <v>0</v>
-      </c>
-      <c r="J42" s="10"/>
+        <v>93</v>
+      </c>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="30">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J42" s="34"/>
       <c r="K42" s="14">
         <f>$I42+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="L42" s="14">
         <f>$I42+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="M42" s="14">
         <f>$I42+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.125</v>
       </c>
       <c r="N42" s="14">
         <f>$I42+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O42" s="14">
         <f>$I42+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="P42" s="14">
         <f>$I42+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="Q42" s="14">
         <f>$I42+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.875</v>
       </c>
       <c r="R42" s="14">
         <f>$I42+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="S42" s="14">
         <f>$I42+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="T42" s="14">
         <f>$I42+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="U42" s="14">
         <f>$I42+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="V42" s="16">
         <f>$I42+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="26">
-        <v>0</v>
-      </c>
-      <c r="J43" s="10"/>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="48"/>
+      <c r="B43" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="30">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J43" s="34"/>
       <c r="K43" s="14">
         <f>$I43+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="L43" s="14">
         <f>$I43+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="M43" s="14">
         <f>$I43+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.125</v>
       </c>
       <c r="N43" s="14">
         <f>$I43+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O43" s="14">
         <f>$I43+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="P43" s="14">
         <f>$I43+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="Q43" s="14">
         <f>$I43+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.875</v>
       </c>
       <c r="R43" s="14">
         <f>$I43+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="S43" s="14">
         <f>$I43+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="T43" s="14">
         <f>$I43+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="U43" s="14">
         <f>$I43+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="V43" s="16">
         <f>$I43+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="46"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
       <c r="I44" s="26">
         <v>0</v>
       </c>
-      <c r="J44" s="10"/>
+      <c r="J44" s="31"/>
       <c r="K44" s="14">
         <f>$I44+Sheet2!B$1/24</f>
         <v>0.41666666666666669</v>
@@ -4014,75 +4060,77 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6" t="s">
+      <c r="A45" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="26">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J45" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="31"/>
       <c r="K45" s="14">
         <f>$I45+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L45" s="14">
         <f>$I45+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M45" s="14">
         <f>$I45+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N45" s="14">
         <f>$I45+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O45" s="14">
         <f>$I45+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P45" s="14">
         <f>$I45+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q45" s="14">
         <f>$I45+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R45" s="14">
         <f>$I45+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S45" s="14">
         <f>$I45+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T45" s="14">
         <f>$I45+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U45" s="14">
         <f>$I45+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V45" s="16">
         <f>$I45+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="17" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -4092,63 +4140,63 @@
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="8">
-        <v>4.1666666666666664E-2</v>
+      <c r="I46" s="26">
+        <v>0</v>
       </c>
       <c r="J46" s="10"/>
       <c r="K46" s="14">
         <f>$I46+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L46" s="14">
         <f>$I46+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M46" s="14">
         <f>$I46+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N46" s="14">
         <f>$I46+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O46" s="14">
         <f>$I46+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P46" s="14">
         <f>$I46+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q46" s="14">
         <f>$I46+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R46" s="14">
         <f>$I46+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S46" s="14">
         <f>$I46+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T46" s="14">
         <f>$I46+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U46" s="14">
         <f>$I46+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V46" s="16">
         <f>$I46+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="17" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -4158,129 +4206,129 @@
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="8">
-        <v>4.1666666666666664E-2</v>
+      <c r="I47" s="26">
+        <v>0</v>
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="14">
         <f>$I47+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L47" s="14">
         <f>$I47+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M47" s="14">
         <f>$I47+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N47" s="14">
         <f>$I47+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O47" s="14">
         <f>$I47+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P47" s="14">
         <f>$I47+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q47" s="14">
         <f>$I47+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R47" s="14">
         <f>$I47+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S47" s="14">
         <f>$I47+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T47" s="14">
         <f>$I47+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U47" s="14">
         <f>$I47+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V47" s="16">
         <f>$I47+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="41" t="s">
-        <v>73</v>
+      <c r="A48" s="47"/>
+      <c r="B48" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="8">
-        <v>4.1666666666666664E-2</v>
+      <c r="I48" s="26">
+        <v>0</v>
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="14">
         <f>$I48+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L48" s="14">
         <f>$I48+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M48" s="14">
         <f>$I48+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N48" s="14">
         <f>$I48+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O48" s="14">
         <f>$I48+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P48" s="14">
         <f>$I48+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q48" s="14">
         <f>$I48+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R48" s="14">
         <f>$I48+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S48" s="14">
         <f>$I48+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T48" s="14">
         <f>$I48+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U48" s="14">
         <f>$I48+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V48" s="16">
         <f>$I48+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="17" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -4290,195 +4338,195 @@
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="8">
-        <v>8.3333333333333301E-2</v>
+      <c r="I49" s="26">
+        <v>0</v>
       </c>
       <c r="J49" s="10"/>
       <c r="K49" s="14">
         <f>$I49+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L49" s="14">
         <f>$I49+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="M49" s="14">
         <f>$I49+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N49" s="14">
         <f>$I49+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="O49" s="14">
         <f>$I49+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="P49" s="14">
         <f>$I49+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="Q49" s="14">
         <f>$I49+Sheet2!B$7/24</f>
-        <v>0.16666666666666663</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R49" s="14">
         <f>$I49+Sheet2!B$8/24</f>
-        <v>0.12499999999999997</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S49" s="14">
         <f>$I49+Sheet2!B$9/24</f>
-        <v>-8.3333333333333356E-2</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T49" s="14">
         <f>$I49+Sheet2!B$10/24</f>
-        <v>-0.12500000000000006</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U49" s="14">
         <f>$I49+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.25</v>
       </c>
       <c r="V49" s="16">
         <f>$I49+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
-      <c r="B50" s="17" t="s">
-        <v>47</v>
+      <c r="A50" s="47"/>
+      <c r="B50" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="8">
-        <v>8.3333333333333329E-2</v>
+      <c r="H50" s="7"/>
+      <c r="I50" s="26">
+        <v>0</v>
       </c>
       <c r="J50" s="10"/>
       <c r="K50" s="14">
         <f>$I50+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L50" s="14">
         <f>$I50+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="M50" s="14">
         <f>$I50+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N50" s="14">
         <f>$I50+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="O50" s="14">
         <f>$I50+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="P50" s="14">
         <f>$I50+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="Q50" s="14">
         <f>$I50+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R50" s="14">
         <f>$I50+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S50" s="14">
         <f>$I50+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T50" s="14">
         <f>$I50+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U50" s="14">
         <f>$I50+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.25</v>
       </c>
       <c r="V50" s="16">
         <f>$I50+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="17" t="s">
-        <v>46</v>
+      <c r="A51" s="47"/>
+      <c r="B51" s="37" t="s">
+        <v>69</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-      <c r="I51" s="8">
-        <v>8.3333333333333329E-2</v>
+      <c r="I51" s="26">
+        <v>0</v>
       </c>
       <c r="J51" s="10"/>
       <c r="K51" s="14">
         <f>$I51+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L51" s="14">
         <f>$I51+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="M51" s="14">
         <f>$I51+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N51" s="14">
         <f>$I51+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="O51" s="14">
         <f>$I51+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="P51" s="14">
         <f>$I51+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="Q51" s="14">
         <f>$I51+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R51" s="14">
         <f>$I51+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S51" s="14">
         <f>$I51+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T51" s="14">
         <f>$I51+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U51" s="14">
         <f>$I51+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.25</v>
       </c>
       <c r="V51" s="16">
         <f>$I51+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="41" t="s">
-        <v>75</v>
+      <c r="A52" s="47"/>
+      <c r="B52" s="37" t="s">
+        <v>71</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -4488,352 +4536,1268 @@
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="8">
-        <v>8.3333333333333329E-2</v>
+      <c r="I52" s="26">
+        <v>0</v>
       </c>
       <c r="J52" s="10"/>
       <c r="K52" s="14">
         <f>$I52+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L52" s="14">
         <f>$I52+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="M52" s="14">
         <f>$I52+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N52" s="14">
         <f>$I52+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="O52" s="14">
         <f>$I52+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="P52" s="14">
         <f>$I52+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="Q52" s="14">
         <f>$I52+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R52" s="14">
         <f>$I52+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S52" s="14">
         <f>$I52+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T52" s="14">
         <f>$I52+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U52" s="14">
         <f>$I52+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.25</v>
       </c>
       <c r="V52" s="16">
         <f>$I52+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="17" t="s">
-        <v>48</v>
+      <c r="A53" s="47"/>
+      <c r="B53" s="37" t="s">
+        <v>85</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
-      <c r="I53" s="8">
-        <v>0.125</v>
+      <c r="I53" s="26">
+        <v>0</v>
       </c>
       <c r="J53" s="10"/>
       <c r="K53" s="14">
         <f>$I53+Sheet2!B$1/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L53" s="14">
         <f>$I53+Sheet2!B$2/24</f>
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="M53" s="14">
         <f>$I53+Sheet2!B$3/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N53" s="14">
         <f>$I53+Sheet2!B$4/24</f>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="O53" s="14">
         <f>$I53+Sheet2!B$5/24</f>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="P53" s="14">
         <f>$I53+Sheet2!B$6/24</f>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="Q53" s="14">
         <f>$I53+Sheet2!B$7/24</f>
-        <v>0.20833333333333331</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R53" s="14">
         <f>$I53+Sheet2!B$8/24</f>
-        <v>0.16666666666666666</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S53" s="14">
         <f>$I53+Sheet2!B$9/24</f>
-        <v>-4.1666666666666657E-2</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T53" s="14">
         <f>$I53+Sheet2!B$10/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U53" s="14">
         <f>$I53+Sheet2!B$11/24</f>
-        <v>-0.125</v>
+        <v>-0.25</v>
       </c>
       <c r="V53" s="16">
         <f>$I53+Sheet2!B$12/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="8">
-        <v>0.125</v>
-      </c>
-      <c r="J54" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="26">
+        <v>0</v>
+      </c>
+      <c r="J54" s="10"/>
       <c r="K54" s="14">
         <f>$I54+Sheet2!B$1/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L54" s="14">
         <f>$I54+Sheet2!B$2/24</f>
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="M54" s="14">
         <f>$I54+Sheet2!B$3/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N54" s="14">
         <f>$I54+Sheet2!B$4/24</f>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="O54" s="14">
         <f>$I54+Sheet2!B$5/24</f>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="P54" s="14">
         <f>$I54+Sheet2!B$6/24</f>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="Q54" s="14">
         <f>$I54+Sheet2!B$7/24</f>
-        <v>0.20833333333333331</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R54" s="14">
         <f>$I54+Sheet2!B$8/24</f>
-        <v>0.16666666666666666</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S54" s="14">
         <f>$I54+Sheet2!B$9/24</f>
-        <v>-4.1666666666666657E-2</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T54" s="14">
         <f>$I54+Sheet2!B$10/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U54" s="14">
         <f>$I54+Sheet2!B$11/24</f>
-        <v>-0.125</v>
+        <v>-0.25</v>
       </c>
       <c r="V54" s="16">
         <f>$I54+Sheet2!B$12/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="8">
-        <v>0.125</v>
+        <v>102</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="26">
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J55" s="10"/>
       <c r="K55" s="14">
         <f>$I55+Sheet2!B$1/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L55" s="14">
         <f>$I55+Sheet2!B$2/24</f>
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M55" s="14">
         <f>$I55+Sheet2!B$3/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="N55" s="14">
         <f>$I55+Sheet2!B$4/24</f>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O55" s="14">
         <f>$I55+Sheet2!B$5/24</f>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P55" s="14">
         <f>$I55+Sheet2!B$6/24</f>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q55" s="14">
         <f>$I55+Sheet2!B$7/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="R55" s="14">
         <f>$I55+Sheet2!B$8/24</f>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S55" s="14">
         <f>$I55+Sheet2!B$9/24</f>
-        <v>-4.1666666666666657E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T55" s="14">
         <f>$I55+Sheet2!B$10/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U55" s="14">
         <f>$I55+Sheet2!B$11/24</f>
-        <v>-0.125</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V55" s="16">
         <f>$I55+Sheet2!B$12/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G56" s="20"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="21">
-        <v>0.125</v>
-      </c>
-      <c r="J56" s="22"/>
+        <v>19</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="26">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J56" s="10"/>
       <c r="K56" s="14">
         <f>$I56+Sheet2!B$1/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L56" s="14">
         <f>$I56+Sheet2!B$2/24</f>
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M56" s="14">
         <f>$I56+Sheet2!B$3/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="N56" s="14">
         <f>$I56+Sheet2!B$4/24</f>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O56" s="14">
         <f>$I56+Sheet2!B$5/24</f>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P56" s="14">
         <f>$I56+Sheet2!B$6/24</f>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q56" s="14">
         <f>$I56+Sheet2!B$7/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="R56" s="14">
         <f>$I56+Sheet2!B$8/24</f>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S56" s="14">
         <f>$I56+Sheet2!B$9/24</f>
-        <v>-4.1666666666666657E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T56" s="14">
         <f>$I56+Sheet2!B$10/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U56" s="14">
         <f>$I56+Sheet2!B$11/24</f>
-        <v>-0.125</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V56" s="16">
         <f>$I56+Sheet2!B$12/24</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="47"/>
+      <c r="B57" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="8">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J57" s="10"/>
+      <c r="K57" s="14">
+        <f>$I57+Sheet2!B$1/24</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="L57" s="14">
+        <f>$I57+Sheet2!B$2/24</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M57" s="14">
+        <f>$I57+Sheet2!B$3/24</f>
+        <v>0.375</v>
+      </c>
+      <c r="N57" s="14">
+        <f>$I57+Sheet2!B$4/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O57" s="14">
+        <f>$I57+Sheet2!B$5/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P57" s="14">
+        <f>$I57+Sheet2!B$6/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q57" s="14">
+        <f>$I57+Sheet2!B$7/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="R57" s="14">
+        <f>$I57+Sheet2!B$8/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="S57" s="14">
+        <f>$I57+Sheet2!B$9/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="T57" s="14">
+        <f>$I57+Sheet2!B$10/24</f>
         <v>-0.16666666666666669</v>
       </c>
+      <c r="U57" s="14">
+        <f>$I57+Sheet2!B$11/24</f>
+        <v>-0.20833333333333334</v>
+      </c>
+      <c r="V57" s="16">
+        <f>$I57+Sheet2!B$12/24</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="47"/>
+      <c r="B58" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="8">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J58" s="10"/>
+      <c r="K58" s="14">
+        <f>$I58+Sheet2!B$1/24</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="L58" s="14">
+        <f>$I58+Sheet2!B$2/24</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M58" s="14">
+        <f>$I58+Sheet2!B$3/24</f>
+        <v>0.375</v>
+      </c>
+      <c r="N58" s="14">
+        <f>$I58+Sheet2!B$4/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O58" s="14">
+        <f>$I58+Sheet2!B$5/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P58" s="14">
+        <f>$I58+Sheet2!B$6/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q58" s="14">
+        <f>$I58+Sheet2!B$7/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="R58" s="14">
+        <f>$I58+Sheet2!B$8/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="S58" s="14">
+        <f>$I58+Sheet2!B$9/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="T58" s="14">
+        <f>$I58+Sheet2!B$10/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="U58" s="14">
+        <f>$I58+Sheet2!B$11/24</f>
+        <v>-0.20833333333333334</v>
+      </c>
+      <c r="V58" s="16">
+        <f>$I58+Sheet2!B$12/24</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="47"/>
+      <c r="B59" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="8">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J59" s="10"/>
+      <c r="K59" s="14">
+        <f>$I59+Sheet2!B$1/24</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="L59" s="14">
+        <f>$I59+Sheet2!B$2/24</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M59" s="14">
+        <f>$I59+Sheet2!B$3/24</f>
+        <v>0.375</v>
+      </c>
+      <c r="N59" s="14">
+        <f>$I59+Sheet2!B$4/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O59" s="14">
+        <f>$I59+Sheet2!B$5/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P59" s="14">
+        <f>$I59+Sheet2!B$6/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q59" s="14">
+        <f>$I59+Sheet2!B$7/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="R59" s="14">
+        <f>$I59+Sheet2!B$8/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="S59" s="14">
+        <f>$I59+Sheet2!B$9/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="T59" s="14">
+        <f>$I59+Sheet2!B$10/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="U59" s="14">
+        <f>$I59+Sheet2!B$11/24</f>
+        <v>-0.20833333333333334</v>
+      </c>
+      <c r="V59" s="16">
+        <f>$I59+Sheet2!B$12/24</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="47"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="8">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="J60" s="10"/>
+      <c r="K60" s="14">
+        <f>$I60+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L60" s="14">
+        <f>$I60+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M60" s="14">
+        <f>$I60+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N60" s="14">
+        <f>$I60+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O60" s="14">
+        <f>$I60+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P60" s="14">
+        <f>$I60+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q60" s="14">
+        <f>$I60+Sheet2!B$7/24</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="R60" s="14">
+        <f>$I60+Sheet2!B$8/24</f>
+        <v>0.12499999999999997</v>
+      </c>
+      <c r="S60" s="14">
+        <f>$I60+Sheet2!B$9/24</f>
+        <v>-8.3333333333333356E-2</v>
+      </c>
+      <c r="T60" s="14">
+        <f>$I60+Sheet2!B$10/24</f>
+        <v>-0.12500000000000006</v>
+      </c>
+      <c r="U60" s="14">
+        <f>$I60+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V60" s="16">
+        <f>$I60+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="47"/>
+      <c r="B61" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="8">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="J61" s="10"/>
+      <c r="K61" s="14">
+        <f>$I61+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L61" s="14">
+        <f>$I61+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M61" s="14">
+        <f>$I61+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N61" s="14">
+        <f>$I61+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O61" s="14">
+        <f>$I61+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P61" s="14">
+        <f>$I61+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q61" s="14">
+        <f>$I61+Sheet2!B$7/24</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="R61" s="14">
+        <f>$I61+Sheet2!B$8/24</f>
+        <v>0.12499999999999997</v>
+      </c>
+      <c r="S61" s="14">
+        <f>$I61+Sheet2!B$9/24</f>
+        <v>-8.3333333333333356E-2</v>
+      </c>
+      <c r="T61" s="14">
+        <f>$I61+Sheet2!B$10/24</f>
+        <v>-0.12500000000000006</v>
+      </c>
+      <c r="U61" s="14">
+        <f>$I61+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V61" s="16">
+        <f>$I61+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="47"/>
+      <c r="B62" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="8">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J62" s="10"/>
+      <c r="K62" s="14">
+        <f>$I62+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L62" s="14">
+        <f>$I62+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M62" s="14">
+        <f>$I62+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N62" s="14">
+        <f>$I62+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O62" s="14">
+        <f>$I62+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P62" s="14">
+        <f>$I62+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q62" s="14">
+        <f>$I62+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R62" s="14">
+        <f>$I62+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S62" s="14">
+        <f>$I62+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T62" s="14">
+        <f>$I62+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U62" s="14">
+        <f>$I62+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V62" s="16">
+        <f>$I62+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="47"/>
+      <c r="B63" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="8">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J63" s="10"/>
+      <c r="K63" s="14">
+        <f>$I63+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L63" s="14">
+        <f>$I63+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M63" s="14">
+        <f>$I63+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N63" s="14">
+        <f>$I63+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O63" s="14">
+        <f>$I63+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P63" s="14">
+        <f>$I63+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q63" s="14">
+        <f>$I63+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R63" s="14">
+        <f>$I63+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S63" s="14">
+        <f>$I63+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T63" s="14">
+        <f>$I63+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U63" s="14">
+        <f>$I63+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V63" s="16">
+        <f>$I63+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="47"/>
+      <c r="B64" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="8">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J64" s="10"/>
+      <c r="K64" s="14">
+        <f>$I64+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L64" s="14">
+        <f>$I64+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M64" s="14">
+        <f>$I64+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N64" s="14">
+        <f>$I64+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O64" s="14">
+        <f>$I64+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P64" s="14">
+        <f>$I64+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q64" s="14">
+        <f>$I64+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R64" s="14">
+        <f>$I64+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S64" s="14">
+        <f>$I64+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T64" s="14">
+        <f>$I64+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U64" s="14">
+        <f>$I64+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V64" s="16">
+        <f>$I64+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="47"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="J65" s="10"/>
+      <c r="K65" s="14">
+        <f>$I65+Sheet2!B$1/24</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="L65" s="14">
+        <f>$I65+Sheet2!B$2/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="M65" s="14">
+        <f>$I65+Sheet2!B$3/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="N65" s="14">
+        <f>$I65+Sheet2!B$4/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="O65" s="14">
+        <f>$I65+Sheet2!B$5/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="P65" s="14">
+        <f>$I65+Sheet2!B$6/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q65" s="14">
+        <f>$I65+Sheet2!B$7/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="R65" s="14">
+        <f>$I65+Sheet2!B$8/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S65" s="14">
+        <f>$I65+Sheet2!B$9/24</f>
+        <v>-4.1666666666666657E-2</v>
+      </c>
+      <c r="T65" s="14">
+        <f>$I65+Sheet2!B$10/24</f>
+        <v>-8.3333333333333343E-2</v>
+      </c>
+      <c r="U65" s="14">
+        <f>$I65+Sheet2!B$11/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="V65" s="16">
+        <f>$I65+Sheet2!B$12/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="47"/>
+      <c r="B66" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="J66" s="10"/>
+      <c r="K66" s="14">
+        <f>$I66+Sheet2!B$1/24</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="L66" s="14">
+        <f>$I66+Sheet2!B$2/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="M66" s="14">
+        <f>$I66+Sheet2!B$3/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="N66" s="14">
+        <f>$I66+Sheet2!B$4/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="O66" s="14">
+        <f>$I66+Sheet2!B$5/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="P66" s="14">
+        <f>$I66+Sheet2!B$6/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q66" s="14">
+        <f>$I66+Sheet2!B$7/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="R66" s="14">
+        <f>$I66+Sheet2!B$8/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S66" s="14">
+        <f>$I66+Sheet2!B$9/24</f>
+        <v>-4.1666666666666657E-2</v>
+      </c>
+      <c r="T66" s="14">
+        <f>$I66+Sheet2!B$10/24</f>
+        <v>-8.3333333333333343E-2</v>
+      </c>
+      <c r="U66" s="14">
+        <f>$I66+Sheet2!B$11/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="V66" s="16">
+        <f>$I66+Sheet2!B$12/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="J67" s="22"/>
+      <c r="K67" s="14">
+        <f>$I67+Sheet2!B$1/24</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="L67" s="14">
+        <f>$I67+Sheet2!B$2/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="M67" s="14">
+        <f>$I67+Sheet2!B$3/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="N67" s="14">
+        <f>$I67+Sheet2!B$4/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="O67" s="14">
+        <f>$I67+Sheet2!B$5/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="P67" s="14">
+        <f>$I67+Sheet2!B$6/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q67" s="14">
+        <f>$I67+Sheet2!B$7/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="R67" s="14">
+        <f>$I67+Sheet2!B$8/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S67" s="14">
+        <f>$I67+Sheet2!B$9/24</f>
+        <v>-4.1666666666666657E-2</v>
+      </c>
+      <c r="T67" s="14">
+        <f>$I67+Sheet2!B$10/24</f>
+        <v>-8.3333333333333343E-2</v>
+      </c>
+      <c r="U67" s="14">
+        <f>$I67+Sheet2!B$11/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="V67" s="16">
+        <f>$I67+Sheet2!B$12/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="J68" s="10"/>
+      <c r="K68" s="14">
+        <f>$I68+Sheet2!B$1/24</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="L68" s="14">
+        <f>$I68+Sheet2!B$2/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="M68" s="14">
+        <f>$I68+Sheet2!B$3/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="N68" s="14">
+        <f>$I68+Sheet2!B$4/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="O68" s="14">
+        <f>$I68+Sheet2!B$5/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="P68" s="14">
+        <f>$I68+Sheet2!B$6/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q68" s="14">
+        <f>$I68+Sheet2!B$7/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="R68" s="14">
+        <f>$I68+Sheet2!B$8/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S68" s="14">
+        <f>$I68+Sheet2!B$9/24</f>
+        <v>-4.1666666666666657E-2</v>
+      </c>
+      <c r="T68" s="14">
+        <f>$I68+Sheet2!B$10/24</f>
+        <v>-8.3333333333333343E-2</v>
+      </c>
+      <c r="U68" s="14">
+        <f>$I68+Sheet2!B$11/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="V68" s="16">
+        <f>$I68+Sheet2!B$12/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="47"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="8">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="J69" s="10"/>
+      <c r="K69" s="14">
+        <f>$I69+Sheet2!B$1/24</f>
+        <v>0.62499999999999967</v>
+      </c>
+      <c r="L69" s="14">
+        <f>$I69+Sheet2!B$2/24</f>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="M69" s="14">
+        <f>$I69+Sheet2!B$3/24</f>
+        <v>0.5416666666666663</v>
+      </c>
+      <c r="N69" s="14">
+        <f>$I69+Sheet2!B$4/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="O69" s="14">
+        <f>$I69+Sheet2!B$5/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="P69" s="14">
+        <f>$I69+Sheet2!B$6/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="Q69" s="14">
+        <f>$I69+Sheet2!B$7/24</f>
+        <v>0.29166666666666635</v>
+      </c>
+      <c r="R69" s="14">
+        <f>$I69+Sheet2!B$8/24</f>
+        <v>0.24999999999999967</v>
+      </c>
+      <c r="S69" s="14">
+        <f>$I69+Sheet2!B$9/24</f>
+        <v>4.1666666666666352E-2</v>
+      </c>
+      <c r="T69" s="14">
+        <f>$I69+Sheet2!B$10/24</f>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="U69" s="14">
+        <f>$I69+Sheet2!B$11/24</f>
+        <v>-4.166666666666699E-2</v>
+      </c>
+      <c r="V69" s="16">
+        <f>$I69+Sheet2!B$12/24</f>
+        <v>-8.3333333333333676E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="47"/>
+      <c r="B70" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="8">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="J70" s="10"/>
+      <c r="K70" s="14">
+        <f>$I70+Sheet2!B$1/24</f>
+        <v>0.62499999999999967</v>
+      </c>
+      <c r="L70" s="14">
+        <f>$I70+Sheet2!B$2/24</f>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="M70" s="14">
+        <f>$I70+Sheet2!B$3/24</f>
+        <v>0.5416666666666663</v>
+      </c>
+      <c r="N70" s="14">
+        <f>$I70+Sheet2!B$4/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="O70" s="14">
+        <f>$I70+Sheet2!B$5/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="P70" s="14">
+        <f>$I70+Sheet2!B$6/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="Q70" s="14">
+        <f>$I70+Sheet2!B$7/24</f>
+        <v>0.29166666666666635</v>
+      </c>
+      <c r="R70" s="14">
+        <f>$I70+Sheet2!B$8/24</f>
+        <v>0.24999999999999967</v>
+      </c>
+      <c r="S70" s="14">
+        <f>$I70+Sheet2!B$9/24</f>
+        <v>4.1666666666666352E-2</v>
+      </c>
+      <c r="T70" s="14">
+        <f>$I70+Sheet2!B$10/24</f>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="U70" s="14">
+        <f>$I70+Sheet2!B$11/24</f>
+        <v>-4.166666666666699E-2</v>
+      </c>
+      <c r="V70" s="16">
+        <f>$I70+Sheet2!B$12/24</f>
+        <v>-8.3333333333333676E-2</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="B27:V33">
-    <sortCondition ref="B27"/>
+  <sortState ref="B35:V41">
+    <sortCondition ref="B35"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
-    <mergeCell ref="A11:A34"/>
-    <mergeCell ref="A35:A56"/>
-    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A16:A43"/>
+    <mergeCell ref="A45:A70"/>
+    <mergeCell ref="A2:A14"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L2 K3:V56">
+  <conditionalFormatting sqref="K2:L4 K4:V70">
     <cfRule type="expression" dxfId="2" priority="17">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:V56">
+  <conditionalFormatting sqref="K2:V70">
     <cfRule type="expression" dxfId="1" priority="19">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:V56">
+  <conditionalFormatting sqref="B2:V70">
     <cfRule type="expression" dxfId="0" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Desktop\swgoh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5BCA7009-D48C-4ED0-972D-98818BACDD2E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F38AD46D-1E45-4923-9D58-1FEC4DFC19CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>UTC-10</t>
+  </si>
+  <si>
+    <t>_ _</t>
   </si>
 </sst>
 </file>
@@ -776,12 +779,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,6 +789,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1138,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,10 +1240,12 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="38" t="s">
+        <v>106</v>
+      </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -1303,7 +1308,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="38" t="s">
         <v>28</v>
       </c>
@@ -1369,8 +1374,10 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="38" t="s">
+        <v>106</v>
+      </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1433,7 +1440,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="17" t="s">
         <v>27</v>
       </c>
@@ -1499,7 +1506,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="17" t="s">
         <v>76</v>
       </c>
@@ -1565,8 +1572,10 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1629,7 +1638,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="17" t="s">
         <v>55</v>
       </c>
@@ -1695,7 +1704,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="18" t="s">
         <v>29</v>
       </c>
@@ -1761,7 +1770,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="18" t="s">
         <v>87</v>
       </c>
@@ -1827,7 +1836,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="36" t="s">
         <v>61</v>
       </c>
@@ -1893,8 +1902,10 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -1957,7 +1968,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="17" t="s">
         <v>84</v>
       </c>
@@ -2023,7 +2034,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="40" t="s">
         <v>60</v>
       </c>
@@ -2089,8 +2100,10 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="51" t="s">
+        <v>106</v>
+      </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
@@ -2102,7 +2115,7 @@
       <c r="I15" s="26">
         <v>0.625</v>
       </c>
-      <c r="J15" s="51"/>
+      <c r="J15" s="49"/>
       <c r="K15" s="14">
         <f>$I15+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
@@ -2153,7 +2166,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="53" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -2170,7 +2183,7 @@
       <c r="I16" s="26">
         <v>0.625</v>
       </c>
-      <c r="J16" s="51"/>
+      <c r="J16" s="49"/>
       <c r="K16" s="14">
         <f>$I16+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
@@ -2221,7 +2234,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="17" t="s">
         <v>31</v>
       </c>
@@ -2287,8 +2300,10 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -2351,7 +2366,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="17" t="s">
         <v>33</v>
       </c>
@@ -2417,7 +2432,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="17" t="s">
         <v>32</v>
       </c>
@@ -2483,8 +2498,10 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -2547,7 +2564,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="17" t="s">
         <v>36</v>
       </c>
@@ -2613,7 +2630,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="17" t="s">
         <v>35</v>
       </c>
@@ -2680,7 +2697,7 @@
       <c r="X23" s="4"/>
     </row>
     <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="17" t="s">
         <v>34</v>
       </c>
@@ -2746,7 +2763,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="37" t="s">
         <v>77</v>
       </c>
@@ -2812,8 +2829,10 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="37"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="37" t="s">
+        <v>106</v>
+      </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -2876,7 +2895,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="17" t="s">
         <v>41</v>
       </c>
@@ -2942,7 +2961,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="17" t="s">
         <v>38</v>
       </c>
@@ -3008,7 +3027,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="17" t="s">
         <v>56</v>
       </c>
@@ -3074,7 +3093,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="17" t="s">
         <v>37</v>
       </c>
@@ -3140,7 +3159,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="17" t="s">
         <v>39</v>
       </c>
@@ -3206,7 +3225,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="17" t="s">
         <v>57</v>
       </c>
@@ -3272,7 +3291,7 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="17" t="s">
         <v>81</v>
       </c>
@@ -3338,7 +3357,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="17" t="s">
         <v>62</v>
       </c>
@@ -3404,7 +3423,7 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="18" t="s">
         <v>89</v>
       </c>
@@ -3470,7 +3489,7 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="36" t="s">
         <v>64</v>
       </c>
@@ -3536,7 +3555,7 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="36" t="s">
         <v>80</v>
       </c>
@@ -3602,7 +3621,7 @@
       </c>
     </row>
     <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="36" t="s">
         <v>63</v>
       </c>
@@ -3668,7 +3687,7 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
+      <c r="A39" s="53"/>
       <c r="B39" s="36" t="s">
         <v>79</v>
       </c>
@@ -3734,7 +3753,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="36" t="s">
         <v>90</v>
       </c>
@@ -3800,7 +3819,7 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="36" t="s">
         <v>65</v>
       </c>
@@ -3866,8 +3885,10 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="47"/>
-      <c r="B42" s="36"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
@@ -3930,7 +3951,7 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="48"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="27" t="s">
         <v>40</v>
       </c>
@@ -3997,15 +4018,17 @@
     </row>
     <row r="44" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A44" s="46"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49" t="s">
+      <c r="B44" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
       <c r="I44" s="26">
         <v>0</v>
       </c>
@@ -4060,7 +4083,7 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="53" t="s">
         <v>18</v>
       </c>
       <c r="B45" s="23" t="s">
@@ -4128,7 +4151,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
+      <c r="A46" s="53"/>
       <c r="B46" s="17" t="s">
         <v>43</v>
       </c>
@@ -4194,7 +4217,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="17" t="s">
         <v>72</v>
       </c>
@@ -4260,7 +4283,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="17" t="s">
         <v>83</v>
       </c>
@@ -4326,7 +4349,7 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
+      <c r="A49" s="53"/>
       <c r="B49" s="17" t="s">
         <v>54</v>
       </c>
@@ -4392,7 +4415,7 @@
       </c>
     </row>
     <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="37" t="s">
         <v>67</v>
       </c>
@@ -4458,7 +4481,7 @@
       </c>
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
+      <c r="A51" s="53"/>
       <c r="B51" s="37" t="s">
         <v>69</v>
       </c>
@@ -4524,7 +4547,7 @@
       </c>
     </row>
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
+      <c r="A52" s="53"/>
       <c r="B52" s="37" t="s">
         <v>71</v>
       </c>
@@ -4590,7 +4613,7 @@
       </c>
     </row>
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
+      <c r="A53" s="53"/>
       <c r="B53" s="37" t="s">
         <v>85</v>
       </c>
@@ -4656,7 +4679,7 @@
       </c>
     </row>
     <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
+      <c r="A54" s="53"/>
       <c r="B54" s="37" t="s">
         <v>68</v>
       </c>
@@ -4722,8 +4745,10 @@
       </c>
     </row>
     <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
-      <c r="B55" s="37"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="37" t="s">
+        <v>106</v>
+      </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -4786,7 +4811,7 @@
       </c>
     </row>
     <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
+      <c r="A56" s="53"/>
       <c r="B56" s="17" t="s">
         <v>44</v>
       </c>
@@ -4852,7 +4877,7 @@
       </c>
     </row>
     <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
+      <c r="A57" s="53"/>
       <c r="B57" s="17" t="s">
         <v>52</v>
       </c>
@@ -4918,7 +4943,7 @@
       </c>
     </row>
     <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
+      <c r="A58" s="53"/>
       <c r="B58" s="17" t="s">
         <v>45</v>
       </c>
@@ -4984,7 +5009,7 @@
       </c>
     </row>
     <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
+      <c r="A59" s="53"/>
       <c r="B59" s="37" t="s">
         <v>73</v>
       </c>
@@ -5050,8 +5075,10 @@
       </c>
     </row>
     <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
-      <c r="B60" s="37"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="37" t="s">
+        <v>106</v>
+      </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -5114,7 +5141,7 @@
       </c>
     </row>
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
+      <c r="A61" s="53"/>
       <c r="B61" s="17" t="s">
         <v>91</v>
       </c>
@@ -5180,7 +5207,7 @@
       </c>
     </row>
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
+      <c r="A62" s="53"/>
       <c r="B62" s="17" t="s">
         <v>47</v>
       </c>
@@ -5246,7 +5273,7 @@
       </c>
     </row>
     <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
+      <c r="A63" s="53"/>
       <c r="B63" s="17" t="s">
         <v>46</v>
       </c>
@@ -5312,7 +5339,7 @@
       </c>
     </row>
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
+      <c r="A64" s="53"/>
       <c r="B64" s="37" t="s">
         <v>75</v>
       </c>
@@ -5378,8 +5405,10 @@
       </c>
     </row>
     <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="47"/>
-      <c r="B65" s="37"/>
+      <c r="A65" s="53"/>
+      <c r="B65" s="37" t="s">
+        <v>106</v>
+      </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -5442,7 +5471,7 @@
       </c>
     </row>
     <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
+      <c r="A66" s="53"/>
       <c r="B66" s="17" t="s">
         <v>48</v>
       </c>
@@ -5508,7 +5537,7 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="47"/>
+      <c r="A67" s="53"/>
       <c r="B67" s="39" t="s">
         <v>49</v>
       </c>
@@ -5574,7 +5603,7 @@
       </c>
     </row>
     <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="47"/>
+      <c r="A68" s="53"/>
       <c r="B68" s="36" t="s">
         <v>66</v>
       </c>
@@ -5640,8 +5669,10 @@
       </c>
     </row>
     <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="47"/>
-      <c r="B69" s="36"/>
+      <c r="A69" s="53"/>
+      <c r="B69" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
@@ -5704,7 +5735,7 @@
       </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="47"/>
+      <c r="A70" s="53"/>
       <c r="B70" s="36" t="s">
         <v>86</v>
       </c>
@@ -5774,11 +5805,11 @@
     <sortCondition ref="B35"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Desktop\swgoh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Desktop\swgoh\shard-payout-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F38AD46D-1E45-4923-9D58-1FEC4DFC19CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CEA92A50-6BA2-446A-94C0-8A02DBFF02CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -355,6 +355,15 @@
   </si>
   <si>
     <t>_ _</t>
+  </si>
+  <si>
+    <t>UTC+11</t>
+  </si>
+  <si>
+    <t>:exclamation:</t>
+  </si>
+  <si>
+    <t>UTC+6</t>
   </si>
 </sst>
 </file>
@@ -709,7 +718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -787,14 +796,18 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1139,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X70"/>
+  <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,43 +1208,43 @@
         <v>23</v>
       </c>
       <c r="L1" s="5">
-        <f>H5</f>
+        <f>H7</f>
         <v>0</v>
       </c>
       <c r="M1" s="5">
-        <f>H14</f>
+        <f>H15</f>
         <v>0</v>
       </c>
       <c r="N1" s="5">
-        <f>H16</f>
-        <v>0</v>
-      </c>
-      <c r="O1" s="5">
         <f>H19</f>
         <v>0</v>
       </c>
+      <c r="O1" s="5">
+        <f>H21</f>
+        <v>0</v>
+      </c>
       <c r="P1" s="5">
-        <f>H20</f>
+        <f>H23</f>
         <v>0</v>
       </c>
       <c r="Q1" s="5">
-        <f>H22</f>
+        <f>H25</f>
         <v>0</v>
       </c>
       <c r="R1" s="5">
-        <f>H43</f>
-        <v>0</v>
-      </c>
-      <c r="S1" s="5">
         <f>H45</f>
         <v>0</v>
       </c>
+      <c r="S1" s="5">
+        <f>H47</f>
+        <v>0</v>
+      </c>
       <c r="T1" s="5">
-        <f>H57</f>
+        <f>H59</f>
         <v>0</v>
       </c>
       <c r="U1" s="5">
-        <f>H63</f>
+        <f>H65</f>
         <v>0</v>
       </c>
       <c r="V1" s="5" t="e">
@@ -1243,281 +1256,281 @@
       <c r="A2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="17" t="s">
         <v>106</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="12"/>
       <c r="I2" s="14">
-        <v>0.375</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="14">
         <f>$I2+Sheet2!B$1/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.74999999999999967</v>
       </c>
       <c r="L2" s="14">
         <f>$I2+Sheet2!B$2/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="M2" s="14">
         <f>$I2+Sheet2!B$3/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.6666666666666663</v>
       </c>
       <c r="N2" s="14">
         <f>$I2+Sheet2!B$4/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="O2" s="14">
         <f>$I2+Sheet2!B$5/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="P2" s="14">
         <f>$I2+Sheet2!B$6/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="Q2" s="14">
         <f>$I2+Sheet2!B$7/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.4166666666666663</v>
       </c>
       <c r="R2" s="14">
         <f>$I2+Sheet2!B$8/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.37499999999999967</v>
       </c>
       <c r="S2" s="14">
         <f>$I2+Sheet2!B$9/24</f>
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666632</v>
       </c>
       <c r="T2" s="14">
         <f>$I2+Sheet2!B$10/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.12499999999999964</v>
       </c>
       <c r="U2" s="14">
         <f>$I2+Sheet2!B$11/24</f>
-        <v>0.125</v>
+        <v>8.3333333333332982E-2</v>
       </c>
       <c r="V2" s="16">
         <f>$I2+Sheet2!B$12/24</f>
-        <v>8.3333333333333315E-2</v>
+        <v>4.1666666666666297E-2</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
-      <c r="B3" s="38" t="s">
-        <v>28</v>
+      <c r="B3" s="55" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="12"/>
       <c r="I3" s="14">
-        <v>0.375</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="14">
         <f>$I3+Sheet2!B$1/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.74999999999999967</v>
       </c>
       <c r="L3" s="14">
         <f>$I3+Sheet2!B$2/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="M3" s="14">
         <f>$I3+Sheet2!B$3/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.6666666666666663</v>
       </c>
       <c r="N3" s="14">
         <f>$I3+Sheet2!B$4/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="O3" s="14">
         <f>$I3+Sheet2!B$5/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="P3" s="14">
         <f>$I3+Sheet2!B$6/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="Q3" s="14">
         <f>$I3+Sheet2!B$7/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.4166666666666663</v>
       </c>
       <c r="R3" s="14">
         <f>$I3+Sheet2!B$8/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.37499999999999967</v>
       </c>
       <c r="S3" s="14">
         <f>$I3+Sheet2!B$9/24</f>
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666632</v>
       </c>
       <c r="T3" s="14">
         <f>$I3+Sheet2!B$10/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.12499999999999964</v>
       </c>
       <c r="U3" s="14">
         <f>$I3+Sheet2!B$11/24</f>
-        <v>0.125</v>
+        <v>8.3333333333332982E-2</v>
       </c>
       <c r="V3" s="16">
         <f>$I3+Sheet2!B$12/24</f>
-        <v>8.3333333333333315E-2</v>
+        <v>4.1666666666666297E-2</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="17" t="s">
         <v>106</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J4" s="9"/>
+      <c r="I4" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="J4" s="15"/>
       <c r="K4" s="14">
         <f>$I4+Sheet2!B$1/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="L4" s="14">
         <f>$I4+Sheet2!B$2/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.75</v>
       </c>
       <c r="M4" s="14">
         <f>$I4+Sheet2!B$3/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="N4" s="14">
         <f>$I4+Sheet2!B$4/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="O4" s="14">
         <f>$I4+Sheet2!B$5/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="P4" s="14">
         <f>$I4+Sheet2!B$6/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="Q4" s="14">
         <f>$I4+Sheet2!B$7/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="R4" s="14">
         <f>$I4+Sheet2!B$8/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="S4" s="14">
         <f>$I4+Sheet2!B$9/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="T4" s="14">
         <f>$I4+Sheet2!B$10/24</f>
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="U4" s="14">
         <f>$I4+Sheet2!B$11/24</f>
-        <v>0.16666666666666669</v>
+        <v>0.125</v>
       </c>
       <c r="V4" s="16">
         <f>$I4+Sheet2!B$12/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333315E-2</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53"/>
-      <c r="B5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J5" s="9"/>
+      <c r="B5" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="J5" s="15"/>
       <c r="K5" s="14">
         <f>$I5+Sheet2!B$1/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="L5" s="14">
         <f>$I5+Sheet2!B$2/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.75</v>
       </c>
       <c r="M5" s="14">
         <f>$I5+Sheet2!B$3/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="N5" s="14">
         <f>$I5+Sheet2!B$4/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="14">
         <f>$I5+Sheet2!B$5/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="P5" s="14">
         <f>$I5+Sheet2!B$6/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="Q5" s="14">
         <f>$I5+Sheet2!B$7/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="R5" s="14">
         <f>$I5+Sheet2!B$8/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="S5" s="14">
         <f>$I5+Sheet2!B$9/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="T5" s="14">
         <f>$I5+Sheet2!B$10/24</f>
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="U5" s="14">
         <f>$I5+Sheet2!B$11/24</f>
-        <v>0.16666666666666669</v>
+        <v>0.125</v>
       </c>
       <c r="V5" s="16">
         <f>$I5+Sheet2!B$12/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333315E-2</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53"/>
       <c r="B6" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="8">
         <v>0.41666666666666669</v>
       </c>
@@ -1574,152 +1587,152 @@
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53"/>
       <c r="B7" s="17" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="8">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="14">
         <f>$I7+Sheet2!B$1/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L7" s="14">
         <f>$I7+Sheet2!B$2/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="M7" s="14">
         <f>$I7+Sheet2!B$3/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="N7" s="14">
         <f>$I7+Sheet2!B$4/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="O7" s="14">
         <f>$I7+Sheet2!B$5/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="P7" s="14">
         <f>$I7+Sheet2!B$6/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="Q7" s="14">
         <f>$I7+Sheet2!B$7/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="14">
         <f>$I7+Sheet2!B$8/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="S7" s="14">
         <f>$I7+Sheet2!B$9/24</f>
-        <v>0.29166666666666663</v>
+        <v>0.25</v>
       </c>
       <c r="T7" s="14">
         <f>$I7+Sheet2!B$10/24</f>
-        <v>0.24999999999999997</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="U7" s="14">
         <f>$I7+Sheet2!B$11/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="V7" s="16">
         <f>$I7+Sheet2!B$12/24</f>
-        <v>0.16666666666666663</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53"/>
       <c r="B8" s="17" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="8">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="14">
         <f>$I8+Sheet2!B$1/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L8" s="14">
         <f>$I8+Sheet2!B$2/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="M8" s="14">
         <f>$I8+Sheet2!B$3/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="N8" s="14">
         <f>$I8+Sheet2!B$4/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="O8" s="14">
         <f>$I8+Sheet2!B$5/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="P8" s="14">
         <f>$I8+Sheet2!B$6/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="Q8" s="14">
         <f>$I8+Sheet2!B$7/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="R8" s="14">
         <f>$I8+Sheet2!B$8/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="S8" s="14">
         <f>$I8+Sheet2!B$9/24</f>
-        <v>0.29166666666666663</v>
+        <v>0.25</v>
       </c>
       <c r="T8" s="14">
         <f>$I8+Sheet2!B$10/24</f>
-        <v>0.24999999999999997</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="U8" s="14">
         <f>$I8+Sheet2!B$11/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="V8" s="16">
         <f>$I8+Sheet2!B$12/24</f>
-        <v>0.16666666666666663</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53"/>
-      <c r="B9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21">
+      <c r="B9" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J9" s="35"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="14">
         <f>$I9+Sheet2!B$1/24</f>
         <v>0.875</v>
@@ -1771,21 +1784,21 @@
     </row>
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
-      <c r="B10" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21">
+      <c r="B10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J10" s="35"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="14">
         <f>$I10+Sheet2!B$1/24</f>
         <v>0.875</v>
@@ -1837,14 +1850,14 @@
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
-      <c r="B11" s="36" t="s">
-        <v>61</v>
+      <c r="B11" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="20"/>
@@ -1904,82 +1917,82 @@
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
       <c r="B12" s="36" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="45"/>
+      <c r="I12" s="21">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J12" s="35"/>
       <c r="K12" s="14">
         <f>$I12+Sheet2!B$1/24</f>
-        <v>0.91666666666666674</v>
+        <v>0.875</v>
       </c>
       <c r="L12" s="14">
         <f>$I12+Sheet2!B$2/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="M12" s="14">
         <f>$I12+Sheet2!B$3/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="N12" s="14">
         <f>$I12+Sheet2!B$4/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="O12" s="14">
         <f>$I12+Sheet2!B$5/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="P12" s="14">
         <f>$I12+Sheet2!B$6/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="Q12" s="14">
         <f>$I12+Sheet2!B$7/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R12" s="14">
         <f>$I12+Sheet2!B$8/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="S12" s="14">
         <f>$I12+Sheet2!B$9/24</f>
-        <v>0.33333333333333337</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="T12" s="14">
         <f>$I12+Sheet2!B$10/24</f>
-        <v>0.29166666666666663</v>
+        <v>0.24999999999999997</v>
       </c>
       <c r="U12" s="14">
         <f>$I12+Sheet2!B$11/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="V12" s="16">
         <f>$I12+Sheet2!B$12/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53"/>
-      <c r="B13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="8">
         <v>0.5</v>
       </c>
@@ -2033,23 +2046,23 @@
         <v>0.20833333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
-      <c r="B14" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43">
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53"/>
+      <c r="B14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
         <v>0.5</v>
       </c>
-      <c r="J14" s="44"/>
+      <c r="J14" s="45"/>
       <c r="K14" s="14">
         <f>$I14+Sheet2!B$1/24</f>
         <v>0.91666666666666674</v>
@@ -2099,355 +2112,355 @@
         <v>0.20833333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="26">
-        <v>0.625</v>
-      </c>
-      <c r="J15" s="49"/>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="54"/>
+      <c r="B15" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="44"/>
       <c r="K15" s="14">
         <f>$I15+Sheet2!B$1/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.91666666666666674</v>
       </c>
       <c r="L15" s="14">
         <f>$I15+Sheet2!B$2/24</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="M15" s="14">
         <f>$I15+Sheet2!B$3/24</f>
-        <v>0.95833333333333326</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="N15" s="14">
         <f>$I15+Sheet2!B$4/24</f>
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="O15" s="14">
         <f>$I15+Sheet2!B$5/24</f>
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="P15" s="14">
         <f>$I15+Sheet2!B$6/24</f>
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="Q15" s="14">
         <f>$I15+Sheet2!B$7/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="R15" s="14">
         <f>$I15+Sheet2!B$8/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="S15" s="14">
         <f>$I15+Sheet2!B$9/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="T15" s="14">
         <f>$I15+Sheet2!B$10/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="U15" s="14">
         <f>$I15+Sheet2!B$11/24</f>
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="V15" s="16">
         <f>$I15+Sheet2!B$12/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="25"/>
+        <v>0.20833333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
+      <c r="B16" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="26">
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="J16" s="49"/>
       <c r="K16" s="14">
         <f>$I16+Sheet2!B$1/24</f>
-        <v>1.0416666666666667</v>
+        <v>1</v>
       </c>
       <c r="L16" s="14">
         <f>$I16+Sheet2!B$2/24</f>
-        <v>1</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="M16" s="14">
         <f>$I16+Sheet2!B$3/24</f>
-        <v>0.95833333333333326</v>
+        <v>0.91666666666666674</v>
       </c>
       <c r="N16" s="14">
         <f>$I16+Sheet2!B$4/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="O16" s="14">
         <f>$I16+Sheet2!B$5/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="P16" s="14">
         <f>$I16+Sheet2!B$6/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q16" s="14">
         <f>$I16+Sheet2!B$7/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="R16" s="14">
         <f>$I16+Sheet2!B$8/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="S16" s="14">
         <f>$I16+Sheet2!B$9/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666674</v>
       </c>
       <c r="T16" s="14">
         <f>$I16+Sheet2!B$10/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="U16" s="14">
         <f>$I16+Sheet2!B$11/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="V16" s="16">
         <f>$I16+Sheet2!B$12/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>0.625</v>
-      </c>
-      <c r="J17" s="9"/>
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52"/>
+      <c r="B17" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J17" s="49"/>
       <c r="K17" s="14">
         <f>$I17+Sheet2!B$1/24</f>
-        <v>1.0416666666666667</v>
+        <v>1</v>
       </c>
       <c r="L17" s="14">
         <f>$I17+Sheet2!B$2/24</f>
-        <v>1</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="M17" s="14">
         <f>$I17+Sheet2!B$3/24</f>
-        <v>0.95833333333333326</v>
+        <v>0.91666666666666674</v>
       </c>
       <c r="N17" s="14">
         <f>$I17+Sheet2!B$4/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="O17" s="14">
         <f>$I17+Sheet2!B$5/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="P17" s="14">
         <f>$I17+Sheet2!B$6/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q17" s="14">
         <f>$I17+Sheet2!B$7/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="R17" s="14">
         <f>$I17+Sheet2!B$8/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="S17" s="14">
         <f>$I17+Sheet2!B$9/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666674</v>
       </c>
       <c r="T17" s="14">
         <f>$I17+Sheet2!B$10/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="U17" s="14">
         <f>$I17+Sheet2!B$11/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="V17" s="16">
         <f>$I17+Sheet2!B$12/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="52"/>
       <c r="B18" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J18" s="10"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26">
+        <v>0.625</v>
+      </c>
+      <c r="J18" s="49"/>
       <c r="K18" s="14">
         <f>$I18+Sheet2!B$1/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="L18" s="14">
         <f>$I18+Sheet2!B$2/24</f>
-        <v>1.0416666666666665</v>
+        <v>1</v>
       </c>
       <c r="M18" s="14">
         <f>$I18+Sheet2!B$3/24</f>
-        <v>1</v>
+        <v>0.95833333333333326</v>
       </c>
       <c r="N18" s="14">
         <f>$I18+Sheet2!B$4/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="O18" s="14">
         <f>$I18+Sheet2!B$5/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="P18" s="14">
         <f>$I18+Sheet2!B$6/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="Q18" s="14">
         <f>$I18+Sheet2!B$7/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="R18" s="14">
         <f>$I18+Sheet2!B$8/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S18" s="14">
         <f>$I18+Sheet2!B$9/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="T18" s="14">
         <f>$I18+Sheet2!B$10/24</f>
-        <v>0.45833333333333326</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="U18" s="14">
         <f>$I18+Sheet2!B$11/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="V18" s="16">
         <f>$I18+Sheet2!B$12/24</f>
-        <v>0.37499999999999994</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
+      <c r="A19" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J19" s="10"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26">
+        <v>0.625</v>
+      </c>
+      <c r="J19" s="49"/>
       <c r="K19" s="14">
         <f>$I19+Sheet2!B$1/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="L19" s="14">
         <f>$I19+Sheet2!B$2/24</f>
-        <v>1.0416666666666665</v>
+        <v>1</v>
       </c>
       <c r="M19" s="14">
         <f>$I19+Sheet2!B$3/24</f>
-        <v>1</v>
+        <v>0.95833333333333326</v>
       </c>
       <c r="N19" s="14">
         <f>$I19+Sheet2!B$4/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="O19" s="14">
         <f>$I19+Sheet2!B$5/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="P19" s="14">
         <f>$I19+Sheet2!B$6/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="Q19" s="14">
         <f>$I19+Sheet2!B$7/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="R19" s="14">
         <f>$I19+Sheet2!B$8/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S19" s="14">
         <f>$I19+Sheet2!B$9/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="T19" s="14">
         <f>$I19+Sheet2!B$10/24</f>
-        <v>0.45833333333333326</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="U19" s="14">
         <f>$I19+Sheet2!B$11/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="V19" s="16">
         <f>$I19+Sheet2!B$12/24</f>
-        <v>0.37499999999999994</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="53"/>
       <c r="B20" s="17" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J20" s="9"/>
+      <c r="J20" s="10"/>
       <c r="K20" s="14">
         <f>$I20+Sheet2!B$1/24</f>
         <v>1.0833333333333333</v>
@@ -2500,139 +2513,139 @@
     <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
       <c r="B21" s="17" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="8">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="14">
         <f>$I21+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="L21" s="14">
         <f>$I21+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="M21" s="14">
         <f>$I21+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>1</v>
       </c>
       <c r="N21" s="14">
         <f>$I21+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="O21" s="14">
         <f>$I21+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P21" s="14">
         <f>$I21+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q21" s="14">
         <f>$I21+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.75</v>
       </c>
       <c r="R21" s="14">
         <f>$I21+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="S21" s="14">
         <f>$I21+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="T21" s="14">
         <f>$I21+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="U21" s="14">
         <f>$I21+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="V21" s="16">
         <f>$I21+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="53"/>
       <c r="B22" s="17" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="8">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="14">
         <f>$I22+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="L22" s="14">
         <f>$I22+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="M22" s="14">
         <f>$I22+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>1</v>
       </c>
       <c r="N22" s="14">
         <f>$I22+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="O22" s="14">
         <f>$I22+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P22" s="14">
         <f>$I22+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q22" s="14">
         <f>$I22+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.75</v>
       </c>
       <c r="R22" s="14">
         <f>$I22+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="S22" s="14">
         <f>$I22+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="T22" s="14">
         <f>$I22+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="U22" s="14">
         <f>$I22+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="V22" s="16">
         <f>$I22+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
       <c r="B23" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -2643,69 +2656,68 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="8">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="J23" s="10"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J23" s="9"/>
       <c r="K23" s="14">
         <f>$I23+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="L23" s="14">
         <f>$I23+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="M23" s="14">
         <f>$I23+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>1</v>
       </c>
       <c r="N23" s="14">
         <f>$I23+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="O23" s="14">
         <f>$I23+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P23" s="14">
         <f>$I23+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q23" s="14">
         <f>$I23+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.75</v>
       </c>
       <c r="R23" s="14">
         <f>$I23+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="S23" s="14">
         <f>$I23+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="T23" s="14">
         <f>$I23+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="U23" s="14">
         <f>$I23+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="V23" s="16">
         <f>$I23+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="X23" s="4"/>
+        <v>0.37499999999999994</v>
+      </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
       <c r="B24" s="17" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -2764,14 +2776,14 @@
     </row>
     <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
-      <c r="B25" s="37" t="s">
-        <v>77</v>
+      <c r="B25" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -2830,219 +2842,220 @@
     </row>
     <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="53"/>
-      <c r="B26" s="37" t="s">
-        <v>106</v>
+      <c r="B26" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="8">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="14">
         <f>$I26+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L26" s="14">
         <f>$I26+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M26" s="14">
         <f>$I26+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N26" s="14">
         <f>$I26+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O26" s="14">
         <f>$I26+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P26" s="14">
         <f>$I26+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q26" s="14">
         <f>$I26+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R26" s="14">
         <f>$I26+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S26" s="14">
         <f>$I26+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T26" s="14">
         <f>$I26+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U26" s="14">
         <f>$I26+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V26" s="16">
         <f>$I26+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="X26" s="4"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
       <c r="B27" s="17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="8">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="14">
         <f>$I27+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L27" s="14">
         <f>$I27+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M27" s="14">
         <f>$I27+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N27" s="14">
         <f>$I27+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O27" s="14">
         <f>$I27+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P27" s="14">
         <f>$I27+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q27" s="14">
         <f>$I27+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R27" s="14">
         <f>$I27+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S27" s="14">
         <f>$I27+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T27" s="14">
         <f>$I27+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U27" s="14">
         <f>$I27+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V27" s="16">
         <f>$I27+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
-      <c r="B28" s="17" t="s">
-        <v>38</v>
+      <c r="B28" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="J28" s="11"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J28" s="10"/>
       <c r="K28" s="14">
         <f>$I28+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L28" s="14">
         <f>$I28+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M28" s="14">
         <f>$I28+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N28" s="14">
         <f>$I28+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O28" s="14">
         <f>$I28+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P28" s="14">
         <f>$I28+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q28" s="14">
         <f>$I28+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R28" s="14">
         <f>$I28+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S28" s="14">
         <f>$I28+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T28" s="14">
         <f>$I28+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U28" s="14">
         <f>$I28+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V28" s="16">
         <f>$I28+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
-      <c r="B29" s="17" t="s">
-        <v>56</v>
+      <c r="B29" s="37" t="s">
+        <v>106</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="8">
         <v>0.75</v>
       </c>
-      <c r="J29" s="11"/>
+      <c r="J29" s="10"/>
       <c r="K29" s="14">
         <f>$I29+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3095,7 +3108,7 @@
     <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
       <c r="B30" s="17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -3108,7 +3121,7 @@
       <c r="I30" s="8">
         <v>0.75</v>
       </c>
-      <c r="J30" s="11"/>
+      <c r="J30" s="10"/>
       <c r="K30" s="14">
         <f>$I30+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3158,23 +3171,23 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="53"/>
       <c r="B31" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="8">
         <v>0.75</v>
       </c>
-      <c r="J31" s="10"/>
+      <c r="J31" s="11"/>
       <c r="K31" s="14">
         <f>$I31+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3224,10 +3237,10 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
       <c r="B32" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -3290,16 +3303,16 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
       <c r="B33" s="17" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -3359,13 +3372,13 @@
     <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53"/>
       <c r="B34" s="17" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -3424,21 +3437,21 @@
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
-      <c r="B35" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="B35" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
       <c r="I35" s="8">
         <v>0.75</v>
       </c>
-      <c r="J35" s="22"/>
+      <c r="J35" s="11"/>
       <c r="K35" s="14">
         <f>$I35+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3490,21 +3503,21 @@
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
-      <c r="B36" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
+      <c r="B36" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
       <c r="I36" s="8">
         <v>0.75</v>
       </c>
-      <c r="J36" s="22"/>
+      <c r="J36" s="10"/>
       <c r="K36" s="14">
         <f>$I36+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3556,14 +3569,14 @@
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53"/>
-      <c r="B37" s="36" t="s">
-        <v>80</v>
+      <c r="B37" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
@@ -3623,7 +3636,7 @@
     <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53"/>
       <c r="B38" s="36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -3689,7 +3702,7 @@
     <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53"/>
       <c r="B39" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
@@ -3755,7 +3768,7 @@
     <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="53"/>
       <c r="B40" s="36" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -3821,7 +3834,7 @@
     <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="53"/>
       <c r="B41" s="36" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -3884,289 +3897,287 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="53"/>
       <c r="B42" s="36" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="6" t="s">
-        <v>93</v>
+      <c r="F42" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
-      <c r="I42" s="30">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="J42" s="34"/>
+      <c r="I42" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="J42" s="22"/>
       <c r="K42" s="14">
         <f>$I42+Sheet2!B$1/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L42" s="14">
         <f>$I42+Sheet2!B$2/24</f>
-        <v>1.1666666666666665</v>
+        <v>1.125</v>
       </c>
       <c r="M42" s="14">
         <f>$I42+Sheet2!B$3/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N42" s="14">
         <f>$I42+Sheet2!B$4/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="O42" s="14">
         <f>$I42+Sheet2!B$5/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="P42" s="14">
         <f>$I42+Sheet2!B$6/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="Q42" s="14">
         <f>$I42+Sheet2!B$7/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R42" s="14">
         <f>$I42+Sheet2!B$8/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S42" s="14">
         <f>$I42+Sheet2!B$9/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T42" s="14">
         <f>$I42+Sheet2!B$10/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U42" s="14">
         <f>$I42+Sheet2!B$11/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="V42" s="16">
         <f>$I42+Sheet2!B$12/24</f>
-        <v>0.49999999999999994</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="54"/>
-      <c r="B43" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="30">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="J43" s="34"/>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="53"/>
+      <c r="B43" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="J43" s="22"/>
       <c r="K43" s="14">
         <f>$I43+Sheet2!B$1/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L43" s="14">
         <f>$I43+Sheet2!B$2/24</f>
-        <v>1.1666666666666665</v>
+        <v>1.125</v>
       </c>
       <c r="M43" s="14">
         <f>$I43+Sheet2!B$3/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N43" s="14">
         <f>$I43+Sheet2!B$4/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="O43" s="14">
         <f>$I43+Sheet2!B$5/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="P43" s="14">
         <f>$I43+Sheet2!B$6/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="Q43" s="14">
         <f>$I43+Sheet2!B$7/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R43" s="14">
         <f>$I43+Sheet2!B$8/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S43" s="14">
         <f>$I43+Sheet2!B$9/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T43" s="14">
         <f>$I43+Sheet2!B$10/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U43" s="14">
         <f>$I43+Sheet2!B$11/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="V43" s="16">
         <f>$I43+Sheet2!B$12/24</f>
-        <v>0.49999999999999994</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
-      <c r="B44" s="52" t="s">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="53"/>
+      <c r="B44" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="26">
-        <v>0</v>
-      </c>
-      <c r="J44" s="31"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="30">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J44" s="34"/>
       <c r="K44" s="14">
         <f>$I44+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="L44" s="14">
         <f>$I44+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="M44" s="14">
         <f>$I44+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.125</v>
       </c>
       <c r="N44" s="14">
         <f>$I44+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O44" s="14">
         <f>$I44+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="P44" s="14">
         <f>$I44+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="Q44" s="14">
         <f>$I44+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.875</v>
       </c>
       <c r="R44" s="14">
         <f>$I44+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="S44" s="14">
         <f>$I44+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="T44" s="14">
         <f>$I44+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="U44" s="14">
         <f>$I44+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="V44" s="16">
         <f>$I44+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="26">
-        <v>0</v>
-      </c>
-      <c r="J45" s="31"/>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="54"/>
+      <c r="B45" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="30">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J45" s="34"/>
       <c r="K45" s="14">
         <f>$I45+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="L45" s="14">
         <f>$I45+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="M45" s="14">
         <f>$I45+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.125</v>
       </c>
       <c r="N45" s="14">
         <f>$I45+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O45" s="14">
         <f>$I45+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="P45" s="14">
         <f>$I45+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="Q45" s="14">
         <f>$I45+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.875</v>
       </c>
       <c r="R45" s="14">
         <f>$I45+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="S45" s="14">
         <f>$I45+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="T45" s="14">
         <f>$I45+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="U45" s="14">
         <f>$I45+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="V45" s="16">
         <f>$I45+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
-      <c r="B46" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="46"/>
+      <c r="B46" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
       <c r="I46" s="26">
         <v>0</v>
       </c>
-      <c r="J46" s="10"/>
+      <c r="J46" s="31"/>
       <c r="K46" s="14">
         <f>$I46+Sheet2!B$1/24</f>
         <v>0.41666666666666669</v>
@@ -4217,22 +4228,24 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
-      <c r="B47" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6" t="s">
+      <c r="A47" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
       <c r="I47" s="26">
         <v>0</v>
       </c>
-      <c r="J47" s="10"/>
+      <c r="J47" s="31"/>
       <c r="K47" s="14">
         <f>$I47+Sheet2!B$1/24</f>
         <v>0.41666666666666669</v>
@@ -4285,7 +4298,7 @@
     <row r="48" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="53"/>
       <c r="B48" s="17" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -4351,7 +4364,7 @@
     <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="53"/>
       <c r="B49" s="17" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -4416,14 +4429,14 @@
     </row>
     <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="53"/>
-      <c r="B50" s="37" t="s">
-        <v>67</v>
+      <c r="B50" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -4482,14 +4495,14 @@
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="53"/>
-      <c r="B51" s="37" t="s">
-        <v>69</v>
+      <c r="B51" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -4549,7 +4562,7 @@
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="53"/>
       <c r="B52" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -4615,7 +4628,7 @@
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="53"/>
       <c r="B53" s="37" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -4681,7 +4694,7 @@
     <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="53"/>
       <c r="B54" s="37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -4747,149 +4760,149 @@
     <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="53"/>
       <c r="B55" s="37" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="26">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J55" s="10"/>
       <c r="K55" s="14">
         <f>$I55+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L55" s="14">
         <f>$I55+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M55" s="14">
         <f>$I55+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N55" s="14">
         <f>$I55+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O55" s="14">
         <f>$I55+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P55" s="14">
         <f>$I55+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q55" s="14">
         <f>$I55+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R55" s="14">
         <f>$I55+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S55" s="14">
         <f>$I55+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T55" s="14">
         <f>$I55+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U55" s="14">
         <f>$I55+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V55" s="16">
         <f>$I55+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="53"/>
-      <c r="B56" s="17" t="s">
-        <v>44</v>
+      <c r="B56" s="37" t="s">
+        <v>68</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="26">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J56" s="10"/>
       <c r="K56" s="14">
         <f>$I56+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L56" s="14">
         <f>$I56+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M56" s="14">
         <f>$I56+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N56" s="14">
         <f>$I56+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O56" s="14">
         <f>$I56+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P56" s="14">
         <f>$I56+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q56" s="14">
         <f>$I56+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R56" s="14">
         <f>$I56+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S56" s="14">
         <f>$I56+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T56" s="14">
         <f>$I56+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U56" s="14">
         <f>$I56+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V56" s="16">
         <f>$I56+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="53"/>
-      <c r="B57" s="17" t="s">
-        <v>52</v>
+      <c r="B57" s="37" t="s">
+        <v>106</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
-      <c r="I57" s="8">
+      <c r="I57" s="26">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J57" s="10"/>
@@ -4945,7 +4958,7 @@
     <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="53"/>
       <c r="B58" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -4955,7 +4968,7 @@
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
-      <c r="I58" s="8">
+      <c r="I58" s="26">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J58" s="10"/>
@@ -5010,14 +5023,14 @@
     </row>
     <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="53"/>
-      <c r="B59" s="37" t="s">
-        <v>73</v>
+      <c r="B59" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -5076,151 +5089,151 @@
     </row>
     <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="53"/>
-      <c r="B60" s="37" t="s">
-        <v>106</v>
+      <c r="B60" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="8">
-        <v>8.3333333333333301E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J60" s="10"/>
       <c r="K60" s="14">
         <f>$I60+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L60" s="14">
         <f>$I60+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M60" s="14">
         <f>$I60+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N60" s="14">
         <f>$I60+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O60" s="14">
         <f>$I60+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P60" s="14">
         <f>$I60+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q60" s="14">
         <f>$I60+Sheet2!B$7/24</f>
-        <v>0.16666666666666663</v>
+        <v>0.125</v>
       </c>
       <c r="R60" s="14">
         <f>$I60+Sheet2!B$8/24</f>
-        <v>0.12499999999999997</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S60" s="14">
         <f>$I60+Sheet2!B$9/24</f>
-        <v>-8.3333333333333356E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T60" s="14">
         <f>$I60+Sheet2!B$10/24</f>
-        <v>-0.12500000000000006</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U60" s="14">
         <f>$I60+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V60" s="16">
         <f>$I60+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="53"/>
-      <c r="B61" s="17" t="s">
-        <v>91</v>
+      <c r="B61" s="37" t="s">
+        <v>73</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="8">
-        <v>8.3333333333333301E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J61" s="10"/>
       <c r="K61" s="14">
         <f>$I61+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L61" s="14">
         <f>$I61+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M61" s="14">
         <f>$I61+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N61" s="14">
         <f>$I61+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O61" s="14">
         <f>$I61+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P61" s="14">
         <f>$I61+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q61" s="14">
         <f>$I61+Sheet2!B$7/24</f>
-        <v>0.16666666666666663</v>
+        <v>0.125</v>
       </c>
       <c r="R61" s="14">
         <f>$I61+Sheet2!B$8/24</f>
-        <v>0.12499999999999997</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S61" s="14">
         <f>$I61+Sheet2!B$9/24</f>
-        <v>-8.3333333333333356E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T61" s="14">
         <f>$I61+Sheet2!B$10/24</f>
-        <v>-0.12500000000000006</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U61" s="14">
         <f>$I61+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V61" s="16">
         <f>$I61+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="53"/>
-      <c r="B62" s="17" t="s">
-        <v>47</v>
+      <c r="B62" s="37" t="s">
+        <v>106</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="G62" s="7"/>
-      <c r="H62" s="6"/>
+      <c r="H62" s="7"/>
       <c r="I62" s="8">
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="J62" s="10"/>
       <c r="K62" s="14">
@@ -5249,19 +5262,19 @@
       </c>
       <c r="Q62" s="14">
         <f>$I62+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="R62" s="14">
         <f>$I62+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>0.12499999999999997</v>
       </c>
       <c r="S62" s="14">
         <f>$I62+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-8.3333333333333356E-2</v>
       </c>
       <c r="T62" s="14">
         <f>$I62+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.12500000000000006</v>
       </c>
       <c r="U62" s="14">
         <f>$I62+Sheet2!B$11/24</f>
@@ -5275,7 +5288,7 @@
     <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="53"/>
       <c r="B63" s="17" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -5286,7 +5299,7 @@
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="8">
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="J63" s="10"/>
       <c r="K63" s="14">
@@ -5315,19 +5328,19 @@
       </c>
       <c r="Q63" s="14">
         <f>$I63+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="R63" s="14">
         <f>$I63+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>0.12499999999999997</v>
       </c>
       <c r="S63" s="14">
         <f>$I63+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-8.3333333333333356E-2</v>
       </c>
       <c r="T63" s="14">
         <f>$I63+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.12500000000000006</v>
       </c>
       <c r="U63" s="14">
         <f>$I63+Sheet2!B$11/24</f>
@@ -5340,17 +5353,17 @@
     </row>
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="53"/>
-      <c r="B64" s="37" t="s">
-        <v>75</v>
+      <c r="B64" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+      <c r="H64" s="6"/>
       <c r="I64" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -5406,153 +5419,153 @@
     </row>
     <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="53"/>
-      <c r="B65" s="37" t="s">
-        <v>106</v>
+      <c r="B65" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="8">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J65" s="10"/>
       <c r="K65" s="14">
         <f>$I65+Sheet2!B$1/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="L65" s="14">
         <f>$I65+Sheet2!B$2/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="M65" s="14">
         <f>$I65+Sheet2!B$3/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="N65" s="14">
         <f>$I65+Sheet2!B$4/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="O65" s="14">
         <f>$I65+Sheet2!B$5/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="P65" s="14">
         <f>$I65+Sheet2!B$6/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="Q65" s="14">
         <f>$I65+Sheet2!B$7/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R65" s="14">
         <f>$I65+Sheet2!B$8/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="S65" s="14">
         <f>$I65+Sheet2!B$9/24</f>
-        <v>-4.1666666666666657E-2</v>
+        <v>-8.3333333333333329E-2</v>
       </c>
       <c r="T65" s="14">
         <f>$I65+Sheet2!B$10/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="U65" s="14">
         <f>$I65+Sheet2!B$11/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="V65" s="16">
         <f>$I65+Sheet2!B$12/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333337</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="53"/>
-      <c r="B66" s="17" t="s">
-        <v>48</v>
+      <c r="B66" s="37" t="s">
+        <v>75</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="8">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J66" s="10"/>
       <c r="K66" s="14">
         <f>$I66+Sheet2!B$1/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="L66" s="14">
         <f>$I66+Sheet2!B$2/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="M66" s="14">
         <f>$I66+Sheet2!B$3/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="N66" s="14">
         <f>$I66+Sheet2!B$4/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="O66" s="14">
         <f>$I66+Sheet2!B$5/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="P66" s="14">
         <f>$I66+Sheet2!B$6/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="Q66" s="14">
         <f>$I66+Sheet2!B$7/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R66" s="14">
         <f>$I66+Sheet2!B$8/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="S66" s="14">
         <f>$I66+Sheet2!B$9/24</f>
-        <v>-4.1666666666666657E-2</v>
+        <v>-8.3333333333333329E-2</v>
       </c>
       <c r="T66" s="14">
         <f>$I66+Sheet2!B$10/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="U66" s="14">
         <f>$I66+Sheet2!B$11/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="V66" s="16">
         <f>$I66+Sheet2!B$12/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333337</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="53"/>
-      <c r="B67" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
+      <c r="B67" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
+        <v>104</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
       <c r="I67" s="8">
         <v>0.125</v>
       </c>
-      <c r="J67" s="22"/>
+      <c r="J67" s="10"/>
       <c r="K67" s="14">
         <f>$I67+Sheet2!B$1/24</f>
         <v>0.54166666666666674</v>
@@ -5604,17 +5617,17 @@
     </row>
     <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="53"/>
-      <c r="B68" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
+      <c r="B68" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
       <c r="I68" s="8">
         <v>0.125</v>
       </c>
@@ -5670,74 +5683,74 @@
     </row>
     <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="53"/>
-      <c r="B69" s="36" t="s">
-        <v>106</v>
+      <c r="B69" s="39" t="s">
+        <v>49</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="6" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="G69" s="20"/>
       <c r="H69" s="20"/>
       <c r="I69" s="8">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="J69" s="10"/>
+        <v>0.125</v>
+      </c>
+      <c r="J69" s="22"/>
       <c r="K69" s="14">
         <f>$I69+Sheet2!B$1/24</f>
-        <v>0.62499999999999967</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="L69" s="14">
         <f>$I69+Sheet2!B$2/24</f>
-        <v>0.58333333333333304</v>
+        <v>0.5</v>
       </c>
       <c r="M69" s="14">
         <f>$I69+Sheet2!B$3/24</f>
-        <v>0.5416666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="N69" s="14">
         <f>$I69+Sheet2!B$4/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="O69" s="14">
         <f>$I69+Sheet2!B$5/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="P69" s="14">
         <f>$I69+Sheet2!B$6/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="Q69" s="14">
         <f>$I69+Sheet2!B$7/24</f>
-        <v>0.29166666666666635</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="R69" s="14">
         <f>$I69+Sheet2!B$8/24</f>
-        <v>0.24999999999999967</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S69" s="14">
         <f>$I69+Sheet2!B$9/24</f>
-        <v>4.1666666666666352E-2</v>
+        <v>-4.1666666666666657E-2</v>
       </c>
       <c r="T69" s="14">
         <f>$I69+Sheet2!B$10/24</f>
-        <v>-3.3306690738754696E-16</v>
+        <v>-8.3333333333333343E-2</v>
       </c>
       <c r="U69" s="14">
         <f>$I69+Sheet2!B$11/24</f>
-        <v>-4.166666666666699E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="V69" s="16">
         <f>$I69+Sheet2!B$12/24</f>
-        <v>-8.3333333333333676E-2</v>
+        <v>-0.16666666666666669</v>
       </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="53"/>
       <c r="B70" s="36" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
@@ -5748,87 +5761,219 @@
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
       <c r="I70" s="8">
-        <v>0.20833333333333301</v>
+        <v>0.125</v>
       </c>
       <c r="J70" s="10"/>
       <c r="K70" s="14">
         <f>$I70+Sheet2!B$1/24</f>
-        <v>0.62499999999999967</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="L70" s="14">
         <f>$I70+Sheet2!B$2/24</f>
-        <v>0.58333333333333304</v>
+        <v>0.5</v>
       </c>
       <c r="M70" s="14">
         <f>$I70+Sheet2!B$3/24</f>
-        <v>0.5416666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="N70" s="14">
         <f>$I70+Sheet2!B$4/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="O70" s="14">
         <f>$I70+Sheet2!B$5/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="P70" s="14">
         <f>$I70+Sheet2!B$6/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="Q70" s="14">
         <f>$I70+Sheet2!B$7/24</f>
-        <v>0.29166666666666635</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="R70" s="14">
         <f>$I70+Sheet2!B$8/24</f>
-        <v>0.24999999999999967</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S70" s="14">
         <f>$I70+Sheet2!B$9/24</f>
-        <v>4.1666666666666352E-2</v>
+        <v>-4.1666666666666657E-2</v>
       </c>
       <c r="T70" s="14">
         <f>$I70+Sheet2!B$10/24</f>
-        <v>-3.3306690738754696E-16</v>
+        <v>-8.3333333333333343E-2</v>
       </c>
       <c r="U70" s="14">
         <f>$I70+Sheet2!B$11/24</f>
-        <v>-4.166666666666699E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="V70" s="16">
         <f>$I70+Sheet2!B$12/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="53"/>
+      <c r="B71" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="8">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="J71" s="10"/>
+      <c r="K71" s="14">
+        <f>$I71+Sheet2!B$1/24</f>
+        <v>0.62499999999999967</v>
+      </c>
+      <c r="L71" s="14">
+        <f>$I71+Sheet2!B$2/24</f>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="M71" s="14">
+        <f>$I71+Sheet2!B$3/24</f>
+        <v>0.5416666666666663</v>
+      </c>
+      <c r="N71" s="14">
+        <f>$I71+Sheet2!B$4/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="O71" s="14">
+        <f>$I71+Sheet2!B$5/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="P71" s="14">
+        <f>$I71+Sheet2!B$6/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="Q71" s="14">
+        <f>$I71+Sheet2!B$7/24</f>
+        <v>0.29166666666666635</v>
+      </c>
+      <c r="R71" s="14">
+        <f>$I71+Sheet2!B$8/24</f>
+        <v>0.24999999999999967</v>
+      </c>
+      <c r="S71" s="14">
+        <f>$I71+Sheet2!B$9/24</f>
+        <v>4.1666666666666352E-2</v>
+      </c>
+      <c r="T71" s="14">
+        <f>$I71+Sheet2!B$10/24</f>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="U71" s="14">
+        <f>$I71+Sheet2!B$11/24</f>
+        <v>-4.166666666666699E-2</v>
+      </c>
+      <c r="V71" s="16">
+        <f>$I71+Sheet2!B$12/24</f>
         <v>-8.3333333333333676E-2</v>
       </c>
     </row>
+    <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="53"/>
+      <c r="B72" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="8">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="J72" s="10"/>
+      <c r="K72" s="14">
+        <f>$I72+Sheet2!B$1/24</f>
+        <v>0.62499999999999967</v>
+      </c>
+      <c r="L72" s="14">
+        <f>$I72+Sheet2!B$2/24</f>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="M72" s="14">
+        <f>$I72+Sheet2!B$3/24</f>
+        <v>0.5416666666666663</v>
+      </c>
+      <c r="N72" s="14">
+        <f>$I72+Sheet2!B$4/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="O72" s="14">
+        <f>$I72+Sheet2!B$5/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="P72" s="14">
+        <f>$I72+Sheet2!B$6/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="Q72" s="14">
+        <f>$I72+Sheet2!B$7/24</f>
+        <v>0.29166666666666635</v>
+      </c>
+      <c r="R72" s="14">
+        <f>$I72+Sheet2!B$8/24</f>
+        <v>0.24999999999999967</v>
+      </c>
+      <c r="S72" s="14">
+        <f>$I72+Sheet2!B$9/24</f>
+        <v>4.1666666666666352E-2</v>
+      </c>
+      <c r="T72" s="14">
+        <f>$I72+Sheet2!B$10/24</f>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="U72" s="14">
+        <f>$I72+Sheet2!B$11/24</f>
+        <v>-4.166666666666699E-2</v>
+      </c>
+      <c r="V72" s="16">
+        <f>$I72+Sheet2!B$12/24</f>
+        <v>-8.3333333333333676E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B35:V41">
-    <sortCondition ref="B35"/>
+  <sortState ref="B37:V43">
+    <sortCondition ref="B37"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
-    <mergeCell ref="A16:A43"/>
-    <mergeCell ref="A45:A70"/>
-    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A19:A45"/>
+    <mergeCell ref="A47:A72"/>
+    <mergeCell ref="A2:A15"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L4 K4:V70">
+  <conditionalFormatting sqref="K2:L6 K6:V72">
     <cfRule type="expression" dxfId="2" priority="17">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:V70">
+  <conditionalFormatting sqref="K2:V72">
     <cfRule type="expression" dxfId="1" priority="19">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:V70">
+  <conditionalFormatting sqref="B2:V72">
     <cfRule type="expression" dxfId="0" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Desktop\swgoh\shard-payout-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CEA92A50-6BA2-446A-94C0-8A02DBFF02CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6BACB104-D564-4D99-9300-CE5EC5C4CE5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -282,9 +282,6 @@
     <t>valhalla</t>
   </si>
   <si>
-    <t>:flag_id:</t>
-  </si>
-  <si>
     <t>scripter</t>
   </si>
   <si>
@@ -300,9 +297,6 @@
     <t>pistolpete</t>
   </si>
   <si>
-    <t>:flag_kr:</t>
-  </si>
-  <si>
     <t>Choler</t>
   </si>
   <si>
@@ -364,6 +358,9 @@
   </si>
   <si>
     <t>UTC+6</t>
+  </si>
+  <si>
+    <t>:flag_es:</t>
   </si>
 </sst>
 </file>
@@ -800,14 +797,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1154,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,17 +1250,17 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="12"/>
@@ -1321,15 +1318,15 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="53" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="12"/>
@@ -1387,15 +1384,15 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12"/>
@@ -1453,7 +1450,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="38" t="s">
         <v>28</v>
       </c>
@@ -1519,15 +1516,15 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12"/>
@@ -1585,7 +1582,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="17" t="s">
         <v>27</v>
       </c>
@@ -1651,7 +1648,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="17" t="s">
         <v>76</v>
       </c>
@@ -1659,7 +1656,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1717,15 +1714,15 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -1783,7 +1780,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="17" t="s">
         <v>55</v>
       </c>
@@ -1849,7 +1846,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="18" t="s">
         <v>29</v>
       </c>
@@ -1915,7 +1912,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="36" t="s">
         <v>61</v>
       </c>
@@ -1981,15 +1978,15 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="20"/>
@@ -2047,15 +2044,15 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -2113,7 +2110,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="40" t="s">
         <v>60</v>
       </c>
@@ -2180,146 +2177,146 @@
     </row>
     <row r="16" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50"/>
-      <c r="B16" s="56" t="s">
-        <v>106</v>
+      <c r="B16" s="54" t="s">
+        <v>104</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
       <c r="F16" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="26">
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666696</v>
       </c>
       <c r="J16" s="49"/>
       <c r="K16" s="14">
         <f>$I16+Sheet2!B$1/24</f>
-        <v>1</v>
+        <v>0.9583333333333337</v>
       </c>
       <c r="L16" s="14">
         <f>$I16+Sheet2!B$2/24</f>
-        <v>0.95833333333333337</v>
+        <v>0.91666666666666696</v>
       </c>
       <c r="M16" s="14">
         <f>$I16+Sheet2!B$3/24</f>
-        <v>0.91666666666666674</v>
+        <v>0.87500000000000022</v>
       </c>
       <c r="N16" s="14">
         <f>$I16+Sheet2!B$4/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="O16" s="14">
         <f>$I16+Sheet2!B$5/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="P16" s="14">
         <f>$I16+Sheet2!B$6/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="Q16" s="14">
         <f>$I16+Sheet2!B$7/24</f>
-        <v>0.66666666666666674</v>
+        <v>0.62500000000000033</v>
       </c>
       <c r="R16" s="14">
         <f>$I16+Sheet2!B$8/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333359</v>
       </c>
       <c r="S16" s="14">
         <f>$I16+Sheet2!B$9/24</f>
-        <v>0.41666666666666674</v>
+        <v>0.37500000000000033</v>
       </c>
       <c r="T16" s="14">
         <f>$I16+Sheet2!B$10/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333359</v>
       </c>
       <c r="U16" s="14">
         <f>$I16+Sheet2!B$11/24</f>
-        <v>0.33333333333333337</v>
+        <v>0.29166666666666696</v>
       </c>
       <c r="V16" s="16">
         <f>$I16+Sheet2!B$12/24</f>
-        <v>0.29166666666666669</v>
+        <v>0.25000000000000028</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
       <c r="B17" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="26">
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666696</v>
       </c>
       <c r="J17" s="49"/>
       <c r="K17" s="14">
         <f>$I17+Sheet2!B$1/24</f>
-        <v>1</v>
+        <v>0.9583333333333337</v>
       </c>
       <c r="L17" s="14">
         <f>$I17+Sheet2!B$2/24</f>
-        <v>0.95833333333333337</v>
+        <v>0.91666666666666696</v>
       </c>
       <c r="M17" s="14">
         <f>$I17+Sheet2!B$3/24</f>
-        <v>0.91666666666666674</v>
+        <v>0.87500000000000022</v>
       </c>
       <c r="N17" s="14">
         <f>$I17+Sheet2!B$4/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="O17" s="14">
         <f>$I17+Sheet2!B$5/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="P17" s="14">
         <f>$I17+Sheet2!B$6/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="Q17" s="14">
         <f>$I17+Sheet2!B$7/24</f>
-        <v>0.66666666666666674</v>
+        <v>0.62500000000000033</v>
       </c>
       <c r="R17" s="14">
         <f>$I17+Sheet2!B$8/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333359</v>
       </c>
       <c r="S17" s="14">
         <f>$I17+Sheet2!B$9/24</f>
-        <v>0.41666666666666674</v>
+        <v>0.37500000000000033</v>
       </c>
       <c r="T17" s="14">
         <f>$I17+Sheet2!B$10/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333359</v>
       </c>
       <c r="U17" s="14">
         <f>$I17+Sheet2!B$11/24</f>
-        <v>0.33333333333333337</v>
+        <v>0.29166666666666696</v>
       </c>
       <c r="V17" s="16">
         <f>$I17+Sheet2!B$12/24</f>
-        <v>0.29166666666666669</v>
+        <v>0.25000000000000028</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52"/>
       <c r="B18" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
@@ -2377,7 +2374,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="55" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="23" t="s">
@@ -2445,15 +2442,15 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -2511,7 +2508,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="17" t="s">
         <v>33</v>
       </c>
@@ -2577,7 +2574,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="17" t="s">
         <v>57</v>
       </c>
@@ -2585,7 +2582,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -2643,7 +2640,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="17" t="s">
         <v>32</v>
       </c>
@@ -2709,15 +2706,15 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -2775,7 +2772,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="17" t="s">
         <v>36</v>
       </c>
@@ -2841,7 +2838,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="17" t="s">
         <v>35</v>
       </c>
@@ -2908,7 +2905,7 @@
       <c r="X26" s="4"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="17" t="s">
         <v>34</v>
       </c>
@@ -2974,7 +2971,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="37" t="s">
         <v>77</v>
       </c>
@@ -3040,15 +3037,15 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -3106,7 +3103,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="17" t="s">
         <v>41</v>
       </c>
@@ -3172,7 +3169,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="17" t="s">
         <v>38</v>
       </c>
@@ -3238,22 +3235,22 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
       <c r="I32" s="8">
         <v>0.75</v>
       </c>
-      <c r="J32" s="11"/>
+      <c r="J32" s="22"/>
       <c r="K32" s="14">
         <f>$I32+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3304,15 +3301,15 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="17" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -3369,23 +3366,23 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="55"/>
       <c r="B34" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="8">
         <v>0.75</v>
       </c>
-      <c r="J34" s="10"/>
+      <c r="J34" s="11"/>
       <c r="K34" s="14">
         <f>$I34+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3436,22 +3433,22 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="17" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="8">
         <v>0.75</v>
       </c>
-      <c r="J35" s="11"/>
+      <c r="J35" s="10"/>
       <c r="K35" s="14">
         <f>$I35+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3502,22 +3499,22 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="17" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="8">
         <v>0.75</v>
       </c>
-      <c r="J36" s="10"/>
+      <c r="J36" s="11"/>
       <c r="K36" s="14">
         <f>$I36+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3568,22 +3565,22 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19" t="s">
+      <c r="A37" s="55"/>
+      <c r="B37" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
       <c r="I37" s="8">
         <v>0.75</v>
       </c>
-      <c r="J37" s="22"/>
+      <c r="J37" s="10"/>
       <c r="K37" s="14">
         <f>$I37+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3634,7 +3631,7 @@
       </c>
     </row>
     <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="36" t="s">
         <v>64</v>
       </c>
@@ -3700,7 +3697,7 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="36" t="s">
         <v>80</v>
       </c>
@@ -3766,7 +3763,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="36" t="s">
         <v>63</v>
       </c>
@@ -3832,7 +3829,7 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="36" t="s">
         <v>79</v>
       </c>
@@ -3898,9 +3895,9 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -3964,7 +3961,7 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="36" t="s">
         <v>65</v>
       </c>
@@ -4030,15 +4027,15 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="53"/>
+      <c r="A44" s="55"/>
       <c r="B44" s="36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
@@ -4096,7 +4093,7 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="54"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="27" t="s">
         <v>40</v>
       </c>
@@ -4164,13 +4161,13 @@
     <row r="46" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="46"/>
       <c r="B46" s="51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C46" s="47"/>
       <c r="D46" s="47"/>
       <c r="E46" s="47"/>
       <c r="F46" s="47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G46" s="48"/>
       <c r="H46" s="48"/>
@@ -4228,7 +4225,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="55" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="23" t="s">
@@ -4296,7 +4293,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="17" t="s">
         <v>43</v>
       </c>
@@ -4362,7 +4359,7 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
+      <c r="A49" s="55"/>
       <c r="B49" s="17" t="s">
         <v>72</v>
       </c>
@@ -4428,9 +4425,9 @@
       </c>
     </row>
     <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
+      <c r="A50" s="55"/>
       <c r="B50" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -4494,7 +4491,7 @@
       </c>
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="17" t="s">
         <v>54</v>
       </c>
@@ -4560,7 +4557,7 @@
       </c>
     </row>
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="37" t="s">
         <v>67</v>
       </c>
@@ -4626,7 +4623,7 @@
       </c>
     </row>
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
+      <c r="A53" s="55"/>
       <c r="B53" s="37" t="s">
         <v>69</v>
       </c>
@@ -4692,7 +4689,7 @@
       </c>
     </row>
     <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="37" t="s">
         <v>71</v>
       </c>
@@ -4758,9 +4755,9 @@
       </c>
     </row>
     <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -4824,7 +4821,7 @@
       </c>
     </row>
     <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="37" t="s">
         <v>68</v>
       </c>
@@ -4890,15 +4887,15 @@
       </c>
     </row>
     <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
+      <c r="A57" s="55"/>
       <c r="B57" s="37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -4956,7 +4953,7 @@
       </c>
     </row>
     <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
+      <c r="A58" s="55"/>
       <c r="B58" s="17" t="s">
         <v>44</v>
       </c>
@@ -5022,7 +5019,7 @@
       </c>
     </row>
     <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="17" t="s">
         <v>52</v>
       </c>
@@ -5088,7 +5085,7 @@
       </c>
     </row>
     <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
+      <c r="A60" s="55"/>
       <c r="B60" s="17" t="s">
         <v>45</v>
       </c>
@@ -5154,7 +5151,7 @@
       </c>
     </row>
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
+      <c r="A61" s="55"/>
       <c r="B61" s="37" t="s">
         <v>73</v>
       </c>
@@ -5220,15 +5217,15 @@
       </c>
     </row>
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
+      <c r="A62" s="55"/>
       <c r="B62" s="37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -5286,9 +5283,9 @@
       </c>
     </row>
     <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
+      <c r="A63" s="55"/>
       <c r="B63" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -5352,7 +5349,7 @@
       </c>
     </row>
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
+      <c r="A64" s="55"/>
       <c r="B64" s="17" t="s">
         <v>47</v>
       </c>
@@ -5418,7 +5415,7 @@
       </c>
     </row>
     <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
+      <c r="A65" s="55"/>
       <c r="B65" s="17" t="s">
         <v>46</v>
       </c>
@@ -5484,7 +5481,7 @@
       </c>
     </row>
     <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="53"/>
+      <c r="A66" s="55"/>
       <c r="B66" s="37" t="s">
         <v>75</v>
       </c>
@@ -5550,15 +5547,15 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="53"/>
+      <c r="A67" s="55"/>
       <c r="B67" s="37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
@@ -5616,7 +5613,7 @@
       </c>
     </row>
     <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="53"/>
+      <c r="A68" s="55"/>
       <c r="B68" s="17" t="s">
         <v>48</v>
       </c>
@@ -5682,7 +5679,7 @@
       </c>
     </row>
     <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="53"/>
+      <c r="A69" s="55"/>
       <c r="B69" s="39" t="s">
         <v>49</v>
       </c>
@@ -5748,7 +5745,7 @@
       </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="53"/>
+      <c r="A70" s="55"/>
       <c r="B70" s="36" t="s">
         <v>66</v>
       </c>
@@ -5814,15 +5811,15 @@
       </c>
     </row>
     <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="53"/>
+      <c r="A71" s="55"/>
       <c r="B71" s="36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
@@ -5880,9 +5877,9 @@
       </c>
     </row>
     <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="53"/>
+      <c r="A72" s="55"/>
       <c r="B72" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
@@ -5946,15 +5943,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B37:V43">
-    <sortCondition ref="B37"/>
-  </sortState>
   <customSheetViews>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Desktop\swgoh\shard-payout-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6BACB104-D564-4D99-9300-CE5EC5C4CE5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9DE0FC0B-E637-4A0C-9B18-4F2367D6A71F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -360,7 +360,7 @@
     <t>UTC+6</t>
   </si>
   <si>
-    <t>:flag_es:</t>
+    <t>UTC+5</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -799,6 +799,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1149,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X72"/>
+  <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,35 +1216,35 @@
         <v>0</v>
       </c>
       <c r="N1" s="5">
-        <f>H19</f>
-        <v>0</v>
-      </c>
-      <c r="O1" s="5">
         <f>H21</f>
         <v>0</v>
       </c>
-      <c r="P1" s="5">
+      <c r="O1" s="5">
         <f>H23</f>
         <v>0</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="P1" s="5">
         <f>H25</f>
         <v>0</v>
       </c>
+      <c r="Q1" s="5">
+        <f>H27</f>
+        <v>0</v>
+      </c>
       <c r="R1" s="5">
-        <f>H45</f>
+        <f>H46</f>
         <v>0</v>
       </c>
       <c r="S1" s="5">
-        <f>H47</f>
+        <f>H48</f>
         <v>0</v>
       </c>
       <c r="T1" s="5">
-        <f>H59</f>
+        <f>H60</f>
         <v>0</v>
       </c>
       <c r="U1" s="5">
-        <f>H65</f>
+        <f>H66</f>
         <v>0</v>
       </c>
       <c r="V1" s="5" t="e">
@@ -1250,7 +1253,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1318,7 +1321,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="53" t="s">
         <v>31</v>
       </c>
@@ -1384,7 +1387,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="17" t="s">
         <v>104</v>
       </c>
@@ -1450,7 +1453,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="38" t="s">
         <v>28</v>
       </c>
@@ -1516,7 +1519,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="17" t="s">
         <v>104</v>
       </c>
@@ -1582,7 +1585,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="17" t="s">
         <v>27</v>
       </c>
@@ -1648,7 +1651,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="17" t="s">
         <v>76</v>
       </c>
@@ -1714,7 +1717,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="17" t="s">
         <v>104</v>
       </c>
@@ -1780,7 +1783,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="17" t="s">
         <v>55</v>
       </c>
@@ -1846,7 +1849,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="18" t="s">
         <v>29</v>
       </c>
@@ -1912,7 +1915,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="36" t="s">
         <v>61</v>
       </c>
@@ -1978,7 +1981,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="36" t="s">
         <v>104</v>
       </c>
@@ -2044,7 +2047,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="17" t="s">
         <v>83</v>
       </c>
@@ -2110,7 +2113,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="56"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="40" t="s">
         <v>60</v>
       </c>
@@ -2308,7 +2311,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="17" t="s">
         <v>104</v>
       </c>
@@ -2316,273 +2319,273 @@
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="26">
-        <v>0.625</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="J18" s="49"/>
       <c r="K18" s="14">
         <f>$I18+Sheet2!B$1/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="L18" s="14">
         <f>$I18+Sheet2!B$2/24</f>
-        <v>1</v>
+        <v>0.95833333333333304</v>
       </c>
       <c r="M18" s="14">
         <f>$I18+Sheet2!B$3/24</f>
-        <v>0.95833333333333326</v>
+        <v>0.9166666666666663</v>
       </c>
       <c r="N18" s="14">
         <f>$I18+Sheet2!B$4/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="O18" s="14">
         <f>$I18+Sheet2!B$5/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="P18" s="14">
         <f>$I18+Sheet2!B$6/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="Q18" s="14">
         <f>$I18+Sheet2!B$7/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666641</v>
       </c>
       <c r="R18" s="14">
         <f>$I18+Sheet2!B$8/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.62499999999999967</v>
       </c>
       <c r="S18" s="14">
         <f>$I18+Sheet2!B$9/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666641</v>
       </c>
       <c r="T18" s="14">
         <f>$I18+Sheet2!B$10/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.37499999999999967</v>
       </c>
       <c r="U18" s="14">
         <f>$I18+Sheet2!B$11/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333304</v>
       </c>
       <c r="V18" s="16">
         <f>$I18+Sheet2!B$12/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>30</v>
+        <v>0.29166666666666635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="55"/>
+      <c r="B19" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="13"/>
+        <v>106</v>
+      </c>
+      <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="26">
-        <v>0.625</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="J19" s="49"/>
       <c r="K19" s="14">
         <f>$I19+Sheet2!B$1/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="L19" s="14">
         <f>$I19+Sheet2!B$2/24</f>
-        <v>1</v>
+        <v>0.95833333333333304</v>
       </c>
       <c r="M19" s="14">
         <f>$I19+Sheet2!B$3/24</f>
-        <v>0.95833333333333326</v>
+        <v>0.9166666666666663</v>
       </c>
       <c r="N19" s="14">
         <f>$I19+Sheet2!B$4/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="O19" s="14">
         <f>$I19+Sheet2!B$5/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="P19" s="14">
         <f>$I19+Sheet2!B$6/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="Q19" s="14">
         <f>$I19+Sheet2!B$7/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666641</v>
       </c>
       <c r="R19" s="14">
         <f>$I19+Sheet2!B$8/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.62499999999999967</v>
       </c>
       <c r="S19" s="14">
         <f>$I19+Sheet2!B$9/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666641</v>
       </c>
       <c r="T19" s="14">
         <f>$I19+Sheet2!B$10/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.37499999999999967</v>
       </c>
       <c r="U19" s="14">
         <f>$I19+Sheet2!B$11/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333304</v>
       </c>
       <c r="V19" s="16">
         <f>$I19+Sheet2!B$12/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+        <v>0.29166666666666635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="52"/>
       <c r="B20" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J20" s="10"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26">
+        <v>0.625</v>
+      </c>
+      <c r="J20" s="49"/>
       <c r="K20" s="14">
         <f>$I20+Sheet2!B$1/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="L20" s="14">
         <f>$I20+Sheet2!B$2/24</f>
-        <v>1.0416666666666665</v>
+        <v>1</v>
       </c>
       <c r="M20" s="14">
         <f>$I20+Sheet2!B$3/24</f>
-        <v>1</v>
+        <v>0.95833333333333326</v>
       </c>
       <c r="N20" s="14">
         <f>$I20+Sheet2!B$4/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="O20" s="14">
         <f>$I20+Sheet2!B$5/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="P20" s="14">
         <f>$I20+Sheet2!B$6/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="Q20" s="14">
         <f>$I20+Sheet2!B$7/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="R20" s="14">
         <f>$I20+Sheet2!B$8/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S20" s="14">
         <f>$I20+Sheet2!B$9/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="T20" s="14">
         <f>$I20+Sheet2!B$10/24</f>
-        <v>0.45833333333333326</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="U20" s="14">
         <f>$I20+Sheet2!B$11/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="V20" s="16">
         <f>$I20+Sheet2!B$12/24</f>
-        <v>0.37499999999999994</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+      <c r="A21" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J21" s="10"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26">
+        <v>0.625</v>
+      </c>
+      <c r="J21" s="49"/>
       <c r="K21" s="14">
         <f>$I21+Sheet2!B$1/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="L21" s="14">
         <f>$I21+Sheet2!B$2/24</f>
-        <v>1.0416666666666665</v>
+        <v>1</v>
       </c>
       <c r="M21" s="14">
         <f>$I21+Sheet2!B$3/24</f>
-        <v>1</v>
+        <v>0.95833333333333326</v>
       </c>
       <c r="N21" s="14">
         <f>$I21+Sheet2!B$4/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="O21" s="14">
         <f>$I21+Sheet2!B$5/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="P21" s="14">
         <f>$I21+Sheet2!B$6/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="Q21" s="14">
         <f>$I21+Sheet2!B$7/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="R21" s="14">
         <f>$I21+Sheet2!B$8/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S21" s="14">
         <f>$I21+Sheet2!B$9/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="T21" s="14">
         <f>$I21+Sheet2!B$10/24</f>
-        <v>0.45833333333333326</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="U21" s="14">
         <f>$I21+Sheet2!B$11/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="V21" s="16">
         <f>$I21+Sheet2!B$12/24</f>
-        <v>0.37499999999999994</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="17" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -2640,9 +2643,9 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -2655,7 +2658,7 @@
       <c r="I23" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J23" s="9"/>
+      <c r="J23" s="10"/>
       <c r="K23" s="14">
         <f>$I23+Sheet2!B$1/24</f>
         <v>1.0833333333333333</v>
@@ -2706,147 +2709,147 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="17" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="8">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="14">
         <f>$I24+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="L24" s="14">
         <f>$I24+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="M24" s="14">
         <f>$I24+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>1</v>
       </c>
       <c r="N24" s="14">
         <f>$I24+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="O24" s="14">
         <f>$I24+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P24" s="14">
         <f>$I24+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q24" s="14">
         <f>$I24+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.75</v>
       </c>
       <c r="R24" s="14">
         <f>$I24+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="S24" s="14">
         <f>$I24+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="T24" s="14">
         <f>$I24+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="U24" s="14">
         <f>$I24+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="V24" s="16">
         <f>$I24+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="8">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="J25" s="10"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J25" s="9"/>
       <c r="K25" s="14">
         <f>$I25+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="L25" s="14">
         <f>$I25+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="M25" s="14">
         <f>$I25+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>1</v>
       </c>
       <c r="N25" s="14">
         <f>$I25+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="O25" s="14">
         <f>$I25+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P25" s="14">
         <f>$I25+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q25" s="14">
         <f>$I25+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.75</v>
       </c>
       <c r="R25" s="14">
         <f>$I25+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="S25" s="14">
         <f>$I25+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="T25" s="14">
         <f>$I25+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="U25" s="14">
         <f>$I25+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="V25" s="16">
         <f>$I25+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="17" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2902,18 +2905,17 @@
         <f>$I26+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="X26" s="4"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -2971,15 +2973,15 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="37" t="s">
-        <v>77</v>
+      <c r="A28" s="56"/>
+      <c r="B28" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -3035,156 +3037,157 @@
         <f>$I28+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
+      <c r="X28" s="4"/>
     </row>
     <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="37" t="s">
-        <v>104</v>
+      <c r="A29" s="56"/>
+      <c r="B29" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="8">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="14">
         <f>$I29+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L29" s="14">
         <f>$I29+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M29" s="14">
         <f>$I29+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N29" s="14">
         <f>$I29+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O29" s="14">
         <f>$I29+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P29" s="14">
         <f>$I29+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q29" s="14">
         <f>$I29+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R29" s="14">
         <f>$I29+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S29" s="14">
         <f>$I29+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T29" s="14">
         <f>$I29+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U29" s="14">
         <f>$I29+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V29" s="16">
         <f>$I29+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
-      <c r="B30" s="17" t="s">
-        <v>41</v>
+      <c r="A30" s="56"/>
+      <c r="B30" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="8">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="14">
         <f>$I30+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L30" s="14">
         <f>$I30+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M30" s="14">
         <f>$I30+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N30" s="14">
         <f>$I30+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O30" s="14">
         <f>$I30+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P30" s="14">
         <f>$I30+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q30" s="14">
         <f>$I30+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R30" s="14">
         <f>$I30+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S30" s="14">
         <f>$I30+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T30" s="14">
         <f>$I30+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U30" s="14">
         <f>$I30+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V30" s="16">
         <f>$I30+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="17" t="s">
-        <v>38</v>
+      <c r="A31" s="56"/>
+      <c r="B31" s="37" t="s">
+        <v>104</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="8">
         <v>0.75</v>
       </c>
-      <c r="J31" s="11"/>
+      <c r="J31" s="10"/>
       <c r="K31" s="14">
         <f>$I31+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3235,22 +3238,22 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
-      <c r="B32" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="8">
         <v>0.75</v>
       </c>
-      <c r="J32" s="22"/>
+      <c r="J32" s="10"/>
       <c r="K32" s="14">
         <f>$I32+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3301,15 +3304,15 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="17" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -3367,15 +3370,15 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="17" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -3432,23 +3435,23 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="56"/>
       <c r="B35" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="8">
         <v>0.75</v>
       </c>
-      <c r="J35" s="10"/>
+      <c r="J35" s="11"/>
       <c r="K35" s="14">
         <f>$I35+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3499,22 +3502,22 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="17" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="8">
         <v>0.75</v>
       </c>
-      <c r="J36" s="11"/>
+      <c r="J36" s="10"/>
       <c r="K36" s="14">
         <f>$I36+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3565,22 +3568,22 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="17" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="8">
         <v>0.75</v>
       </c>
-      <c r="J37" s="10"/>
+      <c r="J37" s="11"/>
       <c r="K37" s="14">
         <f>$I37+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3631,22 +3634,22 @@
       </c>
     </row>
     <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
       <c r="I38" s="8">
         <v>0.75</v>
       </c>
-      <c r="J38" s="22"/>
+      <c r="J38" s="10"/>
       <c r="K38" s="14">
         <f>$I38+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3697,9 +3700,9 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="36" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
@@ -3763,9 +3766,9 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="36" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -3829,9 +3832,9 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="36" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -3895,9 +3898,9 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="36" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -3961,9 +3964,9 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="36" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -4026,85 +4029,85 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="55"/>
+    <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="56"/>
       <c r="B44" s="36" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
-      <c r="F44" s="6" t="s">
-        <v>91</v>
+      <c r="F44" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
-      <c r="I44" s="30">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="J44" s="34"/>
+      <c r="I44" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="J44" s="22"/>
       <c r="K44" s="14">
         <f>$I44+Sheet2!B$1/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L44" s="14">
         <f>$I44+Sheet2!B$2/24</f>
-        <v>1.1666666666666665</v>
+        <v>1.125</v>
       </c>
       <c r="M44" s="14">
         <f>$I44+Sheet2!B$3/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N44" s="14">
         <f>$I44+Sheet2!B$4/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="O44" s="14">
         <f>$I44+Sheet2!B$5/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="P44" s="14">
         <f>$I44+Sheet2!B$6/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="Q44" s="14">
         <f>$I44+Sheet2!B$7/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R44" s="14">
         <f>$I44+Sheet2!B$8/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S44" s="14">
         <f>$I44+Sheet2!B$9/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T44" s="14">
         <f>$I44+Sheet2!B$10/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U44" s="14">
         <f>$I44+Sheet2!B$11/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="V44" s="16">
         <f>$I44+Sheet2!B$12/24</f>
-        <v>0.49999999999999994</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="56"/>
-      <c r="B45" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
+      <c r="B45" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
       <c r="I45" s="30">
         <v>0.79166666666666663</v>
       </c>
@@ -4158,87 +4161,85 @@
         <v>0.49999999999999994</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="46"/>
-      <c r="B46" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="26">
-        <v>0</v>
-      </c>
-      <c r="J46" s="31"/>
+    <row r="46" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="57"/>
+      <c r="B46" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="30">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J46" s="34"/>
       <c r="K46" s="14">
         <f>$I46+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="L46" s="14">
         <f>$I46+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="M46" s="14">
         <f>$I46+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.125</v>
       </c>
       <c r="N46" s="14">
         <f>$I46+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O46" s="14">
         <f>$I46+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="P46" s="14">
         <f>$I46+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="Q46" s="14">
         <f>$I46+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.875</v>
       </c>
       <c r="R46" s="14">
         <f>$I46+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="S46" s="14">
         <f>$I46+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="T46" s="14">
         <f>$I46+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="U46" s="14">
         <f>$I46+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="V46" s="16">
         <f>$I46+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="46"/>
+      <c r="B47" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
       <c r="I47" s="26">
         <v>0</v>
       </c>
@@ -4293,22 +4294,24 @@
       </c>
     </row>
     <row r="48" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
-      <c r="B48" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6" t="s">
+      <c r="A48" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="26">
         <v>0</v>
       </c>
-      <c r="J48" s="10"/>
+      <c r="J48" s="31"/>
       <c r="K48" s="14">
         <f>$I48+Sheet2!B$1/24</f>
         <v>0.41666666666666669</v>
@@ -4359,9 +4362,9 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="17" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -4425,9 +4428,9 @@
       </c>
     </row>
     <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="17" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -4491,9 +4494,9 @@
       </c>
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="17" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -4557,15 +4560,15 @@
       </c>
     </row>
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="37" t="s">
-        <v>67</v>
+      <c r="A52" s="56"/>
+      <c r="B52" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -4623,9 +4626,9 @@
       </c>
     </row>
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -4689,9 +4692,9 @@
       </c>
     </row>
     <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -4755,9 +4758,9 @@
       </c>
     </row>
     <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="37" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -4821,9 +4824,9 @@
       </c>
     </row>
     <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="37" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -4887,81 +4890,81 @@
       </c>
     </row>
     <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="37" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="26">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J57" s="10"/>
       <c r="K57" s="14">
         <f>$I57+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L57" s="14">
         <f>$I57+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M57" s="14">
         <f>$I57+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N57" s="14">
         <f>$I57+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O57" s="14">
         <f>$I57+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P57" s="14">
         <f>$I57+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q57" s="14">
         <f>$I57+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R57" s="14">
         <f>$I57+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S57" s="14">
         <f>$I57+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T57" s="14">
         <f>$I57+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U57" s="14">
         <f>$I57+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V57" s="16">
         <f>$I57+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
-      <c r="B58" s="17" t="s">
-        <v>44</v>
+      <c r="A58" s="56"/>
+      <c r="B58" s="37" t="s">
+        <v>104</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -5019,9 +5022,9 @@
       </c>
     </row>
     <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -5031,7 +5034,7 @@
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
-      <c r="I59" s="8">
+      <c r="I59" s="26">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J59" s="10"/>
@@ -5085,9 +5088,9 @@
       </c>
     </row>
     <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="17" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -5151,15 +5154,15 @@
       </c>
     </row>
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
-      <c r="B61" s="37" t="s">
-        <v>73</v>
+      <c r="A61" s="56"/>
+      <c r="B61" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -5217,81 +5220,81 @@
       </c>
     </row>
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="37" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="8">
-        <v>8.3333333333333301E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J62" s="10"/>
       <c r="K62" s="14">
         <f>$I62+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L62" s="14">
         <f>$I62+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M62" s="14">
         <f>$I62+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N62" s="14">
         <f>$I62+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O62" s="14">
         <f>$I62+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P62" s="14">
         <f>$I62+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q62" s="14">
         <f>$I62+Sheet2!B$7/24</f>
-        <v>0.16666666666666663</v>
+        <v>0.125</v>
       </c>
       <c r="R62" s="14">
         <f>$I62+Sheet2!B$8/24</f>
-        <v>0.12499999999999997</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S62" s="14">
         <f>$I62+Sheet2!B$9/24</f>
-        <v>-8.3333333333333356E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T62" s="14">
         <f>$I62+Sheet2!B$10/24</f>
-        <v>-0.12500000000000006</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U62" s="14">
         <f>$I62+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V62" s="16">
         <f>$I62+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
-      <c r="B63" s="17" t="s">
-        <v>89</v>
+      <c r="A63" s="56"/>
+      <c r="B63" s="37" t="s">
+        <v>104</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -5349,9 +5352,9 @@
       </c>
     </row>
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="17" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -5360,9 +5363,9 @@
         <v>19</v>
       </c>
       <c r="G64" s="7"/>
-      <c r="H64" s="6"/>
+      <c r="H64" s="7"/>
       <c r="I64" s="8">
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="J64" s="10"/>
       <c r="K64" s="14">
@@ -5391,19 +5394,19 @@
       </c>
       <c r="Q64" s="14">
         <f>$I64+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="R64" s="14">
         <f>$I64+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>0.12499999999999997</v>
       </c>
       <c r="S64" s="14">
         <f>$I64+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-8.3333333333333356E-2</v>
       </c>
       <c r="T64" s="14">
         <f>$I64+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.12500000000000006</v>
       </c>
       <c r="U64" s="14">
         <f>$I64+Sheet2!B$11/24</f>
@@ -5415,9 +5418,9 @@
       </c>
     </row>
     <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -5426,7 +5429,7 @@
         <v>19</v>
       </c>
       <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="H65" s="6"/>
       <c r="I65" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -5481,15 +5484,15 @@
       </c>
     </row>
     <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
-      <c r="B66" s="37" t="s">
-        <v>75</v>
+      <c r="A66" s="56"/>
+      <c r="B66" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -5547,81 +5550,81 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="37" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="8">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J67" s="10"/>
       <c r="K67" s="14">
         <f>$I67+Sheet2!B$1/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="L67" s="14">
         <f>$I67+Sheet2!B$2/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="M67" s="14">
         <f>$I67+Sheet2!B$3/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="N67" s="14">
         <f>$I67+Sheet2!B$4/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="O67" s="14">
         <f>$I67+Sheet2!B$5/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="P67" s="14">
         <f>$I67+Sheet2!B$6/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="Q67" s="14">
         <f>$I67+Sheet2!B$7/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R67" s="14">
         <f>$I67+Sheet2!B$8/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="S67" s="14">
         <f>$I67+Sheet2!B$9/24</f>
-        <v>-4.1666666666666657E-2</v>
+        <v>-8.3333333333333329E-2</v>
       </c>
       <c r="T67" s="14">
         <f>$I67+Sheet2!B$10/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="U67" s="14">
         <f>$I67+Sheet2!B$11/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="V67" s="16">
         <f>$I67+Sheet2!B$12/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333337</v>
       </c>
     </row>
     <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
-      <c r="B68" s="17" t="s">
-        <v>48</v>
+      <c r="A68" s="56"/>
+      <c r="B68" s="37" t="s">
+        <v>104</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -5679,22 +5682,22 @@
       </c>
     </row>
     <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
-      <c r="B69" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
+      <c r="A69" s="56"/>
+      <c r="B69" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
       <c r="I69" s="8">
         <v>0.125</v>
       </c>
-      <c r="J69" s="22"/>
+      <c r="J69" s="10"/>
       <c r="K69" s="14">
         <f>$I69+Sheet2!B$1/24</f>
         <v>0.54166666666666674</v>
@@ -5745,22 +5748,22 @@
       </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
-      <c r="B70" s="36" t="s">
-        <v>66</v>
+      <c r="A70" s="56"/>
+      <c r="B70" s="39" t="s">
+        <v>49</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
       <c r="F70" s="6" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
       <c r="I70" s="8">
         <v>0.125</v>
       </c>
-      <c r="J70" s="10"/>
+      <c r="J70" s="22"/>
       <c r="K70" s="14">
         <f>$I70+Sheet2!B$1/24</f>
         <v>0.54166666666666674</v>
@@ -5811,81 +5814,81 @@
       </c>
     </row>
     <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="36" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="6" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
       <c r="I71" s="8">
-        <v>0.20833333333333301</v>
+        <v>0.125</v>
       </c>
       <c r="J71" s="10"/>
       <c r="K71" s="14">
         <f>$I71+Sheet2!B$1/24</f>
-        <v>0.62499999999999967</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="L71" s="14">
         <f>$I71+Sheet2!B$2/24</f>
-        <v>0.58333333333333304</v>
+        <v>0.5</v>
       </c>
       <c r="M71" s="14">
         <f>$I71+Sheet2!B$3/24</f>
-        <v>0.5416666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="N71" s="14">
         <f>$I71+Sheet2!B$4/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="O71" s="14">
         <f>$I71+Sheet2!B$5/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="P71" s="14">
         <f>$I71+Sheet2!B$6/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="Q71" s="14">
         <f>$I71+Sheet2!B$7/24</f>
-        <v>0.29166666666666635</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="R71" s="14">
         <f>$I71+Sheet2!B$8/24</f>
-        <v>0.24999999999999967</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S71" s="14">
         <f>$I71+Sheet2!B$9/24</f>
-        <v>4.1666666666666352E-2</v>
+        <v>-4.1666666666666657E-2</v>
       </c>
       <c r="T71" s="14">
         <f>$I71+Sheet2!B$10/24</f>
-        <v>-3.3306690738754696E-16</v>
+        <v>-8.3333333333333343E-2</v>
       </c>
       <c r="U71" s="14">
         <f>$I71+Sheet2!B$11/24</f>
-        <v>-4.166666666666699E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="V71" s="16">
         <f>$I71+Sheet2!B$12/24</f>
-        <v>-8.3333333333333676E-2</v>
+        <v>-0.16666666666666669</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="36" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="6" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
@@ -5942,32 +5945,98 @@
         <v>-8.3333333333333676E-2</v>
       </c>
     </row>
+    <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="56"/>
+      <c r="B73" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="8">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="J73" s="10"/>
+      <c r="K73" s="14">
+        <f>$I73+Sheet2!B$1/24</f>
+        <v>0.62499999999999967</v>
+      </c>
+      <c r="L73" s="14">
+        <f>$I73+Sheet2!B$2/24</f>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="M73" s="14">
+        <f>$I73+Sheet2!B$3/24</f>
+        <v>0.5416666666666663</v>
+      </c>
+      <c r="N73" s="14">
+        <f>$I73+Sheet2!B$4/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="O73" s="14">
+        <f>$I73+Sheet2!B$5/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="P73" s="14">
+        <f>$I73+Sheet2!B$6/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="Q73" s="14">
+        <f>$I73+Sheet2!B$7/24</f>
+        <v>0.29166666666666635</v>
+      </c>
+      <c r="R73" s="14">
+        <f>$I73+Sheet2!B$8/24</f>
+        <v>0.24999999999999967</v>
+      </c>
+      <c r="S73" s="14">
+        <f>$I73+Sheet2!B$9/24</f>
+        <v>4.1666666666666352E-2</v>
+      </c>
+      <c r="T73" s="14">
+        <f>$I73+Sheet2!B$10/24</f>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="U73" s="14">
+        <f>$I73+Sheet2!B$11/24</f>
+        <v>-4.166666666666699E-2</v>
+      </c>
+      <c r="V73" s="16">
+        <f>$I73+Sheet2!B$12/24</f>
+        <v>-8.3333333333333676E-2</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
-    <mergeCell ref="A19:A45"/>
-    <mergeCell ref="A47:A72"/>
+    <mergeCell ref="A21:A46"/>
+    <mergeCell ref="A48:A73"/>
     <mergeCell ref="A2:A15"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L6 K6:V72">
+  <conditionalFormatting sqref="K2:L6 K6:V73">
     <cfRule type="expression" dxfId="2" priority="17">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:V72">
+  <conditionalFormatting sqref="K2:V73">
     <cfRule type="expression" dxfId="1" priority="19">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:V72">
+  <conditionalFormatting sqref="B2:V73">
     <cfRule type="expression" dxfId="0" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Desktop\swgoh\shard-payout-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9DE0FC0B-E637-4A0C-9B18-4F2367D6A71F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C1116CA3-2D06-43E0-A035-BEDFDBDB2C59}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -135,9 +135,6 @@
     <t>Timka</t>
   </si>
   <si>
-    <t>Aramor</t>
-  </si>
-  <si>
     <t>Mishka</t>
   </si>
   <si>
@@ -361,6 +358,9 @@
   </si>
   <si>
     <t>UTC+5</t>
+  </si>
+  <si>
+    <t>aramor</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -799,6 +799,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1154,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,20 +1215,20 @@
         <v>0</v>
       </c>
       <c r="M1" s="5">
-        <f>H15</f>
+        <f>H16</f>
         <v>0</v>
       </c>
       <c r="N1" s="5">
-        <f>H21</f>
-        <v>0</v>
-      </c>
-      <c r="O1" s="5">
         <f>H23</f>
         <v>0</v>
       </c>
-      <c r="P1" s="5">
-        <f>H25</f>
-        <v>0</v>
+      <c r="O1" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P1" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="Q1" s="5">
         <f>H27</f>
@@ -1253,17 +1256,17 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="12"/>
@@ -1321,7 +1324,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="53" t="s">
         <v>31</v>
       </c>
@@ -1329,7 +1332,7 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="12"/>
@@ -1387,15 +1390,15 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12"/>
@@ -1453,7 +1456,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="38" t="s">
         <v>28</v>
       </c>
@@ -1461,7 +1464,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12"/>
@@ -1519,15 +1522,15 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12"/>
@@ -1585,7 +1588,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="17" t="s">
         <v>27</v>
       </c>
@@ -1651,15 +1654,15 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1717,15 +1720,15 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -1783,15 +1786,15 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
@@ -1849,7 +1852,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="18" t="s">
         <v>29</v>
       </c>
@@ -1857,7 +1860,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="20"/>
@@ -1915,15 +1918,15 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="20"/>
@@ -1981,15 +1984,15 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="20"/>
@@ -2047,18 +2050,18 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="8">
         <v>0.5</v>
       </c>
@@ -2112,23 +2115,23 @@
         <v>0.20833333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="57"/>
-      <c r="B15" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43">
+      <c r="B15" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
         <v>0.5</v>
       </c>
-      <c r="J15" s="44"/>
+      <c r="J15" s="45"/>
       <c r="K15" s="14">
         <f>$I15+Sheet2!B$1/24</f>
         <v>0.91666666666666674</v>
@@ -2178,85 +2181,85 @@
         <v>0.20833333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="26">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="J16" s="49"/>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="58"/>
+      <c r="B16" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="44"/>
       <c r="K16" s="14">
         <f>$I16+Sheet2!B$1/24</f>
-        <v>0.9583333333333337</v>
+        <v>0.91666666666666674</v>
       </c>
       <c r="L16" s="14">
         <f>$I16+Sheet2!B$2/24</f>
-        <v>0.91666666666666696</v>
+        <v>0.875</v>
       </c>
       <c r="M16" s="14">
         <f>$I16+Sheet2!B$3/24</f>
-        <v>0.87500000000000022</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="N16" s="14">
         <f>$I16+Sheet2!B$4/24</f>
-        <v>0.66666666666666696</v>
+        <v>0.625</v>
       </c>
       <c r="O16" s="14">
         <f>$I16+Sheet2!B$5/24</f>
-        <v>0.66666666666666696</v>
+        <v>0.625</v>
       </c>
       <c r="P16" s="14">
         <f>$I16+Sheet2!B$6/24</f>
-        <v>0.66666666666666696</v>
+        <v>0.625</v>
       </c>
       <c r="Q16" s="14">
         <f>$I16+Sheet2!B$7/24</f>
-        <v>0.62500000000000033</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="R16" s="14">
         <f>$I16+Sheet2!B$8/24</f>
-        <v>0.58333333333333359</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="S16" s="14">
         <f>$I16+Sheet2!B$9/24</f>
-        <v>0.37500000000000033</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="T16" s="14">
         <f>$I16+Sheet2!B$10/24</f>
-        <v>0.33333333333333359</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="U16" s="14">
         <f>$I16+Sheet2!B$11/24</f>
-        <v>0.29166666666666696</v>
+        <v>0.25</v>
       </c>
       <c r="V16" s="16">
         <f>$I16+Sheet2!B$12/24</f>
-        <v>0.25000000000000028</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24" t="s">
+        <v>0.20833333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="50"/>
+      <c r="B17" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
       <c r="I17" s="26">
         <v>0.54166666666666696</v>
       </c>
@@ -2311,81 +2314,81 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="17" t="s">
-        <v>104</v>
+      <c r="A18" s="52"/>
+      <c r="B18" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="26">
-        <v>0.58333333333333304</v>
+        <v>0.54166666666666696</v>
       </c>
       <c r="J18" s="49"/>
       <c r="K18" s="14">
         <f>$I18+Sheet2!B$1/24</f>
-        <v>0.99999999999999978</v>
+        <v>0.9583333333333337</v>
       </c>
       <c r="L18" s="14">
         <f>$I18+Sheet2!B$2/24</f>
-        <v>0.95833333333333304</v>
+        <v>0.91666666666666696</v>
       </c>
       <c r="M18" s="14">
         <f>$I18+Sheet2!B$3/24</f>
-        <v>0.9166666666666663</v>
+        <v>0.87500000000000022</v>
       </c>
       <c r="N18" s="14">
         <f>$I18+Sheet2!B$4/24</f>
-        <v>0.70833333333333304</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="O18" s="14">
         <f>$I18+Sheet2!B$5/24</f>
-        <v>0.70833333333333304</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="P18" s="14">
         <f>$I18+Sheet2!B$6/24</f>
-        <v>0.70833333333333304</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="Q18" s="14">
         <f>$I18+Sheet2!B$7/24</f>
-        <v>0.66666666666666641</v>
+        <v>0.62500000000000033</v>
       </c>
       <c r="R18" s="14">
         <f>$I18+Sheet2!B$8/24</f>
-        <v>0.62499999999999967</v>
+        <v>0.58333333333333359</v>
       </c>
       <c r="S18" s="14">
         <f>$I18+Sheet2!B$9/24</f>
-        <v>0.41666666666666641</v>
+        <v>0.37500000000000033</v>
       </c>
       <c r="T18" s="14">
         <f>$I18+Sheet2!B$10/24</f>
-        <v>0.37499999999999967</v>
+        <v>0.33333333333333359</v>
       </c>
       <c r="U18" s="14">
         <f>$I18+Sheet2!B$11/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.29166666666666696</v>
       </c>
       <c r="V18" s="16">
         <f>$I18+Sheet2!B$12/24</f>
-        <v>0.29166666666666635</v>
+        <v>0.25000000000000028</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
-      <c r="B19" s="18" t="s">
-        <v>87</v>
+      <c r="B19" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
@@ -2443,281 +2446,281 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="17" t="s">
-        <v>104</v>
+      <c r="A20" s="56"/>
+      <c r="B20" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="26">
-        <v>0.625</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="J20" s="49"/>
       <c r="K20" s="14">
         <f>$I20+Sheet2!B$1/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="L20" s="14">
         <f>$I20+Sheet2!B$2/24</f>
-        <v>1</v>
+        <v>0.95833333333333304</v>
       </c>
       <c r="M20" s="14">
         <f>$I20+Sheet2!B$3/24</f>
-        <v>0.95833333333333326</v>
+        <v>0.9166666666666663</v>
       </c>
       <c r="N20" s="14">
         <f>$I20+Sheet2!B$4/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="O20" s="14">
         <f>$I20+Sheet2!B$5/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="P20" s="14">
         <f>$I20+Sheet2!B$6/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="Q20" s="14">
         <f>$I20+Sheet2!B$7/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666641</v>
       </c>
       <c r="R20" s="14">
         <f>$I20+Sheet2!B$8/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.62499999999999967</v>
       </c>
       <c r="S20" s="14">
         <f>$I20+Sheet2!B$9/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666641</v>
       </c>
       <c r="T20" s="14">
         <f>$I20+Sheet2!B$10/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.37499999999999967</v>
       </c>
       <c r="U20" s="14">
         <f>$I20+Sheet2!B$11/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333304</v>
       </c>
       <c r="V20" s="16">
         <f>$I20+Sheet2!B$12/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>30</v>
+        <v>0.29166666666666635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55"/>
+      <c r="B21" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="13"/>
+        <v>105</v>
+      </c>
+      <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="26">
-        <v>0.625</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="J21" s="49"/>
       <c r="K21" s="14">
         <f>$I21+Sheet2!B$1/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="L21" s="14">
         <f>$I21+Sheet2!B$2/24</f>
-        <v>1</v>
+        <v>0.95833333333333304</v>
       </c>
       <c r="M21" s="14">
         <f>$I21+Sheet2!B$3/24</f>
-        <v>0.95833333333333326</v>
+        <v>0.9166666666666663</v>
       </c>
       <c r="N21" s="14">
         <f>$I21+Sheet2!B$4/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="O21" s="14">
         <f>$I21+Sheet2!B$5/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="P21" s="14">
         <f>$I21+Sheet2!B$6/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="Q21" s="14">
         <f>$I21+Sheet2!B$7/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666641</v>
       </c>
       <c r="R21" s="14">
         <f>$I21+Sheet2!B$8/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.62499999999999967</v>
       </c>
       <c r="S21" s="14">
         <f>$I21+Sheet2!B$9/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666641</v>
       </c>
       <c r="T21" s="14">
         <f>$I21+Sheet2!B$10/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.37499999999999967</v>
       </c>
       <c r="U21" s="14">
         <f>$I21+Sheet2!B$11/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333304</v>
       </c>
       <c r="V21" s="16">
         <f>$I21+Sheet2!B$12/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+        <v>0.29166666666666635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="52"/>
       <c r="B22" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J22" s="10"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26">
+        <v>0.625</v>
+      </c>
+      <c r="J22" s="49"/>
       <c r="K22" s="14">
         <f>$I22+Sheet2!B$1/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="L22" s="14">
         <f>$I22+Sheet2!B$2/24</f>
-        <v>1.0416666666666665</v>
+        <v>1</v>
       </c>
       <c r="M22" s="14">
         <f>$I22+Sheet2!B$3/24</f>
-        <v>1</v>
+        <v>0.95833333333333326</v>
       </c>
       <c r="N22" s="14">
         <f>$I22+Sheet2!B$4/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="O22" s="14">
         <f>$I22+Sheet2!B$5/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="P22" s="14">
         <f>$I22+Sheet2!B$6/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="Q22" s="14">
         <f>$I22+Sheet2!B$7/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="R22" s="14">
         <f>$I22+Sheet2!B$8/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S22" s="14">
         <f>$I22+Sheet2!B$9/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="T22" s="14">
         <f>$I22+Sheet2!B$10/24</f>
-        <v>0.45833333333333326</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="U22" s="14">
         <f>$I22+Sheet2!B$11/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="V22" s="16">
         <f>$I22+Sheet2!B$12/24</f>
-        <v>0.37499999999999994</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
+      <c r="A23" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J23" s="10"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26">
+        <v>0.625</v>
+      </c>
+      <c r="J23" s="49"/>
       <c r="K23" s="14">
         <f>$I23+Sheet2!B$1/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="L23" s="14">
         <f>$I23+Sheet2!B$2/24</f>
-        <v>1.0416666666666665</v>
+        <v>1</v>
       </c>
       <c r="M23" s="14">
         <f>$I23+Sheet2!B$3/24</f>
-        <v>1</v>
+        <v>0.95833333333333326</v>
       </c>
       <c r="N23" s="14">
         <f>$I23+Sheet2!B$4/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="O23" s="14">
         <f>$I23+Sheet2!B$5/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="P23" s="14">
         <f>$I23+Sheet2!B$6/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="Q23" s="14">
         <f>$I23+Sheet2!B$7/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="R23" s="14">
         <f>$I23+Sheet2!B$8/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S23" s="14">
         <f>$I23+Sheet2!B$9/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="T23" s="14">
         <f>$I23+Sheet2!B$10/24</f>
-        <v>0.45833333333333326</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="U23" s="14">
         <f>$I23+Sheet2!B$11/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="V23" s="16">
         <f>$I23+Sheet2!B$12/24</f>
-        <v>0.37499999999999994</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="17" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -2775,22 +2778,22 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="17" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J25" s="9"/>
+      <c r="J25" s="10"/>
       <c r="K25" s="14">
         <f>$I25+Sheet2!B$1/24</f>
         <v>1.0833333333333333</v>
@@ -2841,15 +2844,15 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2907,9 +2910,9 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -2973,9 +2976,9 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -3040,9 +3043,9 @@
       <c r="X28" s="4"/>
     </row>
     <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -3106,15 +3109,15 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -3172,15 +3175,15 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -3238,9 +3241,9 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -3304,15 +3307,15 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -3370,9 +3373,9 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -3436,9 +3439,9 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -3502,15 +3505,15 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -3568,9 +3571,9 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -3634,15 +3637,15 @@
       </c>
     </row>
     <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -3700,15 +3703,15 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
@@ -3766,15 +3769,15 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
@@ -3832,15 +3835,15 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
@@ -3898,15 +3901,15 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
@@ -3964,15 +3967,15 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
@@ -4030,15 +4033,15 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
@@ -4096,15 +4099,15 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="56"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
       <c r="F45" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
@@ -4162,15 +4165,15 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="57"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
       <c r="F46" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
@@ -4230,13 +4233,13 @@
     <row r="47" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="46"/>
       <c r="B47" s="51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" s="47"/>
       <c r="D47" s="47"/>
       <c r="E47" s="47"/>
       <c r="F47" s="47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G47" s="48"/>
       <c r="H47" s="48"/>
@@ -4294,11 +4297,11 @@
       </c>
     </row>
     <row r="48" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="57" t="s">
         <v>18</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
@@ -4362,9 +4365,9 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -4428,9 +4431,9 @@
       </c>
     </row>
     <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="57"/>
       <c r="B50" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -4494,9 +4497,9 @@
       </c>
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -4560,9 +4563,9 @@
       </c>
     </row>
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
+      <c r="A52" s="57"/>
       <c r="B52" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -4626,15 +4629,15 @@
       </c>
     </row>
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -4692,15 +4695,15 @@
       </c>
     </row>
     <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -4758,15 +4761,15 @@
       </c>
     </row>
     <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
+      <c r="A55" s="57"/>
       <c r="B55" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -4824,15 +4827,15 @@
       </c>
     </row>
     <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -4890,15 +4893,15 @@
       </c>
     </row>
     <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
+      <c r="A57" s="57"/>
       <c r="B57" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -4956,15 +4959,15 @@
       </c>
     </row>
     <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -5022,9 +5025,9 @@
       </c>
     </row>
     <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
+      <c r="A59" s="57"/>
       <c r="B59" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -5088,9 +5091,9 @@
       </c>
     </row>
     <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
+      <c r="A60" s="57"/>
       <c r="B60" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -5154,9 +5157,9 @@
       </c>
     </row>
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
+      <c r="A61" s="57"/>
       <c r="B61" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -5220,15 +5223,15 @@
       </c>
     </row>
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
+      <c r="A62" s="57"/>
       <c r="B62" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -5286,15 +5289,15 @@
       </c>
     </row>
     <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -5352,9 +5355,9 @@
       </c>
     </row>
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
+      <c r="A64" s="57"/>
       <c r="B64" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -5418,9 +5421,9 @@
       </c>
     </row>
     <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -5484,9 +5487,9 @@
       </c>
     </row>
     <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
+      <c r="A66" s="57"/>
       <c r="B66" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -5550,15 +5553,15 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
+      <c r="A67" s="57"/>
       <c r="B67" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
@@ -5616,15 +5619,15 @@
       </c>
     </row>
     <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
+      <c r="A68" s="57"/>
       <c r="B68" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -5682,9 +5685,9 @@
       </c>
     </row>
     <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="56"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -5748,15 +5751,15 @@
       </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
+      <c r="A70" s="57"/>
       <c r="B70" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
       <c r="F70" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
@@ -5814,15 +5817,15 @@
       </c>
     </row>
     <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
+      <c r="A71" s="57"/>
       <c r="B71" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
@@ -5880,15 +5883,15 @@
       </c>
     </row>
     <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
+      <c r="A72" s="57"/>
       <c r="B72" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
@@ -5946,15 +5949,15 @@
       </c>
     </row>
     <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="56"/>
+      <c r="A73" s="57"/>
       <c r="B73" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="20"/>
@@ -6013,18 +6016,18 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
-    <mergeCell ref="A21:A46"/>
+    <mergeCell ref="A23:A46"/>
     <mergeCell ref="A48:A73"/>
-    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A2:A16"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:L6 K6:V73">
     <cfRule type="expression" dxfId="2" priority="17">

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Desktop\swgoh\shard-payout-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C1116CA3-2D06-43E0-A035-BEDFDBDB2C59}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D2190EC6-3FAE-4218-AB88-46DEF40FA024}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="U1" s="5">
-        <f>H66</f>
+        <f>H65</f>
         <v>0</v>
       </c>
       <c r="V1" s="5" t="e">
@@ -5158,14 +5158,14 @@
     </row>
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="57"/>
-      <c r="B61" s="17" t="s">
-        <v>44</v>
+      <c r="B61" s="37" t="s">
+        <v>72</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -5225,79 +5225,79 @@
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="57"/>
       <c r="B62" s="37" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="8">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="J62" s="10"/>
       <c r="K62" s="14">
         <f>$I62+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="L62" s="14">
         <f>$I62+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="M62" s="14">
         <f>$I62+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="N62" s="14">
         <f>$I62+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="O62" s="14">
         <f>$I62+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="P62" s="14">
         <f>$I62+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="Q62" s="14">
         <f>$I62+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="R62" s="14">
         <f>$I62+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.12499999999999997</v>
       </c>
       <c r="S62" s="14">
         <f>$I62+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-8.3333333333333356E-2</v>
       </c>
       <c r="T62" s="14">
         <f>$I62+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.12500000000000006</v>
       </c>
       <c r="U62" s="14">
         <f>$I62+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="V62" s="16">
         <f>$I62+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.20833333333333337</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="57"/>
-      <c r="B63" s="37" t="s">
-        <v>103</v>
+      <c r="B63" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -5357,7 +5357,7 @@
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="57"/>
       <c r="B64" s="17" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -5366,9 +5366,9 @@
         <v>19</v>
       </c>
       <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+      <c r="H64" s="6"/>
       <c r="I64" s="8">
-        <v>8.3333333333333301E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J64" s="10"/>
       <c r="K64" s="14">
@@ -5397,19 +5397,19 @@
       </c>
       <c r="Q64" s="14">
         <f>$I64+Sheet2!B$7/24</f>
-        <v>0.16666666666666663</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R64" s="14">
         <f>$I64+Sheet2!B$8/24</f>
-        <v>0.12499999999999997</v>
+        <v>0.125</v>
       </c>
       <c r="S64" s="14">
         <f>$I64+Sheet2!B$9/24</f>
-        <v>-8.3333333333333356E-2</v>
+        <v>-8.3333333333333329E-2</v>
       </c>
       <c r="T64" s="14">
         <f>$I64+Sheet2!B$10/24</f>
-        <v>-0.12500000000000006</v>
+        <v>-0.125</v>
       </c>
       <c r="U64" s="14">
         <f>$I64+Sheet2!B$11/24</f>
@@ -5423,7 +5423,7 @@
     <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="57"/>
       <c r="B65" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -5432,7 +5432,7 @@
         <v>19</v>
       </c>
       <c r="G65" s="7"/>
-      <c r="H65" s="6"/>
+      <c r="H65" s="7"/>
       <c r="I65" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -5488,14 +5488,14 @@
     </row>
     <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="57"/>
-      <c r="B66" s="17" t="s">
-        <v>45</v>
+      <c r="B66" s="37" t="s">
+        <v>74</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -5555,79 +5555,79 @@
     <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="57"/>
       <c r="B67" s="37" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="8">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="J67" s="10"/>
       <c r="K67" s="14">
         <f>$I67+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="L67" s="14">
         <f>$I67+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="M67" s="14">
         <f>$I67+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="N67" s="14">
         <f>$I67+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="O67" s="14">
         <f>$I67+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P67" s="14">
         <f>$I67+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="Q67" s="14">
         <f>$I67+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="R67" s="14">
         <f>$I67+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S67" s="14">
         <f>$I67+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-4.1666666666666657E-2</v>
       </c>
       <c r="T67" s="14">
         <f>$I67+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-8.3333333333333343E-2</v>
       </c>
       <c r="U67" s="14">
         <f>$I67+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.125</v>
       </c>
       <c r="V67" s="16">
         <f>$I67+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.16666666666666669</v>
       </c>
     </row>
     <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="57"/>
-      <c r="B68" s="37" t="s">
-        <v>103</v>
+      <c r="B68" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -5686,21 +5686,21 @@
     </row>
     <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="57"/>
-      <c r="B69" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
+      <c r="B69" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
       <c r="F69" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
       <c r="I69" s="8">
         <v>0.125</v>
       </c>
-      <c r="J69" s="10"/>
+      <c r="J69" s="22"/>
       <c r="K69" s="14">
         <f>$I69+Sheet2!B$1/24</f>
         <v>0.54166666666666674</v>
@@ -5752,21 +5752,21 @@
     </row>
     <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="57"/>
-      <c r="B70" s="39" t="s">
-        <v>48</v>
+      <c r="B70" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
       <c r="F70" s="6" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
       <c r="I70" s="8">
         <v>0.125</v>
       </c>
-      <c r="J70" s="22"/>
+      <c r="J70" s="10"/>
       <c r="K70" s="14">
         <f>$I70+Sheet2!B$1/24</f>
         <v>0.54166666666666674</v>
@@ -5819,79 +5819,79 @@
     <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="57"/>
       <c r="B71" s="36" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="6" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
       <c r="I71" s="8">
-        <v>0.125</v>
+        <v>0.20833333333333301</v>
       </c>
       <c r="J71" s="10"/>
       <c r="K71" s="14">
         <f>$I71+Sheet2!B$1/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.62499999999999967</v>
       </c>
       <c r="L71" s="14">
         <f>$I71+Sheet2!B$2/24</f>
-        <v>0.5</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="M71" s="14">
         <f>$I71+Sheet2!B$3/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.5416666666666663</v>
       </c>
       <c r="N71" s="14">
         <f>$I71+Sheet2!B$4/24</f>
-        <v>0.25</v>
+        <v>0.33333333333333304</v>
       </c>
       <c r="O71" s="14">
         <f>$I71+Sheet2!B$5/24</f>
-        <v>0.25</v>
+        <v>0.33333333333333304</v>
       </c>
       <c r="P71" s="14">
         <f>$I71+Sheet2!B$6/24</f>
-        <v>0.25</v>
+        <v>0.33333333333333304</v>
       </c>
       <c r="Q71" s="14">
         <f>$I71+Sheet2!B$7/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.29166666666666635</v>
       </c>
       <c r="R71" s="14">
         <f>$I71+Sheet2!B$8/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.24999999999999967</v>
       </c>
       <c r="S71" s="14">
         <f>$I71+Sheet2!B$9/24</f>
-        <v>-4.1666666666666657E-2</v>
+        <v>4.1666666666666352E-2</v>
       </c>
       <c r="T71" s="14">
         <f>$I71+Sheet2!B$10/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-3.3306690738754696E-16</v>
       </c>
       <c r="U71" s="14">
         <f>$I71+Sheet2!B$11/24</f>
-        <v>-0.125</v>
+        <v>-4.166666666666699E-2</v>
       </c>
       <c r="V71" s="16">
         <f>$I71+Sheet2!B$12/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-8.3333333333333676E-2</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="57"/>
-      <c r="B72" s="36" t="s">
-        <v>103</v>
+      <c r="B72" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
@@ -6016,11 +6016,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
+      <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
-      <selection sqref="A1:XFD1048576"/>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Desktop\swgoh\shard-payout-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D2190EC6-3FAE-4218-AB88-46DEF40FA024}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B5D54486-34DC-489A-924D-C5F6D29D4D72}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -351,9 +351,6 @@
     <t>UTC+11</t>
   </si>
   <si>
-    <t>:exclamation:</t>
-  </si>
-  <si>
     <t>UTC+6</t>
   </si>
   <si>
@@ -361,6 +358,9 @@
   </si>
   <si>
     <t>aramor</t>
+  </si>
+  <si>
+    <t>:flag_es:</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +453,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -486,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -656,17 +664,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -681,32 +678,21 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="double">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
         <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,9 +748,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -772,28 +755,17 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -811,6 +783,24 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1157,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,7 +1246,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1324,15 +1314,15 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="45" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="12"/>
@@ -1390,7 +1380,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="17" t="s">
         <v>103</v>
       </c>
@@ -1456,8 +1446,8 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="12"/>
@@ -1522,7 +1512,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="17" t="s">
         <v>103</v>
       </c>
@@ -1588,7 +1578,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="17" t="s">
         <v>27</v>
       </c>
@@ -1654,8 +1644,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="58" t="s">
         <v>75</v>
       </c>
       <c r="C8" s="6"/>
@@ -1720,7 +1710,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="17" t="s">
         <v>103</v>
       </c>
@@ -1786,7 +1776,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="17" t="s">
         <v>54</v>
       </c>
@@ -1852,7 +1842,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="18" t="s">
         <v>29</v>
       </c>
@@ -1867,7 +1857,7 @@
       <c r="I11" s="21">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J11" s="35"/>
+      <c r="J11" s="34"/>
       <c r="K11" s="14">
         <f>$I11+Sheet2!B$1/24</f>
         <v>0.875</v>
@@ -1918,8 +1908,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="19"/>
@@ -1933,7 +1923,7 @@
       <c r="I12" s="21">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J12" s="35"/>
+      <c r="J12" s="34"/>
       <c r="K12" s="14">
         <f>$I12+Sheet2!B$1/24</f>
         <v>0.875</v>
@@ -1984,8 +1974,8 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="18" t="s">
         <v>103</v>
       </c>
       <c r="C13" s="19"/>
@@ -1999,7 +1989,7 @@
       <c r="I13" s="8">
         <v>0.5</v>
       </c>
-      <c r="J13" s="45"/>
+      <c r="J13" s="41"/>
       <c r="K13" s="14">
         <f>$I13+Sheet2!B$1/24</f>
         <v>0.91666666666666674</v>
@@ -2050,7 +2040,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="18" t="s">
         <v>32</v>
       </c>
@@ -2058,14 +2048,14 @@
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
       <c r="I14" s="8">
         <v>0.5</v>
       </c>
-      <c r="J14" s="45"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="14">
         <f>$I14+Sheet2!B$1/24</f>
         <v>0.91666666666666674</v>
@@ -2116,8 +2106,8 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="58" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="6"/>
@@ -2131,7 +2121,7 @@
       <c r="I15" s="8">
         <v>0.5</v>
       </c>
-      <c r="J15" s="45"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="14">
         <f>$I15+Sheet2!B$1/24</f>
         <v>0.91666666666666674</v>
@@ -2181,23 +2171,23 @@
         <v>0.20833333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
-      <c r="B16" s="40" t="s">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="52"/>
+      <c r="B16" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43">
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26">
         <v>0.5</v>
       </c>
-      <c r="J16" s="44"/>
+      <c r="J16" s="43"/>
       <c r="K16" s="14">
         <f>$I16+Sheet2!B$1/24</f>
         <v>0.91666666666666674</v>
@@ -2247,23 +2237,23 @@
         <v>0.20833333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="54" t="s">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="26">
         <v>0.54166666666666696</v>
       </c>
-      <c r="J17" s="49"/>
+      <c r="J17" s="43"/>
       <c r="K17" s="14">
         <f>$I17+Sheet2!B$1/24</f>
         <v>0.9583333333333337</v>
@@ -2313,23 +2303,23 @@
         <v>0.25000000000000028</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="18" t="s">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="54"/>
+      <c r="B18" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="30">
         <v>0.54166666666666696</v>
       </c>
-      <c r="J18" s="49"/>
+      <c r="J18" s="55"/>
       <c r="K18" s="14">
         <f>$I18+Sheet2!B$1/24</f>
         <v>0.9583333333333337</v>
@@ -2379,23 +2369,23 @@
         <v>0.25000000000000028</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" s="23" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="26">
         <v>0.58333333333333304</v>
       </c>
-      <c r="J19" s="49"/>
+      <c r="J19" s="43"/>
       <c r="K19" s="14">
         <f>$I19+Sheet2!B$1/24</f>
         <v>0.99999999999999978</v>
@@ -2446,22 +2436,22 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="18" t="s">
-        <v>108</v>
+      <c r="A20" s="48"/>
+      <c r="B20" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="26">
         <v>0.58333333333333304</v>
       </c>
-      <c r="J20" s="49"/>
+      <c r="J20" s="43"/>
       <c r="K20" s="14">
         <f>$I20+Sheet2!B$1/24</f>
         <v>0.99999999999999978</v>
@@ -2512,22 +2502,22 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="26">
         <v>0.58333333333333304</v>
       </c>
-      <c r="J21" s="49"/>
+      <c r="J21" s="43"/>
       <c r="K21" s="14">
         <f>$I21+Sheet2!B$1/24</f>
         <v>0.99999999999999978</v>
@@ -2578,7 +2568,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="17" t="s">
         <v>103</v>
       </c>
@@ -2593,7 +2583,7 @@
       <c r="I22" s="26">
         <v>0.625</v>
       </c>
-      <c r="J22" s="49"/>
+      <c r="J22" s="43"/>
       <c r="K22" s="14">
         <f>$I22+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
@@ -2644,7 +2634,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="49" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -2661,7 +2651,7 @@
       <c r="I23" s="26">
         <v>0.625</v>
       </c>
-      <c r="J23" s="49"/>
+      <c r="J23" s="43"/>
       <c r="K23" s="14">
         <f>$I23+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
@@ -2712,7 +2702,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="17" t="s">
         <v>103</v>
       </c>
@@ -2778,7 +2768,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="17" t="s">
         <v>56</v>
       </c>
@@ -2786,7 +2776,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -2844,7 +2834,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="17" t="s">
         <v>103</v>
       </c>
@@ -2910,7 +2900,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="17" t="s">
         <v>35</v>
       </c>
@@ -2976,7 +2966,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="17" t="s">
         <v>34</v>
       </c>
@@ -3043,7 +3033,7 @@
       <c r="X28" s="4"/>
     </row>
     <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="17" t="s">
         <v>33</v>
       </c>
@@ -3109,8 +3099,8 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="37" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="36" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="6"/>
@@ -3175,81 +3165,81 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
-        <v>89</v>
+      <c r="A31" s="49"/>
+      <c r="B31" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="8">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="14">
         <f>$I31+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L31" s="14">
         <f>$I31+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M31" s="14">
         <f>$I31+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N31" s="14">
         <f>$I31+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O31" s="14">
         <f>$I31+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P31" s="14">
         <f>$I31+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q31" s="14">
         <f>$I31+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R31" s="14">
         <f>$I31+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S31" s="14">
         <f>$I31+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T31" s="14">
         <f>$I31+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U31" s="14">
         <f>$I31+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V31" s="16">
         <f>$I31+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="17" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -3307,22 +3297,22 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="8">
         <v>0.75</v>
       </c>
-      <c r="J33" s="11"/>
+      <c r="J33" s="10"/>
       <c r="K33" s="14">
         <f>$I33+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3373,15 +3363,15 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="17" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -3439,15 +3429,15 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="17" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -3504,23 +3494,23 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="49"/>
       <c r="B36" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="8">
         <v>0.75</v>
       </c>
-      <c r="J36" s="10"/>
+      <c r="J36" s="11"/>
       <c r="K36" s="14">
         <f>$I36+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3571,22 +3561,22 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="17" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="8">
         <v>0.75</v>
       </c>
-      <c r="J37" s="11"/>
+      <c r="J37" s="10"/>
       <c r="K37" s="14">
         <f>$I37+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3637,22 +3627,22 @@
       </c>
     </row>
     <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="17" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="8">
         <v>0.75</v>
       </c>
-      <c r="J38" s="10"/>
+      <c r="J38" s="11"/>
       <c r="K38" s="14">
         <f>$I38+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3703,22 +3693,22 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
       <c r="I39" s="8">
         <v>0.75</v>
       </c>
-      <c r="J39" s="22"/>
+      <c r="J39" s="10"/>
       <c r="K39" s="14">
         <f>$I39+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3769,9 +3759,9 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="36" t="s">
-        <v>79</v>
+      <c r="A40" s="49"/>
+      <c r="B40" s="35" t="s">
+        <v>63</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -3835,9 +3825,9 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="36" t="s">
-        <v>62</v>
+      <c r="A41" s="49"/>
+      <c r="B41" s="35" t="s">
+        <v>79</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -3901,9 +3891,9 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="36" t="s">
-        <v>78</v>
+      <c r="A42" s="49"/>
+      <c r="B42" s="35" t="s">
+        <v>62</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -3967,9 +3957,9 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
-      <c r="B43" s="36" t="s">
-        <v>87</v>
+      <c r="A43" s="49"/>
+      <c r="B43" s="35" t="s">
+        <v>78</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -4033,9 +4023,9 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="36" t="s">
-        <v>64</v>
+      <c r="A44" s="49"/>
+      <c r="B44" s="35" t="s">
+        <v>87</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -4098,9 +4088,9 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="57"/>
-      <c r="B45" s="36" t="s">
+    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="49"/>
+      <c r="B45" s="18" t="s">
         <v>103</v>
       </c>
       <c r="C45" s="19"/>
@@ -4110,11 +4100,11 @@
         <v>90</v>
       </c>
       <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="30">
+      <c r="H45" s="7"/>
+      <c r="I45" s="8">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J45" s="34"/>
+      <c r="J45" s="10"/>
       <c r="K45" s="14">
         <f>$I45+Sheet2!B$1/24</f>
         <v>1.2083333333333333</v>
@@ -4164,8 +4154,8 @@
         <v>0.49999999999999994</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="58"/>
+    <row r="46" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="50"/>
       <c r="B46" s="27" t="s">
         <v>39</v>
       </c>
@@ -4176,11 +4166,11 @@
         <v>52</v>
       </c>
       <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="30">
+      <c r="H46" s="39"/>
+      <c r="I46" s="40">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J46" s="34"/>
+      <c r="J46" s="56"/>
       <c r="K46" s="14">
         <f>$I46+Sheet2!B$1/24</f>
         <v>1.2083333333333333</v>
@@ -4231,19 +4221,19 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
-      <c r="B47" s="51" t="s">
+      <c r="A47" s="42"/>
+      <c r="B47" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47" t="s">
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="26">
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="57">
         <v>0</v>
       </c>
       <c r="J47" s="31"/>
@@ -4297,7 +4287,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="57" t="s">
+      <c r="A48" s="49" t="s">
         <v>18</v>
       </c>
       <c r="B48" s="23" t="s">
@@ -4365,7 +4355,7 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="17" t="s">
         <v>42</v>
       </c>
@@ -4431,7 +4421,7 @@
       </c>
     </row>
     <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="17" t="s">
         <v>71</v>
       </c>
@@ -4497,7 +4487,7 @@
       </c>
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="17" t="s">
         <v>81</v>
       </c>
@@ -4563,7 +4553,7 @@
       </c>
     </row>
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="17" t="s">
         <v>53</v>
       </c>
@@ -4629,8 +4619,8 @@
       </c>
     </row>
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
-      <c r="B53" s="37" t="s">
+      <c r="A53" s="49"/>
+      <c r="B53" s="36" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="6"/>
@@ -4695,8 +4685,8 @@
       </c>
     </row>
     <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
-      <c r="B54" s="37" t="s">
+      <c r="A54" s="49"/>
+      <c r="B54" s="36" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="6"/>
@@ -4761,8 +4751,8 @@
       </c>
     </row>
     <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
-      <c r="B55" s="37" t="s">
+      <c r="A55" s="49"/>
+      <c r="B55" s="36" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="6"/>
@@ -4827,8 +4817,8 @@
       </c>
     </row>
     <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
-      <c r="B56" s="37" t="s">
+      <c r="A56" s="49"/>
+      <c r="B56" s="36" t="s">
         <v>83</v>
       </c>
       <c r="C56" s="6"/>
@@ -4893,8 +4883,8 @@
       </c>
     </row>
     <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="37" t="s">
+      <c r="A57" s="49"/>
+      <c r="B57" s="36" t="s">
         <v>67</v>
       </c>
       <c r="C57" s="6"/>
@@ -4959,8 +4949,8 @@
       </c>
     </row>
     <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="B58" s="37" t="s">
+      <c r="A58" s="49"/>
+      <c r="B58" s="17" t="s">
         <v>103</v>
       </c>
       <c r="C58" s="6"/>
@@ -5025,7 +5015,7 @@
       </c>
     </row>
     <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
+      <c r="A59" s="49"/>
       <c r="B59" s="17" t="s">
         <v>43</v>
       </c>
@@ -5091,7 +5081,7 @@
       </c>
     </row>
     <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
+      <c r="A60" s="49"/>
       <c r="B60" s="17" t="s">
         <v>51</v>
       </c>
@@ -5157,8 +5147,8 @@
       </c>
     </row>
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="37" t="s">
+      <c r="A61" s="49"/>
+      <c r="B61" s="36" t="s">
         <v>72</v>
       </c>
       <c r="C61" s="6"/>
@@ -5223,8 +5213,8 @@
       </c>
     </row>
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="37" t="s">
+      <c r="A62" s="49"/>
+      <c r="B62" s="17" t="s">
         <v>103</v>
       </c>
       <c r="C62" s="6"/>
@@ -5289,7 +5279,7 @@
       </c>
     </row>
     <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
+      <c r="A63" s="49"/>
       <c r="B63" s="17" t="s">
         <v>88</v>
       </c>
@@ -5355,7 +5345,7 @@
       </c>
     </row>
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="57"/>
+      <c r="A64" s="49"/>
       <c r="B64" s="17" t="s">
         <v>46</v>
       </c>
@@ -5421,7 +5411,7 @@
       </c>
     </row>
     <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
+      <c r="A65" s="49"/>
       <c r="B65" s="17" t="s">
         <v>45</v>
       </c>
@@ -5487,8 +5477,8 @@
       </c>
     </row>
     <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
-      <c r="B66" s="37" t="s">
+      <c r="A66" s="49"/>
+      <c r="B66" s="36" t="s">
         <v>74</v>
       </c>
       <c r="C66" s="6"/>
@@ -5553,8 +5543,8 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
-      <c r="B67" s="37" t="s">
+      <c r="A67" s="49"/>
+      <c r="B67" s="17" t="s">
         <v>103</v>
       </c>
       <c r="C67" s="6"/>
@@ -5619,7 +5609,7 @@
       </c>
     </row>
     <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="57"/>
+      <c r="A68" s="49"/>
       <c r="B68" s="17" t="s">
         <v>47</v>
       </c>
@@ -5685,8 +5675,8 @@
       </c>
     </row>
     <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="57"/>
-      <c r="B69" s="39" t="s">
+      <c r="A69" s="49"/>
+      <c r="B69" s="38" t="s">
         <v>48</v>
       </c>
       <c r="C69" s="19"/>
@@ -5751,8 +5741,8 @@
       </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="57"/>
-      <c r="B70" s="36" t="s">
+      <c r="A70" s="49"/>
+      <c r="B70" s="35" t="s">
         <v>65</v>
       </c>
       <c r="C70" s="19"/>
@@ -5817,8 +5807,8 @@
       </c>
     </row>
     <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="57"/>
-      <c r="B71" s="36" t="s">
+      <c r="A71" s="49"/>
+      <c r="B71" s="18" t="s">
         <v>103</v>
       </c>
       <c r="C71" s="19"/>
@@ -5883,7 +5873,7 @@
       </c>
     </row>
     <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="57"/>
+      <c r="A72" s="49"/>
       <c r="B72" s="18" t="s">
         <v>44</v>
       </c>
@@ -5891,7 +5881,7 @@
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="6" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
@@ -5949,8 +5939,8 @@
       </c>
     </row>
     <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="57"/>
-      <c r="B73" s="36" t="s">
+      <c r="A73" s="49"/>
+      <c r="B73" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C73" s="19"/>
@@ -6016,11 +6006,11 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Desktop\swgoh\shard-payout-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B5D54486-34DC-489A-924D-C5F6D29D4D72}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADFFD07-E2F1-4AE8-B09F-EB270E97D7EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,22 +19,27 @@
   <definedNames>
     <definedName name="Z_6B6C704A_4C22_4616_B5BC_59850AE98E27_.wvu.Cols" localSheetId="0" hidden="1">Sheet1!$C:$D,Sheet1!$F:$G</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -361,6 +366,9 @@
   </si>
   <si>
     <t>:flag_es:</t>
+  </si>
+  <si>
+    <t>UTC-2</t>
   </si>
 </sst>
 </file>
@@ -494,7 +502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -696,12 +704,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -756,7 +797,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,15 +817,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -796,11 +827,22 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1145,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X73"/>
+  <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,23 +1263,23 @@
         <v>#REF!</v>
       </c>
       <c r="Q1" s="5">
-        <f>H27</f>
+        <f>H28</f>
         <v>0</v>
       </c>
       <c r="R1" s="5">
-        <f>H46</f>
+        <f>H49</f>
         <v>0</v>
       </c>
       <c r="S1" s="5">
-        <f>H48</f>
+        <f>H51</f>
         <v>0</v>
       </c>
       <c r="T1" s="5">
-        <f>H60</f>
+        <f>H62</f>
         <v>0</v>
       </c>
       <c r="U1" s="5">
-        <f>H65</f>
+        <f>H67</f>
         <v>0</v>
       </c>
       <c r="V1" s="5" t="e">
@@ -1246,7 +1288,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="54" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1314,8 +1356,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="44" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="12"/>
@@ -1380,7 +1422,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="17" t="s">
         <v>103</v>
       </c>
@@ -1446,7 +1488,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="37" t="s">
         <v>28</v>
       </c>
@@ -1512,7 +1554,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="17" t="s">
         <v>103</v>
       </c>
@@ -1578,7 +1620,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="17" t="s">
         <v>27</v>
       </c>
@@ -1644,8 +1686,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="58" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="53" t="s">
         <v>75</v>
       </c>
       <c r="C8" s="6"/>
@@ -1710,7 +1752,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="17" t="s">
         <v>103</v>
       </c>
@@ -1776,7 +1818,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="17" t="s">
         <v>54</v>
       </c>
@@ -1842,7 +1884,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="18" t="s">
         <v>29</v>
       </c>
@@ -1908,7 +1950,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="35" t="s">
         <v>60</v>
       </c>
@@ -1974,7 +2016,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="18" t="s">
         <v>103</v>
       </c>
@@ -1989,7 +2031,7 @@
       <c r="I13" s="8">
         <v>0.5</v>
       </c>
-      <c r="J13" s="41"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="14">
         <f>$I13+Sheet2!B$1/24</f>
         <v>0.91666666666666674</v>
@@ -2040,7 +2082,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="18" t="s">
         <v>32</v>
       </c>
@@ -2055,7 +2097,7 @@
       <c r="I14" s="8">
         <v>0.5</v>
       </c>
-      <c r="J14" s="41"/>
+      <c r="J14" s="40"/>
       <c r="K14" s="14">
         <f>$I14+Sheet2!B$1/24</f>
         <v>0.91666666666666674</v>
@@ -2106,8 +2148,8 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="58" t="s">
+      <c r="A15" s="54"/>
+      <c r="B15" s="53" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="6"/>
@@ -2121,7 +2163,7 @@
       <c r="I15" s="8">
         <v>0.5</v>
       </c>
-      <c r="J15" s="41"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="14">
         <f>$I15+Sheet2!B$1/24</f>
         <v>0.91666666666666674</v>
@@ -2172,8 +2214,8 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="56"/>
+      <c r="B16" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="24"/>
@@ -2187,7 +2229,7 @@
       <c r="I16" s="26">
         <v>0.5</v>
       </c>
-      <c r="J16" s="43"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="14">
         <f>$I16+Sheet2!B$1/24</f>
         <v>0.91666666666666674</v>
@@ -2238,7 +2280,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="23" t="s">
         <v>103</v>
       </c>
@@ -2253,7 +2295,7 @@
       <c r="I17" s="26">
         <v>0.54166666666666696</v>
       </c>
-      <c r="J17" s="43"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="14">
         <f>$I17+Sheet2!B$1/24</f>
         <v>0.9583333333333337</v>
@@ -2304,7 +2346,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="27" t="s">
         <v>85</v>
       </c>
@@ -2319,7 +2361,7 @@
       <c r="I18" s="30">
         <v>0.54166666666666696</v>
       </c>
-      <c r="J18" s="55"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="14">
         <f>$I18+Sheet2!B$1/24</f>
         <v>0.9583333333333337</v>
@@ -2370,7 +2412,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="23" t="s">
         <v>103</v>
       </c>
@@ -2385,7 +2427,7 @@
       <c r="I19" s="26">
         <v>0.58333333333333304</v>
       </c>
-      <c r="J19" s="43"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="14">
         <f>$I19+Sheet2!B$1/24</f>
         <v>0.99999999999999978</v>
@@ -2436,7 +2478,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="6" t="s">
         <v>107</v>
       </c>
@@ -2451,7 +2493,7 @@
       <c r="I20" s="26">
         <v>0.58333333333333304</v>
       </c>
-      <c r="J20" s="43"/>
+      <c r="J20" s="42"/>
       <c r="K20" s="14">
         <f>$I20+Sheet2!B$1/24</f>
         <v>0.99999999999999978</v>
@@ -2502,7 +2544,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="6" t="s">
         <v>86</v>
       </c>
@@ -2517,7 +2559,7 @@
       <c r="I21" s="26">
         <v>0.58333333333333304</v>
       </c>
-      <c r="J21" s="43"/>
+      <c r="J21" s="42"/>
       <c r="K21" s="14">
         <f>$I21+Sheet2!B$1/24</f>
         <v>0.99999999999999978</v>
@@ -2568,7 +2610,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="17" t="s">
         <v>103</v>
       </c>
@@ -2583,7 +2625,7 @@
       <c r="I22" s="26">
         <v>0.625</v>
       </c>
-      <c r="J22" s="43"/>
+      <c r="J22" s="42"/>
       <c r="K22" s="14">
         <f>$I22+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
@@ -2634,7 +2676,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="54" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -2651,7 +2693,7 @@
       <c r="I23" s="26">
         <v>0.625</v>
       </c>
-      <c r="J23" s="43"/>
+      <c r="J23" s="42"/>
       <c r="K23" s="14">
         <f>$I23+Sheet2!B$1/24</f>
         <v>1.0416666666666667</v>
@@ -2702,7 +2744,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="17" t="s">
         <v>103</v>
       </c>
@@ -2768,15 +2810,15 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="17" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -2834,81 +2876,81 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="17" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="8">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="14">
         <f>$I26+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="L26" s="14">
         <f>$I26+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="M26" s="14">
         <f>$I26+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>1</v>
       </c>
       <c r="N26" s="14">
         <f>$I26+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="O26" s="14">
         <f>$I26+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P26" s="14">
         <f>$I26+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q26" s="14">
         <f>$I26+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.75</v>
       </c>
       <c r="R26" s="14">
         <f>$I26+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="S26" s="14">
         <f>$I26+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="T26" s="14">
         <f>$I26+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="U26" s="14">
         <f>$I26+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="V26" s="16">
         <f>$I26+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="17" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -2966,15 +3008,15 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -3030,18 +3072,17 @@
         <f>$I28+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="X28" s="4"/>
     </row>
     <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -3097,17 +3138,18 @@
         <f>$I29+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
+      <c r="X29" s="4"/>
     </row>
     <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="36" t="s">
-        <v>76</v>
+      <c r="A30" s="54"/>
+      <c r="B30" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -3165,14 +3207,14 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19" t="s">
+      <c r="A31" s="54"/>
+      <c r="B31" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G31" s="7"/>
@@ -3231,81 +3273,81 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6" t="s">
-        <v>89</v>
+      <c r="A32" s="54"/>
+      <c r="B32" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="8">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="14">
         <f>$I32+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L32" s="14">
         <f>$I32+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M32" s="14">
         <f>$I32+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N32" s="14">
         <f>$I32+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O32" s="14">
         <f>$I32+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P32" s="14">
         <f>$I32+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q32" s="14">
         <f>$I32+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R32" s="14">
         <f>$I32+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S32" s="14">
         <f>$I32+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T32" s="14">
         <f>$I32+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U32" s="14">
         <f>$I32+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V32" s="16">
         <f>$I32+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="17" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -3363,22 +3405,22 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="8">
         <v>0.75</v>
       </c>
-      <c r="J34" s="11"/>
+      <c r="J34" s="10"/>
       <c r="K34" s="14">
         <f>$I34+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3429,15 +3471,15 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="17" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -3495,15 +3537,15 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="17" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -3560,23 +3602,23 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="54"/>
       <c r="B37" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="8">
         <v>0.75</v>
       </c>
-      <c r="J37" s="10"/>
+      <c r="J37" s="11"/>
       <c r="K37" s="14">
         <f>$I37+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3626,16 +3668,16 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="54"/>
       <c r="B38" s="17" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -3693,22 +3735,22 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="17" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="8">
         <v>0.75</v>
       </c>
-      <c r="J39" s="10"/>
+      <c r="J39" s="11"/>
       <c r="K39" s="14">
         <f>$I39+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3759,22 +3801,22 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
       <c r="I40" s="8">
         <v>0.75</v>
       </c>
-      <c r="J40" s="22"/>
+      <c r="J40" s="10"/>
       <c r="K40" s="14">
         <f>$I40+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3825,9 +3867,9 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="35" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -3891,9 +3933,9 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="35" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -3957,9 +3999,9 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="35" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -4023,9 +4065,9 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="35" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -4089,88 +4131,88 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="18" t="s">
-        <v>103</v>
+      <c r="A45" s="54"/>
+      <c r="B45" s="35" t="s">
+        <v>87</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
-      <c r="F45" s="6" t="s">
-        <v>90</v>
+      <c r="F45" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="G45" s="20"/>
-      <c r="H45" s="7"/>
+      <c r="H45" s="20"/>
       <c r="I45" s="8">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="J45" s="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="J45" s="22"/>
       <c r="K45" s="14">
         <f>$I45+Sheet2!B$1/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L45" s="14">
         <f>$I45+Sheet2!B$2/24</f>
-        <v>1.1666666666666665</v>
+        <v>1.125</v>
       </c>
       <c r="M45" s="14">
         <f>$I45+Sheet2!B$3/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N45" s="14">
         <f>$I45+Sheet2!B$4/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="O45" s="14">
         <f>$I45+Sheet2!B$5/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="P45" s="14">
         <f>$I45+Sheet2!B$6/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="Q45" s="14">
         <f>$I45+Sheet2!B$7/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R45" s="14">
         <f>$I45+Sheet2!B$8/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S45" s="14">
         <f>$I45+Sheet2!B$9/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T45" s="14">
         <f>$I45+Sheet2!B$10/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U45" s="14">
         <f>$I45+Sheet2!B$11/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="V45" s="16">
         <f>$I45+Sheet2!B$12/24</f>
-        <v>0.49999999999999994</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="50"/>
-      <c r="B46" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="40">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="54"/>
+      <c r="B46" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="20"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="8">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J46" s="56"/>
+      <c r="J46" s="10"/>
       <c r="K46" s="14">
         <f>$I46+Sheet2!B$1/24</f>
         <v>1.2083333333333333</v>
@@ -4220,223 +4262,221 @@
         <v>0.49999999999999994</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
-      <c r="B47" s="46" t="s">
+    <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="54"/>
+      <c r="B47" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J47" s="10"/>
+      <c r="K47" s="60">
+        <f>$I47+Sheet2!B$1/24</f>
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="L47" s="60">
+        <f>$I47+Sheet2!B$2/24</f>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="M47" s="60">
+        <f>$I47+Sheet2!B$3/24</f>
+        <v>1.125</v>
+      </c>
+      <c r="N47" s="60">
+        <f>$I47+Sheet2!B$4/24</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="O47" s="60">
+        <f>$I47+Sheet2!B$5/24</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="P47" s="60">
+        <f>$I47+Sheet2!B$6/24</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Q47" s="60">
+        <f>$I47+Sheet2!B$7/24</f>
+        <v>0.875</v>
+      </c>
+      <c r="R47" s="60">
+        <f>$I47+Sheet2!B$8/24</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="S47" s="60">
+        <f>$I47+Sheet2!B$9/24</f>
+        <v>0.625</v>
+      </c>
+      <c r="T47" s="60">
+        <f>$I47+Sheet2!B$10/24</f>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="U47" s="60">
+        <f>$I47+Sheet2!B$11/24</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="V47" s="61">
+        <f>$I47+Sheet2!B$12/24</f>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="54"/>
+      <c r="B48" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32" t="s">
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="J48" s="10"/>
+      <c r="K48" s="60">
+        <f>$I48+Sheet2!B$1/24</f>
+        <v>1.2916666666666667</v>
+      </c>
+      <c r="L48" s="60">
+        <f>$I48+Sheet2!B$2/24</f>
+        <v>1.25</v>
+      </c>
+      <c r="M48" s="60">
+        <f>$I48+Sheet2!B$3/24</f>
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="N48" s="60">
+        <f>$I48+Sheet2!B$4/24</f>
+        <v>1</v>
+      </c>
+      <c r="O48" s="60">
+        <f>$I48+Sheet2!B$5/24</f>
+        <v>1</v>
+      </c>
+      <c r="P48" s="60">
+        <f>$I48+Sheet2!B$6/24</f>
+        <v>1</v>
+      </c>
+      <c r="Q48" s="60">
+        <f>$I48+Sheet2!B$7/24</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="R48" s="60">
+        <f>$I48+Sheet2!B$8/24</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="S48" s="60">
+        <f>$I48+Sheet2!B$9/24</f>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="T48" s="60">
+        <f>$I48+Sheet2!B$10/24</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U48" s="60">
+        <f>$I48+Sheet2!B$11/24</f>
+        <v>0.625</v>
+      </c>
+      <c r="V48" s="61">
+        <f>$I48+Sheet2!B$12/24</f>
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="55"/>
+      <c r="B49" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" s="29"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="J49" s="10"/>
+      <c r="K49" s="60">
+        <f>$I49+Sheet2!B$1/24</f>
+        <v>1.2916666666666667</v>
+      </c>
+      <c r="L49" s="60">
+        <f>$I49+Sheet2!B$2/24</f>
+        <v>1.25</v>
+      </c>
+      <c r="M49" s="60">
+        <f>$I49+Sheet2!B$3/24</f>
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="N49" s="60">
+        <f>$I49+Sheet2!B$4/24</f>
+        <v>1</v>
+      </c>
+      <c r="O49" s="60">
+        <f>$I49+Sheet2!B$5/24</f>
+        <v>1</v>
+      </c>
+      <c r="P49" s="60">
+        <f>$I49+Sheet2!B$6/24</f>
+        <v>1</v>
+      </c>
+      <c r="Q49" s="60">
+        <f>$I49+Sheet2!B$7/24</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="R49" s="60">
+        <f>$I49+Sheet2!B$8/24</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="S49" s="60">
+        <f>$I49+Sheet2!B$9/24</f>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="T49" s="60">
+        <f>$I49+Sheet2!B$10/24</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U49" s="60">
+        <f>$I49+Sheet2!B$11/24</f>
+        <v>0.625</v>
+      </c>
+      <c r="V49" s="61">
+        <f>$I49+Sheet2!B$12/24</f>
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
+      <c r="B50" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="57">
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="52">
         <v>0</v>
       </c>
-      <c r="J47" s="31"/>
-      <c r="K47" s="14">
-        <f>$I47+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="L47" s="14">
-        <f>$I47+Sheet2!B$2/24</f>
-        <v>0.375</v>
-      </c>
-      <c r="M47" s="14">
-        <f>$I47+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N47" s="14">
-        <f>$I47+Sheet2!B$4/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="O47" s="14">
-        <f>$I47+Sheet2!B$5/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="P47" s="14">
-        <f>$I47+Sheet2!B$6/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="Q47" s="14">
-        <f>$I47+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="R47" s="14">
-        <f>$I47+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="S47" s="14">
-        <f>$I47+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
-      </c>
-      <c r="T47" s="14">
-        <f>$I47+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
-      </c>
-      <c r="U47" s="14">
-        <f>$I47+Sheet2!B$11/24</f>
-        <v>-0.25</v>
-      </c>
-      <c r="V47" s="16">
-        <f>$I47+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="26">
-        <v>0</v>
-      </c>
-      <c r="J48" s="31"/>
-      <c r="K48" s="14">
-        <f>$I48+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="L48" s="14">
-        <f>$I48+Sheet2!B$2/24</f>
-        <v>0.375</v>
-      </c>
-      <c r="M48" s="14">
-        <f>$I48+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N48" s="14">
-        <f>$I48+Sheet2!B$4/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="O48" s="14">
-        <f>$I48+Sheet2!B$5/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="P48" s="14">
-        <f>$I48+Sheet2!B$6/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="Q48" s="14">
-        <f>$I48+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="R48" s="14">
-        <f>$I48+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="S48" s="14">
-        <f>$I48+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
-      </c>
-      <c r="T48" s="14">
-        <f>$I48+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
-      </c>
-      <c r="U48" s="14">
-        <f>$I48+Sheet2!B$11/24</f>
-        <v>-0.25</v>
-      </c>
-      <c r="V48" s="16">
-        <f>$I48+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="26">
-        <v>0</v>
-      </c>
-      <c r="J49" s="10"/>
-      <c r="K49" s="14">
-        <f>$I49+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="L49" s="14">
-        <f>$I49+Sheet2!B$2/24</f>
-        <v>0.375</v>
-      </c>
-      <c r="M49" s="14">
-        <f>$I49+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N49" s="14">
-        <f>$I49+Sheet2!B$4/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="O49" s="14">
-        <f>$I49+Sheet2!B$5/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="P49" s="14">
-        <f>$I49+Sheet2!B$6/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="Q49" s="14">
-        <f>$I49+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="R49" s="14">
-        <f>$I49+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="S49" s="14">
-        <f>$I49+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
-      </c>
-      <c r="T49" s="14">
-        <f>$I49+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
-      </c>
-      <c r="U49" s="14">
-        <f>$I49+Sheet2!B$11/24</f>
-        <v>-0.25</v>
-      </c>
-      <c r="V49" s="16">
-        <f>$I49+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="26">
-        <v>0</v>
-      </c>
-      <c r="J50" s="10"/>
+      <c r="J50" s="31"/>
       <c r="K50" s="14">
         <f>$I50+Sheet2!B$1/24</f>
         <v>0.41666666666666669</v>
@@ -4487,22 +4527,24 @@
       </c>
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6" t="s">
+      <c r="A51" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
       <c r="I51" s="26">
         <v>0</v>
       </c>
-      <c r="J51" s="10"/>
+      <c r="J51" s="31"/>
       <c r="K51" s="14">
         <f>$I51+Sheet2!B$1/24</f>
         <v>0.41666666666666669</v>
@@ -4553,9 +4595,9 @@
       </c>
     </row>
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="17" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -4619,15 +4661,15 @@
       </c>
     </row>
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="36" t="s">
-        <v>66</v>
+      <c r="A53" s="54"/>
+      <c r="B53" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -4685,15 +4727,15 @@
       </c>
     </row>
     <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="36" t="s">
-        <v>68</v>
+      <c r="A54" s="54"/>
+      <c r="B54" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -4751,9 +4793,9 @@
       </c>
     </row>
     <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
+      <c r="A55" s="54"/>
       <c r="B55" s="36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -4817,9 +4859,9 @@
       </c>
     </row>
     <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
+      <c r="A56" s="54"/>
       <c r="B56" s="36" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -4883,9 +4925,9 @@
       </c>
     </row>
     <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
+      <c r="A57" s="54"/>
       <c r="B57" s="36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -4949,151 +4991,151 @@
       </c>
     </row>
     <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="17" t="s">
-        <v>103</v>
+      <c r="A58" s="54"/>
+      <c r="B58" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="26">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J58" s="10"/>
       <c r="K58" s="14">
         <f>$I58+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L58" s="14">
         <f>$I58+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M58" s="14">
         <f>$I58+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N58" s="14">
         <f>$I58+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O58" s="14">
         <f>$I58+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P58" s="14">
         <f>$I58+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q58" s="14">
         <f>$I58+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R58" s="14">
         <f>$I58+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S58" s="14">
         <f>$I58+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T58" s="14">
         <f>$I58+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U58" s="14">
         <f>$I58+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V58" s="16">
         <f>$I58+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="17" t="s">
-        <v>43</v>
+      <c r="A59" s="54"/>
+      <c r="B59" s="36" t="s">
+        <v>67</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="26">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J59" s="10"/>
       <c r="K59" s="14">
         <f>$I59+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L59" s="14">
         <f>$I59+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M59" s="14">
         <f>$I59+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N59" s="14">
         <f>$I59+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O59" s="14">
         <f>$I59+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P59" s="14">
         <f>$I59+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q59" s="14">
         <f>$I59+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R59" s="14">
         <f>$I59+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S59" s="14">
         <f>$I59+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T59" s="14">
         <f>$I59+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U59" s="14">
         <f>$I59+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V59" s="16">
         <f>$I59+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="17" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
-      <c r="I60" s="8">
+      <c r="I60" s="26">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J60" s="10"/>
@@ -5147,19 +5189,19 @@
       </c>
     </row>
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="36" t="s">
-        <v>72</v>
+      <c r="A61" s="54"/>
+      <c r="B61" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
-      <c r="I61" s="8">
+      <c r="I61" s="26">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J61" s="10"/>
@@ -5213,75 +5255,75 @@
       </c>
     </row>
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="17" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="8">
-        <v>8.3333333333333301E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J62" s="10"/>
       <c r="K62" s="14">
         <f>$I62+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L62" s="14">
         <f>$I62+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M62" s="14">
         <f>$I62+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N62" s="14">
         <f>$I62+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O62" s="14">
         <f>$I62+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P62" s="14">
         <f>$I62+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q62" s="14">
         <f>$I62+Sheet2!B$7/24</f>
-        <v>0.16666666666666663</v>
+        <v>0.125</v>
       </c>
       <c r="R62" s="14">
         <f>$I62+Sheet2!B$8/24</f>
-        <v>0.12499999999999997</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S62" s="14">
         <f>$I62+Sheet2!B$9/24</f>
-        <v>-8.3333333333333356E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T62" s="14">
         <f>$I62+Sheet2!B$10/24</f>
-        <v>-0.12500000000000006</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U62" s="14">
         <f>$I62+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V62" s="16">
         <f>$I62+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="17" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -5292,139 +5334,139 @@
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="8">
-        <v>8.3333333333333301E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J63" s="10"/>
       <c r="K63" s="14">
         <f>$I63+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L63" s="14">
         <f>$I63+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M63" s="14">
         <f>$I63+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N63" s="14">
         <f>$I63+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O63" s="14">
         <f>$I63+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P63" s="14">
         <f>$I63+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q63" s="14">
         <f>$I63+Sheet2!B$7/24</f>
-        <v>0.16666666666666663</v>
+        <v>0.125</v>
       </c>
       <c r="R63" s="14">
         <f>$I63+Sheet2!B$8/24</f>
-        <v>0.12499999999999997</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S63" s="14">
         <f>$I63+Sheet2!B$9/24</f>
-        <v>-8.3333333333333356E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T63" s="14">
         <f>$I63+Sheet2!B$10/24</f>
-        <v>-0.12500000000000006</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U63" s="14">
         <f>$I63+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V63" s="16">
         <f>$I63+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="17" t="s">
-        <v>46</v>
+      <c r="A64" s="54"/>
+      <c r="B64" s="36" t="s">
+        <v>72</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G64" s="7"/>
-      <c r="H64" s="6"/>
+      <c r="H64" s="7"/>
       <c r="I64" s="8">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J64" s="10"/>
       <c r="K64" s="14">
         <f>$I64+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L64" s="14">
         <f>$I64+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M64" s="14">
         <f>$I64+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N64" s="14">
         <f>$I64+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O64" s="14">
         <f>$I64+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P64" s="14">
         <f>$I64+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q64" s="14">
         <f>$I64+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="R64" s="14">
         <f>$I64+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S64" s="14">
         <f>$I64+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T64" s="14">
         <f>$I64+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U64" s="14">
         <f>$I64+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V64" s="16">
         <f>$I64+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
+      <c r="A65" s="54"/>
       <c r="B65" s="17" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="8">
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="J65" s="10"/>
       <c r="K65" s="14">
@@ -5453,19 +5495,19 @@
       </c>
       <c r="Q65" s="14">
         <f>$I65+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="R65" s="14">
         <f>$I65+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>0.12499999999999997</v>
       </c>
       <c r="S65" s="14">
         <f>$I65+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-8.3333333333333356E-2</v>
       </c>
       <c r="T65" s="14">
         <f>$I65+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.12500000000000006</v>
       </c>
       <c r="U65" s="14">
         <f>$I65+Sheet2!B$11/24</f>
@@ -5477,18 +5519,18 @@
       </c>
     </row>
     <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="36" t="s">
-        <v>74</v>
+      <c r="A66" s="54"/>
+      <c r="B66" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
+      <c r="H66" s="6"/>
       <c r="I66" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -5543,154 +5585,154 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="17" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="8">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J67" s="10"/>
       <c r="K67" s="14">
         <f>$I67+Sheet2!B$1/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="L67" s="14">
         <f>$I67+Sheet2!B$2/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="M67" s="14">
         <f>$I67+Sheet2!B$3/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="N67" s="14">
         <f>$I67+Sheet2!B$4/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="O67" s="14">
         <f>$I67+Sheet2!B$5/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="P67" s="14">
         <f>$I67+Sheet2!B$6/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="Q67" s="14">
         <f>$I67+Sheet2!B$7/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R67" s="14">
         <f>$I67+Sheet2!B$8/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="S67" s="14">
         <f>$I67+Sheet2!B$9/24</f>
-        <v>-4.1666666666666657E-2</v>
+        <v>-8.3333333333333329E-2</v>
       </c>
       <c r="T67" s="14">
         <f>$I67+Sheet2!B$10/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="U67" s="14">
         <f>$I67+Sheet2!B$11/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="V67" s="16">
         <f>$I67+Sheet2!B$12/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333337</v>
       </c>
     </row>
     <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
-      <c r="B68" s="17" t="s">
-        <v>47</v>
+      <c r="A68" s="54"/>
+      <c r="B68" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="8">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J68" s="10"/>
       <c r="K68" s="14">
         <f>$I68+Sheet2!B$1/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="L68" s="14">
         <f>$I68+Sheet2!B$2/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="M68" s="14">
         <f>$I68+Sheet2!B$3/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="N68" s="14">
         <f>$I68+Sheet2!B$4/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="O68" s="14">
         <f>$I68+Sheet2!B$5/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="P68" s="14">
         <f>$I68+Sheet2!B$6/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="Q68" s="14">
         <f>$I68+Sheet2!B$7/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R68" s="14">
         <f>$I68+Sheet2!B$8/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="S68" s="14">
         <f>$I68+Sheet2!B$9/24</f>
-        <v>-4.1666666666666657E-2</v>
+        <v>-8.3333333333333329E-2</v>
       </c>
       <c r="T68" s="14">
         <f>$I68+Sheet2!B$10/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="U68" s="14">
         <f>$I68+Sheet2!B$11/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="V68" s="16">
         <f>$I68+Sheet2!B$12/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333337</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
       <c r="I69" s="8">
         <v>0.125</v>
       </c>
-      <c r="J69" s="22"/>
+      <c r="J69" s="10"/>
       <c r="K69" s="14">
         <f>$I69+Sheet2!B$1/24</f>
         <v>0.54166666666666674</v>
@@ -5741,18 +5783,18 @@
       </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
       <c r="I70" s="8">
         <v>0.125</v>
       </c>
@@ -5807,147 +5849,147 @@
       </c>
     </row>
     <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="18" t="s">
-        <v>103</v>
+      <c r="A71" s="54"/>
+      <c r="B71" s="38" t="s">
+        <v>48</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="6" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
       <c r="I71" s="8">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="J71" s="10"/>
+        <v>0.125</v>
+      </c>
+      <c r="J71" s="22"/>
       <c r="K71" s="14">
         <f>$I71+Sheet2!B$1/24</f>
-        <v>0.62499999999999967</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="L71" s="14">
         <f>$I71+Sheet2!B$2/24</f>
-        <v>0.58333333333333304</v>
+        <v>0.5</v>
       </c>
       <c r="M71" s="14">
         <f>$I71+Sheet2!B$3/24</f>
-        <v>0.5416666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="N71" s="14">
         <f>$I71+Sheet2!B$4/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="O71" s="14">
         <f>$I71+Sheet2!B$5/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="P71" s="14">
         <f>$I71+Sheet2!B$6/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="Q71" s="14">
         <f>$I71+Sheet2!B$7/24</f>
-        <v>0.29166666666666635</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="R71" s="14">
         <f>$I71+Sheet2!B$8/24</f>
-        <v>0.24999999999999967</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S71" s="14">
         <f>$I71+Sheet2!B$9/24</f>
-        <v>4.1666666666666352E-2</v>
+        <v>-4.1666666666666657E-2</v>
       </c>
       <c r="T71" s="14">
         <f>$I71+Sheet2!B$10/24</f>
-        <v>-3.3306690738754696E-16</v>
+        <v>-8.3333333333333343E-2</v>
       </c>
       <c r="U71" s="14">
         <f>$I71+Sheet2!B$11/24</f>
-        <v>-4.166666666666699E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="V71" s="16">
         <f>$I71+Sheet2!B$12/24</f>
-        <v>-8.3333333333333676E-2</v>
+        <v>-0.16666666666666669</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="18" t="s">
-        <v>44</v>
+      <c r="A72" s="54"/>
+      <c r="B72" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="6" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
       <c r="I72" s="8">
-        <v>0.20833333333333301</v>
+        <v>0.125</v>
       </c>
       <c r="J72" s="10"/>
       <c r="K72" s="14">
         <f>$I72+Sheet2!B$1/24</f>
-        <v>0.62499999999999967</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="L72" s="14">
         <f>$I72+Sheet2!B$2/24</f>
-        <v>0.58333333333333304</v>
+        <v>0.5</v>
       </c>
       <c r="M72" s="14">
         <f>$I72+Sheet2!B$3/24</f>
-        <v>0.5416666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="N72" s="14">
         <f>$I72+Sheet2!B$4/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="O72" s="14">
         <f>$I72+Sheet2!B$5/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="P72" s="14">
         <f>$I72+Sheet2!B$6/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="Q72" s="14">
         <f>$I72+Sheet2!B$7/24</f>
-        <v>0.29166666666666635</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="R72" s="14">
         <f>$I72+Sheet2!B$8/24</f>
-        <v>0.24999999999999967</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S72" s="14">
         <f>$I72+Sheet2!B$9/24</f>
-        <v>4.1666666666666352E-2</v>
+        <v>-4.1666666666666657E-2</v>
       </c>
       <c r="T72" s="14">
         <f>$I72+Sheet2!B$10/24</f>
-        <v>-3.3306690738754696E-16</v>
+        <v>-8.3333333333333343E-2</v>
       </c>
       <c r="U72" s="14">
         <f>$I72+Sheet2!B$11/24</f>
-        <v>-4.166666666666699E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="V72" s="16">
         <f>$I72+Sheet2!B$12/24</f>
-        <v>-8.3333333333333676E-2</v>
+        <v>-0.16666666666666669</v>
       </c>
     </row>
     <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
-      <c r="B73" s="35" t="s">
-        <v>84</v>
+      <c r="A73" s="54"/>
+      <c r="B73" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="6" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="20"/>
@@ -6004,32 +6046,164 @@
         <v>-8.3333333333333676E-2</v>
       </c>
     </row>
+    <row r="74" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="54"/>
+      <c r="B74" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="8">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="J74" s="10"/>
+      <c r="K74" s="14">
+        <f>$I74+Sheet2!B$1/24</f>
+        <v>0.62499999999999967</v>
+      </c>
+      <c r="L74" s="14">
+        <f>$I74+Sheet2!B$2/24</f>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="M74" s="14">
+        <f>$I74+Sheet2!B$3/24</f>
+        <v>0.5416666666666663</v>
+      </c>
+      <c r="N74" s="14">
+        <f>$I74+Sheet2!B$4/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="O74" s="14">
+        <f>$I74+Sheet2!B$5/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="P74" s="14">
+        <f>$I74+Sheet2!B$6/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="Q74" s="14">
+        <f>$I74+Sheet2!B$7/24</f>
+        <v>0.29166666666666635</v>
+      </c>
+      <c r="R74" s="14">
+        <f>$I74+Sheet2!B$8/24</f>
+        <v>0.24999999999999967</v>
+      </c>
+      <c r="S74" s="14">
+        <f>$I74+Sheet2!B$9/24</f>
+        <v>4.1666666666666352E-2</v>
+      </c>
+      <c r="T74" s="14">
+        <f>$I74+Sheet2!B$10/24</f>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="U74" s="14">
+        <f>$I74+Sheet2!B$11/24</f>
+        <v>-4.166666666666699E-2</v>
+      </c>
+      <c r="V74" s="16">
+        <f>$I74+Sheet2!B$12/24</f>
+        <v>-8.3333333333333676E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="54"/>
+      <c r="B75" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="8">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="J75" s="10"/>
+      <c r="K75" s="14">
+        <f>$I75+Sheet2!B$1/24</f>
+        <v>0.62499999999999967</v>
+      </c>
+      <c r="L75" s="14">
+        <f>$I75+Sheet2!B$2/24</f>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="M75" s="14">
+        <f>$I75+Sheet2!B$3/24</f>
+        <v>0.5416666666666663</v>
+      </c>
+      <c r="N75" s="14">
+        <f>$I75+Sheet2!B$4/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="O75" s="14">
+        <f>$I75+Sheet2!B$5/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="P75" s="14">
+        <f>$I75+Sheet2!B$6/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="Q75" s="14">
+        <f>$I75+Sheet2!B$7/24</f>
+        <v>0.29166666666666635</v>
+      </c>
+      <c r="R75" s="14">
+        <f>$I75+Sheet2!B$8/24</f>
+        <v>0.24999999999999967</v>
+      </c>
+      <c r="S75" s="14">
+        <f>$I75+Sheet2!B$9/24</f>
+        <v>4.1666666666666352E-2</v>
+      </c>
+      <c r="T75" s="14">
+        <f>$I75+Sheet2!B$10/24</f>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="U75" s="14">
+        <f>$I75+Sheet2!B$11/24</f>
+        <v>-4.166666666666699E-2</v>
+      </c>
+      <c r="V75" s="16">
+        <f>$I75+Sheet2!B$12/24</f>
+        <v>-8.3333333333333676E-2</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
-    <mergeCell ref="A23:A46"/>
-    <mergeCell ref="A48:A73"/>
+    <mergeCell ref="A23:A49"/>
+    <mergeCell ref="A51:A75"/>
     <mergeCell ref="A2:A16"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L6 K6:V73">
+  <conditionalFormatting sqref="K2:L6 K6:V75">
     <cfRule type="expression" dxfId="2" priority="17">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:V73">
+  <conditionalFormatting sqref="K2:V75">
     <cfRule type="expression" dxfId="1" priority="19">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:V73">
+  <conditionalFormatting sqref="B2:V75">
     <cfRule type="expression" dxfId="0" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Desktop\swgoh\shard-payout-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADFFD07-E2F1-4AE8-B09F-EB270E97D7EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3021D40E-265B-413C-911A-42809281F434}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -829,6 +829,11 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -838,11 +843,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1187,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X75"/>
+  <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="B35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="R1" s="5">
-        <f>H49</f>
+        <f>H48</f>
         <v>0</v>
       </c>
       <c r="S1" s="5">
-        <f>H51</f>
+        <f>H50</f>
         <v>0</v>
       </c>
       <c r="T1" s="5">
-        <f>H62</f>
+        <f>H61</f>
         <v>0</v>
       </c>
       <c r="U1" s="5">
-        <f>H67</f>
+        <f>H66</f>
         <v>0</v>
       </c>
       <c r="V1" s="5" t="e">
@@ -1288,7 +1288,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="59" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1356,7 +1356,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="44" t="s">
         <v>31</v>
       </c>
@@ -1422,7 +1422,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="17" t="s">
         <v>103</v>
       </c>
@@ -1488,7 +1488,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="37" t="s">
         <v>28</v>
       </c>
@@ -1554,7 +1554,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="17" t="s">
         <v>103</v>
       </c>
@@ -1620,7 +1620,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="17" t="s">
         <v>27</v>
       </c>
@@ -1686,7 +1686,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="53" t="s">
         <v>75</v>
       </c>
@@ -1752,7 +1752,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="17" t="s">
         <v>103</v>
       </c>
@@ -1818,7 +1818,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="17" t="s">
         <v>54</v>
       </c>
@@ -1884,7 +1884,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="18" t="s">
         <v>29</v>
       </c>
@@ -1950,7 +1950,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="35" t="s">
         <v>60</v>
       </c>
@@ -2016,7 +2016,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="18" t="s">
         <v>103</v>
       </c>
@@ -2082,7 +2082,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="18" t="s">
         <v>32</v>
       </c>
@@ -2148,7 +2148,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="53" t="s">
         <v>82</v>
       </c>
@@ -2214,7 +2214,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="49" t="s">
         <v>59</v>
       </c>
@@ -2676,7 +2676,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="59" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -2744,7 +2744,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="17" t="s">
         <v>103</v>
       </c>
@@ -2810,7 +2810,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="17" t="s">
         <v>37</v>
       </c>
@@ -2818,7 +2818,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -2876,7 +2876,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="17" t="s">
         <v>56</v>
       </c>
@@ -2942,7 +2942,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="17" t="s">
         <v>103</v>
       </c>
@@ -3008,7 +3008,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="17" t="s">
         <v>35</v>
       </c>
@@ -3074,7 +3074,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="17" t="s">
         <v>34</v>
       </c>
@@ -3141,7 +3141,7 @@
       <c r="X29" s="4"/>
     </row>
     <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="17" t="s">
         <v>33</v>
       </c>
@@ -3207,7 +3207,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="36" t="s">
         <v>76</v>
       </c>
@@ -3273,7 +3273,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="35" t="s">
         <v>64</v>
       </c>
@@ -3339,7 +3339,7 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="17" t="s">
         <v>103</v>
       </c>
@@ -3405,7 +3405,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="17" t="s">
         <v>40</v>
       </c>
@@ -3471,15 +3471,15 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="17" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -3537,15 +3537,15 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="17" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -3603,15 +3603,15 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="17" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -3668,16 +3668,16 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
+    <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="59"/>
       <c r="B38" s="17" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -3735,22 +3735,22 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="17" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="8">
         <v>0.75</v>
       </c>
-      <c r="J39" s="11"/>
+      <c r="J39" s="10"/>
       <c r="K39" s="14">
         <f>$I39+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3801,22 +3801,22 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
       <c r="I40" s="8">
         <v>0.75</v>
       </c>
-      <c r="J40" s="10"/>
+      <c r="J40" s="22"/>
       <c r="K40" s="14">
         <f>$I40+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3867,9 +3867,9 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="35" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -3933,9 +3933,9 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="35" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -3999,9 +3999,9 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="35" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -4065,9 +4065,9 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="35" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -4131,349 +4131,351 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="35" t="s">
-        <v>87</v>
+      <c r="A45" s="59"/>
+      <c r="B45" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
-      <c r="F45" s="19" t="s">
-        <v>58</v>
+      <c r="F45" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
+      <c r="H45" s="7"/>
       <c r="I45" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="J45" s="22"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J45" s="10"/>
       <c r="K45" s="14">
         <f>$I45+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="L45" s="14">
         <f>$I45+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="M45" s="14">
         <f>$I45+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.125</v>
       </c>
       <c r="N45" s="14">
         <f>$I45+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O45" s="14">
         <f>$I45+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="P45" s="14">
         <f>$I45+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="Q45" s="14">
         <f>$I45+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="R45" s="14">
         <f>$I45+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="S45" s="14">
         <f>$I45+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="T45" s="14">
         <f>$I45+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="U45" s="14">
         <f>$I45+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="V45" s="16">
         <f>$I45+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
-      <c r="B46" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
       <c r="F46" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G46" s="20"/>
+        <v>52</v>
+      </c>
+      <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="8">
         <v>0.79166666666666663</v>
       </c>
       <c r="J46" s="10"/>
-      <c r="K46" s="14">
+      <c r="K46" s="57">
         <f>$I46+Sheet2!B$1/24</f>
         <v>1.2083333333333333</v>
       </c>
-      <c r="L46" s="14">
+      <c r="L46" s="57">
         <f>$I46+Sheet2!B$2/24</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="M46" s="14">
+      <c r="M46" s="57">
         <f>$I46+Sheet2!B$3/24</f>
         <v>1.125</v>
       </c>
-      <c r="N46" s="14">
+      <c r="N46" s="57">
         <f>$I46+Sheet2!B$4/24</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="O46" s="14">
+      <c r="O46" s="57">
         <f>$I46+Sheet2!B$5/24</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="P46" s="14">
+      <c r="P46" s="57">
         <f>$I46+Sheet2!B$6/24</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="Q46" s="14">
+      <c r="Q46" s="57">
         <f>$I46+Sheet2!B$7/24</f>
         <v>0.875</v>
       </c>
-      <c r="R46" s="14">
+      <c r="R46" s="57">
         <f>$I46+Sheet2!B$8/24</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="S46" s="14">
+      <c r="S46" s="57">
         <f>$I46+Sheet2!B$9/24</f>
         <v>0.625</v>
       </c>
-      <c r="T46" s="14">
+      <c r="T46" s="57">
         <f>$I46+Sheet2!B$10/24</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="U46" s="14">
+      <c r="U46" s="57">
         <f>$I46+Sheet2!B$11/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="V46" s="16">
+      <c r="V46" s="58">
         <f>$I46+Sheet2!B$12/24</f>
         <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
-      <c r="B47" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
       <c r="I47" s="8">
-        <v>0.79166666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="J47" s="10"/>
-      <c r="K47" s="60">
+      <c r="K47" s="57">
         <f>$I47+Sheet2!B$1/24</f>
+        <v>1.2916666666666667</v>
+      </c>
+      <c r="L47" s="57">
+        <f>$I47+Sheet2!B$2/24</f>
+        <v>1.25</v>
+      </c>
+      <c r="M47" s="57">
+        <f>$I47+Sheet2!B$3/24</f>
         <v>1.2083333333333333</v>
       </c>
-      <c r="L47" s="60">
-        <f>$I47+Sheet2!B$2/24</f>
-        <v>1.1666666666666665</v>
-      </c>
-      <c r="M47" s="60">
-        <f>$I47+Sheet2!B$3/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="N47" s="60">
+      <c r="N47" s="57">
         <f>$I47+Sheet2!B$4/24</f>
+        <v>1</v>
+      </c>
+      <c r="O47" s="57">
+        <f>$I47+Sheet2!B$5/24</f>
+        <v>1</v>
+      </c>
+      <c r="P47" s="57">
+        <f>$I47+Sheet2!B$6/24</f>
+        <v>1</v>
+      </c>
+      <c r="Q47" s="57">
+        <f>$I47+Sheet2!B$7/24</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="R47" s="57">
+        <f>$I47+Sheet2!B$8/24</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="O47" s="60">
-        <f>$I47+Sheet2!B$5/24</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="P47" s="60">
-        <f>$I47+Sheet2!B$6/24</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="Q47" s="60">
-        <f>$I47+Sheet2!B$7/24</f>
-        <v>0.875</v>
-      </c>
-      <c r="R47" s="60">
-        <f>$I47+Sheet2!B$8/24</f>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="S47" s="60">
+      <c r="S47" s="57">
         <f>$I47+Sheet2!B$9/24</f>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="T47" s="57">
+        <f>$I47+Sheet2!B$10/24</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U47" s="57">
+        <f>$I47+Sheet2!B$11/24</f>
         <v>0.625</v>
       </c>
-      <c r="T47" s="60">
-        <f>$I47+Sheet2!B$10/24</f>
+      <c r="V47" s="58">
+        <f>$I47+Sheet2!B$12/24</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="U47" s="60">
-        <f>$I47+Sheet2!B$11/24</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="V47" s="61">
-        <f>$I47+Sheet2!B$12/24</f>
-        <v>0.49999999999999994</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
-      <c r="B48" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
+    </row>
+    <row r="48" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="60"/>
+      <c r="B48" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" s="29"/>
+      <c r="H48" s="39"/>
       <c r="I48" s="8">
         <v>0.875</v>
       </c>
       <c r="J48" s="10"/>
-      <c r="K48" s="60">
+      <c r="K48" s="57">
         <f>$I48+Sheet2!B$1/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="L48" s="60">
+      <c r="L48" s="57">
         <f>$I48+Sheet2!B$2/24</f>
         <v>1.25</v>
       </c>
-      <c r="M48" s="60">
+      <c r="M48" s="57">
         <f>$I48+Sheet2!B$3/24</f>
         <v>1.2083333333333333</v>
       </c>
-      <c r="N48" s="60">
+      <c r="N48" s="57">
         <f>$I48+Sheet2!B$4/24</f>
         <v>1</v>
       </c>
-      <c r="O48" s="60">
+      <c r="O48" s="57">
         <f>$I48+Sheet2!B$5/24</f>
         <v>1</v>
       </c>
-      <c r="P48" s="60">
+      <c r="P48" s="57">
         <f>$I48+Sheet2!B$6/24</f>
         <v>1</v>
       </c>
-      <c r="Q48" s="60">
+      <c r="Q48" s="57">
         <f>$I48+Sheet2!B$7/24</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="R48" s="60">
+      <c r="R48" s="57">
         <f>$I48+Sheet2!B$8/24</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="S48" s="60">
+      <c r="S48" s="57">
         <f>$I48+Sheet2!B$9/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="T48" s="60">
+      <c r="T48" s="57">
         <f>$I48+Sheet2!B$10/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="U48" s="60">
+      <c r="U48" s="57">
         <f>$I48+Sheet2!B$11/24</f>
         <v>0.625</v>
       </c>
-      <c r="V48" s="61">
+      <c r="V48" s="58">
         <f>$I48+Sheet2!B$12/24</f>
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="55"/>
-      <c r="B49" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G49" s="29"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="8">
-        <v>0.875</v>
-      </c>
-      <c r="J49" s="10"/>
-      <c r="K49" s="60">
+    <row r="49" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="41"/>
+      <c r="B49" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="52">
+        <v>0</v>
+      </c>
+      <c r="J49" s="31"/>
+      <c r="K49" s="14">
         <f>$I49+Sheet2!B$1/24</f>
-        <v>1.2916666666666667</v>
-      </c>
-      <c r="L49" s="60">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L49" s="14">
         <f>$I49+Sheet2!B$2/24</f>
-        <v>1.25</v>
-      </c>
-      <c r="M49" s="60">
+        <v>0.375</v>
+      </c>
+      <c r="M49" s="14">
         <f>$I49+Sheet2!B$3/24</f>
-        <v>1.2083333333333333</v>
-      </c>
-      <c r="N49" s="60">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N49" s="14">
         <f>$I49+Sheet2!B$4/24</f>
-        <v>1</v>
-      </c>
-      <c r="O49" s="60">
+        <v>0.125</v>
+      </c>
+      <c r="O49" s="14">
         <f>$I49+Sheet2!B$5/24</f>
-        <v>1</v>
-      </c>
-      <c r="P49" s="60">
+        <v>0.125</v>
+      </c>
+      <c r="P49" s="14">
         <f>$I49+Sheet2!B$6/24</f>
-        <v>1</v>
-      </c>
-      <c r="Q49" s="60">
+        <v>0.125</v>
+      </c>
+      <c r="Q49" s="14">
         <f>$I49+Sheet2!B$7/24</f>
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="R49" s="60">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="R49" s="14">
         <f>$I49+Sheet2!B$8/24</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="S49" s="60">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="S49" s="14">
         <f>$I49+Sheet2!B$9/24</f>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="T49" s="60">
+        <v>-0.16666666666666666</v>
+      </c>
+      <c r="T49" s="14">
         <f>$I49+Sheet2!B$10/24</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="U49" s="60">
+        <v>-0.20833333333333334</v>
+      </c>
+      <c r="U49" s="14">
         <f>$I49+Sheet2!B$11/24</f>
-        <v>0.625</v>
-      </c>
-      <c r="V49" s="61">
+        <v>-0.25</v>
+      </c>
+      <c r="V49" s="16">
         <f>$I49+Sheet2!B$12/24</f>
-        <v>0.58333333333333326</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="52">
+        <v>-0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="26">
         <v>0</v>
       </c>
       <c r="J50" s="31"/>
@@ -4527,24 +4529,22 @@
       </c>
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24" t="s">
+      <c r="A51" s="59"/>
+      <c r="B51" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
       <c r="I51" s="26">
         <v>0</v>
       </c>
-      <c r="J51" s="31"/>
+      <c r="J51" s="10"/>
       <c r="K51" s="14">
         <f>$I51+Sheet2!B$1/24</f>
         <v>0.41666666666666669</v>
@@ -4595,9 +4595,9 @@
       </c>
     </row>
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="17" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -4661,9 +4661,9 @@
       </c>
     </row>
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="17" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -4727,15 +4727,15 @@
       </c>
     </row>
     <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
-      <c r="B54" s="17" t="s">
-        <v>81</v>
+      <c r="A54" s="59"/>
+      <c r="B54" s="36" t="s">
+        <v>66</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -4793,9 +4793,9 @@
       </c>
     </row>
     <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="54"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -4859,9 +4859,9 @@
       </c>
     </row>
     <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -4925,9 +4925,9 @@
       </c>
     </row>
     <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="36" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -4991,9 +4991,9 @@
       </c>
     </row>
     <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="36" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -5057,81 +5057,81 @@
       </c>
     </row>
     <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
-      <c r="B59" s="36" t="s">
-        <v>67</v>
+      <c r="A59" s="59"/>
+      <c r="B59" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="26">
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J59" s="10"/>
       <c r="K59" s="14">
         <f>$I59+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L59" s="14">
         <f>$I59+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M59" s="14">
         <f>$I59+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="N59" s="14">
         <f>$I59+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O59" s="14">
         <f>$I59+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P59" s="14">
         <f>$I59+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q59" s="14">
         <f>$I59+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="R59" s="14">
         <f>$I59+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S59" s="14">
         <f>$I59+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>-0.125</v>
       </c>
       <c r="T59" s="14">
         <f>$I59+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U59" s="14">
         <f>$I59+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V59" s="16">
         <f>$I59+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
+      <c r="A60" s="59"/>
       <c r="B60" s="17" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
@@ -5189,9 +5189,9 @@
       </c>
     </row>
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="54"/>
+      <c r="A61" s="59"/>
       <c r="B61" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
-      <c r="I61" s="26">
+      <c r="I61" s="8">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J61" s="10"/>
@@ -5255,9 +5255,9 @@
       </c>
     </row>
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
+      <c r="A62" s="59"/>
       <c r="B62" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -5321,15 +5321,15 @@
       </c>
     </row>
     <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
-      <c r="B63" s="17" t="s">
-        <v>53</v>
+      <c r="A63" s="59"/>
+      <c r="B63" s="36" t="s">
+        <v>72</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -5387,86 +5387,86 @@
       </c>
     </row>
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
-      <c r="B64" s="36" t="s">
-        <v>72</v>
+      <c r="A64" s="59"/>
+      <c r="B64" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="8">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="J64" s="10"/>
       <c r="K64" s="14">
         <f>$I64+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="L64" s="14">
         <f>$I64+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="M64" s="14">
         <f>$I64+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="N64" s="14">
         <f>$I64+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="O64" s="14">
         <f>$I64+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="P64" s="14">
         <f>$I64+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="Q64" s="14">
         <f>$I64+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="R64" s="14">
         <f>$I64+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.12499999999999997</v>
       </c>
       <c r="S64" s="14">
         <f>$I64+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-8.3333333333333356E-2</v>
       </c>
       <c r="T64" s="14">
         <f>$I64+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.12500000000000006</v>
       </c>
       <c r="U64" s="14">
         <f>$I64+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="V64" s="16">
         <f>$I64+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.20833333333333337</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
+      <c r="A65" s="59"/>
       <c r="B65" s="17" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="H65" s="6"/>
       <c r="I65" s="8">
-        <v>8.3333333333333301E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J65" s="10"/>
       <c r="K65" s="14">
@@ -5495,19 +5495,19 @@
       </c>
       <c r="Q65" s="14">
         <f>$I65+Sheet2!B$7/24</f>
-        <v>0.16666666666666663</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R65" s="14">
         <f>$I65+Sheet2!B$8/24</f>
-        <v>0.12499999999999997</v>
+        <v>0.125</v>
       </c>
       <c r="S65" s="14">
         <f>$I65+Sheet2!B$9/24</f>
-        <v>-8.3333333333333356E-2</v>
+        <v>-8.3333333333333329E-2</v>
       </c>
       <c r="T65" s="14">
         <f>$I65+Sheet2!B$10/24</f>
-        <v>-0.12500000000000006</v>
+        <v>-0.125</v>
       </c>
       <c r="U65" s="14">
         <f>$I65+Sheet2!B$11/24</f>
@@ -5519,9 +5519,9 @@
       </c>
     </row>
     <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="54"/>
+      <c r="A66" s="59"/>
       <c r="B66" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -5530,7 +5530,7 @@
         <v>19</v>
       </c>
       <c r="G66" s="7"/>
-      <c r="H66" s="6"/>
+      <c r="H66" s="7"/>
       <c r="I66" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -5585,15 +5585,15 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="17" t="s">
-        <v>45</v>
+      <c r="A67" s="59"/>
+      <c r="B67" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
@@ -5651,81 +5651,81 @@
       </c>
     </row>
     <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
-      <c r="B68" s="36" t="s">
-        <v>74</v>
+      <c r="A68" s="59"/>
+      <c r="B68" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="8">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="J68" s="10"/>
       <c r="K68" s="14">
         <f>$I68+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="L68" s="14">
         <f>$I68+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="M68" s="14">
         <f>$I68+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="N68" s="14">
         <f>$I68+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="O68" s="14">
         <f>$I68+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P68" s="14">
         <f>$I68+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="Q68" s="14">
         <f>$I68+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="R68" s="14">
         <f>$I68+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S68" s="14">
         <f>$I68+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-4.1666666666666657E-2</v>
       </c>
       <c r="T68" s="14">
         <f>$I68+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-8.3333333333333343E-2</v>
       </c>
       <c r="U68" s="14">
         <f>$I68+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.125</v>
       </c>
       <c r="V68" s="16">
         <f>$I68+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.16666666666666669</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="54"/>
+      <c r="A69" s="59"/>
       <c r="B69" s="17" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
@@ -5783,22 +5783,22 @@
       </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
-      <c r="B70" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
       <c r="F70" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
       <c r="I70" s="8">
         <v>0.125</v>
       </c>
-      <c r="J70" s="10"/>
+      <c r="J70" s="22"/>
       <c r="K70" s="14">
         <f>$I70+Sheet2!B$1/24</f>
         <v>0.54166666666666674</v>
@@ -5849,22 +5849,22 @@
       </c>
     </row>
     <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
-      <c r="B71" s="38" t="s">
-        <v>48</v>
+      <c r="A71" s="59"/>
+      <c r="B71" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="6" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
       <c r="I71" s="8">
         <v>0.125</v>
       </c>
-      <c r="J71" s="22"/>
+      <c r="J71" s="10"/>
       <c r="K71" s="14">
         <f>$I71+Sheet2!B$1/24</f>
         <v>0.54166666666666674</v>
@@ -5915,81 +5915,81 @@
       </c>
     </row>
     <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
-      <c r="B72" s="35" t="s">
-        <v>65</v>
+      <c r="A72" s="59"/>
+      <c r="B72" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="6" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
       <c r="I72" s="8">
-        <v>0.125</v>
+        <v>0.20833333333333301</v>
       </c>
       <c r="J72" s="10"/>
       <c r="K72" s="14">
         <f>$I72+Sheet2!B$1/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.62499999999999967</v>
       </c>
       <c r="L72" s="14">
         <f>$I72+Sheet2!B$2/24</f>
-        <v>0.5</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="M72" s="14">
         <f>$I72+Sheet2!B$3/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.5416666666666663</v>
       </c>
       <c r="N72" s="14">
         <f>$I72+Sheet2!B$4/24</f>
-        <v>0.25</v>
+        <v>0.33333333333333304</v>
       </c>
       <c r="O72" s="14">
         <f>$I72+Sheet2!B$5/24</f>
-        <v>0.25</v>
+        <v>0.33333333333333304</v>
       </c>
       <c r="P72" s="14">
         <f>$I72+Sheet2!B$6/24</f>
-        <v>0.25</v>
+        <v>0.33333333333333304</v>
       </c>
       <c r="Q72" s="14">
         <f>$I72+Sheet2!B$7/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.29166666666666635</v>
       </c>
       <c r="R72" s="14">
         <f>$I72+Sheet2!B$8/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.24999999999999967</v>
       </c>
       <c r="S72" s="14">
         <f>$I72+Sheet2!B$9/24</f>
-        <v>-4.1666666666666657E-2</v>
+        <v>4.1666666666666352E-2</v>
       </c>
       <c r="T72" s="14">
         <f>$I72+Sheet2!B$10/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-3.3306690738754696E-16</v>
       </c>
       <c r="U72" s="14">
         <f>$I72+Sheet2!B$11/24</f>
-        <v>-0.125</v>
+        <v>-4.166666666666699E-2</v>
       </c>
       <c r="V72" s="16">
         <f>$I72+Sheet2!B$12/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-8.3333333333333676E-2</v>
       </c>
     </row>
     <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
+      <c r="A73" s="59"/>
       <c r="B73" s="18" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="6" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="20"/>
@@ -6047,15 +6047,15 @@
       </c>
     </row>
     <row r="74" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
-      <c r="B74" s="18" t="s">
-        <v>44</v>
+      <c r="A74" s="59"/>
+      <c r="B74" s="35" t="s">
+        <v>84</v>
       </c>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="6" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="20"/>
@@ -6112,98 +6112,32 @@
         <v>-8.3333333333333676E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="54"/>
-      <c r="B75" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="8">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="J75" s="10"/>
-      <c r="K75" s="14">
-        <f>$I75+Sheet2!B$1/24</f>
-        <v>0.62499999999999967</v>
-      </c>
-      <c r="L75" s="14">
-        <f>$I75+Sheet2!B$2/24</f>
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="M75" s="14">
-        <f>$I75+Sheet2!B$3/24</f>
-        <v>0.5416666666666663</v>
-      </c>
-      <c r="N75" s="14">
-        <f>$I75+Sheet2!B$4/24</f>
-        <v>0.33333333333333304</v>
-      </c>
-      <c r="O75" s="14">
-        <f>$I75+Sheet2!B$5/24</f>
-        <v>0.33333333333333304</v>
-      </c>
-      <c r="P75" s="14">
-        <f>$I75+Sheet2!B$6/24</f>
-        <v>0.33333333333333304</v>
-      </c>
-      <c r="Q75" s="14">
-        <f>$I75+Sheet2!B$7/24</f>
-        <v>0.29166666666666635</v>
-      </c>
-      <c r="R75" s="14">
-        <f>$I75+Sheet2!B$8/24</f>
-        <v>0.24999999999999967</v>
-      </c>
-      <c r="S75" s="14">
-        <f>$I75+Sheet2!B$9/24</f>
-        <v>4.1666666666666352E-2</v>
-      </c>
-      <c r="T75" s="14">
-        <f>$I75+Sheet2!B$10/24</f>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="U75" s="14">
-        <f>$I75+Sheet2!B$11/24</f>
-        <v>-4.166666666666699E-2</v>
-      </c>
-      <c r="V75" s="16">
-        <f>$I75+Sheet2!B$12/24</f>
-        <v>-8.3333333333333676E-2</v>
-      </c>
-    </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
-    <mergeCell ref="A23:A49"/>
-    <mergeCell ref="A51:A75"/>
+    <mergeCell ref="A23:A48"/>
+    <mergeCell ref="A50:A74"/>
     <mergeCell ref="A2:A16"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L6 K6:V75">
+  <conditionalFormatting sqref="K2:L6 K6:V74">
     <cfRule type="expression" dxfId="2" priority="17">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:V75">
+  <conditionalFormatting sqref="K2:V74">
     <cfRule type="expression" dxfId="1" priority="19">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:V75">
+  <conditionalFormatting sqref="B2:V74">
     <cfRule type="expression" dxfId="0" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Desktop\swgoh\shard-payout-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3021D40E-265B-413C-911A-42809281F434}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB5495E-19B8-4E45-98D9-6F1FD4011B04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -161,9 +161,6 @@
     <t>DarthTor</t>
   </si>
   <si>
-    <t>2PRO4U</t>
-  </si>
-  <si>
     <t>DarthTaral</t>
   </si>
   <si>
@@ -369,6 +366,15 @@
   </si>
   <si>
     <t>UTC-2</t>
+  </si>
+  <si>
+    <t>Knez Lazar</t>
+  </si>
+  <si>
+    <t>stinkhouse</t>
+  </si>
+  <si>
+    <t>Arkii</t>
   </si>
 </sst>
 </file>
@@ -1187,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X74"/>
+  <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,15 +1249,15 @@
         <v>23</v>
       </c>
       <c r="L1" s="5">
-        <f>H7</f>
+        <f>H8</f>
         <v>0</v>
       </c>
       <c r="M1" s="5">
-        <f>H16</f>
+        <f>H17</f>
         <v>0</v>
       </c>
       <c r="N1" s="5">
-        <f>H23</f>
+        <f>H24</f>
         <v>0</v>
       </c>
       <c r="O1" s="5" t="e">
@@ -1263,23 +1269,23 @@
         <v>#REF!</v>
       </c>
       <c r="Q1" s="5">
-        <f>H28</f>
+        <f>H29</f>
         <v>0</v>
       </c>
       <c r="R1" s="5">
-        <f>H48</f>
+        <f>H49</f>
         <v>0</v>
       </c>
       <c r="S1" s="5">
-        <f>H50</f>
+        <f>H51</f>
         <v>0</v>
       </c>
       <c r="T1" s="5">
-        <f>H61</f>
+        <f>H63</f>
         <v>0</v>
       </c>
       <c r="U1" s="5">
-        <f>H66</f>
+        <f>H68</f>
         <v>0</v>
       </c>
       <c r="V1" s="5" t="e">
@@ -1292,13 +1298,13 @@
         <v>12</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="12"/>
@@ -1424,13 +1430,13 @@
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12"/>
@@ -1489,14 +1495,14 @@
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
-      <c r="B5" s="37" t="s">
-        <v>28</v>
+      <c r="B5" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12"/>
@@ -1555,83 +1561,83 @@
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
-      <c r="B6" s="17" t="s">
-        <v>103</v>
+      <c r="B6" s="37" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J6" s="9"/>
+      <c r="I6" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="J6" s="15"/>
       <c r="K6" s="14">
         <f>$I6+Sheet2!B$1/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="L6" s="14">
         <f>$I6+Sheet2!B$2/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.75</v>
       </c>
       <c r="M6" s="14">
         <f>$I6+Sheet2!B$3/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="N6" s="14">
         <f>$I6+Sheet2!B$4/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="O6" s="14">
         <f>$I6+Sheet2!B$5/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="P6" s="14">
         <f>$I6+Sheet2!B$6/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="Q6" s="14">
         <f>$I6+Sheet2!B$7/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="R6" s="14">
         <f>$I6+Sheet2!B$8/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="S6" s="14">
         <f>$I6+Sheet2!B$9/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="T6" s="14">
         <f>$I6+Sheet2!B$10/24</f>
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="U6" s="14">
         <f>$I6+Sheet2!B$11/24</f>
-        <v>0.16666666666666669</v>
+        <v>0.125</v>
       </c>
       <c r="V6" s="16">
         <f>$I6+Sheet2!B$12/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333315E-2</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59"/>
       <c r="B7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="8">
         <v>0.41666666666666669</v>
       </c>
@@ -1687,14 +1693,14 @@
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="59"/>
-      <c r="B8" s="53" t="s">
-        <v>75</v>
+      <c r="B8" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1753,82 +1759,82 @@
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59"/>
-      <c r="B9" s="17" t="s">
-        <v>103</v>
+      <c r="B9" s="53" t="s">
+        <v>74</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="8">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="14">
         <f>$I9+Sheet2!B$1/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L9" s="14">
         <f>$I9+Sheet2!B$2/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="M9" s="14">
         <f>$I9+Sheet2!B$3/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="N9" s="14">
         <f>$I9+Sheet2!B$4/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="O9" s="14">
         <f>$I9+Sheet2!B$5/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="P9" s="14">
         <f>$I9+Sheet2!B$6/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="Q9" s="14">
         <f>$I9+Sheet2!B$7/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="R9" s="14">
         <f>$I9+Sheet2!B$8/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="S9" s="14">
         <f>$I9+Sheet2!B$9/24</f>
-        <v>0.29166666666666663</v>
+        <v>0.25</v>
       </c>
       <c r="T9" s="14">
         <f>$I9+Sheet2!B$10/24</f>
-        <v>0.24999999999999997</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="U9" s="14">
         <f>$I9+Sheet2!B$11/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="V9" s="16">
         <f>$I9+Sheet2!B$12/24</f>
-        <v>0.16666666666666663</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="59"/>
       <c r="B10" s="17" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="8">
         <v>0.45833333333333331</v>
@@ -1885,21 +1891,21 @@
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59"/>
-      <c r="B11" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19" t="s">
+      <c r="B11" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21">
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J11" s="34"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="14">
         <f>$I11+Sheet2!B$1/24</f>
         <v>0.875</v>
@@ -1951,14 +1957,14 @@
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59"/>
-      <c r="B12" s="35" t="s">
-        <v>60</v>
+      <c r="B12" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="20"/>
@@ -2017,80 +2023,80 @@
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59"/>
-      <c r="B13" s="18" t="s">
-        <v>103</v>
+      <c r="B13" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="20"/>
-      <c r="I13" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="J13" s="40"/>
+      <c r="I13" s="21">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J13" s="34"/>
       <c r="K13" s="14">
         <f>$I13+Sheet2!B$1/24</f>
-        <v>0.91666666666666674</v>
+        <v>0.875</v>
       </c>
       <c r="L13" s="14">
         <f>$I13+Sheet2!B$2/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="M13" s="14">
         <f>$I13+Sheet2!B$3/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="N13" s="14">
         <f>$I13+Sheet2!B$4/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="O13" s="14">
         <f>$I13+Sheet2!B$5/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="P13" s="14">
         <f>$I13+Sheet2!B$6/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="Q13" s="14">
         <f>$I13+Sheet2!B$7/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R13" s="14">
         <f>$I13+Sheet2!B$8/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="S13" s="14">
         <f>$I13+Sheet2!B$9/24</f>
-        <v>0.33333333333333337</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="T13" s="14">
         <f>$I13+Sheet2!B$10/24</f>
-        <v>0.29166666666666663</v>
+        <v>0.24999999999999997</v>
       </c>
       <c r="U13" s="14">
         <f>$I13+Sheet2!B$11/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="V13" s="16">
         <f>$I13+Sheet2!B$12/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59"/>
       <c r="B14" s="18" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
@@ -2149,17 +2155,17 @@
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59"/>
-      <c r="B15" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="B15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="8">
         <v>0.5</v>
       </c>
@@ -2214,22 +2220,22 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26">
+      <c r="A16" s="59"/>
+      <c r="B16" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
         <v>0.5</v>
       </c>
-      <c r="J16" s="42"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="14">
         <f>$I16+Sheet2!B$1/24</f>
         <v>0.91666666666666674</v>
@@ -2280,88 +2286,88 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="23" t="s">
-        <v>103</v>
+      <c r="A17" s="61"/>
+      <c r="B17" s="49" t="s">
+        <v>58</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="26">
-        <v>0.54166666666666696</v>
+        <v>0.5</v>
       </c>
       <c r="J17" s="42"/>
       <c r="K17" s="14">
         <f>$I17+Sheet2!B$1/24</f>
-        <v>0.9583333333333337</v>
+        <v>0.91666666666666674</v>
       </c>
       <c r="L17" s="14">
         <f>$I17+Sheet2!B$2/24</f>
-        <v>0.91666666666666696</v>
+        <v>0.875</v>
       </c>
       <c r="M17" s="14">
         <f>$I17+Sheet2!B$3/24</f>
-        <v>0.87500000000000022</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="N17" s="14">
         <f>$I17+Sheet2!B$4/24</f>
-        <v>0.66666666666666696</v>
+        <v>0.625</v>
       </c>
       <c r="O17" s="14">
         <f>$I17+Sheet2!B$5/24</f>
-        <v>0.66666666666666696</v>
+        <v>0.625</v>
       </c>
       <c r="P17" s="14">
         <f>$I17+Sheet2!B$6/24</f>
-        <v>0.66666666666666696</v>
+        <v>0.625</v>
       </c>
       <c r="Q17" s="14">
         <f>$I17+Sheet2!B$7/24</f>
-        <v>0.62500000000000033</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="R17" s="14">
         <f>$I17+Sheet2!B$8/24</f>
-        <v>0.58333333333333359</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="S17" s="14">
         <f>$I17+Sheet2!B$9/24</f>
-        <v>0.37500000000000033</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="T17" s="14">
         <f>$I17+Sheet2!B$10/24</f>
-        <v>0.33333333333333359</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="U17" s="14">
         <f>$I17+Sheet2!B$11/24</f>
-        <v>0.29166666666666696</v>
+        <v>0.25</v>
       </c>
       <c r="V17" s="16">
         <f>$I17+Sheet2!B$12/24</f>
-        <v>0.25000000000000028</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
-      <c r="B18" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30">
+        <v>0.20833333333333331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26">
         <v>0.54166666666666696</v>
       </c>
-      <c r="J18" s="51"/>
+      <c r="J18" s="42"/>
       <c r="K18" s="14">
         <f>$I18+Sheet2!B$1/24</f>
         <v>0.9583333333333337</v>
@@ -2411,82 +2417,82 @@
         <v>0.25000000000000028</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="J19" s="42"/>
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="50"/>
+      <c r="B19" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="J19" s="51"/>
       <c r="K19" s="14">
         <f>$I19+Sheet2!B$1/24</f>
-        <v>0.99999999999999978</v>
+        <v>0.9583333333333337</v>
       </c>
       <c r="L19" s="14">
         <f>$I19+Sheet2!B$2/24</f>
-        <v>0.95833333333333304</v>
+        <v>0.91666666666666696</v>
       </c>
       <c r="M19" s="14">
         <f>$I19+Sheet2!B$3/24</f>
-        <v>0.9166666666666663</v>
+        <v>0.87500000000000022</v>
       </c>
       <c r="N19" s="14">
         <f>$I19+Sheet2!B$4/24</f>
-        <v>0.70833333333333304</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="O19" s="14">
         <f>$I19+Sheet2!B$5/24</f>
-        <v>0.70833333333333304</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="P19" s="14">
         <f>$I19+Sheet2!B$6/24</f>
-        <v>0.70833333333333304</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="Q19" s="14">
         <f>$I19+Sheet2!B$7/24</f>
-        <v>0.66666666666666641</v>
+        <v>0.62500000000000033</v>
       </c>
       <c r="R19" s="14">
         <f>$I19+Sheet2!B$8/24</f>
-        <v>0.62499999999999967</v>
+        <v>0.58333333333333359</v>
       </c>
       <c r="S19" s="14">
         <f>$I19+Sheet2!B$9/24</f>
-        <v>0.41666666666666641</v>
+        <v>0.37500000000000033</v>
       </c>
       <c r="T19" s="14">
         <f>$I19+Sheet2!B$10/24</f>
-        <v>0.37499999999999967</v>
+        <v>0.33333333333333359</v>
       </c>
       <c r="U19" s="14">
         <f>$I19+Sheet2!B$11/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.29166666666666696</v>
       </c>
       <c r="V19" s="16">
         <f>$I19+Sheet2!B$12/24</f>
-        <v>0.29166666666666635</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="6" t="s">
-        <v>107</v>
+        <v>0.25000000000000028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
+      <c r="B20" s="23" t="s">
+        <v>102</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
@@ -2544,15 +2550,15 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="6" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -2610,85 +2616,83 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="17" t="s">
-        <v>103</v>
+      <c r="A22" s="46"/>
+      <c r="B22" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="26">
-        <v>0.625</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="J22" s="42"/>
       <c r="K22" s="14">
         <f>$I22+Sheet2!B$1/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="L22" s="14">
         <f>$I22+Sheet2!B$2/24</f>
-        <v>1</v>
+        <v>0.95833333333333304</v>
       </c>
       <c r="M22" s="14">
         <f>$I22+Sheet2!B$3/24</f>
-        <v>0.95833333333333326</v>
+        <v>0.9166666666666663</v>
       </c>
       <c r="N22" s="14">
         <f>$I22+Sheet2!B$4/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="O22" s="14">
         <f>$I22+Sheet2!B$5/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="P22" s="14">
         <f>$I22+Sheet2!B$6/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="Q22" s="14">
         <f>$I22+Sheet2!B$7/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666641</v>
       </c>
       <c r="R22" s="14">
         <f>$I22+Sheet2!B$8/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.62499999999999967</v>
       </c>
       <c r="S22" s="14">
         <f>$I22+Sheet2!B$9/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666641</v>
       </c>
       <c r="T22" s="14">
         <f>$I22+Sheet2!B$10/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.37499999999999967</v>
       </c>
       <c r="U22" s="14">
         <f>$I22+Sheet2!B$11/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333304</v>
       </c>
       <c r="V22" s="16">
         <f>$I22+Sheet2!B$12/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>30</v>
+        <v>0.29166666666666635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="43"/>
+      <c r="B23" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="26">
         <v>0.625</v>
@@ -2744,81 +2748,83 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J24" s="10"/>
+      <c r="A24" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26">
+        <v>0.625</v>
+      </c>
+      <c r="J24" s="42"/>
       <c r="K24" s="14">
         <f>$I24+Sheet2!B$1/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="L24" s="14">
         <f>$I24+Sheet2!B$2/24</f>
-        <v>1.0416666666666665</v>
+        <v>1</v>
       </c>
       <c r="M24" s="14">
         <f>$I24+Sheet2!B$3/24</f>
-        <v>1</v>
+        <v>0.95833333333333326</v>
       </c>
       <c r="N24" s="14">
         <f>$I24+Sheet2!B$4/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="O24" s="14">
         <f>$I24+Sheet2!B$5/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="P24" s="14">
         <f>$I24+Sheet2!B$6/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="Q24" s="14">
         <f>$I24+Sheet2!B$7/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="R24" s="14">
         <f>$I24+Sheet2!B$8/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S24" s="14">
         <f>$I24+Sheet2!B$9/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="T24" s="14">
         <f>$I24+Sheet2!B$10/24</f>
-        <v>0.45833333333333326</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="U24" s="14">
         <f>$I24+Sheet2!B$11/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="V24" s="16">
         <f>$I24+Sheet2!B$12/24</f>
-        <v>0.37499999999999994</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="59"/>
       <c r="B25" s="17" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -2878,13 +2884,13 @@
     <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="59"/>
       <c r="B26" s="17" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2944,79 +2950,79 @@
     <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="59"/>
       <c r="B27" s="17" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="8">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="14">
         <f>$I27+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="L27" s="14">
         <f>$I27+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="M27" s="14">
         <f>$I27+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>1</v>
       </c>
       <c r="N27" s="14">
         <f>$I27+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="O27" s="14">
         <f>$I27+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P27" s="14">
         <f>$I27+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q27" s="14">
         <f>$I27+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.75</v>
       </c>
       <c r="R27" s="14">
         <f>$I27+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="S27" s="14">
         <f>$I27+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="T27" s="14">
         <f>$I27+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="U27" s="14">
         <f>$I27+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="V27" s="16">
         <f>$I27+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="59"/>
       <c r="B28" s="17" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -3076,13 +3082,13 @@
     <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="59"/>
       <c r="B29" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -3138,18 +3144,17 @@
         <f>$I29+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="X29" s="4"/>
     </row>
     <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="59"/>
       <c r="B30" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -3205,17 +3210,18 @@
         <f>$I30+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
+      <c r="X30" s="4"/>
     </row>
     <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="59"/>
-      <c r="B31" s="36" t="s">
-        <v>76</v>
+      <c r="B31" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -3274,14 +3280,14 @@
     </row>
     <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="59"/>
-      <c r="B32" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19" t="s">
-        <v>58</v>
+      <c r="B32" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -3340,80 +3346,80 @@
     </row>
     <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="59"/>
-      <c r="B33" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6" t="s">
-        <v>89</v>
+      <c r="B33" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="8">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="14">
         <f>$I33+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L33" s="14">
         <f>$I33+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M33" s="14">
         <f>$I33+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N33" s="14">
         <f>$I33+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O33" s="14">
         <f>$I33+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P33" s="14">
         <f>$I33+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q33" s="14">
         <f>$I33+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R33" s="14">
         <f>$I33+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S33" s="14">
         <f>$I33+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T33" s="14">
         <f>$I33+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U33" s="14">
         <f>$I33+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V33" s="16">
         <f>$I33+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="59"/>
       <c r="B34" s="17" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -3473,7 +3479,7 @@
     <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="59"/>
       <c r="B35" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -3605,13 +3611,13 @@
     <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="59"/>
       <c r="B37" s="17" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -3668,16 +3674,16 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="59"/>
       <c r="B38" s="17" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -3737,20 +3743,20 @@
     <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="59"/>
       <c r="B39" s="17" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="8">
         <v>0.75</v>
       </c>
-      <c r="J39" s="10"/>
+      <c r="J39" s="11"/>
       <c r="K39" s="14">
         <f>$I39+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3802,21 +3808,21 @@
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="59"/>
-      <c r="B40" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
+      <c r="B40" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
       <c r="I40" s="8">
         <v>0.75</v>
       </c>
-      <c r="J40" s="22"/>
+      <c r="J40" s="10"/>
       <c r="K40" s="14">
         <f>$I40+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -3869,13 +3875,13 @@
     <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="59"/>
       <c r="B41" s="35" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
@@ -3935,13 +3941,13 @@
     <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="59"/>
       <c r="B42" s="35" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
@@ -4001,13 +4007,13 @@
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="59"/>
       <c r="B43" s="35" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
@@ -4067,13 +4073,13 @@
     <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="59"/>
       <c r="B44" s="35" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
@@ -4132,215 +4138,215 @@
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="59"/>
-      <c r="B45" s="18" t="s">
-        <v>103</v>
+      <c r="B45" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
-      <c r="F45" s="6" t="s">
-        <v>90</v>
+      <c r="F45" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="G45" s="20"/>
-      <c r="H45" s="7"/>
+      <c r="H45" s="20"/>
       <c r="I45" s="8">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="J45" s="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="J45" s="22"/>
       <c r="K45" s="14">
         <f>$I45+Sheet2!B$1/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L45" s="14">
         <f>$I45+Sheet2!B$2/24</f>
-        <v>1.1666666666666665</v>
+        <v>1.125</v>
       </c>
       <c r="M45" s="14">
         <f>$I45+Sheet2!B$3/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N45" s="14">
         <f>$I45+Sheet2!B$4/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="O45" s="14">
         <f>$I45+Sheet2!B$5/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="P45" s="14">
         <f>$I45+Sheet2!B$6/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="Q45" s="14">
         <f>$I45+Sheet2!B$7/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R45" s="14">
         <f>$I45+Sheet2!B$8/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S45" s="14">
         <f>$I45+Sheet2!B$9/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T45" s="14">
         <f>$I45+Sheet2!B$10/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U45" s="14">
         <f>$I45+Sheet2!B$11/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="V45" s="16">
         <f>$I45+Sheet2!B$12/24</f>
-        <v>0.49999999999999994</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="59"/>
-      <c r="B46" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="B46" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
       <c r="F46" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="G46" s="20"/>
       <c r="H46" s="7"/>
       <c r="I46" s="8">
         <v>0.79166666666666663</v>
       </c>
       <c r="J46" s="10"/>
-      <c r="K46" s="57">
+      <c r="K46" s="14">
         <f>$I46+Sheet2!B$1/24</f>
         <v>1.2083333333333333</v>
       </c>
-      <c r="L46" s="57">
+      <c r="L46" s="14">
         <f>$I46+Sheet2!B$2/24</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="M46" s="57">
+      <c r="M46" s="14">
         <f>$I46+Sheet2!B$3/24</f>
         <v>1.125</v>
       </c>
-      <c r="N46" s="57">
+      <c r="N46" s="14">
         <f>$I46+Sheet2!B$4/24</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="O46" s="57">
+      <c r="O46" s="14">
         <f>$I46+Sheet2!B$5/24</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="P46" s="57">
+      <c r="P46" s="14">
         <f>$I46+Sheet2!B$6/24</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="Q46" s="57">
+      <c r="Q46" s="14">
         <f>$I46+Sheet2!B$7/24</f>
         <v>0.875</v>
       </c>
-      <c r="R46" s="57">
+      <c r="R46" s="14">
         <f>$I46+Sheet2!B$8/24</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="S46" s="57">
+      <c r="S46" s="14">
         <f>$I46+Sheet2!B$9/24</f>
         <v>0.625</v>
       </c>
-      <c r="T46" s="57">
+      <c r="T46" s="14">
         <f>$I46+Sheet2!B$10/24</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="U46" s="57">
+      <c r="U46" s="14">
         <f>$I46+Sheet2!B$11/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="V46" s="58">
+      <c r="V46" s="16">
         <f>$I46+Sheet2!B$12/24</f>
         <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="59"/>
-      <c r="B47" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
+      <c r="B47" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
       <c r="I47" s="8">
-        <v>0.875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="57">
         <f>$I47+Sheet2!B$1/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="L47" s="57">
         <f>$I47+Sheet2!B$2/24</f>
-        <v>1.25</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="M47" s="57">
         <f>$I47+Sheet2!B$3/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.125</v>
       </c>
       <c r="N47" s="57">
         <f>$I47+Sheet2!B$4/24</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O47" s="57">
         <f>$I47+Sheet2!B$5/24</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="P47" s="57">
         <f>$I47+Sheet2!B$6/24</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="Q47" s="57">
         <f>$I47+Sheet2!B$7/24</f>
-        <v>0.95833333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="R47" s="57">
         <f>$I47+Sheet2!B$8/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="S47" s="57">
         <f>$I47+Sheet2!B$9/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="T47" s="57">
         <f>$I47+Sheet2!B$10/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="U47" s="57">
         <f>$I47+Sheet2!B$11/24</f>
-        <v>0.625</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="V47" s="58">
         <f>$I47+Sheet2!B$12/24</f>
-        <v>0.58333333333333326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="60"/>
-      <c r="B48" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G48" s="29"/>
-      <c r="H48" s="39"/>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="59"/>
+      <c r="B48" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
       <c r="I48" s="8">
         <v>0.875</v>
       </c>
@@ -4394,88 +4400,86 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
-      <c r="B49" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="52">
-        <v>0</v>
-      </c>
-      <c r="J49" s="31"/>
-      <c r="K49" s="14">
+    <row r="49" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="60"/>
+      <c r="B49" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="29"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="J49" s="10"/>
+      <c r="K49" s="57">
         <f>$I49+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="L49" s="14">
+        <v>1.2916666666666667</v>
+      </c>
+      <c r="L49" s="57">
         <f>$I49+Sheet2!B$2/24</f>
-        <v>0.375</v>
-      </c>
-      <c r="M49" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="M49" s="57">
         <f>$I49+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N49" s="14">
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="N49" s="57">
         <f>$I49+Sheet2!B$4/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="O49" s="14">
+        <v>1</v>
+      </c>
+      <c r="O49" s="57">
         <f>$I49+Sheet2!B$5/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="P49" s="14">
+        <v>1</v>
+      </c>
+      <c r="P49" s="57">
         <f>$I49+Sheet2!B$6/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="Q49" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="57">
         <f>$I49+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="R49" s="14">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="R49" s="57">
         <f>$I49+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="S49" s="14">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="S49" s="57">
         <f>$I49+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
-      </c>
-      <c r="T49" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="T49" s="57">
         <f>$I49+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
-      </c>
-      <c r="U49" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U49" s="57">
         <f>$I49+Sheet2!B$11/24</f>
-        <v>-0.25</v>
-      </c>
-      <c r="V49" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="V49" s="58">
         <f>$I49+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="26">
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
+      <c r="B50" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="52">
         <v>0</v>
       </c>
       <c r="J50" s="31"/>
@@ -4529,22 +4533,24 @@
       </c>
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
-      <c r="B51" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6" t="s">
+      <c r="A51" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
       <c r="I51" s="26">
         <v>0</v>
       </c>
-      <c r="J51" s="10"/>
+      <c r="J51" s="31"/>
       <c r="K51" s="14">
         <f>$I51+Sheet2!B$1/24</f>
         <v>0.41666666666666669</v>
@@ -4597,7 +4603,7 @@
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="59"/>
       <c r="B52" s="17" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -4663,7 +4669,7 @@
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="59"/>
       <c r="B53" s="17" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -4728,14 +4734,14 @@
     </row>
     <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="59"/>
-      <c r="B54" s="36" t="s">
-        <v>66</v>
+      <c r="B54" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -4794,14 +4800,14 @@
     </row>
     <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="59"/>
-      <c r="B55" s="36" t="s">
-        <v>68</v>
+      <c r="B55" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -4861,13 +4867,13 @@
     <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="59"/>
       <c r="B56" s="36" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -4927,13 +4933,13 @@
     <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="59"/>
       <c r="B57" s="36" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -4993,13 +4999,13 @@
     <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="59"/>
       <c r="B58" s="36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -5058,150 +5064,150 @@
     </row>
     <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="59"/>
-      <c r="B59" s="17" t="s">
-        <v>103</v>
+      <c r="B59" s="36" t="s">
+        <v>82</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="26">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J59" s="10"/>
       <c r="K59" s="14">
         <f>$I59+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L59" s="14">
         <f>$I59+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M59" s="14">
         <f>$I59+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N59" s="14">
         <f>$I59+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O59" s="14">
         <f>$I59+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P59" s="14">
         <f>$I59+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q59" s="14">
         <f>$I59+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R59" s="14">
         <f>$I59+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S59" s="14">
         <f>$I59+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T59" s="14">
         <f>$I59+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U59" s="14">
         <f>$I59+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V59" s="16">
         <f>$I59+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="59"/>
-      <c r="B60" s="17" t="s">
-        <v>43</v>
+      <c r="B60" s="36" t="s">
+        <v>66</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="26">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J60" s="10"/>
       <c r="K60" s="14">
         <f>$I60+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L60" s="14">
         <f>$I60+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M60" s="14">
         <f>$I60+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N60" s="14">
         <f>$I60+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O60" s="14">
         <f>$I60+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P60" s="14">
         <f>$I60+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q60" s="14">
         <f>$I60+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R60" s="14">
         <f>$I60+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S60" s="14">
         <f>$I60+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T60" s="14">
         <f>$I60+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U60" s="14">
         <f>$I60+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V60" s="16">
         <f>$I60+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="59"/>
       <c r="B61" s="17" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
-      <c r="I61" s="8">
+      <c r="I61" s="26">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J61" s="10"/>
@@ -5257,7 +5263,7 @@
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="59"/>
       <c r="B62" s="17" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -5267,7 +5273,7 @@
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
-      <c r="I62" s="8">
+      <c r="I62" s="26">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J62" s="10"/>
@@ -5322,14 +5328,14 @@
     </row>
     <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="59"/>
-      <c r="B63" s="36" t="s">
-        <v>72</v>
+      <c r="B63" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -5389,150 +5395,150 @@
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="59"/>
       <c r="B64" s="17" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="8">
-        <v>8.3333333333333301E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J64" s="10"/>
       <c r="K64" s="14">
         <f>$I64+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L64" s="14">
         <f>$I64+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M64" s="14">
         <f>$I64+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N64" s="14">
         <f>$I64+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O64" s="14">
         <f>$I64+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P64" s="14">
         <f>$I64+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q64" s="14">
         <f>$I64+Sheet2!B$7/24</f>
-        <v>0.16666666666666663</v>
+        <v>0.125</v>
       </c>
       <c r="R64" s="14">
         <f>$I64+Sheet2!B$8/24</f>
-        <v>0.12499999999999997</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S64" s="14">
         <f>$I64+Sheet2!B$9/24</f>
-        <v>-8.3333333333333356E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T64" s="14">
         <f>$I64+Sheet2!B$10/24</f>
-        <v>-0.12500000000000006</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U64" s="14">
         <f>$I64+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V64" s="16">
         <f>$I64+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="59"/>
-      <c r="B65" s="17" t="s">
-        <v>46</v>
+      <c r="B65" s="36" t="s">
+        <v>71</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G65" s="7"/>
-      <c r="H65" s="6"/>
+      <c r="H65" s="7"/>
       <c r="I65" s="8">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J65" s="10"/>
       <c r="K65" s="14">
         <f>$I65+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L65" s="14">
         <f>$I65+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M65" s="14">
         <f>$I65+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N65" s="14">
         <f>$I65+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O65" s="14">
         <f>$I65+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P65" s="14">
         <f>$I65+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q65" s="14">
         <f>$I65+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="R65" s="14">
         <f>$I65+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S65" s="14">
         <f>$I65+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T65" s="14">
         <f>$I65+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U65" s="14">
         <f>$I65+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V65" s="16">
         <f>$I65+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="59"/>
       <c r="B66" s="17" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="8">
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="J66" s="10"/>
       <c r="K66" s="14">
@@ -5561,19 +5567,19 @@
       </c>
       <c r="Q66" s="14">
         <f>$I66+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="R66" s="14">
         <f>$I66+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>0.12499999999999997</v>
       </c>
       <c r="S66" s="14">
         <f>$I66+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-8.3333333333333356E-2</v>
       </c>
       <c r="T66" s="14">
         <f>$I66+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.12500000000000006</v>
       </c>
       <c r="U66" s="14">
         <f>$I66+Sheet2!B$11/24</f>
@@ -5586,17 +5592,17 @@
     </row>
     <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="59"/>
-      <c r="B67" s="36" t="s">
-        <v>74</v>
+      <c r="B67" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
+      <c r="H67" s="6"/>
       <c r="I67" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -5653,152 +5659,152 @@
     <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="59"/>
       <c r="B68" s="17" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="8">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J68" s="10"/>
       <c r="K68" s="14">
         <f>$I68+Sheet2!B$1/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="L68" s="14">
         <f>$I68+Sheet2!B$2/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="M68" s="14">
         <f>$I68+Sheet2!B$3/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="N68" s="14">
         <f>$I68+Sheet2!B$4/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="O68" s="14">
         <f>$I68+Sheet2!B$5/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="P68" s="14">
         <f>$I68+Sheet2!B$6/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="Q68" s="14">
         <f>$I68+Sheet2!B$7/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R68" s="14">
         <f>$I68+Sheet2!B$8/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="S68" s="14">
         <f>$I68+Sheet2!B$9/24</f>
-        <v>-4.1666666666666657E-2</v>
+        <v>-8.3333333333333329E-2</v>
       </c>
       <c r="T68" s="14">
         <f>$I68+Sheet2!B$10/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="U68" s="14">
         <f>$I68+Sheet2!B$11/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="V68" s="16">
         <f>$I68+Sheet2!B$12/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333337</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="59"/>
-      <c r="B69" s="17" t="s">
-        <v>47</v>
+      <c r="B69" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="8">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J69" s="10"/>
       <c r="K69" s="14">
         <f>$I69+Sheet2!B$1/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="L69" s="14">
         <f>$I69+Sheet2!B$2/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="M69" s="14">
         <f>$I69+Sheet2!B$3/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="N69" s="14">
         <f>$I69+Sheet2!B$4/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="O69" s="14">
         <f>$I69+Sheet2!B$5/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="P69" s="14">
         <f>$I69+Sheet2!B$6/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="Q69" s="14">
         <f>$I69+Sheet2!B$7/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R69" s="14">
         <f>$I69+Sheet2!B$8/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="S69" s="14">
         <f>$I69+Sheet2!B$9/24</f>
-        <v>-4.1666666666666657E-2</v>
+        <v>-8.3333333333333329E-2</v>
       </c>
       <c r="T69" s="14">
         <f>$I69+Sheet2!B$10/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="U69" s="14">
         <f>$I69+Sheet2!B$11/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="V69" s="16">
         <f>$I69+Sheet2!B$12/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333337</v>
       </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="59"/>
-      <c r="B70" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
+      <c r="B70" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
       <c r="I70" s="8">
         <v>0.125</v>
       </c>
-      <c r="J70" s="22"/>
+      <c r="J70" s="10"/>
       <c r="K70" s="14">
         <f>$I70+Sheet2!B$1/24</f>
         <v>0.54166666666666674</v>
@@ -5850,17 +5856,17 @@
     </row>
     <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="59"/>
-      <c r="B71" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
+      <c r="B71" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
       <c r="F71" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
       <c r="I71" s="8">
         <v>0.125</v>
       </c>
@@ -5916,146 +5922,146 @@
     </row>
     <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="59"/>
-      <c r="B72" s="18" t="s">
-        <v>103</v>
+      <c r="B72" s="38" t="s">
+        <v>47</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="6" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
       <c r="I72" s="8">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="J72" s="10"/>
+        <v>0.125</v>
+      </c>
+      <c r="J72" s="22"/>
       <c r="K72" s="14">
         <f>$I72+Sheet2!B$1/24</f>
-        <v>0.62499999999999967</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="L72" s="14">
         <f>$I72+Sheet2!B$2/24</f>
-        <v>0.58333333333333304</v>
+        <v>0.5</v>
       </c>
       <c r="M72" s="14">
         <f>$I72+Sheet2!B$3/24</f>
-        <v>0.5416666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="N72" s="14">
         <f>$I72+Sheet2!B$4/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="O72" s="14">
         <f>$I72+Sheet2!B$5/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="P72" s="14">
         <f>$I72+Sheet2!B$6/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="Q72" s="14">
         <f>$I72+Sheet2!B$7/24</f>
-        <v>0.29166666666666635</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="R72" s="14">
         <f>$I72+Sheet2!B$8/24</f>
-        <v>0.24999999999999967</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S72" s="14">
         <f>$I72+Sheet2!B$9/24</f>
-        <v>4.1666666666666352E-2</v>
+        <v>-4.1666666666666657E-2</v>
       </c>
       <c r="T72" s="14">
         <f>$I72+Sheet2!B$10/24</f>
-        <v>-3.3306690738754696E-16</v>
+        <v>-8.3333333333333343E-2</v>
       </c>
       <c r="U72" s="14">
         <f>$I72+Sheet2!B$11/24</f>
-        <v>-4.166666666666699E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="V72" s="16">
         <f>$I72+Sheet2!B$12/24</f>
-        <v>-8.3333333333333676E-2</v>
+        <v>-0.16666666666666669</v>
       </c>
     </row>
     <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="59"/>
-      <c r="B73" s="18" t="s">
-        <v>44</v>
+      <c r="B73" s="35" t="s">
+        <v>64</v>
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="20"/>
       <c r="I73" s="8">
-        <v>0.20833333333333301</v>
+        <v>0.125</v>
       </c>
       <c r="J73" s="10"/>
       <c r="K73" s="14">
         <f>$I73+Sheet2!B$1/24</f>
-        <v>0.62499999999999967</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="L73" s="14">
         <f>$I73+Sheet2!B$2/24</f>
-        <v>0.58333333333333304</v>
+        <v>0.5</v>
       </c>
       <c r="M73" s="14">
         <f>$I73+Sheet2!B$3/24</f>
-        <v>0.5416666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="N73" s="14">
         <f>$I73+Sheet2!B$4/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="O73" s="14">
         <f>$I73+Sheet2!B$5/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="P73" s="14">
         <f>$I73+Sheet2!B$6/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="Q73" s="14">
         <f>$I73+Sheet2!B$7/24</f>
-        <v>0.29166666666666635</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="R73" s="14">
         <f>$I73+Sheet2!B$8/24</f>
-        <v>0.24999999999999967</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S73" s="14">
         <f>$I73+Sheet2!B$9/24</f>
-        <v>4.1666666666666352E-2</v>
+        <v>-4.1666666666666657E-2</v>
       </c>
       <c r="T73" s="14">
         <f>$I73+Sheet2!B$10/24</f>
-        <v>-3.3306690738754696E-16</v>
+        <v>-8.3333333333333343E-2</v>
       </c>
       <c r="U73" s="14">
         <f>$I73+Sheet2!B$11/24</f>
-        <v>-4.166666666666699E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="V73" s="16">
         <f>$I73+Sheet2!B$12/24</f>
-        <v>-8.3333333333333676E-2</v>
+        <v>-0.16666666666666669</v>
       </c>
     </row>
     <row r="74" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="59"/>
-      <c r="B74" s="35" t="s">
-        <v>84</v>
+      <c r="B74" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="6" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="20"/>
@@ -6112,32 +6118,164 @@
         <v>-8.3333333333333676E-2</v>
       </c>
     </row>
+    <row r="75" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="59"/>
+      <c r="B75" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="8">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="J75" s="10"/>
+      <c r="K75" s="14">
+        <f>$I75+Sheet2!B$1/24</f>
+        <v>0.62499999999999967</v>
+      </c>
+      <c r="L75" s="14">
+        <f>$I75+Sheet2!B$2/24</f>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="M75" s="14">
+        <f>$I75+Sheet2!B$3/24</f>
+        <v>0.5416666666666663</v>
+      </c>
+      <c r="N75" s="14">
+        <f>$I75+Sheet2!B$4/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="O75" s="14">
+        <f>$I75+Sheet2!B$5/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="P75" s="14">
+        <f>$I75+Sheet2!B$6/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="Q75" s="14">
+        <f>$I75+Sheet2!B$7/24</f>
+        <v>0.29166666666666635</v>
+      </c>
+      <c r="R75" s="14">
+        <f>$I75+Sheet2!B$8/24</f>
+        <v>0.24999999999999967</v>
+      </c>
+      <c r="S75" s="14">
+        <f>$I75+Sheet2!B$9/24</f>
+        <v>4.1666666666666352E-2</v>
+      </c>
+      <c r="T75" s="14">
+        <f>$I75+Sheet2!B$10/24</f>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="U75" s="14">
+        <f>$I75+Sheet2!B$11/24</f>
+        <v>-4.166666666666699E-2</v>
+      </c>
+      <c r="V75" s="16">
+        <f>$I75+Sheet2!B$12/24</f>
+        <v>-8.3333333333333676E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="59"/>
+      <c r="B76" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="8">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="J76" s="10"/>
+      <c r="K76" s="14">
+        <f>$I76+Sheet2!B$1/24</f>
+        <v>0.62499999999999967</v>
+      </c>
+      <c r="L76" s="14">
+        <f>$I76+Sheet2!B$2/24</f>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="M76" s="14">
+        <f>$I76+Sheet2!B$3/24</f>
+        <v>0.5416666666666663</v>
+      </c>
+      <c r="N76" s="14">
+        <f>$I76+Sheet2!B$4/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="O76" s="14">
+        <f>$I76+Sheet2!B$5/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="P76" s="14">
+        <f>$I76+Sheet2!B$6/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="Q76" s="14">
+        <f>$I76+Sheet2!B$7/24</f>
+        <v>0.29166666666666635</v>
+      </c>
+      <c r="R76" s="14">
+        <f>$I76+Sheet2!B$8/24</f>
+        <v>0.24999999999999967</v>
+      </c>
+      <c r="S76" s="14">
+        <f>$I76+Sheet2!B$9/24</f>
+        <v>4.1666666666666352E-2</v>
+      </c>
+      <c r="T76" s="14">
+        <f>$I76+Sheet2!B$10/24</f>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="U76" s="14">
+        <f>$I76+Sheet2!B$11/24</f>
+        <v>-4.166666666666699E-2</v>
+      </c>
+      <c r="V76" s="16">
+        <f>$I76+Sheet2!B$12/24</f>
+        <v>-8.3333333333333676E-2</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
-    <mergeCell ref="A23:A48"/>
-    <mergeCell ref="A50:A74"/>
-    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A24:A49"/>
+    <mergeCell ref="A51:A76"/>
+    <mergeCell ref="A2:A17"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L6 K6:V74">
+  <conditionalFormatting sqref="K7:V76 K2:L7">
     <cfRule type="expression" dxfId="2" priority="17">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:V74">
+  <conditionalFormatting sqref="K2:V76">
     <cfRule type="expression" dxfId="1" priority="19">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:V74">
+  <conditionalFormatting sqref="B2:V76">
     <cfRule type="expression" dxfId="0" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ca19206\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A7CC59-2BC0-4750-B7EC-5FA94228277E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11325"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +19,10 @@
   <definedNames>
     <definedName name="Z_6B6C704A_4C22_4616_B5BC_59850AE98E27_.wvu.Cols" localSheetId="0" hidden="1">Sheet1!$C:$D,Sheet1!$F:$G</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -31,6 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="125">
   <si>
     <t>Name</t>
   </si>
@@ -404,9 +406,6 @@
   </si>
   <si>
     <t>Thel Rethera</t>
-  </si>
-  <si>
-    <t>:flag_uk:</t>
   </si>
   <si>
     <t>Jodo Kast</t>
@@ -421,7 +420,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
@@ -898,17 +897,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -1035,29 +1027,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1398,14 +1367,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF11" sqref="AF11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="3" bestFit="1" customWidth="1"/>
@@ -3190,7 +3159,7 @@
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="24"/>
@@ -6204,13 +6173,13 @@
     <row r="77" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="61"/>
       <c r="B77" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
@@ -6764,7 +6733,7 @@
     <row r="86" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="61"/>
       <c r="B86" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="18"/>
@@ -6907,11 +6876,11 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -6921,102 +6890,102 @@
     <mergeCell ref="A4:A20"/>
   </mergeCells>
   <conditionalFormatting sqref="K4:L9 K9:V14 K16:V21 K23:V29 K32:V85">
-    <cfRule type="expression" dxfId="20" priority="38">
+    <cfRule type="expression" dxfId="19" priority="38">
       <formula>K$1=$H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:V14 K16:V21 K23:V29 K32:V85">
-    <cfRule type="expression" dxfId="19" priority="40">
+    <cfRule type="expression" dxfId="18" priority="40">
       <formula>K$1=$I4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:V71 B4:V14 B16:V21 B23:V29 B32:V56 B73:V85">
-    <cfRule type="expression" dxfId="18" priority="44">
+    <cfRule type="expression" dxfId="17" priority="44">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:V58">
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="16" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:V72">
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L3">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:V3">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:V3">
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:V31">
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>K$1=$H30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:V31">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>K$1=$I30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:V31">
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:V15">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>K$1=$H15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:V15">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>K$1=$I15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:V15">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:V22">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>K$1=$H22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:V22">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>K$1=$I22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:V22">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K86:V86">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>K$1=$H86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K86:V86">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>K$1=$I86</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:V86">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7026,14 +6995,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ca19206\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A7CC59-2BC0-4750-B7EC-5FA94228277E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="Z_6B6C704A_4C22_4616_B5BC_59850AE98E27_.wvu.Cols" localSheetId="0" hidden="1">Sheet1!$C:$D,Sheet1!$F:$G</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <customWorkbookViews>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
@@ -32,7 +31,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="126">
   <si>
     <t>Name</t>
   </si>
@@ -415,12 +413,15 @@
   </si>
   <si>
     <t>:flag_ar:</t>
+  </si>
+  <si>
+    <t>UTC-9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
@@ -788,7 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -889,6 +890,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -897,10 +901,63 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1027,6 +1084,29 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1367,14 +1447,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="3" bestFit="1" customWidth="1"/>
@@ -1424,15 +1504,15 @@
         <v>23</v>
       </c>
       <c r="L1" s="4">
-        <f>H10</f>
+        <f>H11</f>
         <v>0</v>
       </c>
       <c r="M1" s="4">
-        <f>H20</f>
+        <f>H21</f>
         <v>0</v>
       </c>
       <c r="N1" s="4">
-        <f>H27</f>
+        <f>H28</f>
         <v>0</v>
       </c>
       <c r="O1" s="4" t="e">
@@ -1444,11 +1524,11 @@
         <v>#REF!</v>
       </c>
       <c r="Q1" s="4">
-        <f>H36</f>
+        <f>H37</f>
         <v>0</v>
       </c>
       <c r="R1" s="4">
-        <f>H55</f>
+        <f>H56</f>
         <v>0</v>
       </c>
       <c r="S1" s="4" t="e">
@@ -1456,11 +1536,11 @@
         <v>#REF!</v>
       </c>
       <c r="T1" s="4">
-        <f>H70</f>
+        <f>H71</f>
         <v>0</v>
       </c>
       <c r="U1" s="4">
-        <f>H76</f>
+        <f>H77</f>
         <v>0</v>
       </c>
       <c r="V1" s="4" t="e">
@@ -1601,83 +1681,83 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>100</v>
+      <c r="A4" s="59"/>
+      <c r="B4" s="43" t="s">
+        <v>122</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="11"/>
       <c r="I4" s="13">
-        <v>0.33333333333333298</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="13">
         <f>$I4+Sheet2!B$1/24</f>
-        <v>0.74999999999999967</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="L4" s="13">
         <f>$I4+Sheet2!B$2/24</f>
-        <v>0.70833333333333304</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="M4" s="13">
         <f>$I4+Sheet2!B$3/24</f>
-        <v>0.6666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="N4" s="13">
         <f>$I4+Sheet2!B$4/24</f>
-        <v>0.45833333333333298</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="O4" s="13">
         <f>$I4+Sheet2!B$5/24</f>
-        <v>0.45833333333333298</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="P4" s="13">
         <f>$I4+Sheet2!B$6/24</f>
-        <v>0.45833333333333298</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="Q4" s="13">
         <f>$I4+Sheet2!B$7/24</f>
-        <v>0.4166666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="R4" s="13">
         <f>$I4+Sheet2!B$8/24</f>
-        <v>0.37499999999999967</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="S4" s="13">
         <f>$I4+Sheet2!B$9/24</f>
-        <v>0.16666666666666632</v>
+        <v>0.12500000000000003</v>
       </c>
       <c r="T4" s="13">
         <f>$I4+Sheet2!B$10/24</f>
-        <v>0.12499999999999964</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="U4" s="13">
         <f>$I4+Sheet2!B$11/24</f>
-        <v>8.3333333333332982E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="V4" s="15">
         <f>$I4+Sheet2!B$12/24</f>
-        <v>4.1666666666666297E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="43" t="s">
-        <v>31</v>
+      <c r="A5" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="11"/>
@@ -1735,81 +1815,81 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="16" t="s">
-        <v>100</v>
+      <c r="A6" s="62"/>
+      <c r="B6" s="43" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="11"/>
       <c r="I6" s="13">
-        <v>0.375</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="13">
         <f>$I6+Sheet2!B$1/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.74999999999999967</v>
       </c>
       <c r="L6" s="13">
         <f>$I6+Sheet2!B$2/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="M6" s="13">
         <f>$I6+Sheet2!B$3/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.6666666666666663</v>
       </c>
       <c r="N6" s="13">
         <f>$I6+Sheet2!B$4/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="O6" s="13">
         <f>$I6+Sheet2!B$5/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="P6" s="13">
         <f>$I6+Sheet2!B$6/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="Q6" s="13">
         <f>$I6+Sheet2!B$7/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.4166666666666663</v>
       </c>
       <c r="R6" s="13">
         <f>$I6+Sheet2!B$8/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.37499999999999967</v>
       </c>
       <c r="S6" s="13">
         <f>$I6+Sheet2!B$9/24</f>
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666632</v>
       </c>
       <c r="T6" s="13">
         <f>$I6+Sheet2!B$10/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.12499999999999964</v>
       </c>
       <c r="U6" s="13">
         <f>$I6+Sheet2!B$11/24</f>
-        <v>0.125</v>
+        <v>8.3333333333332982E-2</v>
       </c>
       <c r="V6" s="15">
         <f>$I6+Sheet2!B$12/24</f>
-        <v>8.3333333333333315E-2</v>
+        <v>4.1666666666666297E-2</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="22" t="s">
-        <v>109</v>
+      <c r="A7" s="62"/>
+      <c r="B7" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="11"/>
@@ -1867,15 +1947,15 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="36" t="s">
-        <v>28</v>
+      <c r="A8" s="62"/>
+      <c r="B8" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="11"/>
@@ -1933,84 +2013,84 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="16" t="s">
-        <v>100</v>
+      <c r="A9" s="62"/>
+      <c r="B9" s="36" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="7">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J9" s="8"/>
+      <c r="I9" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="J9" s="14"/>
       <c r="K9" s="13">
         <f>$I9+Sheet2!B$1/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="L9" s="13">
         <f>$I9+Sheet2!B$2/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.75</v>
       </c>
       <c r="M9" s="13">
         <f>$I9+Sheet2!B$3/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="N9" s="13">
         <f>$I9+Sheet2!B$4/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="O9" s="13">
         <f>$I9+Sheet2!B$5/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="P9" s="13">
         <f>$I9+Sheet2!B$6/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="Q9" s="13">
         <f>$I9+Sheet2!B$7/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="R9" s="13">
         <f>$I9+Sheet2!B$8/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="S9" s="13">
         <f>$I9+Sheet2!B$9/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="T9" s="13">
         <f>$I9+Sheet2!B$10/24</f>
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="U9" s="13">
         <f>$I9+Sheet2!B$11/24</f>
-        <v>0.16666666666666669</v>
+        <v>0.125</v>
       </c>
       <c r="V9" s="15">
         <f>$I9+Sheet2!B$12/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333315E-2</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -2065,15 +2145,15 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="16" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2081,97 +2161,97 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J11" s="8"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="15"/>
+      <c r="K11" s="13">
+        <f>$I11+Sheet2!B$1/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L11" s="13">
+        <f>$I11+Sheet2!B$2/24</f>
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="M11" s="13">
+        <f>$I11+Sheet2!B$3/24</f>
+        <v>0.75</v>
+      </c>
+      <c r="N11" s="13">
+        <f>$I11+Sheet2!B$4/24</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="O11" s="13">
+        <f>$I11+Sheet2!B$5/24</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="P11" s="13">
+        <f>$I11+Sheet2!B$6/24</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="Q11" s="13">
+        <f>$I11+Sheet2!B$7/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="R11" s="13">
+        <f>$I11+Sheet2!B$8/24</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="S11" s="13">
+        <f>$I11+Sheet2!B$9/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="T11" s="13">
+        <f>$I11+Sheet2!B$10/24</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="U11" s="13">
+        <f>$I11+Sheet2!B$11/24</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="V11" s="15">
+        <f>$I11+Sheet2!B$12/24</f>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="16" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="J12" s="8"/>
-      <c r="K12" s="13">
-        <f>$I12+Sheet2!B$1/24</f>
-        <v>0.875</v>
-      </c>
-      <c r="L12" s="13">
-        <f>$I12+Sheet2!B$2/24</f>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="M12" s="13">
-        <f>$I12+Sheet2!B$3/24</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="N12" s="13">
-        <f>$I12+Sheet2!B$4/24</f>
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="O12" s="13">
-        <f>$I12+Sheet2!B$5/24</f>
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="P12" s="13">
-        <f>$I12+Sheet2!B$6/24</f>
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="Q12" s="13">
-        <f>$I12+Sheet2!B$7/24</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="R12" s="13">
-        <f>$I12+Sheet2!B$8/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="S12" s="13">
-        <f>$I12+Sheet2!B$9/24</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="T12" s="13">
-        <f>$I12+Sheet2!B$10/24</f>
-        <v>0.24999999999999997</v>
-      </c>
-      <c r="U12" s="13">
-        <f>$I12+Sheet2!B$11/24</f>
-        <v>0.20833333333333331</v>
-      </c>
-      <c r="V12" s="15">
-        <f>$I12+Sheet2!B$12/24</f>
-        <v>0.16666666666666663</v>
-      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="15"/>
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="16" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="7">
         <v>0.45833333333333331</v>
@@ -2227,22 +2307,22 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20">
+      <c r="A14" s="62"/>
+      <c r="B14" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J14" s="33"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="13">
         <f>$I14+Sheet2!B$1/24</f>
         <v>0.875</v>
@@ -2293,15 +2373,15 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="34" t="s">
-        <v>58</v>
+      <c r="A15" s="62"/>
+      <c r="B15" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="19"/>
@@ -2359,9 +2439,9 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="34" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -2425,81 +2505,81 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="17" t="s">
-        <v>100</v>
+      <c r="A17" s="62"/>
+      <c r="B17" s="34" t="s">
+        <v>119</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="J17" s="39"/>
+      <c r="I17" s="20">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J17" s="33"/>
       <c r="K17" s="13">
         <f>$I17+Sheet2!B$1/24</f>
-        <v>0.91666666666666674</v>
+        <v>0.875</v>
       </c>
       <c r="L17" s="13">
         <f>$I17+Sheet2!B$2/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="M17" s="13">
         <f>$I17+Sheet2!B$3/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="N17" s="13">
         <f>$I17+Sheet2!B$4/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="O17" s="13">
         <f>$I17+Sheet2!B$5/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="P17" s="13">
         <f>$I17+Sheet2!B$6/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="Q17" s="13">
         <f>$I17+Sheet2!B$7/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R17" s="13">
         <f>$I17+Sheet2!B$8/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="S17" s="13">
         <f>$I17+Sheet2!B$9/24</f>
-        <v>0.33333333333333337</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="T17" s="13">
         <f>$I17+Sheet2!B$10/24</f>
-        <v>0.29166666666666663</v>
+        <v>0.24999999999999997</v>
       </c>
       <c r="U17" s="13">
         <f>$I17+Sheet2!B$11/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="V17" s="15">
         <f>$I17+Sheet2!B$12/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="17" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="19"/>
@@ -2557,18 +2637,18 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="7">
         <v>0.5</v>
       </c>
@@ -2623,22 +2703,22 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25">
+      <c r="A20" s="62"/>
+      <c r="B20" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7">
         <v>0.5</v>
       </c>
-      <c r="J20" s="41"/>
+      <c r="J20" s="39"/>
       <c r="K20" s="13">
         <f>$I20+Sheet2!B$1/24</f>
         <v>0.91666666666666674</v>
@@ -2689,88 +2769,88 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="22" t="s">
-        <v>100</v>
+      <c r="A21" s="64"/>
+      <c r="B21" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="25">
-        <v>0.54166666666666696</v>
+        <v>0.5</v>
       </c>
       <c r="J21" s="41"/>
       <c r="K21" s="13">
         <f>$I21+Sheet2!B$1/24</f>
-        <v>0.9583333333333337</v>
+        <v>0.91666666666666674</v>
       </c>
       <c r="L21" s="13">
         <f>$I21+Sheet2!B$2/24</f>
-        <v>0.91666666666666696</v>
+        <v>0.875</v>
       </c>
       <c r="M21" s="13">
         <f>$I21+Sheet2!B$3/24</f>
-        <v>0.87500000000000022</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="N21" s="13">
         <f>$I21+Sheet2!B$4/24</f>
-        <v>0.66666666666666696</v>
+        <v>0.625</v>
       </c>
       <c r="O21" s="13">
         <f>$I21+Sheet2!B$5/24</f>
-        <v>0.66666666666666696</v>
+        <v>0.625</v>
       </c>
       <c r="P21" s="13">
         <f>$I21+Sheet2!B$6/24</f>
-        <v>0.66666666666666696</v>
+        <v>0.625</v>
       </c>
       <c r="Q21" s="13">
         <f>$I21+Sheet2!B$7/24</f>
-        <v>0.62500000000000033</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="R21" s="13">
         <f>$I21+Sheet2!B$8/24</f>
-        <v>0.58333333333333359</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="S21" s="13">
         <f>$I21+Sheet2!B$9/24</f>
-        <v>0.37500000000000033</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="T21" s="13">
         <f>$I21+Sheet2!B$10/24</f>
-        <v>0.33333333333333359</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="U21" s="13">
         <f>$I21+Sheet2!B$11/24</f>
-        <v>0.29166666666666696</v>
+        <v>0.25</v>
       </c>
       <c r="V21" s="15">
         <f>$I21+Sheet2!B$12/24</f>
-        <v>0.25000000000000028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
-      <c r="B22" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29">
+        <v>0.20833333333333331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
+      <c r="B22" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25">
         <v>0.54166666666666696</v>
       </c>
-      <c r="J22" s="50"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="13">
         <f>$I22+Sheet2!B$1/24</f>
         <v>0.9583333333333337</v>
@@ -2820,16 +2900,16 @@
         <v>0.25000000000000028</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="49"/>
       <c r="B23" s="26" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -2886,82 +2966,82 @@
         <v>0.25000000000000028</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="J24" s="41"/>
+    <row r="24" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="49"/>
+      <c r="B24" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="J24" s="50"/>
       <c r="K24" s="13">
         <f>$I24+Sheet2!B$1/24</f>
-        <v>0.99999999999999978</v>
+        <v>0.9583333333333337</v>
       </c>
       <c r="L24" s="13">
         <f>$I24+Sheet2!B$2/24</f>
-        <v>0.95833333333333304</v>
+        <v>0.91666666666666696</v>
       </c>
       <c r="M24" s="13">
         <f>$I24+Sheet2!B$3/24</f>
-        <v>0.9166666666666663</v>
+        <v>0.87500000000000022</v>
       </c>
       <c r="N24" s="13">
         <f>$I24+Sheet2!B$4/24</f>
-        <v>0.70833333333333304</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="O24" s="13">
         <f>$I24+Sheet2!B$5/24</f>
-        <v>0.70833333333333304</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="P24" s="13">
         <f>$I24+Sheet2!B$6/24</f>
-        <v>0.70833333333333304</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="Q24" s="13">
         <f>$I24+Sheet2!B$7/24</f>
-        <v>0.66666666666666641</v>
+        <v>0.62500000000000033</v>
       </c>
       <c r="R24" s="13">
         <f>$I24+Sheet2!B$8/24</f>
-        <v>0.62499999999999967</v>
+        <v>0.58333333333333359</v>
       </c>
       <c r="S24" s="13">
         <f>$I24+Sheet2!B$9/24</f>
-        <v>0.41666666666666641</v>
+        <v>0.37500000000000033</v>
       </c>
       <c r="T24" s="13">
         <f>$I24+Sheet2!B$10/24</f>
-        <v>0.37499999999999967</v>
+        <v>0.33333333333333359</v>
       </c>
       <c r="U24" s="13">
         <f>$I24+Sheet2!B$11/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.29166666666666696</v>
       </c>
       <c r="V24" s="15">
         <f>$I24+Sheet2!B$12/24</f>
-        <v>0.29166666666666635</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="5" t="s">
-        <v>104</v>
+        <v>0.25000000000000028</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
+      <c r="B25" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
       <c r="F25" s="23" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
@@ -3019,83 +3099,83 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="16" t="s">
-        <v>100</v>
+      <c r="A26" s="46"/>
+      <c r="B26" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
       <c r="I26" s="25">
-        <v>0.625</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="J26" s="41"/>
       <c r="K26" s="13">
         <f>$I26+Sheet2!B$1/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="L26" s="13">
         <f>$I26+Sheet2!B$2/24</f>
-        <v>1</v>
+        <v>0.95833333333333304</v>
       </c>
       <c r="M26" s="13">
         <f>$I26+Sheet2!B$3/24</f>
-        <v>0.95833333333333326</v>
+        <v>0.9166666666666663</v>
       </c>
       <c r="N26" s="13">
         <f>$I26+Sheet2!B$4/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="O26" s="13">
         <f>$I26+Sheet2!B$5/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="P26" s="13">
         <f>$I26+Sheet2!B$6/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="Q26" s="13">
         <f>$I26+Sheet2!B$7/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666641</v>
       </c>
       <c r="R26" s="13">
         <f>$I26+Sheet2!B$8/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.62499999999999967</v>
       </c>
       <c r="S26" s="13">
         <f>$I26+Sheet2!B$9/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666641</v>
       </c>
       <c r="T26" s="13">
         <f>$I26+Sheet2!B$10/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.37499999999999967</v>
       </c>
       <c r="U26" s="13">
         <f>$I26+Sheet2!B$11/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333304</v>
       </c>
       <c r="V26" s="15">
         <f>$I26+Sheet2!B$12/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="22" t="s">
-        <v>30</v>
+        <v>0.29166666666666635</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="25">
         <v>0.625</v>
@@ -3151,15 +3231,15 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="22" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="24"/>
@@ -3167,29 +3247,65 @@
         <v>0.625</v>
       </c>
       <c r="J28" s="41"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="15"/>
+      <c r="K28" s="13">
+        <f>$I28+Sheet2!B$1/24</f>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="L28" s="13">
+        <f>$I28+Sheet2!B$2/24</f>
+        <v>1</v>
+      </c>
+      <c r="M28" s="13">
+        <f>$I28+Sheet2!B$3/24</f>
+        <v>0.95833333333333326</v>
+      </c>
+      <c r="N28" s="13">
+        <f>$I28+Sheet2!B$4/24</f>
+        <v>0.75</v>
+      </c>
+      <c r="O28" s="13">
+        <f>$I28+Sheet2!B$5/24</f>
+        <v>0.75</v>
+      </c>
+      <c r="P28" s="13">
+        <f>$I28+Sheet2!B$6/24</f>
+        <v>0.75</v>
+      </c>
+      <c r="Q28" s="13">
+        <f>$I28+Sheet2!B$7/24</f>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R28" s="13">
+        <f>$I28+Sheet2!B$8/24</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S28" s="13">
+        <f>$I28+Sheet2!B$9/24</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="T28" s="13">
+        <f>$I28+Sheet2!B$10/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="U28" s="13">
+        <f>$I28+Sheet2!B$11/24</f>
+        <v>0.375</v>
+      </c>
+      <c r="V28" s="15">
+        <f>$I28+Sheet2!B$12/24</f>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="60"/>
-      <c r="B29" s="48" t="s">
-        <v>60</v>
+      <c r="B29" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
-      <c r="F29" s="23" t="s">
-        <v>56</v>
+      <c r="F29" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="24"/>
@@ -3211,81 +3327,45 @@
       <c r="V29" s="15"/>
     </row>
     <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="7">
-        <v>0.65972222222222221</v>
-      </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="13">
-        <f>$I30+Sheet2!B$1/24</f>
-        <v>1.0763888888888888</v>
-      </c>
-      <c r="L30" s="13">
-        <f>$I30+Sheet2!B$2/24</f>
-        <v>1.0347222222222223</v>
-      </c>
-      <c r="M30" s="13">
-        <f>$I30+Sheet2!B$3/24</f>
-        <v>0.99305555555555558</v>
-      </c>
-      <c r="N30" s="13">
-        <f>$I30+Sheet2!B$4/24</f>
-        <v>0.78472222222222221</v>
-      </c>
-      <c r="O30" s="13">
-        <f>$I30+Sheet2!B$5/24</f>
-        <v>0.78472222222222221</v>
-      </c>
-      <c r="P30" s="13">
-        <f>$I30+Sheet2!B$6/24</f>
-        <v>0.78472222222222221</v>
-      </c>
-      <c r="Q30" s="13">
-        <f>$I30+Sheet2!B$7/24</f>
-        <v>0.74305555555555558</v>
-      </c>
-      <c r="R30" s="13">
-        <f>$I30+Sheet2!B$8/24</f>
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="S30" s="13">
-        <f>$I30+Sheet2!B$9/24</f>
-        <v>0.49305555555555558</v>
-      </c>
-      <c r="T30" s="13">
-        <f>$I30+Sheet2!B$10/24</f>
-        <v>0.45138888888888884</v>
-      </c>
-      <c r="U30" s="13">
-        <f>$I30+Sheet2!B$11/24</f>
-        <v>0.40972222222222221</v>
-      </c>
-      <c r="V30" s="15">
-        <f>$I30+Sheet2!B$12/24</f>
-        <v>0.36805555555555552</v>
-      </c>
+      <c r="A30" s="60"/>
+      <c r="B30" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="J30" s="41"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="15"/>
     </row>
     <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="58"/>
       <c r="B31" s="16" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -3345,79 +3425,79 @@
     <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="58"/>
       <c r="B32" s="16" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="13">
         <f>$I32+Sheet2!B$1/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0763888888888888</v>
       </c>
       <c r="L32" s="13">
         <f>$I32+Sheet2!B$2/24</f>
-        <v>1.0416666666666665</v>
+        <v>1.0347222222222223</v>
       </c>
       <c r="M32" s="13">
         <f>$I32+Sheet2!B$3/24</f>
-        <v>1</v>
+        <v>0.99305555555555558</v>
       </c>
       <c r="N32" s="13">
         <f>$I32+Sheet2!B$4/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="O32" s="13">
         <f>$I32+Sheet2!B$5/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="P32" s="13">
         <f>$I32+Sheet2!B$6/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="Q32" s="13">
         <f>$I32+Sheet2!B$7/24</f>
-        <v>0.75</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="R32" s="13">
         <f>$I32+Sheet2!B$8/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="S32" s="13">
         <f>$I32+Sheet2!B$9/24</f>
-        <v>0.5</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="T32" s="13">
         <f>$I32+Sheet2!B$10/24</f>
-        <v>0.45833333333333326</v>
+        <v>0.45138888888888884</v>
       </c>
       <c r="U32" s="13">
         <f>$I32+Sheet2!B$11/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="V32" s="15">
         <f>$I32+Sheet2!B$12/24</f>
-        <v>0.37499999999999994</v>
+        <v>0.36805555555555552</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="58"/>
       <c r="B33" s="16" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -3477,13 +3557,13 @@
     <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="58"/>
       <c r="B34" s="16" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -3543,79 +3623,79 @@
     <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="58"/>
       <c r="B35" s="16" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="7">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="13">
         <f>$I35+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="L35" s="13">
         <f>$I35+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="M35" s="13">
         <f>$I35+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>1</v>
       </c>
       <c r="N35" s="13">
         <f>$I35+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="O35" s="13">
         <f>$I35+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P35" s="13">
         <f>$I35+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q35" s="13">
         <f>$I35+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.75</v>
       </c>
       <c r="R35" s="13">
         <f>$I35+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="S35" s="13">
         <f>$I35+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="T35" s="13">
         <f>$I35+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="U35" s="13">
         <f>$I35+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="V35" s="15">
         <f>$I35+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="58"/>
       <c r="B36" s="16" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -3675,13 +3755,13 @@
     <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="58"/>
       <c r="B37" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -3740,14 +3820,14 @@
     </row>
     <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="58"/>
-      <c r="B38" s="35" t="s">
-        <v>74</v>
+      <c r="B38" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -3806,14 +3886,14 @@
     </row>
     <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="58"/>
-      <c r="B39" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="11" t="s">
-        <v>67</v>
+      <c r="B39" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -3872,87 +3952,87 @@
     </row>
     <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="58"/>
-      <c r="B40" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5" t="s">
-        <v>86</v>
+      <c r="B40" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="7">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="13">
         <f>$I40+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L40" s="13">
         <f>$I40+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M40" s="13">
         <f>$I40+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N40" s="13">
         <f>$I40+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O40" s="13">
         <f>$I40+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P40" s="13">
         <f>$I40+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q40" s="13">
         <f>$I40+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R40" s="13">
         <f>$I40+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S40" s="13">
         <f>$I40+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T40" s="13">
         <f>$I40+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U40" s="13">
         <f>$I40+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V40" s="15">
         <f>$I40+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="58"/>
       <c r="B41" s="16" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="7">
         <v>0.75</v>
       </c>
-      <c r="J41" s="10"/>
+      <c r="J41" s="9"/>
       <c r="K41" s="13">
         <f>$I41+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -4005,7 +4085,7 @@
     <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="58"/>
       <c r="B42" s="16" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -4071,13 +4151,13 @@
     <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="58"/>
       <c r="B43" s="16" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -4134,16 +4214,16 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="58"/>
       <c r="B44" s="16" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -4202,21 +4282,21 @@
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="58"/>
-      <c r="B45" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
+      <c r="B45" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
       <c r="I45" s="7">
         <v>0.75</v>
       </c>
-      <c r="J45" s="21"/>
+      <c r="J45" s="10"/>
       <c r="K45" s="13">
         <f>$I45+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -4269,7 +4349,7 @@
     <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="58"/>
       <c r="B46" s="34" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
@@ -4335,7 +4415,7 @@
     <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="58"/>
       <c r="B47" s="34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -4401,7 +4481,7 @@
     <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="58"/>
       <c r="B48" s="34" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
@@ -4466,242 +4546,242 @@
     </row>
     <row r="49" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="58"/>
-      <c r="B49" s="17" t="s">
-        <v>100</v>
+      <c r="B49" s="34" t="s">
+        <v>84</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
-      <c r="F49" s="5" t="s">
-        <v>87</v>
+      <c r="F49" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="G49" s="19"/>
-      <c r="H49" s="6"/>
+      <c r="H49" s="19"/>
       <c r="I49" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="J49" s="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="J49" s="21"/>
       <c r="K49" s="13">
         <f>$I49+Sheet2!B$1/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L49" s="13">
         <f>$I49+Sheet2!B$2/24</f>
-        <v>1.1666666666666665</v>
+        <v>1.125</v>
       </c>
       <c r="M49" s="13">
         <f>$I49+Sheet2!B$3/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N49" s="13">
         <f>$I49+Sheet2!B$4/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="O49" s="13">
         <f>$I49+Sheet2!B$5/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="P49" s="13">
         <f>$I49+Sheet2!B$6/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="Q49" s="13">
         <f>$I49+Sheet2!B$7/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R49" s="13">
         <f>$I49+Sheet2!B$8/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S49" s="13">
         <f>$I49+Sheet2!B$9/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T49" s="13">
         <f>$I49+Sheet2!B$10/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U49" s="13">
         <f>$I49+Sheet2!B$11/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="V49" s="15">
         <f>$I49+Sheet2!B$12/24</f>
-        <v>0.49999999999999994</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="58"/>
-      <c r="B50" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="B50" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
       <c r="F50" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G50" s="6"/>
+        <v>87</v>
+      </c>
+      <c r="G50" s="19"/>
       <c r="H50" s="6"/>
       <c r="I50" s="7">
         <v>0.79166666666666663</v>
       </c>
       <c r="J50" s="9"/>
-      <c r="K50" s="56">
+      <c r="K50" s="13">
         <f>$I50+Sheet2!B$1/24</f>
         <v>1.2083333333333333</v>
       </c>
-      <c r="L50" s="56">
+      <c r="L50" s="13">
         <f>$I50+Sheet2!B$2/24</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="M50" s="56">
+      <c r="M50" s="13">
         <f>$I50+Sheet2!B$3/24</f>
         <v>1.125</v>
       </c>
-      <c r="N50" s="56">
+      <c r="N50" s="13">
         <f>$I50+Sheet2!B$4/24</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="O50" s="56">
+      <c r="O50" s="13">
         <f>$I50+Sheet2!B$5/24</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="P50" s="56">
+      <c r="P50" s="13">
         <f>$I50+Sheet2!B$6/24</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="Q50" s="56">
+      <c r="Q50" s="13">
         <f>$I50+Sheet2!B$7/24</f>
         <v>0.875</v>
       </c>
-      <c r="R50" s="56">
+      <c r="R50" s="13">
         <f>$I50+Sheet2!B$8/24</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="S50" s="56">
+      <c r="S50" s="13">
         <f>$I50+Sheet2!B$9/24</f>
         <v>0.625</v>
       </c>
-      <c r="T50" s="56">
+      <c r="T50" s="13">
         <f>$I50+Sheet2!B$10/24</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="U50" s="56">
+      <c r="U50" s="13">
         <f>$I50+Sheet2!B$11/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="V50" s="57">
+      <c r="V50" s="15">
         <f>$I50+Sheet2!B$12/24</f>
         <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="58"/>
-      <c r="B51" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
+      <c r="B51" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
       <c r="I51" s="7">
         <v>0.79166666666666663</v>
       </c>
       <c r="J51" s="9"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="56"/>
-      <c r="U51" s="56"/>
-      <c r="V51" s="57"/>
+      <c r="K51" s="56">
+        <f>$I51+Sheet2!B$1/24</f>
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="L51" s="56">
+        <f>$I51+Sheet2!B$2/24</f>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="M51" s="56">
+        <f>$I51+Sheet2!B$3/24</f>
+        <v>1.125</v>
+      </c>
+      <c r="N51" s="56">
+        <f>$I51+Sheet2!B$4/24</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="O51" s="56">
+        <f>$I51+Sheet2!B$5/24</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="P51" s="56">
+        <f>$I51+Sheet2!B$6/24</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Q51" s="56">
+        <f>$I51+Sheet2!B$7/24</f>
+        <v>0.875</v>
+      </c>
+      <c r="R51" s="56">
+        <f>$I51+Sheet2!B$8/24</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="S51" s="56">
+        <f>$I51+Sheet2!B$9/24</f>
+        <v>0.625</v>
+      </c>
+      <c r="T51" s="56">
+        <f>$I51+Sheet2!B$10/24</f>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="U51" s="56">
+        <f>$I51+Sheet2!B$11/24</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="V51" s="57">
+        <f>$I51+Sheet2!B$12/24</f>
+        <v>0.49999999999999994</v>
+      </c>
     </row>
     <row r="52" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="58"/>
       <c r="B52" s="54" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C52" s="55"/>
       <c r="D52" s="55"/>
       <c r="E52" s="55"/>
-      <c r="F52" s="55" t="s">
-        <v>106</v>
+      <c r="F52" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="G52" s="53"/>
       <c r="H52" s="53"/>
       <c r="I52" s="7">
-        <v>0.875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="J52" s="9"/>
-      <c r="K52" s="56">
-        <f>$I52+Sheet2!B$1/24</f>
-        <v>1.2916666666666667</v>
-      </c>
-      <c r="L52" s="56">
-        <f>$I52+Sheet2!B$2/24</f>
-        <v>1.25</v>
-      </c>
-      <c r="M52" s="56">
-        <f>$I52+Sheet2!B$3/24</f>
-        <v>1.2083333333333333</v>
-      </c>
-      <c r="N52" s="56">
-        <f>$I52+Sheet2!B$4/24</f>
-        <v>1</v>
-      </c>
-      <c r="O52" s="56">
-        <f>$I52+Sheet2!B$5/24</f>
-        <v>1</v>
-      </c>
-      <c r="P52" s="56">
-        <f>$I52+Sheet2!B$6/24</f>
-        <v>1</v>
-      </c>
-      <c r="Q52" s="56">
-        <f>$I52+Sheet2!B$7/24</f>
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="R52" s="56">
-        <f>$I52+Sheet2!B$8/24</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="S52" s="56">
-        <f>$I52+Sheet2!B$9/24</f>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="T52" s="56">
-        <f>$I52+Sheet2!B$10/24</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="U52" s="56">
-        <f>$I52+Sheet2!B$11/24</f>
-        <v>0.625</v>
-      </c>
-      <c r="V52" s="57">
-        <f>$I52+Sheet2!B$12/24</f>
-        <v>0.58333333333333326</v>
-      </c>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="56"/>
+      <c r="V52" s="57"/>
     </row>
     <row r="53" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="58"/>
       <c r="B53" s="54" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C53" s="55"/>
       <c r="D53" s="55"/>
       <c r="E53" s="55"/>
       <c r="F53" s="55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G53" s="53"/>
       <c r="H53" s="53"/>
@@ -4709,29 +4789,65 @@
         <v>0.875</v>
       </c>
       <c r="J53" s="9"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="56"/>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="56"/>
-      <c r="U53" s="56"/>
-      <c r="V53" s="57"/>
+      <c r="K53" s="56">
+        <f>$I53+Sheet2!B$1/24</f>
+        <v>1.2916666666666667</v>
+      </c>
+      <c r="L53" s="56">
+        <f>$I53+Sheet2!B$2/24</f>
+        <v>1.25</v>
+      </c>
+      <c r="M53" s="56">
+        <f>$I53+Sheet2!B$3/24</f>
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="N53" s="56">
+        <f>$I53+Sheet2!B$4/24</f>
+        <v>1</v>
+      </c>
+      <c r="O53" s="56">
+        <f>$I53+Sheet2!B$5/24</f>
+        <v>1</v>
+      </c>
+      <c r="P53" s="56">
+        <f>$I53+Sheet2!B$6/24</f>
+        <v>1</v>
+      </c>
+      <c r="Q53" s="56">
+        <f>$I53+Sheet2!B$7/24</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="R53" s="56">
+        <f>$I53+Sheet2!B$8/24</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="S53" s="56">
+        <f>$I53+Sheet2!B$9/24</f>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="T53" s="56">
+        <f>$I53+Sheet2!B$10/24</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U53" s="56">
+        <f>$I53+Sheet2!B$11/24</f>
+        <v>0.625</v>
+      </c>
+      <c r="V53" s="57">
+        <f>$I53+Sheet2!B$12/24</f>
+        <v>0.58333333333333326</v>
+      </c>
     </row>
     <row r="54" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="58"/>
       <c r="B54" s="54" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
       <c r="F54" s="55" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="G54" s="53"/>
       <c r="H54" s="53"/>
@@ -4752,154 +4868,118 @@
       <c r="U54" s="56"/>
       <c r="V54" s="57"/>
     </row>
-    <row r="55" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="58"/>
-      <c r="B55" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="G55" s="28"/>
-      <c r="H55" s="38"/>
+      <c r="B55" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
       <c r="I55" s="7">
         <v>0.875</v>
       </c>
       <c r="J55" s="9"/>
-      <c r="K55" s="56">
-        <f>$I55+Sheet2!B$1/24</f>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="56"/>
+      <c r="T55" s="56"/>
+      <c r="U55" s="56"/>
+      <c r="V55" s="57"/>
+    </row>
+    <row r="56" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="58"/>
+      <c r="B56" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="G56" s="28"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="J56" s="9"/>
+      <c r="K56" s="56">
+        <f>$I56+Sheet2!B$1/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="L55" s="56">
-        <f>$I55+Sheet2!B$2/24</f>
+      <c r="L56" s="56">
+        <f>$I56+Sheet2!B$2/24</f>
         <v>1.25</v>
       </c>
-      <c r="M55" s="56">
-        <f>$I55+Sheet2!B$3/24</f>
+      <c r="M56" s="56">
+        <f>$I56+Sheet2!B$3/24</f>
         <v>1.2083333333333333</v>
       </c>
-      <c r="N55" s="56">
-        <f>$I55+Sheet2!B$4/24</f>
+      <c r="N56" s="56">
+        <f>$I56+Sheet2!B$4/24</f>
         <v>1</v>
       </c>
-      <c r="O55" s="56">
-        <f>$I55+Sheet2!B$5/24</f>
+      <c r="O56" s="56">
+        <f>$I56+Sheet2!B$5/24</f>
         <v>1</v>
       </c>
-      <c r="P55" s="56">
-        <f>$I55+Sheet2!B$6/24</f>
+      <c r="P56" s="56">
+        <f>$I56+Sheet2!B$6/24</f>
         <v>1</v>
       </c>
-      <c r="Q55" s="56">
-        <f>$I55+Sheet2!B$7/24</f>
+      <c r="Q56" s="56">
+        <f>$I56+Sheet2!B$7/24</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="R55" s="56">
-        <f>$I55+Sheet2!B$8/24</f>
+      <c r="R56" s="56">
+        <f>$I56+Sheet2!B$8/24</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="S55" s="56">
-        <f>$I55+Sheet2!B$9/24</f>
+      <c r="S56" s="56">
+        <f>$I56+Sheet2!B$9/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="T55" s="56">
-        <f>$I55+Sheet2!B$10/24</f>
+      <c r="T56" s="56">
+        <f>$I56+Sheet2!B$10/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="U55" s="56">
-        <f>$I55+Sheet2!B$11/24</f>
+      <c r="U56" s="56">
+        <f>$I56+Sheet2!B$11/24</f>
         <v>0.625</v>
       </c>
-      <c r="V55" s="57">
-        <f>$I55+Sheet2!B$12/24</f>
+      <c r="V56" s="57">
+        <f>$I56+Sheet2!B$12/24</f>
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="61" t="s">
+    <row r="57" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B57" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31" t="s">
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="51">
-        <v>0</v>
-      </c>
-      <c r="J56" s="30"/>
-      <c r="K56" s="13">
-        <f>$I56+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="L56" s="13">
-        <f>$I56+Sheet2!B$2/24</f>
-        <v>0.375</v>
-      </c>
-      <c r="M56" s="13">
-        <f>$I56+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N56" s="13">
-        <f>$I56+Sheet2!B$4/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="O56" s="13">
-        <f>$I56+Sheet2!B$5/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="P56" s="13">
-        <f>$I56+Sheet2!B$6/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="Q56" s="13">
-        <f>$I56+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="R56" s="13">
-        <f>$I56+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="S56" s="13">
-        <f>$I56+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
-      </c>
-      <c r="T56" s="13">
-        <f>$I56+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
-      </c>
-      <c r="U56" s="13">
-        <f>$I56+Sheet2!B$11/24</f>
-        <v>-0.25</v>
-      </c>
-      <c r="V56" s="15">
-        <f>$I56+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
-      <c r="B57" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="25">
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="51">
         <v>0</v>
       </c>
       <c r="J57" s="30"/>
@@ -4953,22 +5033,22 @@
       </c>
     </row>
     <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
-      <c r="B58" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5" t="s">
+      <c r="A58" s="62"/>
+      <c r="B58" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
       <c r="I58" s="25">
         <v>0</v>
       </c>
-      <c r="J58" s="9"/>
+      <c r="J58" s="30"/>
       <c r="K58" s="13">
         <f>$I58+Sheet2!B$1/24</f>
         <v>0.41666666666666669</v>
@@ -5019,9 +5099,9 @@
       </c>
     </row>
     <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
+      <c r="A59" s="62"/>
       <c r="B59" s="16" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -5085,9 +5165,9 @@
       </c>
     </row>
     <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
+      <c r="A60" s="62"/>
       <c r="B60" s="16" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -5151,9 +5231,9 @@
       </c>
     </row>
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
+      <c r="A61" s="62"/>
       <c r="B61" s="16" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -5217,15 +5297,15 @@
       </c>
     </row>
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
-      <c r="B62" s="35" t="s">
-        <v>64</v>
+      <c r="A62" s="62"/>
+      <c r="B62" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -5283,9 +5363,9 @@
       </c>
     </row>
     <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
+      <c r="A63" s="62"/>
       <c r="B63" s="35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -5349,9 +5429,9 @@
       </c>
     </row>
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
+      <c r="A64" s="62"/>
       <c r="B64" s="35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -5415,9 +5495,9 @@
       </c>
     </row>
     <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
+      <c r="A65" s="62"/>
       <c r="B65" s="35" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -5481,9 +5561,9 @@
       </c>
     </row>
     <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="61"/>
+      <c r="A66" s="62"/>
       <c r="B66" s="35" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -5547,81 +5627,81 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
-      <c r="B67" s="16" t="s">
-        <v>100</v>
+      <c r="A67" s="62"/>
+      <c r="B67" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="25">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="13">
         <f>$I67+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L67" s="13">
         <f>$I67+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M67" s="13">
         <f>$I67+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N67" s="13">
         <f>$I67+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O67" s="13">
         <f>$I67+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P67" s="13">
         <f>$I67+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q67" s="13">
         <f>$I67+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R67" s="13">
         <f>$I67+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S67" s="13">
         <f>$I67+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T67" s="13">
         <f>$I67+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U67" s="13">
         <f>$I67+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V67" s="15">
         <f>$I67+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
+      <c r="A68" s="62"/>
       <c r="B68" s="16" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -5679,9 +5759,9 @@
       </c>
     </row>
     <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
+      <c r="A69" s="62"/>
       <c r="B69" s="16" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -5695,23 +5775,59 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J69" s="9"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="13"/>
-      <c r="T69" s="13"/>
-      <c r="U69" s="13"/>
-      <c r="V69" s="15"/>
+      <c r="K69" s="13">
+        <f>$I69+Sheet2!B$1/24</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="L69" s="13">
+        <f>$I69+Sheet2!B$2/24</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M69" s="13">
+        <f>$I69+Sheet2!B$3/24</f>
+        <v>0.375</v>
+      </c>
+      <c r="N69" s="13">
+        <f>$I69+Sheet2!B$4/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O69" s="13">
+        <f>$I69+Sheet2!B$5/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P69" s="13">
+        <f>$I69+Sheet2!B$6/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q69" s="13">
+        <f>$I69+Sheet2!B$7/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="R69" s="13">
+        <f>$I69+Sheet2!B$8/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="S69" s="13">
+        <f>$I69+Sheet2!B$9/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="T69" s="13">
+        <f>$I69+Sheet2!B$10/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="U69" s="13">
+        <f>$I69+Sheet2!B$11/24</f>
+        <v>-0.20833333333333334</v>
+      </c>
+      <c r="V69" s="15">
+        <f>$I69+Sheet2!B$12/24</f>
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
+      <c r="A70" s="62"/>
       <c r="B70" s="16" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -5721,69 +5837,33 @@
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
-      <c r="I70" s="7">
+      <c r="I70" s="25">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J70" s="9"/>
-      <c r="K70" s="13">
-        <f>$I70+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
-      </c>
-      <c r="L70" s="13">
-        <f>$I70+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="M70" s="13">
-        <f>$I70+Sheet2!B$3/24</f>
-        <v>0.375</v>
-      </c>
-      <c r="N70" s="13">
-        <f>$I70+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="O70" s="13">
-        <f>$I70+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="P70" s="13">
-        <f>$I70+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="Q70" s="13">
-        <f>$I70+Sheet2!B$7/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="R70" s="13">
-        <f>$I70+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="S70" s="13">
-        <f>$I70+Sheet2!B$9/24</f>
-        <v>-0.125</v>
-      </c>
-      <c r="T70" s="13">
-        <f>$I70+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
-      </c>
-      <c r="U70" s="13">
-        <f>$I70+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
-      </c>
-      <c r="V70" s="15">
-        <f>$I70+Sheet2!B$12/24</f>
-        <v>-0.25</v>
-      </c>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="15"/>
     </row>
     <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
-      <c r="B71" s="35" t="s">
-        <v>51</v>
+      <c r="A71" s="62"/>
+      <c r="B71" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -5841,9 +5921,9 @@
       </c>
     </row>
     <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="35" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -5907,9 +5987,9 @@
       </c>
     </row>
     <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
+      <c r="A73" s="62"/>
       <c r="B73" s="35" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -5973,86 +6053,86 @@
       </c>
     </row>
     <row r="74" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
-      <c r="B74" s="16" t="s">
-        <v>100</v>
+      <c r="A74" s="62"/>
+      <c r="B74" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="7">
-        <v>8.3333333333333301E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J74" s="9"/>
       <c r="K74" s="13">
         <f>$I74+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L74" s="13">
         <f>$I74+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M74" s="13">
         <f>$I74+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N74" s="13">
         <f>$I74+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O74" s="13">
         <f>$I74+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P74" s="13">
         <f>$I74+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q74" s="13">
         <f>$I74+Sheet2!B$7/24</f>
-        <v>0.16666666666666663</v>
+        <v>0.125</v>
       </c>
       <c r="R74" s="13">
         <f>$I74+Sheet2!B$8/24</f>
-        <v>0.12499999999999997</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S74" s="13">
         <f>$I74+Sheet2!B$9/24</f>
-        <v>-8.3333333333333356E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T74" s="13">
         <f>$I74+Sheet2!B$10/24</f>
-        <v>-0.12500000000000006</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U74" s="13">
         <f>$I74+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V74" s="15">
         <f>$I74+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="75" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="16" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="G75" s="6"/>
-      <c r="H75" s="5"/>
+      <c r="H75" s="6"/>
       <c r="I75" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="13">
@@ -6081,19 +6161,19 @@
       </c>
       <c r="Q75" s="13">
         <f>$I75+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="R75" s="13">
         <f>$I75+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>0.12499999999999997</v>
       </c>
       <c r="S75" s="13">
         <f>$I75+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-8.3333333333333356E-2</v>
       </c>
       <c r="T75" s="13">
         <f>$I75+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.12500000000000006</v>
       </c>
       <c r="U75" s="13">
         <f>$I75+Sheet2!B$11/24</f>
@@ -6105,9 +6185,9 @@
       </c>
     </row>
     <row r="76" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -6116,7 +6196,7 @@
         <v>19</v>
       </c>
       <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
+      <c r="H76" s="5"/>
       <c r="I76" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -6171,15 +6251,15 @@
       </c>
     </row>
     <row r="77" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
+      <c r="A77" s="62"/>
       <c r="B77" s="16" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
@@ -6187,29 +6267,65 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="J77" s="9"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13"/>
-      <c r="T77" s="13"/>
-      <c r="U77" s="13"/>
-      <c r="V77" s="15"/>
+      <c r="K77" s="13">
+        <f>$I77+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L77" s="13">
+        <f>$I77+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M77" s="13">
+        <f>$I77+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N77" s="13">
+        <f>$I77+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O77" s="13">
+        <f>$I77+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P77" s="13">
+        <f>$I77+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q77" s="13">
+        <f>$I77+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R77" s="13">
+        <f>$I77+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S77" s="13">
+        <f>$I77+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T77" s="13">
+        <f>$I77+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U77" s="13">
+        <f>$I77+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V77" s="15">
+        <f>$I77+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
     </row>
     <row r="78" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
-      <c r="B78" s="35" t="s">
-        <v>72</v>
+      <c r="A78" s="62"/>
+      <c r="B78" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
@@ -6217,131 +6333,95 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="J78" s="9"/>
-      <c r="K78" s="13">
-        <f>$I78+Sheet2!B$1/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="L78" s="13">
-        <f>$I78+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="M78" s="13">
-        <f>$I78+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
-      </c>
-      <c r="N78" s="13">
-        <f>$I78+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
-      </c>
-      <c r="O78" s="13">
-        <f>$I78+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
-      </c>
-      <c r="P78" s="13">
-        <f>$I78+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
-      </c>
-      <c r="Q78" s="13">
-        <f>$I78+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="R78" s="13">
-        <f>$I78+Sheet2!B$8/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="S78" s="13">
-        <f>$I78+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
-      </c>
-      <c r="T78" s="13">
-        <f>$I78+Sheet2!B$10/24</f>
-        <v>-0.125</v>
-      </c>
-      <c r="U78" s="13">
-        <f>$I78+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
-      </c>
-      <c r="V78" s="15">
-        <f>$I78+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
-      </c>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13"/>
+      <c r="U78" s="13"/>
+      <c r="V78" s="15"/>
     </row>
     <row r="79" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
-      <c r="B79" s="16" t="s">
-        <v>100</v>
+      <c r="A79" s="62"/>
+      <c r="B79" s="35" t="s">
+        <v>72</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="7">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="13">
         <f>$I79+Sheet2!B$1/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="L79" s="13">
         <f>$I79+Sheet2!B$2/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="M79" s="13">
         <f>$I79+Sheet2!B$3/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="N79" s="13">
         <f>$I79+Sheet2!B$4/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="O79" s="13">
         <f>$I79+Sheet2!B$5/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="P79" s="13">
         <f>$I79+Sheet2!B$6/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="Q79" s="13">
         <f>$I79+Sheet2!B$7/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R79" s="13">
         <f>$I79+Sheet2!B$8/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="S79" s="13">
         <f>$I79+Sheet2!B$9/24</f>
-        <v>-4.1666666666666657E-2</v>
+        <v>-8.3333333333333329E-2</v>
       </c>
       <c r="T79" s="13">
         <f>$I79+Sheet2!B$10/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="U79" s="13">
         <f>$I79+Sheet2!B$11/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="V79" s="15">
         <f>$I79+Sheet2!B$12/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333337</v>
       </c>
     </row>
     <row r="80" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
+      <c r="A80" s="62"/>
       <c r="B80" s="16" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
@@ -6398,23 +6478,23 @@
         <v>-0.16666666666666669</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="62"/>
-      <c r="B81" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
+      <c r="B81" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
       <c r="F81" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
       <c r="I81" s="7">
         <v>0.125</v>
       </c>
-      <c r="J81" s="21"/>
+      <c r="J81" s="9"/>
       <c r="K81" s="13">
         <f>$I81+Sheet2!B$1/24</f>
         <v>0.54166666666666674</v>
@@ -6464,23 +6544,23 @@
         <v>-0.16666666666666669</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="34" t="s">
-        <v>63</v>
+    <row r="82" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="63"/>
+      <c r="B82" s="37" t="s">
+        <v>46</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
       <c r="E82" s="18"/>
       <c r="F82" s="5" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G82" s="19"/>
       <c r="H82" s="19"/>
       <c r="I82" s="7">
         <v>0.125</v>
       </c>
-      <c r="J82" s="9"/>
+      <c r="J82" s="21"/>
       <c r="K82" s="13">
         <f>$I82+Sheet2!B$1/24</f>
         <v>0.54166666666666674</v>
@@ -6530,144 +6610,142 @@
         <v>-0.16666666666666669</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>100</v>
+    <row r="83" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="40"/>
+      <c r="B83" s="34" t="s">
+        <v>63</v>
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
       <c r="E83" s="18"/>
       <c r="F83" s="5" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
       <c r="I83" s="7">
-        <v>0.20833333333333301</v>
+        <v>0.125</v>
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="13">
         <f>$I83+Sheet2!B$1/24</f>
-        <v>0.62499999999999967</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="L83" s="13">
         <f>$I83+Sheet2!B$2/24</f>
-        <v>0.58333333333333304</v>
+        <v>0.5</v>
       </c>
       <c r="M83" s="13">
         <f>$I83+Sheet2!B$3/24</f>
-        <v>0.5416666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="N83" s="13">
         <f>$I83+Sheet2!B$4/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="O83" s="13">
         <f>$I83+Sheet2!B$5/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="P83" s="13">
         <f>$I83+Sheet2!B$6/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="Q83" s="13">
         <f>$I83+Sheet2!B$7/24</f>
-        <v>0.29166666666666635</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="R83" s="13">
         <f>$I83+Sheet2!B$8/24</f>
-        <v>0.24999999999999967</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S83" s="13">
         <f>$I83+Sheet2!B$9/24</f>
-        <v>4.1666666666666352E-2</v>
+        <v>-4.1666666666666657E-2</v>
       </c>
       <c r="T83" s="13">
         <f>$I83+Sheet2!B$10/24</f>
-        <v>-3.3306690738754696E-16</v>
+        <v>-8.3333333333333343E-2</v>
       </c>
       <c r="U83" s="13">
         <f>$I83+Sheet2!B$11/24</f>
-        <v>-4.166666666666699E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="V83" s="15">
         <f>$I83+Sheet2!B$12/24</f>
-        <v>-8.3333333333333676E-2</v>
+        <v>-0.16666666666666669</v>
       </c>
     </row>
     <row r="84" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="61"/>
       <c r="B84" s="17" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="C84" s="18"/>
       <c r="D84" s="18"/>
       <c r="E84" s="18"/>
       <c r="F84" s="5" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
       <c r="I84" s="7">
-        <v>0.20833333333333301</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J84" s="9"/>
       <c r="K84" s="13">
         <f>$I84+Sheet2!B$1/24</f>
-        <v>0.62499999999999967</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="L84" s="13">
         <f>$I84+Sheet2!B$2/24</f>
-        <v>0.58333333333333304</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M84" s="13">
         <f>$I84+Sheet2!B$3/24</f>
-        <v>0.5416666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="N84" s="13">
         <f>$I84+Sheet2!B$4/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="O84" s="13">
         <f>$I84+Sheet2!B$5/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="P84" s="13">
         <f>$I84+Sheet2!B$6/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="Q84" s="13">
         <f>$I84+Sheet2!B$7/24</f>
-        <v>0.29166666666666635</v>
+        <v>0.25</v>
       </c>
       <c r="R84" s="13">
         <f>$I84+Sheet2!B$8/24</f>
-        <v>0.24999999999999967</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="S84" s="13">
         <f>$I84+Sheet2!B$9/24</f>
-        <v>4.1666666666666352E-2</v>
+        <v>0</v>
       </c>
       <c r="T84" s="13">
         <f>$I84+Sheet2!B$10/24</f>
-        <v>-3.3306690738754696E-16</v>
+        <v>-4.1666666666666685E-2</v>
       </c>
       <c r="U84" s="13">
         <f>$I84+Sheet2!B$11/24</f>
-        <v>-4.166666666666699E-2</v>
+        <v>-8.3333333333333343E-2</v>
       </c>
       <c r="V84" s="15">
         <f>$I84+Sheet2!B$12/24</f>
-        <v>-8.3333333333333676E-2</v>
+        <v>-0.12500000000000003</v>
       </c>
     </row>
     <row r="85" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="61"/>
-      <c r="B85" s="34" t="s">
-        <v>81</v>
+      <c r="B85" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="C85" s="18"/>
       <c r="D85" s="18"/>
@@ -6678,68 +6756,70 @@
       <c r="G85" s="19"/>
       <c r="H85" s="19"/>
       <c r="I85" s="7">
-        <v>0.20833333333333301</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" s="13">
         <f>$I85+Sheet2!B$1/24</f>
-        <v>0.62499999999999967</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="L85" s="13">
         <f>$I85+Sheet2!B$2/24</f>
-        <v>0.58333333333333304</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M85" s="13">
         <f>$I85+Sheet2!B$3/24</f>
-        <v>0.5416666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="N85" s="13">
         <f>$I85+Sheet2!B$4/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="O85" s="13">
         <f>$I85+Sheet2!B$5/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="P85" s="13">
         <f>$I85+Sheet2!B$6/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="Q85" s="13">
         <f>$I85+Sheet2!B$7/24</f>
-        <v>0.29166666666666635</v>
+        <v>0.25</v>
       </c>
       <c r="R85" s="13">
         <f>$I85+Sheet2!B$8/24</f>
-        <v>0.24999999999999967</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="S85" s="13">
         <f>$I85+Sheet2!B$9/24</f>
-        <v>4.1666666666666352E-2</v>
+        <v>0</v>
       </c>
       <c r="T85" s="13">
         <f>$I85+Sheet2!B$10/24</f>
-        <v>-3.3306690738754696E-16</v>
+        <v>-4.1666666666666685E-2</v>
       </c>
       <c r="U85" s="13">
         <f>$I85+Sheet2!B$11/24</f>
-        <v>-4.166666666666699E-2</v>
+        <v>-8.3333333333333343E-2</v>
       </c>
       <c r="V85" s="15">
         <f>$I85+Sheet2!B$12/24</f>
-        <v>-8.3333333333333676E-2</v>
+        <v>-0.12500000000000003</v>
       </c>
     </row>
     <row r="86" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
-      <c r="B86" s="34" t="s">
-        <v>122</v>
+      <c r="A86" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="18"/>
       <c r="E86" s="18"/>
       <c r="F86" s="5" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="G86" s="19"/>
       <c r="H86" s="19"/>
@@ -6796,83 +6876,215 @@
         <v>-8.3333333333333676E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
+    <row r="87" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="62"/>
+      <c r="B87" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="7">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="J87" s="9"/>
+      <c r="K87" s="13">
+        <f>$I87+Sheet2!B$1/24</f>
+        <v>0.62499999999999967</v>
+      </c>
+      <c r="L87" s="13">
+        <f>$I87+Sheet2!B$2/24</f>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="M87" s="13">
+        <f>$I87+Sheet2!B$3/24</f>
+        <v>0.5416666666666663</v>
+      </c>
+      <c r="N87" s="13">
+        <f>$I87+Sheet2!B$4/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="O87" s="13">
+        <f>$I87+Sheet2!B$5/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="P87" s="13">
+        <f>$I87+Sheet2!B$6/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="Q87" s="13">
+        <f>$I87+Sheet2!B$7/24</f>
+        <v>0.29166666666666635</v>
+      </c>
+      <c r="R87" s="13">
+        <f>$I87+Sheet2!B$8/24</f>
+        <v>0.24999999999999967</v>
+      </c>
+      <c r="S87" s="13">
+        <f>$I87+Sheet2!B$9/24</f>
+        <v>4.1666666666666352E-2</v>
+      </c>
+      <c r="T87" s="13">
+        <f>$I87+Sheet2!B$10/24</f>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="U87" s="13">
+        <f>$I87+Sheet2!B$11/24</f>
+        <v>-4.166666666666699E-2</v>
+      </c>
+      <c r="V87" s="15">
+        <f>$I87+Sheet2!B$12/24</f>
+        <v>-8.3333333333333676E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="62"/>
+      <c r="B88" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="7">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="J88" s="9"/>
+      <c r="K88" s="13">
+        <f>$I88+Sheet2!B$1/24</f>
+        <v>0.62499999999999967</v>
+      </c>
+      <c r="L88" s="13">
+        <f>$I88+Sheet2!B$2/24</f>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="M88" s="13">
+        <f>$I88+Sheet2!B$3/24</f>
+        <v>0.5416666666666663</v>
+      </c>
+      <c r="N88" s="13">
+        <f>$I88+Sheet2!B$4/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="O88" s="13">
+        <f>$I88+Sheet2!B$5/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="P88" s="13">
+        <f>$I88+Sheet2!B$6/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="Q88" s="13">
+        <f>$I88+Sheet2!B$7/24</f>
+        <v>0.29166666666666635</v>
+      </c>
+      <c r="R88" s="13">
+        <f>$I88+Sheet2!B$8/24</f>
+        <v>0.24999999999999967</v>
+      </c>
+      <c r="S88" s="13">
+        <f>$I88+Sheet2!B$9/24</f>
+        <v>4.1666666666666352E-2</v>
+      </c>
+      <c r="T88" s="13">
+        <f>$I88+Sheet2!B$10/24</f>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="U88" s="13">
+        <f>$I88+Sheet2!B$11/24</f>
+        <v>-4.166666666666699E-2</v>
+      </c>
+      <c r="V88" s="15">
+        <f>$I88+Sheet2!B$12/24</f>
+        <v>-8.3333333333333676E-2</v>
+      </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
+      <c r="A89" s="62"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A90" s="61"/>
+      <c r="A90" s="62"/>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A91" s="61"/>
+      <c r="A91" s="62"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
+      <c r="A92" s="62"/>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A93" s="61"/>
+      <c r="A93" s="62"/>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
+      <c r="A94" s="62"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
+      <c r="A95" s="62"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A96" s="61"/>
+      <c r="A96" s="62"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
+      <c r="A97" s="62"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="61"/>
+      <c r="A98" s="62"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
+      <c r="A99" s="62"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
+      <c r="A100" s="62"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
+      <c r="A101" s="62"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
+      <c r="A102" s="62"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="61"/>
+      <c r="A103" s="62"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="61"/>
+      <c r="A104" s="62"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="61"/>
+      <c r="A105" s="62"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="61"/>
+      <c r="A106" s="62"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="61"/>
+      <c r="A107" s="62"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="61"/>
+      <c r="A108" s="62"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="61"/>
+      <c r="A109" s="62"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="61"/>
+      <c r="A110" s="62"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="61"/>
+      <c r="A111" s="62"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="61"/>
+      <c r="A112" s="62"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="62"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="62"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -6885,107 +7097,122 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
-    <mergeCell ref="A56:A81"/>
-    <mergeCell ref="A83:A112"/>
-    <mergeCell ref="A4:A20"/>
+    <mergeCell ref="A57:A82"/>
+    <mergeCell ref="A86:A114"/>
+    <mergeCell ref="A5:A21"/>
   </mergeCells>
-  <conditionalFormatting sqref="K4:L9 K9:V14 K16:V21 K23:V29 K32:V85">
-    <cfRule type="expression" dxfId="19" priority="38">
-      <formula>K$1=$H4</formula>
+  <conditionalFormatting sqref="K5:L10 K10:V15 K17:V22 K24:V30 K33:V83 K86:V88">
+    <cfRule type="expression" dxfId="26" priority="44">
+      <formula>K$1=$H5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:V14 K16:V21 K23:V29 K32:V85">
-    <cfRule type="expression" dxfId="18" priority="40">
-      <formula>K$1=$I4</formula>
+  <conditionalFormatting sqref="K5:V15 K17:V22 K24:V30 K33:V83 K86:V88">
+    <cfRule type="expression" dxfId="25" priority="46">
+      <formula>K$1=$I5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59:V71 B4:V14 B16:V21 B23:V29 B32:V56 B73:V85">
-    <cfRule type="expression" dxfId="17" priority="44">
+  <conditionalFormatting sqref="B60:V72 B5:V15 B17:V22 B33:V57 B74:V83 B86:V88 B24:V30">
+    <cfRule type="expression" dxfId="24" priority="50">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:V58">
-    <cfRule type="expression" dxfId="16" priority="21">
+  <conditionalFormatting sqref="B58:V59">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72:V72">
-    <cfRule type="expression" dxfId="15" priority="18">
+  <conditionalFormatting sqref="B73:V73">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:L3">
-    <cfRule type="expression" dxfId="14" priority="13">
+  <conditionalFormatting sqref="K2:L2 K4:L4">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:V3">
-    <cfRule type="expression" dxfId="13" priority="14">
+  <conditionalFormatting sqref="K2:V2 K4:V4">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:V3">
-    <cfRule type="expression" dxfId="12" priority="15">
+  <conditionalFormatting sqref="B2:V2 B4:V4">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:V31">
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>K$1=$H30</formula>
+  <conditionalFormatting sqref="K31:V32">
+    <cfRule type="expression" dxfId="18" priority="16">
+      <formula>K$1=$H31</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:V31">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>K$1=$I30</formula>
+  <conditionalFormatting sqref="K31:V32">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>K$1=$I31</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:V31">
-    <cfRule type="expression" dxfId="9" priority="12">
+  <conditionalFormatting sqref="B31:V32">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:V15">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>K$1=$H15</formula>
+  <conditionalFormatting sqref="K16:V16">
+    <cfRule type="expression" dxfId="15" priority="13">
+      <formula>K$1=$H16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:V15">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>K$1=$I15</formula>
+  <conditionalFormatting sqref="K16:V16">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>K$1=$I16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:V15">
-    <cfRule type="expression" dxfId="6" priority="9">
+  <conditionalFormatting sqref="B16:V16">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:V22">
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>K$1=$H22</formula>
+  <conditionalFormatting sqref="K23:V23">
+    <cfRule type="expression" dxfId="12" priority="10">
+      <formula>K$1=$H23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:V22">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>K$1=$I22</formula>
+  <conditionalFormatting sqref="K23:V23">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>K$1=$I23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:V22">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="B23:V23">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K86:V86">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>K$1=$H86</formula>
+  <conditionalFormatting sqref="K84:V85">
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>K$1=$H84</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K86:V86">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>K$1=$I86</formula>
+  <conditionalFormatting sqref="K84:V85">
+    <cfRule type="expression" dxfId="8" priority="5">
+      <formula>K$1=$I84</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B86:V86">
-    <cfRule type="expression" dxfId="0" priority="3">
+  <conditionalFormatting sqref="B84:V85">
+    <cfRule type="expression" dxfId="7" priority="6">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:L3">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>K$1=$H3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:V3">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>K$1=$I3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:V3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6995,14 +7222,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -20,8 +20,8 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="126">
   <si>
     <t>Name</t>
   </si>
@@ -82,12 +82,6 @@
     <t>:flag_ru:</t>
   </si>
   <si>
-    <t>:flag_tr:</t>
-  </si>
-  <si>
-    <t>:flag_ua:</t>
-  </si>
-  <si>
     <t>:flag_it:</t>
   </si>
   <si>
@@ -416,6 +410,12 @@
   </si>
   <si>
     <t>UTC-9</t>
+  </si>
+  <si>
+    <t>xXrogueXx</t>
+  </si>
+  <si>
+    <t>Cgil</t>
   </si>
 </sst>
 </file>
@@ -789,7 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -899,12 +899,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill>
@@ -944,40 +945,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
           <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1119,6 +1088,27 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -1130,6 +1120,27 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1448,16 +1459,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V114"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A21"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
@@ -1501,18 +1512,18 @@
         <v>8</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L1" s="4">
         <f>H11</f>
         <v>0</v>
       </c>
       <c r="M1" s="4">
-        <f>H21</f>
+        <f>H22</f>
         <v>0</v>
       </c>
       <c r="N1" s="4">
-        <f>H28</f>
+        <f>H29</f>
         <v>0</v>
       </c>
       <c r="O1" s="4" t="e">
@@ -1524,7 +1535,7 @@
         <v>#REF!</v>
       </c>
       <c r="Q1" s="4">
-        <f>H37</f>
+        <f>H40</f>
         <v>0</v>
       </c>
       <c r="R1" s="4">
@@ -1536,11 +1547,11 @@
         <v>#REF!</v>
       </c>
       <c r="T1" s="4">
-        <f>H71</f>
+        <f>H72</f>
         <v>0</v>
       </c>
       <c r="U1" s="4">
-        <f>H77</f>
+        <f>H78</f>
         <v>0</v>
       </c>
       <c r="V1" s="4" t="e">
@@ -1551,13 +1562,13 @@
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="59"/>
       <c r="B2" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="11"/>
@@ -1617,13 +1628,13 @@
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
       <c r="B3" s="43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="11"/>
@@ -1683,13 +1694,13 @@
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="11"/>
@@ -1751,13 +1762,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="11"/>
@@ -1817,7 +1828,7 @@
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1883,13 +1894,13 @@
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="62"/>
       <c r="B7" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="11"/>
@@ -1949,13 +1960,13 @@
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
       <c r="B8" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="11"/>
@@ -2015,13 +2026,13 @@
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
       <c r="B9" s="36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="11"/>
@@ -2081,13 +2092,13 @@
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11"/>
@@ -2147,13 +2158,13 @@
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2213,13 +2224,13 @@
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -2243,13 +2254,13 @@
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -2309,13 +2320,13 @@
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
@@ -2375,13 +2386,13 @@
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="19"/>
@@ -2440,14 +2451,14 @@
     </row>
     <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
-      <c r="B16" s="34" t="s">
-        <v>58</v>
+      <c r="B16" s="17" t="s">
+        <v>124</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="19"/>
@@ -2455,65 +2466,29 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="J16" s="33"/>
-      <c r="K16" s="13">
-        <f>$I16+Sheet2!B$1/24</f>
-        <v>0.875</v>
-      </c>
-      <c r="L16" s="13">
-        <f>$I16+Sheet2!B$2/24</f>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="M16" s="13">
-        <f>$I16+Sheet2!B$3/24</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="N16" s="13">
-        <f>$I16+Sheet2!B$4/24</f>
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="O16" s="13">
-        <f>$I16+Sheet2!B$5/24</f>
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="P16" s="13">
-        <f>$I16+Sheet2!B$6/24</f>
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="Q16" s="13">
-        <f>$I16+Sheet2!B$7/24</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="R16" s="13">
-        <f>$I16+Sheet2!B$8/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="S16" s="13">
-        <f>$I16+Sheet2!B$9/24</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="T16" s="13">
-        <f>$I16+Sheet2!B$10/24</f>
-        <v>0.24999999999999997</v>
-      </c>
-      <c r="U16" s="13">
-        <f>$I16+Sheet2!B$11/24</f>
-        <v>0.20833333333333331</v>
-      </c>
-      <c r="V16" s="15">
-        <f>$I16+Sheet2!B$12/24</f>
-        <v>0.16666666666666663</v>
-      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="15"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="34" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="19"/>
@@ -2572,80 +2547,80 @@
     </row>
     <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
-      <c r="B18" s="17" t="s">
-        <v>100</v>
+      <c r="B18" s="34" t="s">
+        <v>117</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="J18" s="39"/>
+      <c r="I18" s="20">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J18" s="33"/>
       <c r="K18" s="13">
         <f>$I18+Sheet2!B$1/24</f>
-        <v>0.91666666666666674</v>
+        <v>0.875</v>
       </c>
       <c r="L18" s="13">
         <f>$I18+Sheet2!B$2/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="M18" s="13">
         <f>$I18+Sheet2!B$3/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="N18" s="13">
         <f>$I18+Sheet2!B$4/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="O18" s="13">
         <f>$I18+Sheet2!B$5/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="P18" s="13">
         <f>$I18+Sheet2!B$6/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="Q18" s="13">
         <f>$I18+Sheet2!B$7/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R18" s="13">
         <f>$I18+Sheet2!B$8/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="S18" s="13">
         <f>$I18+Sheet2!B$9/24</f>
-        <v>0.33333333333333337</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="T18" s="13">
         <f>$I18+Sheet2!B$10/24</f>
-        <v>0.29166666666666663</v>
+        <v>0.24999999999999997</v>
       </c>
       <c r="U18" s="13">
         <f>$I18+Sheet2!B$11/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="V18" s="15">
         <f>$I18+Sheet2!B$12/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="17" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="19"/>
@@ -2704,17 +2679,17 @@
     </row>
     <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
-      <c r="B20" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="B20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="7">
         <v>0.5</v>
       </c>
@@ -2769,22 +2744,22 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
-      <c r="B21" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25">
+      <c r="A21" s="62"/>
+      <c r="B21" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7">
         <v>0.5</v>
       </c>
-      <c r="J21" s="41"/>
+      <c r="J21" s="39"/>
       <c r="K21" s="13">
         <f>$I21+Sheet2!B$1/24</f>
         <v>0.91666666666666674</v>
@@ -2835,88 +2810,88 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="22" t="s">
-        <v>100</v>
+      <c r="A22" s="64"/>
+      <c r="B22" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="25">
-        <v>0.54166666666666696</v>
+        <v>0.5</v>
       </c>
       <c r="J22" s="41"/>
       <c r="K22" s="13">
         <f>$I22+Sheet2!B$1/24</f>
-        <v>0.9583333333333337</v>
+        <v>0.91666666666666674</v>
       </c>
       <c r="L22" s="13">
         <f>$I22+Sheet2!B$2/24</f>
-        <v>0.91666666666666696</v>
+        <v>0.875</v>
       </c>
       <c r="M22" s="13">
         <f>$I22+Sheet2!B$3/24</f>
-        <v>0.87500000000000022</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="N22" s="13">
         <f>$I22+Sheet2!B$4/24</f>
-        <v>0.66666666666666696</v>
+        <v>0.625</v>
       </c>
       <c r="O22" s="13">
         <f>$I22+Sheet2!B$5/24</f>
-        <v>0.66666666666666696</v>
+        <v>0.625</v>
       </c>
       <c r="P22" s="13">
         <f>$I22+Sheet2!B$6/24</f>
-        <v>0.66666666666666696</v>
+        <v>0.625</v>
       </c>
       <c r="Q22" s="13">
         <f>$I22+Sheet2!B$7/24</f>
-        <v>0.62500000000000033</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="R22" s="13">
         <f>$I22+Sheet2!B$8/24</f>
-        <v>0.58333333333333359</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="S22" s="13">
         <f>$I22+Sheet2!B$9/24</f>
-        <v>0.37500000000000033</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="T22" s="13">
         <f>$I22+Sheet2!B$10/24</f>
-        <v>0.33333333333333359</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="U22" s="13">
         <f>$I22+Sheet2!B$11/24</f>
-        <v>0.29166666666666696</v>
+        <v>0.25</v>
       </c>
       <c r="V22" s="15">
         <f>$I22+Sheet2!B$12/24</f>
-        <v>0.25000000000000028</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
-      <c r="B23" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="29">
+        <v>0.20833333333333331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+      <c r="B23" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="25">
         <v>0.54166666666666696</v>
       </c>
-      <c r="J23" s="50"/>
+      <c r="J23" s="41"/>
       <c r="K23" s="13">
         <f>$I23+Sheet2!B$1/24</f>
         <v>0.9583333333333337</v>
@@ -2966,16 +2941,16 @@
         <v>0.25000000000000028</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49"/>
       <c r="B24" s="26" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
@@ -3032,82 +3007,82 @@
         <v>0.25000000000000028</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="J25" s="41"/>
+    <row r="25" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="J25" s="50"/>
       <c r="K25" s="13">
         <f>$I25+Sheet2!B$1/24</f>
-        <v>0.99999999999999978</v>
+        <v>0.9583333333333337</v>
       </c>
       <c r="L25" s="13">
         <f>$I25+Sheet2!B$2/24</f>
-        <v>0.95833333333333304</v>
+        <v>0.91666666666666696</v>
       </c>
       <c r="M25" s="13">
         <f>$I25+Sheet2!B$3/24</f>
-        <v>0.9166666666666663</v>
+        <v>0.87500000000000022</v>
       </c>
       <c r="N25" s="13">
         <f>$I25+Sheet2!B$4/24</f>
-        <v>0.70833333333333304</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="O25" s="13">
         <f>$I25+Sheet2!B$5/24</f>
-        <v>0.70833333333333304</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="P25" s="13">
         <f>$I25+Sheet2!B$6/24</f>
-        <v>0.70833333333333304</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="Q25" s="13">
         <f>$I25+Sheet2!B$7/24</f>
-        <v>0.66666666666666641</v>
+        <v>0.62500000000000033</v>
       </c>
       <c r="R25" s="13">
         <f>$I25+Sheet2!B$8/24</f>
-        <v>0.62499999999999967</v>
+        <v>0.58333333333333359</v>
       </c>
       <c r="S25" s="13">
         <f>$I25+Sheet2!B$9/24</f>
-        <v>0.41666666666666641</v>
+        <v>0.37500000000000033</v>
       </c>
       <c r="T25" s="13">
         <f>$I25+Sheet2!B$10/24</f>
-        <v>0.37499999999999967</v>
+        <v>0.33333333333333359</v>
       </c>
       <c r="U25" s="13">
         <f>$I25+Sheet2!B$11/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.29166666666666696</v>
       </c>
       <c r="V25" s="15">
         <f>$I25+Sheet2!B$12/24</f>
-        <v>0.29166666666666635</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="5" t="s">
-        <v>104</v>
+        <v>0.25000000000000028</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
+      <c r="B26" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -3165,83 +3140,83 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="16" t="s">
-        <v>100</v>
+      <c r="A27" s="46"/>
+      <c r="B27" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="25">
-        <v>0.625</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="J27" s="41"/>
       <c r="K27" s="13">
         <f>$I27+Sheet2!B$1/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="L27" s="13">
         <f>$I27+Sheet2!B$2/24</f>
-        <v>1</v>
+        <v>0.95833333333333304</v>
       </c>
       <c r="M27" s="13">
         <f>$I27+Sheet2!B$3/24</f>
-        <v>0.95833333333333326</v>
+        <v>0.9166666666666663</v>
       </c>
       <c r="N27" s="13">
         <f>$I27+Sheet2!B$4/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="O27" s="13">
         <f>$I27+Sheet2!B$5/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="P27" s="13">
         <f>$I27+Sheet2!B$6/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="Q27" s="13">
         <f>$I27+Sheet2!B$7/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666641</v>
       </c>
       <c r="R27" s="13">
         <f>$I27+Sheet2!B$8/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.62499999999999967</v>
       </c>
       <c r="S27" s="13">
         <f>$I27+Sheet2!B$9/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666641</v>
       </c>
       <c r="T27" s="13">
         <f>$I27+Sheet2!B$10/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.37499999999999967</v>
       </c>
       <c r="U27" s="13">
         <f>$I27+Sheet2!B$11/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333304</v>
       </c>
       <c r="V27" s="15">
         <f>$I27+Sheet2!B$12/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="22" t="s">
-        <v>30</v>
+        <v>0.29166666666666635</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="12"/>
+        <v>88</v>
+      </c>
+      <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="25">
         <v>0.625</v>
@@ -3297,15 +3272,15 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="22" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
-      <c r="F29" s="5" t="s">
-        <v>50</v>
+      <c r="F29" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="24"/>
@@ -3313,29 +3288,65 @@
         <v>0.625</v>
       </c>
       <c r="J29" s="41"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="15"/>
+      <c r="K29" s="13">
+        <f>$I29+Sheet2!B$1/24</f>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="L29" s="13">
+        <f>$I29+Sheet2!B$2/24</f>
+        <v>1</v>
+      </c>
+      <c r="M29" s="13">
+        <f>$I29+Sheet2!B$3/24</f>
+        <v>0.95833333333333326</v>
+      </c>
+      <c r="N29" s="13">
+        <f>$I29+Sheet2!B$4/24</f>
+        <v>0.75</v>
+      </c>
+      <c r="O29" s="13">
+        <f>$I29+Sheet2!B$5/24</f>
+        <v>0.75</v>
+      </c>
+      <c r="P29" s="13">
+        <f>$I29+Sheet2!B$6/24</f>
+        <v>0.75</v>
+      </c>
+      <c r="Q29" s="13">
+        <f>$I29+Sheet2!B$7/24</f>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R29" s="13">
+        <f>$I29+Sheet2!B$8/24</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S29" s="13">
+        <f>$I29+Sheet2!B$9/24</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="T29" s="13">
+        <f>$I29+Sheet2!B$10/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="U29" s="13">
+        <f>$I29+Sheet2!B$11/24</f>
+        <v>0.375</v>
+      </c>
+      <c r="V29" s="15">
+        <f>$I29+Sheet2!B$12/24</f>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="60"/>
-      <c r="B30" s="48" t="s">
-        <v>60</v>
+      <c r="B30" s="22" t="s">
+        <v>119</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
-      <c r="F30" s="23" t="s">
-        <v>56</v>
+      <c r="F30" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="24"/>
@@ -3357,81 +3368,45 @@
       <c r="V30" s="15"/>
     </row>
     <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="7">
-        <v>0.65972222222222221</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="13">
-        <f>$I31+Sheet2!B$1/24</f>
-        <v>1.0763888888888888</v>
-      </c>
-      <c r="L31" s="13">
-        <f>$I31+Sheet2!B$2/24</f>
-        <v>1.0347222222222223</v>
-      </c>
-      <c r="M31" s="13">
-        <f>$I31+Sheet2!B$3/24</f>
-        <v>0.99305555555555558</v>
-      </c>
-      <c r="N31" s="13">
-        <f>$I31+Sheet2!B$4/24</f>
-        <v>0.78472222222222221</v>
-      </c>
-      <c r="O31" s="13">
-        <f>$I31+Sheet2!B$5/24</f>
-        <v>0.78472222222222221</v>
-      </c>
-      <c r="P31" s="13">
-        <f>$I31+Sheet2!B$6/24</f>
-        <v>0.78472222222222221</v>
-      </c>
-      <c r="Q31" s="13">
-        <f>$I31+Sheet2!B$7/24</f>
-        <v>0.74305555555555558</v>
-      </c>
-      <c r="R31" s="13">
-        <f>$I31+Sheet2!B$8/24</f>
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="S31" s="13">
-        <f>$I31+Sheet2!B$9/24</f>
-        <v>0.49305555555555558</v>
-      </c>
-      <c r="T31" s="13">
-        <f>$I31+Sheet2!B$10/24</f>
-        <v>0.45138888888888884</v>
-      </c>
-      <c r="U31" s="13">
-        <f>$I31+Sheet2!B$11/24</f>
-        <v>0.40972222222222221</v>
-      </c>
-      <c r="V31" s="15">
-        <f>$I31+Sheet2!B$12/24</f>
-        <v>0.36805555555555552</v>
-      </c>
+      <c r="A31" s="60"/>
+      <c r="B31" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="J31" s="41"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="15"/>
     </row>
     <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="58"/>
       <c r="B32" s="16" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -3491,79 +3466,79 @@
     <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="58"/>
       <c r="B33" s="16" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="13">
         <f>$I33+Sheet2!B$1/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0763888888888888</v>
       </c>
       <c r="L33" s="13">
         <f>$I33+Sheet2!B$2/24</f>
-        <v>1.0416666666666665</v>
+        <v>1.0347222222222223</v>
       </c>
       <c r="M33" s="13">
         <f>$I33+Sheet2!B$3/24</f>
-        <v>1</v>
+        <v>0.99305555555555558</v>
       </c>
       <c r="N33" s="13">
         <f>$I33+Sheet2!B$4/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="O33" s="13">
         <f>$I33+Sheet2!B$5/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="P33" s="13">
         <f>$I33+Sheet2!B$6/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="Q33" s="13">
         <f>$I33+Sheet2!B$7/24</f>
-        <v>0.75</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="R33" s="13">
         <f>$I33+Sheet2!B$8/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="S33" s="13">
         <f>$I33+Sheet2!B$9/24</f>
-        <v>0.5</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="T33" s="13">
         <f>$I33+Sheet2!B$10/24</f>
-        <v>0.45833333333333326</v>
+        <v>0.45138888888888884</v>
       </c>
       <c r="U33" s="13">
         <f>$I33+Sheet2!B$11/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="V33" s="15">
         <f>$I33+Sheet2!B$12/24</f>
-        <v>0.37499999999999994</v>
+        <v>0.36805555555555552</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="58"/>
       <c r="B34" s="16" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -3623,13 +3598,13 @@
     <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="58"/>
       <c r="B35" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -3689,79 +3664,79 @@
     <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="58"/>
       <c r="B36" s="16" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="7">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="13">
         <f>$I36+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="L36" s="13">
         <f>$I36+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="M36" s="13">
         <f>$I36+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>1</v>
       </c>
       <c r="N36" s="13">
         <f>$I36+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="O36" s="13">
         <f>$I36+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P36" s="13">
         <f>$I36+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q36" s="13">
         <f>$I36+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.75</v>
       </c>
       <c r="R36" s="13">
         <f>$I36+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="S36" s="13">
         <f>$I36+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="T36" s="13">
         <f>$I36+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="U36" s="13">
         <f>$I36+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="V36" s="15">
         <f>$I36+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="58"/>
       <c r="B37" s="16" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -3821,20 +3796,20 @@
     <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="58"/>
       <c r="B38" s="16" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J38" s="9"/>
+      <c r="J38" s="10"/>
       <c r="K38" s="13">
         <f>$I38+Sheet2!B$1/24</f>
         <v>1.125</v>
@@ -3886,14 +3861,14 @@
     </row>
     <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="58"/>
-      <c r="B39" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5" t="s">
-        <v>56</v>
+      <c r="B39" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -3952,14 +3927,14 @@
     </row>
     <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="58"/>
-      <c r="B40" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="11" t="s">
-        <v>67</v>
+      <c r="B40" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -4018,153 +3993,153 @@
     </row>
     <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="58"/>
-      <c r="B41" s="16" t="s">
-        <v>100</v>
+      <c r="B41" s="65" t="s">
+        <v>31</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="7">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="13">
         <f>$I41+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L41" s="13">
         <f>$I41+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M41" s="13">
         <f>$I41+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N41" s="13">
         <f>$I41+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O41" s="13">
         <f>$I41+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P41" s="13">
         <f>$I41+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q41" s="13">
         <f>$I41+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R41" s="13">
         <f>$I41+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S41" s="13">
         <f>$I41+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T41" s="13">
         <f>$I41+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U41" s="13">
         <f>$I41+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V41" s="15">
         <f>$I41+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="58"/>
-      <c r="B42" s="16" t="s">
-        <v>53</v>
+      <c r="B42" s="35" t="s">
+        <v>72</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="J42" s="10"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J42" s="9"/>
       <c r="K42" s="13">
         <f>$I42+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L42" s="13">
         <f>$I42+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M42" s="13">
         <f>$I42+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N42" s="13">
         <f>$I42+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O42" s="13">
         <f>$I42+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P42" s="13">
         <f>$I42+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q42" s="13">
         <f>$I42+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R42" s="13">
         <f>$I42+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S42" s="13">
         <f>$I42+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T42" s="13">
         <f>$I42+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U42" s="13">
         <f>$I42+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V42" s="15">
         <f>$I42+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="58"/>
       <c r="B43" s="16" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="7">
         <v>0.75</v>
       </c>
-      <c r="J43" s="10"/>
+      <c r="J43" s="9"/>
       <c r="K43" s="13">
         <f>$I43+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -4217,13 +4192,13 @@
     <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="58"/>
       <c r="B44" s="16" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -4280,16 +4255,16 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="58"/>
       <c r="B45" s="16" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -4348,21 +4323,21 @@
     </row>
     <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="58"/>
-      <c r="B46" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
+      <c r="B46" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
       <c r="I46" s="7">
         <v>0.75</v>
       </c>
-      <c r="J46" s="21"/>
+      <c r="J46" s="10"/>
       <c r="K46" s="13">
         <f>$I46+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
@@ -4415,13 +4390,13 @@
     <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="58"/>
       <c r="B47" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
       <c r="F47" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
@@ -4481,13 +4456,13 @@
     <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="58"/>
       <c r="B48" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
       <c r="F48" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
@@ -4547,13 +4522,13 @@
     <row r="49" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="58"/>
       <c r="B49" s="34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
       <c r="F49" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
@@ -4613,13 +4588,13 @@
     <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="58"/>
       <c r="B50" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
       <c r="F50" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G50" s="19"/>
       <c r="H50" s="6"/>
@@ -4678,110 +4653,110 @@
     </row>
     <row r="51" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="58"/>
-      <c r="B51" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="B51" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
       <c r="I51" s="7">
         <v>0.79166666666666663</v>
       </c>
       <c r="J51" s="9"/>
-      <c r="K51" s="56">
-        <f>$I51+Sheet2!B$1/24</f>
-        <v>1.2083333333333333</v>
-      </c>
-      <c r="L51" s="56">
-        <f>$I51+Sheet2!B$2/24</f>
-        <v>1.1666666666666665</v>
-      </c>
-      <c r="M51" s="56">
-        <f>$I51+Sheet2!B$3/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="N51" s="56">
-        <f>$I51+Sheet2!B$4/24</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="O51" s="56">
-        <f>$I51+Sheet2!B$5/24</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="P51" s="56">
-        <f>$I51+Sheet2!B$6/24</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="Q51" s="56">
-        <f>$I51+Sheet2!B$7/24</f>
-        <v>0.875</v>
-      </c>
-      <c r="R51" s="56">
-        <f>$I51+Sheet2!B$8/24</f>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="S51" s="56">
-        <f>$I51+Sheet2!B$9/24</f>
-        <v>0.625</v>
-      </c>
-      <c r="T51" s="56">
-        <f>$I51+Sheet2!B$10/24</f>
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="U51" s="56">
-        <f>$I51+Sheet2!B$11/24</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="V51" s="57">
-        <f>$I51+Sheet2!B$12/24</f>
-        <v>0.49999999999999994</v>
-      </c>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="56"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="56"/>
+      <c r="V51" s="57"/>
     </row>
     <row r="52" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="58"/>
-      <c r="B52" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
+      <c r="B52" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
       <c r="I52" s="7">
         <v>0.79166666666666663</v>
       </c>
       <c r="J52" s="9"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="56"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="56"/>
-      <c r="U52" s="56"/>
-      <c r="V52" s="57"/>
+      <c r="K52" s="56">
+        <f>$I52+Sheet2!B$1/24</f>
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="L52" s="56">
+        <f>$I52+Sheet2!B$2/24</f>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="M52" s="56">
+        <f>$I52+Sheet2!B$3/24</f>
+        <v>1.125</v>
+      </c>
+      <c r="N52" s="56">
+        <f>$I52+Sheet2!B$4/24</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="O52" s="56">
+        <f>$I52+Sheet2!B$5/24</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="P52" s="56">
+        <f>$I52+Sheet2!B$6/24</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Q52" s="56">
+        <f>$I52+Sheet2!B$7/24</f>
+        <v>0.875</v>
+      </c>
+      <c r="R52" s="56">
+        <f>$I52+Sheet2!B$8/24</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="S52" s="56">
+        <f>$I52+Sheet2!B$9/24</f>
+        <v>0.625</v>
+      </c>
+      <c r="T52" s="56">
+        <f>$I52+Sheet2!B$10/24</f>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="U52" s="56">
+        <f>$I52+Sheet2!B$11/24</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="V52" s="57">
+        <f>$I52+Sheet2!B$12/24</f>
+        <v>0.49999999999999994</v>
+      </c>
     </row>
     <row r="53" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="58"/>
       <c r="B53" s="54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C53" s="55"/>
       <c r="D53" s="55"/>
       <c r="E53" s="55"/>
       <c r="F53" s="55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" s="53"/>
       <c r="H53" s="53"/>
@@ -4841,13 +4816,13 @@
     <row r="54" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="58"/>
       <c r="B54" s="54" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
       <c r="F54" s="55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G54" s="53"/>
       <c r="H54" s="53"/>
@@ -4871,13 +4846,13 @@
     <row r="55" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="58"/>
       <c r="B55" s="54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
       <c r="E55" s="55"/>
       <c r="F55" s="55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G55" s="53"/>
       <c r="H55" s="53"/>
@@ -4901,13 +4876,13 @@
     <row r="56" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="58"/>
       <c r="B56" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
       <c r="F56" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G56" s="28"/>
       <c r="H56" s="38"/>
@@ -4966,16 +4941,16 @@
     </row>
     <row r="57" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A57" s="62" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B57" s="44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C57" s="31"/>
       <c r="D57" s="31"/>
       <c r="E57" s="31"/>
       <c r="F57" s="31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G57" s="32"/>
       <c r="H57" s="32"/>
@@ -5035,13 +5010,13 @@
     <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="62"/>
       <c r="B58" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C58" s="23"/>
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
       <c r="F58" s="23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G58" s="24"/>
       <c r="H58" s="24"/>
@@ -5101,13 +5076,13 @@
     <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="62"/>
       <c r="B59" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -5167,13 +5142,13 @@
     <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="62"/>
       <c r="B60" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -5233,13 +5208,13 @@
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="62"/>
       <c r="B61" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -5299,13 +5274,13 @@
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="62"/>
       <c r="B62" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -5364,14 +5339,14 @@
     </row>
     <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="62"/>
-      <c r="B63" s="35" t="s">
-        <v>64</v>
+      <c r="B63" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -5431,13 +5406,13 @@
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="62"/>
       <c r="B64" s="35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -5497,13 +5472,13 @@
     <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="62"/>
       <c r="B65" s="35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -5563,13 +5538,13 @@
     <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="62"/>
       <c r="B66" s="35" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -5629,13 +5604,13 @@
     <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="62"/>
       <c r="B67" s="35" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -5694,80 +5669,80 @@
     </row>
     <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="62"/>
-      <c r="B68" s="16" t="s">
-        <v>100</v>
+      <c r="B68" s="35" t="s">
+        <v>63</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="25">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="13">
         <f>$I68+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L68" s="13">
         <f>$I68+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M68" s="13">
         <f>$I68+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N68" s="13">
         <f>$I68+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O68" s="13">
         <f>$I68+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P68" s="13">
         <f>$I68+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q68" s="13">
         <f>$I68+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R68" s="13">
         <f>$I68+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S68" s="13">
         <f>$I68+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T68" s="13">
         <f>$I68+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U68" s="13">
         <f>$I68+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V68" s="15">
         <f>$I68+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="62"/>
       <c r="B69" s="16" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -5827,13 +5802,13 @@
     <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="62"/>
       <c r="B70" s="16" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -5841,95 +5816,95 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J70" s="9"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
-      <c r="R70" s="13"/>
-      <c r="S70" s="13"/>
-      <c r="T70" s="13"/>
-      <c r="U70" s="13"/>
-      <c r="V70" s="15"/>
+      <c r="K70" s="13">
+        <f>$I70+Sheet2!B$1/24</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="L70" s="13">
+        <f>$I70+Sheet2!B$2/24</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M70" s="13">
+        <f>$I70+Sheet2!B$3/24</f>
+        <v>0.375</v>
+      </c>
+      <c r="N70" s="13">
+        <f>$I70+Sheet2!B$4/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O70" s="13">
+        <f>$I70+Sheet2!B$5/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P70" s="13">
+        <f>$I70+Sheet2!B$6/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q70" s="13">
+        <f>$I70+Sheet2!B$7/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="R70" s="13">
+        <f>$I70+Sheet2!B$8/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="S70" s="13">
+        <f>$I70+Sheet2!B$9/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="T70" s="13">
+        <f>$I70+Sheet2!B$10/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="U70" s="13">
+        <f>$I70+Sheet2!B$11/24</f>
+        <v>-0.20833333333333334</v>
+      </c>
+      <c r="V70" s="15">
+        <f>$I70+Sheet2!B$12/24</f>
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="62"/>
       <c r="B71" s="16" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
-      <c r="I71" s="7">
+      <c r="I71" s="25">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J71" s="9"/>
-      <c r="K71" s="13">
-        <f>$I71+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
-      </c>
-      <c r="L71" s="13">
-        <f>$I71+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="M71" s="13">
-        <f>$I71+Sheet2!B$3/24</f>
-        <v>0.375</v>
-      </c>
-      <c r="N71" s="13">
-        <f>$I71+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="O71" s="13">
-        <f>$I71+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="P71" s="13">
-        <f>$I71+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="Q71" s="13">
-        <f>$I71+Sheet2!B$7/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="R71" s="13">
-        <f>$I71+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="S71" s="13">
-        <f>$I71+Sheet2!B$9/24</f>
-        <v>-0.125</v>
-      </c>
-      <c r="T71" s="13">
-        <f>$I71+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
-      </c>
-      <c r="U71" s="13">
-        <f>$I71+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
-      </c>
-      <c r="V71" s="15">
-        <f>$I71+Sheet2!B$12/24</f>
-        <v>-0.25</v>
-      </c>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="15"/>
     </row>
     <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="62"/>
-      <c r="B72" s="35" t="s">
-        <v>51</v>
+      <c r="B72" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -5989,13 +5964,13 @@
     <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="62"/>
       <c r="B73" s="35" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -6055,13 +6030,13 @@
     <row r="74" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="62"/>
       <c r="B74" s="35" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -6120,85 +6095,85 @@
     </row>
     <row r="75" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="62"/>
-      <c r="B75" s="16" t="s">
-        <v>100</v>
+      <c r="B75" s="35" t="s">
+        <v>68</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="7">
-        <v>8.3333333333333301E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="13">
         <f>$I75+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L75" s="13">
         <f>$I75+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M75" s="13">
         <f>$I75+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N75" s="13">
         <f>$I75+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O75" s="13">
         <f>$I75+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P75" s="13">
         <f>$I75+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q75" s="13">
         <f>$I75+Sheet2!B$7/24</f>
-        <v>0.16666666666666663</v>
+        <v>0.125</v>
       </c>
       <c r="R75" s="13">
         <f>$I75+Sheet2!B$8/24</f>
-        <v>0.12499999999999997</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S75" s="13">
         <f>$I75+Sheet2!B$9/24</f>
-        <v>-8.3333333333333356E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T75" s="13">
         <f>$I75+Sheet2!B$10/24</f>
-        <v>-0.12500000000000006</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U75" s="13">
         <f>$I75+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V75" s="15">
         <f>$I75+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="76" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="62"/>
       <c r="B76" s="16" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="G76" s="6"/>
-      <c r="H76" s="5"/>
+      <c r="H76" s="6"/>
       <c r="I76" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="13">
@@ -6227,19 +6202,19 @@
       </c>
       <c r="Q76" s="13">
         <f>$I76+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="R76" s="13">
         <f>$I76+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>0.12499999999999997</v>
       </c>
       <c r="S76" s="13">
         <f>$I76+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-8.3333333333333356E-2</v>
       </c>
       <c r="T76" s="13">
         <f>$I76+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.12500000000000006</v>
       </c>
       <c r="U76" s="13">
         <f>$I76+Sheet2!B$11/24</f>
@@ -6253,16 +6228,16 @@
     <row r="77" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="62"/>
       <c r="B77" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
+      <c r="H77" s="5"/>
       <c r="I77" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -6319,13 +6294,13 @@
     <row r="78" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="62"/>
       <c r="B78" s="16" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
@@ -6333,29 +6308,65 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="J78" s="9"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="13"/>
-      <c r="T78" s="13"/>
-      <c r="U78" s="13"/>
-      <c r="V78" s="15"/>
+      <c r="K78" s="13">
+        <f>$I78+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L78" s="13">
+        <f>$I78+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M78" s="13">
+        <f>$I78+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N78" s="13">
+        <f>$I78+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O78" s="13">
+        <f>$I78+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P78" s="13">
+        <f>$I78+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q78" s="13">
+        <f>$I78+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R78" s="13">
+        <f>$I78+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S78" s="13">
+        <f>$I78+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T78" s="13">
+        <f>$I78+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U78" s="13">
+        <f>$I78+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V78" s="15">
+        <f>$I78+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
     </row>
     <row r="79" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="62"/>
-      <c r="B79" s="35" t="s">
-        <v>72</v>
+      <c r="B79" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -6363,65 +6374,29 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="J79" s="9"/>
-      <c r="K79" s="13">
-        <f>$I79+Sheet2!B$1/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="L79" s="13">
-        <f>$I79+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="M79" s="13">
-        <f>$I79+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
-      </c>
-      <c r="N79" s="13">
-        <f>$I79+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
-      </c>
-      <c r="O79" s="13">
-        <f>$I79+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
-      </c>
-      <c r="P79" s="13">
-        <f>$I79+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
-      </c>
-      <c r="Q79" s="13">
-        <f>$I79+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="R79" s="13">
-        <f>$I79+Sheet2!B$8/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="S79" s="13">
-        <f>$I79+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
-      </c>
-      <c r="T79" s="13">
-        <f>$I79+Sheet2!B$10/24</f>
-        <v>-0.125</v>
-      </c>
-      <c r="U79" s="13">
-        <f>$I79+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
-      </c>
-      <c r="V79" s="15">
-        <f>$I79+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
-      </c>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="13"/>
+      <c r="U79" s="13"/>
+      <c r="V79" s="15"/>
     </row>
     <row r="80" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="62"/>
       <c r="B80" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
@@ -6481,13 +6456,13 @@
     <row r="81" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="62"/>
       <c r="B81" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
@@ -6547,13 +6522,13 @@
     <row r="82" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="63"/>
       <c r="B82" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
       <c r="E82" s="18"/>
       <c r="F82" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G82" s="19"/>
       <c r="H82" s="19"/>
@@ -6613,13 +6588,13 @@
     <row r="83" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
       <c r="E83" s="18"/>
       <c r="F83" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
@@ -6679,13 +6654,13 @@
     <row r="84" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="61"/>
       <c r="B84" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C84" s="18"/>
       <c r="D84" s="18"/>
       <c r="E84" s="18"/>
       <c r="F84" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
@@ -6742,23 +6717,23 @@
         <v>-0.12500000000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
-      <c r="B85" s="17" t="s">
-        <v>72</v>
+    <row r="85" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="58"/>
+      <c r="B85" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="C85" s="18"/>
       <c r="D85" s="18"/>
       <c r="E85" s="18"/>
-      <c r="F85" s="5" t="s">
-        <v>56</v>
+      <c r="F85" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="G85" s="19"/>
       <c r="H85" s="19"/>
       <c r="I85" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="J85" s="9"/>
+      <c r="J85" s="21"/>
       <c r="K85" s="13">
         <f>$I85+Sheet2!B$1/24</f>
         <v>0.58333333333333337</v>
@@ -6809,83 +6784,83 @@
       </c>
     </row>
     <row r="86" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>100</v>
+      <c r="A86" s="61"/>
+      <c r="B86" s="34" t="s">
+        <v>70</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="18"/>
       <c r="E86" s="18"/>
       <c r="F86" s="5" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="G86" s="19"/>
       <c r="H86" s="19"/>
       <c r="I86" s="7">
-        <v>0.20833333333333301</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="13">
         <f>$I86+Sheet2!B$1/24</f>
-        <v>0.62499999999999967</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="L86" s="13">
         <f>$I86+Sheet2!B$2/24</f>
-        <v>0.58333333333333304</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M86" s="13">
         <f>$I86+Sheet2!B$3/24</f>
-        <v>0.5416666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="N86" s="13">
         <f>$I86+Sheet2!B$4/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="O86" s="13">
         <f>$I86+Sheet2!B$5/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="P86" s="13">
         <f>$I86+Sheet2!B$6/24</f>
-        <v>0.33333333333333304</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="Q86" s="13">
         <f>$I86+Sheet2!B$7/24</f>
-        <v>0.29166666666666635</v>
+        <v>0.25</v>
       </c>
       <c r="R86" s="13">
         <f>$I86+Sheet2!B$8/24</f>
-        <v>0.24999999999999967</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="S86" s="13">
         <f>$I86+Sheet2!B$9/24</f>
-        <v>4.1666666666666352E-2</v>
+        <v>0</v>
       </c>
       <c r="T86" s="13">
         <f>$I86+Sheet2!B$10/24</f>
-        <v>-3.3306690738754696E-16</v>
+        <v>-4.1666666666666685E-2</v>
       </c>
       <c r="U86" s="13">
         <f>$I86+Sheet2!B$11/24</f>
-        <v>-4.166666666666699E-2</v>
+        <v>-8.3333333333333343E-2</v>
       </c>
       <c r="V86" s="15">
         <f>$I86+Sheet2!B$12/24</f>
-        <v>-8.3333333333333676E-2</v>
+        <v>-0.12500000000000003</v>
       </c>
     </row>
     <row r="87" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="62"/>
+      <c r="A87" s="62" t="s">
+        <v>16</v>
+      </c>
       <c r="B87" s="17" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C87" s="18"/>
       <c r="D87" s="18"/>
       <c r="E87" s="18"/>
       <c r="F87" s="5" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="G87" s="19"/>
       <c r="H87" s="19"/>
@@ -6944,14 +6919,14 @@
     </row>
     <row r="88" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="62"/>
-      <c r="B88" s="34" t="s">
-        <v>81</v>
+      <c r="B88" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="C88" s="18"/>
       <c r="D88" s="18"/>
       <c r="E88" s="18"/>
       <c r="F88" s="5" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
@@ -7008,8 +6983,71 @@
         <v>-8.3333333333333676E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="62"/>
+      <c r="B89" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="7">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="J89" s="9"/>
+      <c r="K89" s="13">
+        <f>$I89+Sheet2!B$1/24</f>
+        <v>0.62499999999999967</v>
+      </c>
+      <c r="L89" s="13">
+        <f>$I89+Sheet2!B$2/24</f>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="M89" s="13">
+        <f>$I89+Sheet2!B$3/24</f>
+        <v>0.5416666666666663</v>
+      </c>
+      <c r="N89" s="13">
+        <f>$I89+Sheet2!B$4/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="O89" s="13">
+        <f>$I89+Sheet2!B$5/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="P89" s="13">
+        <f>$I89+Sheet2!B$6/24</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="Q89" s="13">
+        <f>$I89+Sheet2!B$7/24</f>
+        <v>0.29166666666666635</v>
+      </c>
+      <c r="R89" s="13">
+        <f>$I89+Sheet2!B$8/24</f>
+        <v>0.24999999999999967</v>
+      </c>
+      <c r="S89" s="13">
+        <f>$I89+Sheet2!B$9/24</f>
+        <v>4.1666666666666352E-2</v>
+      </c>
+      <c r="T89" s="13">
+        <f>$I89+Sheet2!B$10/24</f>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="U89" s="13">
+        <f>$I89+Sheet2!B$11/24</f>
+        <v>-4.166666666666699E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f>$I89+Sheet2!B$12/24</f>
+        <v>-8.3333333333333676E-2</v>
+      </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="62"/>
@@ -7086,133 +7124,136 @@
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="62"/>
     </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="62"/>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
+      <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
-      <selection sqref="A1:XFD1048576"/>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
     <mergeCell ref="A57:A82"/>
-    <mergeCell ref="A86:A114"/>
-    <mergeCell ref="A5:A21"/>
+    <mergeCell ref="A87:A115"/>
+    <mergeCell ref="A5:A22"/>
   </mergeCells>
-  <conditionalFormatting sqref="K5:L10 K10:V15 K17:V22 K24:V30 K33:V83 K86:V88">
-    <cfRule type="expression" dxfId="26" priority="44">
+  <conditionalFormatting sqref="K5:L10 K10:V16 K18:V23 K25:V31 K34:V89">
+    <cfRule type="expression" dxfId="22" priority="48">
       <formula>K$1=$H5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:V15 K17:V22 K24:V30 K33:V83 K86:V88">
-    <cfRule type="expression" dxfId="25" priority="46">
+  <conditionalFormatting sqref="K5:V16 K18:V23 K25:V31 K34:V89">
+    <cfRule type="expression" dxfId="21" priority="50">
       <formula>K$1=$I5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:V72 B5:V15 B17:V22 B33:V57 B74:V83 B86:V88 B24:V30">
-    <cfRule type="expression" dxfId="24" priority="50">
+  <conditionalFormatting sqref="B60:V62 B18:V23 B87:V89 B25:V31 B5:V16 B75:V83 B64:V73 B85:H85 J85:V85 B34:V57">
+    <cfRule type="expression" dxfId="20" priority="54">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:V59">
-    <cfRule type="expression" dxfId="23" priority="27">
+    <cfRule type="expression" dxfId="19" priority="31">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73:V73">
-    <cfRule type="expression" dxfId="22" priority="24">
+  <conditionalFormatting sqref="B74:V74">
+    <cfRule type="expression" dxfId="18" priority="28">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L2 K4:L4">
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:V2 K4:V4">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:V2 B4:V4">
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="15" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:V32">
-    <cfRule type="expression" dxfId="18" priority="16">
-      <formula>K$1=$H31</formula>
+  <conditionalFormatting sqref="K32:V33">
+    <cfRule type="expression" dxfId="14" priority="20">
+      <formula>K$1=$H32</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:V32">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>K$1=$I31</formula>
+  <conditionalFormatting sqref="K32:V33">
+    <cfRule type="expression" dxfId="13" priority="21">
+      <formula>K$1=$I32</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:V32">
-    <cfRule type="expression" dxfId="16" priority="18">
+  <conditionalFormatting sqref="B32:V33">
+    <cfRule type="expression" dxfId="12" priority="22">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:V16">
-    <cfRule type="expression" dxfId="15" priority="13">
-      <formula>K$1=$H16</formula>
+  <conditionalFormatting sqref="K17:V17">
+    <cfRule type="expression" dxfId="11" priority="17">
+      <formula>K$1=$H17</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:V16">
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>K$1=$I16</formula>
+  <conditionalFormatting sqref="K17:V17">
+    <cfRule type="expression" dxfId="10" priority="18">
+      <formula>K$1=$I17</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:V16">
-    <cfRule type="expression" dxfId="13" priority="15">
+  <conditionalFormatting sqref="B17:V17">
+    <cfRule type="expression" dxfId="9" priority="19">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:V23">
-    <cfRule type="expression" dxfId="12" priority="10">
-      <formula>K$1=$H23</formula>
+  <conditionalFormatting sqref="K24:V24">
+    <cfRule type="expression" dxfId="8" priority="14">
+      <formula>K$1=$H24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:V23">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>K$1=$I23</formula>
+  <conditionalFormatting sqref="K24:V24">
+    <cfRule type="expression" dxfId="7" priority="15">
+      <formula>K$1=$I24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:V23">
-    <cfRule type="expression" dxfId="10" priority="12">
+  <conditionalFormatting sqref="B24:V24">
+    <cfRule type="expression" dxfId="6" priority="16">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:V85">
-    <cfRule type="expression" dxfId="9" priority="4">
-      <formula>K$1=$H84</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K84:V85">
-    <cfRule type="expression" dxfId="8" priority="5">
-      <formula>K$1=$I84</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84:V85">
-    <cfRule type="expression" dxfId="7" priority="6">
+  <conditionalFormatting sqref="B84:V84 B86:V86">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>K$1=$H3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:V3">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>K$1=$I3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:V3">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="2" priority="7">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:V63">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I85">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7239,24 +7280,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1">
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7267,7 +7308,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -7278,7 +7319,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -7290,7 +7331,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -7307,7 +7348,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7323,7 +7364,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7339,7 +7380,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -7355,7 +7396,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -7371,7 +7412,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7387,7 +7428,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -7403,7 +7444,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -20,8 +20,8 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -890,6 +890,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -899,31 +900,17 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="27">
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -940,6 +927,28 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1051,20 +1060,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -1095,20 +1090,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -1120,20 +1101,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1461,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:A82"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,7 +1725,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -1826,7 +1793,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="43" t="s">
         <v>29</v>
       </c>
@@ -1892,7 +1859,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="16" t="s">
         <v>98</v>
       </c>
@@ -1958,7 +1925,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="22" t="s">
         <v>107</v>
       </c>
@@ -2024,7 +1991,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="36" t="s">
         <v>26</v>
       </c>
@@ -2090,7 +2057,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="16" t="s">
         <v>98</v>
       </c>
@@ -2156,7 +2123,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
@@ -2222,7 +2189,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="16" t="s">
         <v>57</v>
       </c>
@@ -2252,7 +2219,7 @@
       <c r="V12" s="15"/>
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="16" t="s">
         <v>98</v>
       </c>
@@ -2318,7 +2285,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="16" t="s">
         <v>50</v>
       </c>
@@ -2384,7 +2351,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="17" t="s">
         <v>27</v>
       </c>
@@ -2450,7 +2417,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="17" t="s">
         <v>124</v>
       </c>
@@ -2480,7 +2447,7 @@
       <c r="V16" s="15"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="34" t="s">
         <v>56</v>
       </c>
@@ -2546,7 +2513,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="34" t="s">
         <v>117</v>
       </c>
@@ -2612,7 +2579,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="17" t="s">
         <v>98</v>
       </c>
@@ -2678,7 +2645,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="17" t="s">
         <v>30</v>
       </c>
@@ -2744,7 +2711,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="52" t="s">
         <v>78</v>
       </c>
@@ -2810,7 +2777,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="48" t="s">
         <v>55</v>
       </c>
@@ -3927,7 +3894,7 @@
     </row>
     <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="58"/>
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="62" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="5"/>
@@ -3993,7 +3960,7 @@
     </row>
     <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="58"/>
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="62" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="5"/>
@@ -4683,7 +4650,7 @@
     </row>
     <row r="52" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="58"/>
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="62" t="s">
         <v>36</v>
       </c>
       <c r="C52" s="5"/>
@@ -4940,7 +4907,7 @@
       </c>
     </row>
     <row r="57" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="62" t="s">
+      <c r="A57" s="63" t="s">
         <v>24</v>
       </c>
       <c r="B57" s="44" t="s">
@@ -5008,7 +4975,7 @@
       </c>
     </row>
     <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="62"/>
+      <c r="A58" s="63"/>
       <c r="B58" s="22" t="s">
         <v>37</v>
       </c>
@@ -5074,7 +5041,7 @@
       </c>
     </row>
     <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="62"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="16" t="s">
         <v>38</v>
       </c>
@@ -5140,7 +5107,7 @@
       </c>
     </row>
     <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="62"/>
+      <c r="A60" s="63"/>
       <c r="B60" s="16" t="s">
         <v>67</v>
       </c>
@@ -5206,7 +5173,7 @@
       </c>
     </row>
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="62"/>
+      <c r="A61" s="63"/>
       <c r="B61" s="16" t="s">
         <v>77</v>
       </c>
@@ -5272,7 +5239,7 @@
       </c>
     </row>
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="62"/>
+      <c r="A62" s="63"/>
       <c r="B62" s="16" t="s">
         <v>106</v>
       </c>
@@ -5338,7 +5305,7 @@
       </c>
     </row>
     <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="62"/>
+      <c r="A63" s="63"/>
       <c r="B63" s="16" t="s">
         <v>125</v>
       </c>
@@ -5404,15 +5371,15 @@
       </c>
     </row>
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
-      <c r="B64" s="35" t="s">
-        <v>62</v>
+      <c r="A64" s="63"/>
+      <c r="B64" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -5421,58 +5388,58 @@
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="13">
-        <f>$I64+Sheet2!B$1/24</f>
+        <f>$I65+Sheet2!B$1/24</f>
         <v>0.41666666666666669</v>
       </c>
       <c r="L64" s="13">
-        <f>$I64+Sheet2!B$2/24</f>
+        <f>$I65+Sheet2!B$2/24</f>
         <v>0.375</v>
       </c>
       <c r="M64" s="13">
-        <f>$I64+Sheet2!B$3/24</f>
+        <f>$I65+Sheet2!B$3/24</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="N64" s="13">
-        <f>$I64+Sheet2!B$4/24</f>
+        <f>$I65+Sheet2!B$4/24</f>
         <v>0.125</v>
       </c>
       <c r="O64" s="13">
-        <f>$I64+Sheet2!B$5/24</f>
+        <f>$I65+Sheet2!B$5/24</f>
         <v>0.125</v>
       </c>
       <c r="P64" s="13">
-        <f>$I64+Sheet2!B$6/24</f>
+        <f>$I65+Sheet2!B$6/24</f>
         <v>0.125</v>
       </c>
       <c r="Q64" s="13">
-        <f>$I64+Sheet2!B$7/24</f>
+        <f>$I65+Sheet2!B$7/24</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="R64" s="13">
-        <f>$I64+Sheet2!B$8/24</f>
+        <f>$I65+Sheet2!B$8/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="S64" s="13">
-        <f>$I64+Sheet2!B$9/24</f>
+        <f>$I65+Sheet2!B$9/24</f>
         <v>-0.16666666666666666</v>
       </c>
       <c r="T64" s="13">
-        <f>$I64+Sheet2!B$10/24</f>
+        <f>$I65+Sheet2!B$10/24</f>
         <v>-0.20833333333333334</v>
       </c>
       <c r="U64" s="13">
-        <f>$I64+Sheet2!B$11/24</f>
+        <f>$I65+Sheet2!B$11/24</f>
         <v>-0.25</v>
       </c>
       <c r="V64" s="15">
-        <f>$I64+Sheet2!B$12/24</f>
+        <f>$I65+Sheet2!B$12/24</f>
         <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="62"/>
+      <c r="A65" s="63"/>
       <c r="B65" s="35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -5487,58 +5454,58 @@
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="13">
-        <f>$I65+Sheet2!B$1/24</f>
+        <f>$I66+Sheet2!B$1/24</f>
         <v>0.41666666666666669</v>
       </c>
       <c r="L65" s="13">
-        <f>$I65+Sheet2!B$2/24</f>
+        <f>$I66+Sheet2!B$2/24</f>
         <v>0.375</v>
       </c>
       <c r="M65" s="13">
-        <f>$I65+Sheet2!B$3/24</f>
+        <f>$I66+Sheet2!B$3/24</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="N65" s="13">
-        <f>$I65+Sheet2!B$4/24</f>
+        <f>$I66+Sheet2!B$4/24</f>
         <v>0.125</v>
       </c>
       <c r="O65" s="13">
-        <f>$I65+Sheet2!B$5/24</f>
+        <f>$I66+Sheet2!B$5/24</f>
         <v>0.125</v>
       </c>
       <c r="P65" s="13">
-        <f>$I65+Sheet2!B$6/24</f>
+        <f>$I66+Sheet2!B$6/24</f>
         <v>0.125</v>
       </c>
       <c r="Q65" s="13">
-        <f>$I65+Sheet2!B$7/24</f>
+        <f>$I66+Sheet2!B$7/24</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="R65" s="13">
-        <f>$I65+Sheet2!B$8/24</f>
+        <f>$I66+Sheet2!B$8/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="S65" s="13">
-        <f>$I65+Sheet2!B$9/24</f>
+        <f>$I66+Sheet2!B$9/24</f>
         <v>-0.16666666666666666</v>
       </c>
       <c r="T65" s="13">
-        <f>$I65+Sheet2!B$10/24</f>
+        <f>$I66+Sheet2!B$10/24</f>
         <v>-0.20833333333333334</v>
       </c>
       <c r="U65" s="13">
-        <f>$I65+Sheet2!B$11/24</f>
+        <f>$I66+Sheet2!B$11/24</f>
         <v>-0.25</v>
       </c>
       <c r="V65" s="15">
-        <f>$I65+Sheet2!B$12/24</f>
+        <f>$I66+Sheet2!B$12/24</f>
         <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="62"/>
+      <c r="A66" s="63"/>
       <c r="B66" s="35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -5553,56 +5520,56 @@
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="13">
-        <f>$I66+Sheet2!B$1/24</f>
+        <f>$I64+Sheet2!B$1/24</f>
         <v>0.41666666666666669</v>
       </c>
       <c r="L66" s="13">
-        <f>$I66+Sheet2!B$2/24</f>
+        <f>$I64+Sheet2!B$2/24</f>
         <v>0.375</v>
       </c>
       <c r="M66" s="13">
-        <f>$I66+Sheet2!B$3/24</f>
+        <f>$I64+Sheet2!B$3/24</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="N66" s="13">
-        <f>$I66+Sheet2!B$4/24</f>
+        <f>$I64+Sheet2!B$4/24</f>
         <v>0.125</v>
       </c>
       <c r="O66" s="13">
-        <f>$I66+Sheet2!B$5/24</f>
+        <f>$I64+Sheet2!B$5/24</f>
         <v>0.125</v>
       </c>
       <c r="P66" s="13">
-        <f>$I66+Sheet2!B$6/24</f>
+        <f>$I64+Sheet2!B$6/24</f>
         <v>0.125</v>
       </c>
       <c r="Q66" s="13">
-        <f>$I66+Sheet2!B$7/24</f>
+        <f>$I64+Sheet2!B$7/24</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="R66" s="13">
-        <f>$I66+Sheet2!B$8/24</f>
+        <f>$I64+Sheet2!B$8/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="S66" s="13">
-        <f>$I66+Sheet2!B$9/24</f>
+        <f>$I64+Sheet2!B$9/24</f>
         <v>-0.16666666666666666</v>
       </c>
       <c r="T66" s="13">
-        <f>$I66+Sheet2!B$10/24</f>
+        <f>$I64+Sheet2!B$10/24</f>
         <v>-0.20833333333333334</v>
       </c>
       <c r="U66" s="13">
-        <f>$I66+Sheet2!B$11/24</f>
+        <f>$I64+Sheet2!B$11/24</f>
         <v>-0.25</v>
       </c>
       <c r="V66" s="15">
-        <f>$I66+Sheet2!B$12/24</f>
+        <f>$I64+Sheet2!B$12/24</f>
         <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="62"/>
+      <c r="A67" s="63"/>
       <c r="B67" s="35" t="s">
         <v>109</v>
       </c>
@@ -5668,7 +5635,7 @@
       </c>
     </row>
     <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="62"/>
+      <c r="A68" s="63"/>
       <c r="B68" s="35" t="s">
         <v>63</v>
       </c>
@@ -5734,7 +5701,7 @@
       </c>
     </row>
     <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="62"/>
+      <c r="A69" s="63"/>
       <c r="B69" s="16" t="s">
         <v>98</v>
       </c>
@@ -5800,7 +5767,7 @@
       </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="62"/>
+      <c r="A70" s="63"/>
       <c r="B70" s="16" t="s">
         <v>39</v>
       </c>
@@ -5866,7 +5833,7 @@
       </c>
     </row>
     <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="62"/>
+      <c r="A71" s="63"/>
       <c r="B71" s="16" t="s">
         <v>110</v>
       </c>
@@ -5896,7 +5863,7 @@
       <c r="V71" s="15"/>
     </row>
     <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="62"/>
+      <c r="A72" s="63"/>
       <c r="B72" s="16" t="s">
         <v>47</v>
       </c>
@@ -5962,7 +5929,7 @@
       </c>
     </row>
     <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="62"/>
+      <c r="A73" s="63"/>
       <c r="B73" s="35" t="s">
         <v>49</v>
       </c>
@@ -6028,7 +5995,7 @@
       </c>
     </row>
     <row r="74" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="62"/>
+      <c r="A74" s="63"/>
       <c r="B74" s="35" t="s">
         <v>114</v>
       </c>
@@ -6094,7 +6061,7 @@
       </c>
     </row>
     <row r="75" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="62"/>
+      <c r="A75" s="63"/>
       <c r="B75" s="35" t="s">
         <v>68</v>
       </c>
@@ -6160,7 +6127,7 @@
       </c>
     </row>
     <row r="76" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="62"/>
+      <c r="A76" s="63"/>
       <c r="B76" s="16" t="s">
         <v>98</v>
       </c>
@@ -6226,7 +6193,7 @@
       </c>
     </row>
     <row r="77" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="62"/>
+      <c r="A77" s="63"/>
       <c r="B77" s="16" t="s">
         <v>42</v>
       </c>
@@ -6292,7 +6259,7 @@
       </c>
     </row>
     <row r="78" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="62"/>
+      <c r="A78" s="63"/>
       <c r="B78" s="16" t="s">
         <v>41</v>
       </c>
@@ -6358,7 +6325,7 @@
       </c>
     </row>
     <row r="79" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="62"/>
+      <c r="A79" s="63"/>
       <c r="B79" s="16" t="s">
         <v>121</v>
       </c>
@@ -6388,7 +6355,7 @@
       <c r="V79" s="15"/>
     </row>
     <row r="80" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="62"/>
+      <c r="A80" s="63"/>
       <c r="B80" s="16" t="s">
         <v>98</v>
       </c>
@@ -6454,7 +6421,7 @@
       </c>
     </row>
     <row r="81" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="62"/>
+      <c r="A81" s="63"/>
       <c r="B81" s="16" t="s">
         <v>43</v>
       </c>
@@ -6520,7 +6487,7 @@
       </c>
     </row>
     <row r="82" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="63"/>
+      <c r="A82" s="64"/>
       <c r="B82" s="37" t="s">
         <v>44</v>
       </c>
@@ -6850,7 +6817,7 @@
       </c>
     </row>
     <row r="87" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="62" t="s">
+      <c r="A87" s="63" t="s">
         <v>16</v>
       </c>
       <c r="B87" s="17" t="s">
@@ -6918,7 +6885,7 @@
       </c>
     </row>
     <row r="88" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="62"/>
+      <c r="A88" s="63"/>
       <c r="B88" s="17" t="s">
         <v>40</v>
       </c>
@@ -6984,7 +6951,7 @@
       </c>
     </row>
     <row r="89" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="62"/>
+      <c r="A89" s="63"/>
       <c r="B89" s="34" t="s">
         <v>79</v>
       </c>
@@ -7050,90 +7017,90 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A90" s="62"/>
+      <c r="A90" s="63"/>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A91" s="62"/>
+      <c r="A91" s="63"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A92" s="62"/>
+      <c r="A92" s="63"/>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A93" s="62"/>
+      <c r="A93" s="63"/>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A94" s="62"/>
+      <c r="A94" s="63"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A95" s="62"/>
+      <c r="A95" s="63"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A96" s="62"/>
+      <c r="A96" s="63"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="62"/>
+      <c r="A97" s="63"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="62"/>
+      <c r="A98" s="63"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="62"/>
+      <c r="A99" s="63"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="62"/>
+      <c r="A100" s="63"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="62"/>
+      <c r="A101" s="63"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="62"/>
+      <c r="A102" s="63"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="62"/>
+      <c r="A103" s="63"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="62"/>
+      <c r="A104" s="63"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="62"/>
+      <c r="A105" s="63"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="62"/>
+      <c r="A106" s="63"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="62"/>
+      <c r="A107" s="63"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="62"/>
+      <c r="A108" s="63"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="62"/>
+      <c r="A109" s="63"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="62"/>
+      <c r="A110" s="63"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="62"/>
+      <c r="A111" s="63"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="62"/>
+      <c r="A112" s="63"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="62"/>
+      <c r="A113" s="63"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="62"/>
+      <c r="A114" s="63"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="62"/>
+      <c r="A115" s="63"/>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -7142,119 +7109,134 @@
     <mergeCell ref="A87:A115"/>
     <mergeCell ref="A5:A22"/>
   </mergeCells>
-  <conditionalFormatting sqref="K5:L10 K10:V16 K18:V23 K25:V31 K34:V89">
-    <cfRule type="expression" dxfId="22" priority="48">
+  <conditionalFormatting sqref="K5:L10 K10:V16 K18:V23 K25:V31 K34:V63 K67:V89">
+    <cfRule type="expression" dxfId="25" priority="49">
       <formula>K$1=$H5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:V16 K18:V23 K25:V31 K34:V89">
-    <cfRule type="expression" dxfId="21" priority="50">
+  <conditionalFormatting sqref="K5:V16 K18:V23 K25:V31 K34:V63 K67:V89">
+    <cfRule type="expression" dxfId="24" priority="51">
       <formula>K$1=$I5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:V62 B18:V23 B87:V89 B25:V31 B5:V16 B75:V83 B64:V73 B85:H85 J85:V85 B34:V57">
-    <cfRule type="expression" dxfId="20" priority="54">
+  <conditionalFormatting sqref="B60:V62 B18:V23 B25:V31 B5:V16 B85:H85 B34:V57 B64:E64 G64:I64 J64:V89 B86:I89 B65:I84">
+    <cfRule type="expression" dxfId="23" priority="55">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:V59">
-    <cfRule type="expression" dxfId="19" priority="31">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B74:V74">
-    <cfRule type="expression" dxfId="18" priority="28">
+    <cfRule type="expression" dxfId="22" priority="32">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L2 K4:L4">
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:V2 K4:V4">
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="20" priority="25">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:V2 B4:V4">
-    <cfRule type="expression" dxfId="15" priority="25">
+    <cfRule type="expression" dxfId="19" priority="26">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:V33">
-    <cfRule type="expression" dxfId="14" priority="20">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>K$1=$H32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:V33">
-    <cfRule type="expression" dxfId="13" priority="21">
+    <cfRule type="expression" dxfId="17" priority="22">
       <formula>K$1=$I32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:V33">
-    <cfRule type="expression" dxfId="12" priority="22">
+    <cfRule type="expression" dxfId="16" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:V17">
-    <cfRule type="expression" dxfId="11" priority="17">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>K$1=$H17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:V17">
-    <cfRule type="expression" dxfId="10" priority="18">
+    <cfRule type="expression" dxfId="14" priority="19">
       <formula>K$1=$I17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:V17">
-    <cfRule type="expression" dxfId="9" priority="19">
+    <cfRule type="expression" dxfId="13" priority="20">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:V24">
-    <cfRule type="expression" dxfId="8" priority="14">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>K$1=$H24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:V24">
-    <cfRule type="expression" dxfId="7" priority="15">
+    <cfRule type="expression" dxfId="11" priority="16">
       <formula>K$1=$I24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:V24">
-    <cfRule type="expression" dxfId="6" priority="16">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84:V84 B86:V86">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="10" priority="17">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>K$1=$H3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:V3">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>K$1=$I3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:V3">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:V63">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64:V65">
+    <cfRule type="expression" dxfId="3" priority="57">
+      <formula>K$1=$H65</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64:V65">
+    <cfRule type="expression" dxfId="2" priority="59">
+      <formula>K$1=$I65</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66:V66">
+    <cfRule type="expression" dxfId="1" priority="61">
+      <formula>K$1=$H64</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66:V66">
+    <cfRule type="expression" dxfId="0" priority="63">
+      <formula>K$1=$I64</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
